--- a/public/DownloadExcels/Materias_Primas.xlsx
+++ b/public/DownloadExcels/Materias_Primas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Mario\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Mario\Desktop\Ecopcion Definitivo\ecopFront\public\DownloadExcels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B008188-8779-4E30-95BC-7080E8EC477C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF87A00-2ACC-45ED-9ED0-EDAE820AD418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -267,17 +267,6 @@
 Ej: No</t>
   </si>
   <si>
-    <t xml:space="preserve">Si respondiste que "SI" viene empacada,  elige el tipo de empaaue de la lista desplegable. Ej: Biodegradable
- Si se respondiste que "No"  viene empacada, dejar en blanco
-</t>
-  </si>
-  <si>
-    <t>Escrube o lee el código de barras. 
-Si no tiene, dejar en blanco
-Ej: 7702552000097
-Ej: 1245679898954</t>
-  </si>
-  <si>
     <t>¿En qué unidad de medida registras tu inventario?
  Ej: Libra
 Ej: Unidad</t>
@@ -388,6 +377,17 @@
 15. En las columnas D, F, H, I, K y L, SELECCIONA LA RESPUESTA DE LA LISTA DESPLEGABLE.
 16. En las columnas C, E, y M, ESCRIBE SOLO EL NÚMERO. </t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Si respondiste que "SI" viene empacada,  elige el tipo de empaque de la lista desplegable. Ej: Biodegradable
+ Si se respondiste que "No"  viene empacada, dejar en blanco
+</t>
+  </si>
+  <si>
+    <t>Escribe o lee el código de barras. 
+Si no tiene, dejar en blanco
+Ej: 7702552000097
+Ej: 1245679898954</t>
   </si>
 </sst>
 </file>
@@ -775,6 +775,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -801,12 +807,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:Z899"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1096,55 +1096,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="44"/>
     </row>
     <row r="2" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="45"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="47"/>
     </row>
     <row r="3" spans="1:26" ht="268.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="48"/>
+      <c r="A3" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="50"/>
     </row>
     <row r="4" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30"/>
@@ -1206,16 +1206,16 @@
         <v>70</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D5" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" s="38" t="s">
         <v>80</v>
-      </c>
-      <c r="E5" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="F5" s="38" t="s">
-        <v>82</v>
       </c>
       <c r="G5" s="27" t="s">
         <v>71</v>
@@ -1224,10 +1224,10 @@
         <v>77</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>74</v>
@@ -1259,9 +1259,9 @@
       <c r="B6" s="7"/>
       <c r="C6" s="8"/>
       <c r="D6" s="7"/>
-      <c r="E6" s="49"/>
+      <c r="E6" s="40"/>
       <c r="F6" s="39"/>
-      <c r="G6" s="50"/>
+      <c r="G6" s="41"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="8"/>
@@ -1276,9 +1276,9 @@
       <c r="B7" s="7"/>
       <c r="C7" s="8"/>
       <c r="D7" s="7"/>
-      <c r="E7" s="49"/>
+      <c r="E7" s="40"/>
       <c r="F7" s="39"/>
-      <c r="G7" s="50"/>
+      <c r="G7" s="41"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="8"/>
@@ -1293,9 +1293,9 @@
       <c r="B8" s="7"/>
       <c r="C8" s="8"/>
       <c r="D8" s="7"/>
-      <c r="E8" s="49"/>
+      <c r="E8" s="40"/>
       <c r="F8" s="39"/>
-      <c r="G8" s="50"/>
+      <c r="G8" s="41"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="8"/>
@@ -1310,9 +1310,9 @@
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
       <c r="D9" s="7"/>
-      <c r="E9" s="49"/>
+      <c r="E9" s="40"/>
       <c r="F9" s="39"/>
-      <c r="G9" s="50"/>
+      <c r="G9" s="41"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="8"/>
@@ -1327,9 +1327,9 @@
       <c r="B10" s="7"/>
       <c r="C10" s="8"/>
       <c r="D10" s="7"/>
-      <c r="E10" s="49"/>
+      <c r="E10" s="40"/>
       <c r="F10" s="39"/>
-      <c r="G10" s="50"/>
+      <c r="G10" s="41"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="8"/>
@@ -1344,9 +1344,9 @@
       <c r="B11" s="7"/>
       <c r="C11" s="8"/>
       <c r="D11" s="7"/>
-      <c r="E11" s="49"/>
+      <c r="E11" s="40"/>
       <c r="F11" s="39"/>
-      <c r="G11" s="50"/>
+      <c r="G11" s="41"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="8"/>
@@ -1361,9 +1361,9 @@
       <c r="B12" s="7"/>
       <c r="C12" s="8"/>
       <c r="D12" s="7"/>
-      <c r="E12" s="49"/>
+      <c r="E12" s="40"/>
       <c r="F12" s="39"/>
-      <c r="G12" s="50"/>
+      <c r="G12" s="41"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="8"/>
@@ -1378,9 +1378,9 @@
       <c r="B13" s="7"/>
       <c r="C13" s="8"/>
       <c r="D13" s="7"/>
-      <c r="E13" s="49"/>
+      <c r="E13" s="40"/>
       <c r="F13" s="39"/>
-      <c r="G13" s="50"/>
+      <c r="G13" s="41"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="8"/>
@@ -1395,9 +1395,9 @@
       <c r="B14" s="7"/>
       <c r="C14" s="8"/>
       <c r="D14" s="7"/>
-      <c r="E14" s="49"/>
+      <c r="E14" s="40"/>
       <c r="F14" s="39"/>
-      <c r="G14" s="50"/>
+      <c r="G14" s="41"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
       <c r="J14" s="8"/>
@@ -1412,9 +1412,9 @@
       <c r="B15" s="7"/>
       <c r="C15" s="8"/>
       <c r="D15" s="7"/>
-      <c r="E15" s="49"/>
+      <c r="E15" s="40"/>
       <c r="F15" s="39"/>
-      <c r="G15" s="50"/>
+      <c r="G15" s="41"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="8"/>
@@ -1429,9 +1429,9 @@
       <c r="B16" s="7"/>
       <c r="C16" s="8"/>
       <c r="D16" s="7"/>
-      <c r="E16" s="49"/>
+      <c r="E16" s="40"/>
       <c r="F16" s="39"/>
-      <c r="G16" s="50"/>
+      <c r="G16" s="41"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
       <c r="J16" s="8"/>
@@ -1446,9 +1446,9 @@
       <c r="B17" s="7"/>
       <c r="C17" s="8"/>
       <c r="D17" s="7"/>
-      <c r="E17" s="49"/>
+      <c r="E17" s="40"/>
       <c r="F17" s="39"/>
-      <c r="G17" s="50"/>
+      <c r="G17" s="41"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="8"/>
@@ -1463,9 +1463,9 @@
       <c r="B18" s="7"/>
       <c r="C18" s="8"/>
       <c r="D18" s="7"/>
-      <c r="E18" s="49"/>
+      <c r="E18" s="40"/>
       <c r="F18" s="39"/>
-      <c r="G18" s="50"/>
+      <c r="G18" s="41"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" s="8"/>
@@ -1480,9 +1480,9 @@
       <c r="B19" s="7"/>
       <c r="C19" s="8"/>
       <c r="D19" s="7"/>
-      <c r="E19" s="49"/>
+      <c r="E19" s="40"/>
       <c r="F19" s="39"/>
-      <c r="G19" s="50"/>
+      <c r="G19" s="41"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="8"/>
@@ -1497,9 +1497,9 @@
       <c r="B20" s="7"/>
       <c r="C20" s="8"/>
       <c r="D20" s="7"/>
-      <c r="E20" s="49"/>
+      <c r="E20" s="40"/>
       <c r="F20" s="39"/>
-      <c r="G20" s="50"/>
+      <c r="G20" s="41"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="8"/>
@@ -1514,9 +1514,9 @@
       <c r="B21" s="7"/>
       <c r="C21" s="8"/>
       <c r="D21" s="7"/>
-      <c r="E21" s="49"/>
+      <c r="E21" s="40"/>
       <c r="F21" s="39"/>
-      <c r="G21" s="50"/>
+      <c r="G21" s="41"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="8"/>
@@ -1531,9 +1531,9 @@
       <c r="B22" s="7"/>
       <c r="C22" s="8"/>
       <c r="D22" s="7"/>
-      <c r="E22" s="49"/>
+      <c r="E22" s="40"/>
       <c r="F22" s="39"/>
-      <c r="G22" s="50"/>
+      <c r="G22" s="41"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
       <c r="J22" s="8"/>
@@ -1548,9 +1548,9 @@
       <c r="B23" s="7"/>
       <c r="C23" s="8"/>
       <c r="D23" s="7"/>
-      <c r="E23" s="49"/>
+      <c r="E23" s="40"/>
       <c r="F23" s="39"/>
-      <c r="G23" s="50"/>
+      <c r="G23" s="41"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="8"/>
@@ -1565,9 +1565,9 @@
       <c r="B24" s="7"/>
       <c r="C24" s="8"/>
       <c r="D24" s="7"/>
-      <c r="E24" s="49"/>
+      <c r="E24" s="40"/>
       <c r="F24" s="39"/>
-      <c r="G24" s="50"/>
+      <c r="G24" s="41"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="8"/>
@@ -1582,9 +1582,9 @@
       <c r="B25" s="7"/>
       <c r="C25" s="8"/>
       <c r="D25" s="7"/>
-      <c r="E25" s="49"/>
+      <c r="E25" s="40"/>
       <c r="F25" s="39"/>
-      <c r="G25" s="50"/>
+      <c r="G25" s="41"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
       <c r="J25" s="8"/>
@@ -1599,9 +1599,9 @@
       <c r="B26" s="7"/>
       <c r="C26" s="8"/>
       <c r="D26" s="7"/>
-      <c r="E26" s="49"/>
+      <c r="E26" s="40"/>
       <c r="F26" s="39"/>
-      <c r="G26" s="50"/>
+      <c r="G26" s="41"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
       <c r="J26" s="8"/>
@@ -1616,9 +1616,9 @@
       <c r="B27" s="7"/>
       <c r="C27" s="8"/>
       <c r="D27" s="7"/>
-      <c r="E27" s="49"/>
+      <c r="E27" s="40"/>
       <c r="F27" s="39"/>
-      <c r="G27" s="50"/>
+      <c r="G27" s="41"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
       <c r="J27" s="8"/>
@@ -1633,9 +1633,9 @@
       <c r="B28" s="7"/>
       <c r="C28" s="8"/>
       <c r="D28" s="7"/>
-      <c r="E28" s="49"/>
+      <c r="E28" s="40"/>
       <c r="F28" s="39"/>
-      <c r="G28" s="50"/>
+      <c r="G28" s="41"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
       <c r="J28" s="8"/>
@@ -1650,9 +1650,9 @@
       <c r="B29" s="7"/>
       <c r="C29" s="8"/>
       <c r="D29" s="7"/>
-      <c r="E29" s="49"/>
+      <c r="E29" s="40"/>
       <c r="F29" s="39"/>
-      <c r="G29" s="50"/>
+      <c r="G29" s="41"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
       <c r="J29" s="8"/>
@@ -1667,9 +1667,9 @@
       <c r="B30" s="7"/>
       <c r="C30" s="8"/>
       <c r="D30" s="7"/>
-      <c r="E30" s="49"/>
+      <c r="E30" s="40"/>
       <c r="F30" s="39"/>
-      <c r="G30" s="50"/>
+      <c r="G30" s="41"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
       <c r="J30" s="8"/>
@@ -1684,9 +1684,9 @@
       <c r="B31" s="7"/>
       <c r="C31" s="8"/>
       <c r="D31" s="7"/>
-      <c r="E31" s="49"/>
+      <c r="E31" s="40"/>
       <c r="F31" s="39"/>
-      <c r="G31" s="50"/>
+      <c r="G31" s="41"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
       <c r="J31" s="8"/>
@@ -1701,9 +1701,9 @@
       <c r="B32" s="7"/>
       <c r="C32" s="8"/>
       <c r="D32" s="7"/>
-      <c r="E32" s="49"/>
+      <c r="E32" s="40"/>
       <c r="F32" s="39"/>
-      <c r="G32" s="50"/>
+      <c r="G32" s="41"/>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
       <c r="J32" s="8"/>
@@ -1718,9 +1718,9 @@
       <c r="B33" s="7"/>
       <c r="C33" s="8"/>
       <c r="D33" s="7"/>
-      <c r="E33" s="49"/>
+      <c r="E33" s="40"/>
       <c r="F33" s="39"/>
-      <c r="G33" s="50"/>
+      <c r="G33" s="41"/>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
       <c r="J33" s="8"/>
@@ -1735,9 +1735,9 @@
       <c r="B34" s="7"/>
       <c r="C34" s="8"/>
       <c r="D34" s="7"/>
-      <c r="E34" s="49"/>
+      <c r="E34" s="40"/>
       <c r="F34" s="39"/>
-      <c r="G34" s="50"/>
+      <c r="G34" s="41"/>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
       <c r="J34" s="8"/>
@@ -1752,9 +1752,9 @@
       <c r="B35" s="7"/>
       <c r="C35" s="8"/>
       <c r="D35" s="7"/>
-      <c r="E35" s="49"/>
+      <c r="E35" s="40"/>
       <c r="F35" s="39"/>
-      <c r="G35" s="50"/>
+      <c r="G35" s="41"/>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
       <c r="J35" s="8"/>
@@ -1769,9 +1769,9 @@
       <c r="B36" s="7"/>
       <c r="C36" s="8"/>
       <c r="D36" s="7"/>
-      <c r="E36" s="49"/>
+      <c r="E36" s="40"/>
       <c r="F36" s="39"/>
-      <c r="G36" s="50"/>
+      <c r="G36" s="41"/>
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
       <c r="J36" s="8"/>
@@ -1786,9 +1786,9 @@
       <c r="B37" s="7"/>
       <c r="C37" s="8"/>
       <c r="D37" s="7"/>
-      <c r="E37" s="49"/>
+      <c r="E37" s="40"/>
       <c r="F37" s="39"/>
-      <c r="G37" s="50"/>
+      <c r="G37" s="41"/>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
       <c r="J37" s="8"/>
@@ -1803,9 +1803,9 @@
       <c r="B38" s="7"/>
       <c r="C38" s="8"/>
       <c r="D38" s="7"/>
-      <c r="E38" s="49"/>
+      <c r="E38" s="40"/>
       <c r="F38" s="39"/>
-      <c r="G38" s="50"/>
+      <c r="G38" s="41"/>
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
       <c r="J38" s="8"/>
@@ -1820,9 +1820,9 @@
       <c r="B39" s="7"/>
       <c r="C39" s="8"/>
       <c r="D39" s="7"/>
-      <c r="E39" s="49"/>
+      <c r="E39" s="40"/>
       <c r="F39" s="39"/>
-      <c r="G39" s="50"/>
+      <c r="G39" s="41"/>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
       <c r="J39" s="8"/>
@@ -1837,9 +1837,9 @@
       <c r="B40" s="7"/>
       <c r="C40" s="8"/>
       <c r="D40" s="7"/>
-      <c r="E40" s="49"/>
+      <c r="E40" s="40"/>
       <c r="F40" s="39"/>
-      <c r="G40" s="50"/>
+      <c r="G40" s="41"/>
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
       <c r="J40" s="8"/>
@@ -1854,9 +1854,9 @@
       <c r="B41" s="7"/>
       <c r="C41" s="8"/>
       <c r="D41" s="7"/>
-      <c r="E41" s="49"/>
+      <c r="E41" s="40"/>
       <c r="F41" s="39"/>
-      <c r="G41" s="50"/>
+      <c r="G41" s="41"/>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
       <c r="J41" s="8"/>
@@ -1871,9 +1871,9 @@
       <c r="B42" s="7"/>
       <c r="C42" s="8"/>
       <c r="D42" s="7"/>
-      <c r="E42" s="49"/>
+      <c r="E42" s="40"/>
       <c r="F42" s="39"/>
-      <c r="G42" s="50"/>
+      <c r="G42" s="41"/>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
       <c r="J42" s="8"/>
@@ -1888,9 +1888,9 @@
       <c r="B43" s="7"/>
       <c r="C43" s="8"/>
       <c r="D43" s="7"/>
-      <c r="E43" s="49"/>
+      <c r="E43" s="40"/>
       <c r="F43" s="39"/>
-      <c r="G43" s="50"/>
+      <c r="G43" s="41"/>
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
       <c r="J43" s="8"/>
@@ -1905,9 +1905,9 @@
       <c r="B44" s="7"/>
       <c r="C44" s="8"/>
       <c r="D44" s="7"/>
-      <c r="E44" s="49"/>
+      <c r="E44" s="40"/>
       <c r="F44" s="39"/>
-      <c r="G44" s="50"/>
+      <c r="G44" s="41"/>
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
       <c r="J44" s="8"/>
@@ -1922,9 +1922,9 @@
       <c r="B45" s="7"/>
       <c r="C45" s="8"/>
       <c r="D45" s="7"/>
-      <c r="E45" s="49"/>
+      <c r="E45" s="40"/>
       <c r="F45" s="39"/>
-      <c r="G45" s="50"/>
+      <c r="G45" s="41"/>
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
       <c r="J45" s="8"/>
@@ -1939,9 +1939,9 @@
       <c r="B46" s="7"/>
       <c r="C46" s="8"/>
       <c r="D46" s="7"/>
-      <c r="E46" s="49"/>
+      <c r="E46" s="40"/>
       <c r="F46" s="39"/>
-      <c r="G46" s="50"/>
+      <c r="G46" s="41"/>
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
       <c r="J46" s="8"/>
@@ -1956,9 +1956,9 @@
       <c r="B47" s="7"/>
       <c r="C47" s="8"/>
       <c r="D47" s="7"/>
-      <c r="E47" s="49"/>
+      <c r="E47" s="40"/>
       <c r="F47" s="39"/>
-      <c r="G47" s="50"/>
+      <c r="G47" s="41"/>
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
       <c r="J47" s="8"/>
@@ -1973,9 +1973,9 @@
       <c r="B48" s="7"/>
       <c r="C48" s="8"/>
       <c r="D48" s="7"/>
-      <c r="E48" s="49"/>
+      <c r="E48" s="40"/>
       <c r="F48" s="39"/>
-      <c r="G48" s="50"/>
+      <c r="G48" s="41"/>
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
       <c r="J48" s="8"/>
@@ -1990,9 +1990,9 @@
       <c r="B49" s="7"/>
       <c r="C49" s="8"/>
       <c r="D49" s="7"/>
-      <c r="E49" s="49"/>
+      <c r="E49" s="40"/>
       <c r="F49" s="39"/>
-      <c r="G49" s="50"/>
+      <c r="G49" s="41"/>
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
       <c r="J49" s="8"/>
@@ -2007,9 +2007,9 @@
       <c r="B50" s="7"/>
       <c r="C50" s="8"/>
       <c r="D50" s="7"/>
-      <c r="E50" s="49"/>
+      <c r="E50" s="40"/>
       <c r="F50" s="39"/>
-      <c r="G50" s="50"/>
+      <c r="G50" s="41"/>
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
       <c r="J50" s="8"/>
@@ -2024,9 +2024,9 @@
       <c r="B51" s="7"/>
       <c r="C51" s="8"/>
       <c r="D51" s="7"/>
-      <c r="E51" s="49"/>
+      <c r="E51" s="40"/>
       <c r="F51" s="39"/>
-      <c r="G51" s="50"/>
+      <c r="G51" s="41"/>
       <c r="H51" s="7"/>
       <c r="I51" s="7"/>
       <c r="J51" s="8"/>
@@ -2041,9 +2041,9 @@
       <c r="B52" s="7"/>
       <c r="C52" s="8"/>
       <c r="D52" s="7"/>
-      <c r="E52" s="49"/>
+      <c r="E52" s="40"/>
       <c r="F52" s="39"/>
-      <c r="G52" s="50"/>
+      <c r="G52" s="41"/>
       <c r="H52" s="7"/>
       <c r="I52" s="7"/>
       <c r="J52" s="8"/>
@@ -2058,9 +2058,9 @@
       <c r="B53" s="7"/>
       <c r="C53" s="8"/>
       <c r="D53" s="7"/>
-      <c r="E53" s="49"/>
+      <c r="E53" s="40"/>
       <c r="F53" s="39"/>
-      <c r="G53" s="50"/>
+      <c r="G53" s="41"/>
       <c r="H53" s="7"/>
       <c r="I53" s="7"/>
       <c r="J53" s="8"/>
@@ -2075,9 +2075,9 @@
       <c r="B54" s="7"/>
       <c r="C54" s="8"/>
       <c r="D54" s="7"/>
-      <c r="E54" s="49"/>
+      <c r="E54" s="40"/>
       <c r="F54" s="39"/>
-      <c r="G54" s="50"/>
+      <c r="G54" s="41"/>
       <c r="H54" s="7"/>
       <c r="I54" s="7"/>
       <c r="J54" s="8"/>
@@ -2092,9 +2092,9 @@
       <c r="B55" s="7"/>
       <c r="C55" s="8"/>
       <c r="D55" s="7"/>
-      <c r="E55" s="49"/>
+      <c r="E55" s="40"/>
       <c r="F55" s="39"/>
-      <c r="G55" s="50"/>
+      <c r="G55" s="41"/>
       <c r="H55" s="7"/>
       <c r="I55" s="7"/>
       <c r="J55" s="8"/>
@@ -2109,9 +2109,9 @@
       <c r="B56" s="7"/>
       <c r="C56" s="8"/>
       <c r="D56" s="7"/>
-      <c r="E56" s="49"/>
+      <c r="E56" s="40"/>
       <c r="F56" s="39"/>
-      <c r="G56" s="50"/>
+      <c r="G56" s="41"/>
       <c r="H56" s="7"/>
       <c r="I56" s="7"/>
       <c r="J56" s="8"/>
@@ -2126,9 +2126,9 @@
       <c r="B57" s="7"/>
       <c r="C57" s="8"/>
       <c r="D57" s="7"/>
-      <c r="E57" s="49"/>
+      <c r="E57" s="40"/>
       <c r="F57" s="39"/>
-      <c r="G57" s="50"/>
+      <c r="G57" s="41"/>
       <c r="H57" s="7"/>
       <c r="I57" s="7"/>
       <c r="J57" s="8"/>
@@ -2143,9 +2143,9 @@
       <c r="B58" s="7"/>
       <c r="C58" s="8"/>
       <c r="D58" s="7"/>
-      <c r="E58" s="49"/>
+      <c r="E58" s="40"/>
       <c r="F58" s="39"/>
-      <c r="G58" s="50"/>
+      <c r="G58" s="41"/>
       <c r="H58" s="7"/>
       <c r="I58" s="7"/>
       <c r="J58" s="8"/>
@@ -2160,9 +2160,9 @@
       <c r="B59" s="7"/>
       <c r="C59" s="8"/>
       <c r="D59" s="7"/>
-      <c r="E59" s="49"/>
+      <c r="E59" s="40"/>
       <c r="F59" s="39"/>
-      <c r="G59" s="50"/>
+      <c r="G59" s="41"/>
       <c r="H59" s="7"/>
       <c r="I59" s="7"/>
       <c r="J59" s="8"/>
@@ -2177,9 +2177,9 @@
       <c r="B60" s="7"/>
       <c r="C60" s="8"/>
       <c r="D60" s="7"/>
-      <c r="E60" s="49"/>
+      <c r="E60" s="40"/>
       <c r="F60" s="39"/>
-      <c r="G60" s="50"/>
+      <c r="G60" s="41"/>
       <c r="H60" s="7"/>
       <c r="I60" s="7"/>
       <c r="J60" s="8"/>
@@ -2194,9 +2194,9 @@
       <c r="B61" s="7"/>
       <c r="C61" s="8"/>
       <c r="D61" s="7"/>
-      <c r="E61" s="49"/>
+      <c r="E61" s="40"/>
       <c r="F61" s="39"/>
-      <c r="G61" s="50"/>
+      <c r="G61" s="41"/>
       <c r="H61" s="7"/>
       <c r="I61" s="7"/>
       <c r="J61" s="8"/>
@@ -2211,9 +2211,9 @@
       <c r="B62" s="7"/>
       <c r="C62" s="8"/>
       <c r="D62" s="7"/>
-      <c r="E62" s="49"/>
+      <c r="E62" s="40"/>
       <c r="F62" s="39"/>
-      <c r="G62" s="50"/>
+      <c r="G62" s="41"/>
       <c r="H62" s="7"/>
       <c r="I62" s="7"/>
       <c r="J62" s="8"/>
@@ -2228,9 +2228,9 @@
       <c r="B63" s="7"/>
       <c r="C63" s="8"/>
       <c r="D63" s="7"/>
-      <c r="E63" s="49"/>
+      <c r="E63" s="40"/>
       <c r="F63" s="39"/>
-      <c r="G63" s="50"/>
+      <c r="G63" s="41"/>
       <c r="H63" s="7"/>
       <c r="I63" s="7"/>
       <c r="J63" s="8"/>
@@ -2245,9 +2245,9 @@
       <c r="B64" s="7"/>
       <c r="C64" s="8"/>
       <c r="D64" s="7"/>
-      <c r="E64" s="49"/>
+      <c r="E64" s="40"/>
       <c r="F64" s="39"/>
-      <c r="G64" s="50"/>
+      <c r="G64" s="41"/>
       <c r="H64" s="7"/>
       <c r="I64" s="7"/>
       <c r="J64" s="8"/>
@@ -2262,9 +2262,9 @@
       <c r="B65" s="7"/>
       <c r="C65" s="8"/>
       <c r="D65" s="7"/>
-      <c r="E65" s="49"/>
+      <c r="E65" s="40"/>
       <c r="F65" s="39"/>
-      <c r="G65" s="50"/>
+      <c r="G65" s="41"/>
       <c r="H65" s="7"/>
       <c r="I65" s="7"/>
       <c r="J65" s="8"/>
@@ -2279,9 +2279,9 @@
       <c r="B66" s="7"/>
       <c r="C66" s="8"/>
       <c r="D66" s="7"/>
-      <c r="E66" s="49"/>
+      <c r="E66" s="40"/>
       <c r="F66" s="39"/>
-      <c r="G66" s="50"/>
+      <c r="G66" s="41"/>
       <c r="H66" s="7"/>
       <c r="I66" s="7"/>
       <c r="J66" s="8"/>
@@ -2296,9 +2296,9 @@
       <c r="B67" s="7"/>
       <c r="C67" s="8"/>
       <c r="D67" s="7"/>
-      <c r="E67" s="49"/>
+      <c r="E67" s="40"/>
       <c r="F67" s="39"/>
-      <c r="G67" s="50"/>
+      <c r="G67" s="41"/>
       <c r="H67" s="7"/>
       <c r="I67" s="7"/>
       <c r="J67" s="8"/>
@@ -2313,9 +2313,9 @@
       <c r="B68" s="7"/>
       <c r="C68" s="8"/>
       <c r="D68" s="7"/>
-      <c r="E68" s="49"/>
+      <c r="E68" s="40"/>
       <c r="F68" s="39"/>
-      <c r="G68" s="50"/>
+      <c r="G68" s="41"/>
       <c r="H68" s="7"/>
       <c r="I68" s="7"/>
       <c r="J68" s="8"/>
@@ -2330,9 +2330,9 @@
       <c r="B69" s="7"/>
       <c r="C69" s="8"/>
       <c r="D69" s="7"/>
-      <c r="E69" s="49"/>
+      <c r="E69" s="40"/>
       <c r="F69" s="39"/>
-      <c r="G69" s="50"/>
+      <c r="G69" s="41"/>
       <c r="H69" s="7"/>
       <c r="I69" s="7"/>
       <c r="J69" s="8"/>
@@ -2347,9 +2347,9 @@
       <c r="B70" s="7"/>
       <c r="C70" s="8"/>
       <c r="D70" s="7"/>
-      <c r="E70" s="49"/>
+      <c r="E70" s="40"/>
       <c r="F70" s="39"/>
-      <c r="G70" s="50"/>
+      <c r="G70" s="41"/>
       <c r="H70" s="7"/>
       <c r="I70" s="7"/>
       <c r="J70" s="8"/>
@@ -2364,9 +2364,9 @@
       <c r="B71" s="7"/>
       <c r="C71" s="8"/>
       <c r="D71" s="7"/>
-      <c r="E71" s="49"/>
+      <c r="E71" s="40"/>
       <c r="F71" s="39"/>
-      <c r="G71" s="50"/>
+      <c r="G71" s="41"/>
       <c r="H71" s="7"/>
       <c r="I71" s="7"/>
       <c r="J71" s="8"/>
@@ -2381,9 +2381,9 @@
       <c r="B72" s="7"/>
       <c r="C72" s="8"/>
       <c r="D72" s="7"/>
-      <c r="E72" s="49"/>
+      <c r="E72" s="40"/>
       <c r="F72" s="39"/>
-      <c r="G72" s="50"/>
+      <c r="G72" s="41"/>
       <c r="H72" s="7"/>
       <c r="I72" s="7"/>
       <c r="J72" s="8"/>
@@ -2398,9 +2398,9 @@
       <c r="B73" s="7"/>
       <c r="C73" s="8"/>
       <c r="D73" s="7"/>
-      <c r="E73" s="49"/>
+      <c r="E73" s="40"/>
       <c r="F73" s="39"/>
-      <c r="G73" s="50"/>
+      <c r="G73" s="41"/>
       <c r="H73" s="7"/>
       <c r="I73" s="7"/>
       <c r="J73" s="8"/>
@@ -2415,9 +2415,9 @@
       <c r="B74" s="7"/>
       <c r="C74" s="8"/>
       <c r="D74" s="7"/>
-      <c r="E74" s="49"/>
+      <c r="E74" s="40"/>
       <c r="F74" s="39"/>
-      <c r="G74" s="50"/>
+      <c r="G74" s="41"/>
       <c r="H74" s="7"/>
       <c r="I74" s="7"/>
       <c r="J74" s="8"/>
@@ -2432,9 +2432,9 @@
       <c r="B75" s="7"/>
       <c r="C75" s="8"/>
       <c r="D75" s="7"/>
-      <c r="E75" s="49"/>
+      <c r="E75" s="40"/>
       <c r="F75" s="39"/>
-      <c r="G75" s="50"/>
+      <c r="G75" s="41"/>
       <c r="H75" s="7"/>
       <c r="I75" s="7"/>
       <c r="J75" s="8"/>
@@ -2449,9 +2449,9 @@
       <c r="B76" s="7"/>
       <c r="C76" s="8"/>
       <c r="D76" s="7"/>
-      <c r="E76" s="49"/>
+      <c r="E76" s="40"/>
       <c r="F76" s="39"/>
-      <c r="G76" s="50"/>
+      <c r="G76" s="41"/>
       <c r="H76" s="7"/>
       <c r="I76" s="7"/>
       <c r="J76" s="8"/>
@@ -2466,9 +2466,9 @@
       <c r="B77" s="7"/>
       <c r="C77" s="8"/>
       <c r="D77" s="7"/>
-      <c r="E77" s="49"/>
+      <c r="E77" s="40"/>
       <c r="F77" s="39"/>
-      <c r="G77" s="50"/>
+      <c r="G77" s="41"/>
       <c r="H77" s="7"/>
       <c r="I77" s="7"/>
       <c r="J77" s="8"/>
@@ -2483,9 +2483,9 @@
       <c r="B78" s="7"/>
       <c r="C78" s="8"/>
       <c r="D78" s="7"/>
-      <c r="E78" s="49"/>
+      <c r="E78" s="40"/>
       <c r="F78" s="39"/>
-      <c r="G78" s="50"/>
+      <c r="G78" s="41"/>
       <c r="H78" s="7"/>
       <c r="I78" s="7"/>
       <c r="J78" s="8"/>
@@ -2500,9 +2500,9 @@
       <c r="B79" s="7"/>
       <c r="C79" s="8"/>
       <c r="D79" s="7"/>
-      <c r="E79" s="49"/>
+      <c r="E79" s="40"/>
       <c r="F79" s="39"/>
-      <c r="G79" s="50"/>
+      <c r="G79" s="41"/>
       <c r="H79" s="7"/>
       <c r="I79" s="7"/>
       <c r="J79" s="8"/>
@@ -2517,9 +2517,9 @@
       <c r="B80" s="7"/>
       <c r="C80" s="8"/>
       <c r="D80" s="7"/>
-      <c r="E80" s="49"/>
+      <c r="E80" s="40"/>
       <c r="F80" s="39"/>
-      <c r="G80" s="50"/>
+      <c r="G80" s="41"/>
       <c r="H80" s="7"/>
       <c r="I80" s="7"/>
       <c r="J80" s="8"/>
@@ -2534,9 +2534,9 @@
       <c r="B81" s="7"/>
       <c r="C81" s="8"/>
       <c r="D81" s="7"/>
-      <c r="E81" s="49"/>
+      <c r="E81" s="40"/>
       <c r="F81" s="39"/>
-      <c r="G81" s="50"/>
+      <c r="G81" s="41"/>
       <c r="H81" s="7"/>
       <c r="I81" s="7"/>
       <c r="J81" s="8"/>
@@ -2551,9 +2551,9 @@
       <c r="B82" s="7"/>
       <c r="C82" s="8"/>
       <c r="D82" s="7"/>
-      <c r="E82" s="49"/>
+      <c r="E82" s="40"/>
       <c r="F82" s="39"/>
-      <c r="G82" s="50"/>
+      <c r="G82" s="41"/>
       <c r="H82" s="7"/>
       <c r="I82" s="7"/>
       <c r="J82" s="8"/>
@@ -2568,9 +2568,9 @@
       <c r="B83" s="7"/>
       <c r="C83" s="8"/>
       <c r="D83" s="7"/>
-      <c r="E83" s="49"/>
+      <c r="E83" s="40"/>
       <c r="F83" s="39"/>
-      <c r="G83" s="50"/>
+      <c r="G83" s="41"/>
       <c r="H83" s="7"/>
       <c r="I83" s="7"/>
       <c r="J83" s="8"/>
@@ -2585,9 +2585,9 @@
       <c r="B84" s="7"/>
       <c r="C84" s="8"/>
       <c r="D84" s="7"/>
-      <c r="E84" s="49"/>
+      <c r="E84" s="40"/>
       <c r="F84" s="39"/>
-      <c r="G84" s="50"/>
+      <c r="G84" s="41"/>
       <c r="H84" s="7"/>
       <c r="I84" s="7"/>
       <c r="J84" s="8"/>
@@ -2602,9 +2602,9 @@
       <c r="B85" s="7"/>
       <c r="C85" s="8"/>
       <c r="D85" s="7"/>
-      <c r="E85" s="49"/>
+      <c r="E85" s="40"/>
       <c r="F85" s="39"/>
-      <c r="G85" s="50"/>
+      <c r="G85" s="41"/>
       <c r="H85" s="7"/>
       <c r="I85" s="7"/>
       <c r="J85" s="8"/>
@@ -2619,9 +2619,9 @@
       <c r="B86" s="7"/>
       <c r="C86" s="8"/>
       <c r="D86" s="7"/>
-      <c r="E86" s="49"/>
+      <c r="E86" s="40"/>
       <c r="F86" s="39"/>
-      <c r="G86" s="50"/>
+      <c r="G86" s="41"/>
       <c r="H86" s="7"/>
       <c r="I86" s="7"/>
       <c r="J86" s="8"/>
@@ -2636,9 +2636,9 @@
       <c r="B87" s="7"/>
       <c r="C87" s="8"/>
       <c r="D87" s="7"/>
-      <c r="E87" s="49"/>
+      <c r="E87" s="40"/>
       <c r="F87" s="39"/>
-      <c r="G87" s="50"/>
+      <c r="G87" s="41"/>
       <c r="H87" s="7"/>
       <c r="I87" s="7"/>
       <c r="J87" s="8"/>
@@ -2653,9 +2653,9 @@
       <c r="B88" s="7"/>
       <c r="C88" s="8"/>
       <c r="D88" s="7"/>
-      <c r="E88" s="49"/>
+      <c r="E88" s="40"/>
       <c r="F88" s="39"/>
-      <c r="G88" s="50"/>
+      <c r="G88" s="41"/>
       <c r="H88" s="7"/>
       <c r="I88" s="7"/>
       <c r="J88" s="8"/>
@@ -2670,9 +2670,9 @@
       <c r="B89" s="7"/>
       <c r="C89" s="8"/>
       <c r="D89" s="7"/>
-      <c r="E89" s="49"/>
+      <c r="E89" s="40"/>
       <c r="F89" s="39"/>
-      <c r="G89" s="50"/>
+      <c r="G89" s="41"/>
       <c r="H89" s="7"/>
       <c r="I89" s="7"/>
       <c r="J89" s="8"/>
@@ -2687,9 +2687,9 @@
       <c r="B90" s="7"/>
       <c r="C90" s="8"/>
       <c r="D90" s="7"/>
-      <c r="E90" s="49"/>
+      <c r="E90" s="40"/>
       <c r="F90" s="39"/>
-      <c r="G90" s="50"/>
+      <c r="G90" s="41"/>
       <c r="H90" s="7"/>
       <c r="I90" s="7"/>
       <c r="J90" s="8"/>
@@ -2704,9 +2704,9 @@
       <c r="B91" s="7"/>
       <c r="C91" s="8"/>
       <c r="D91" s="7"/>
-      <c r="E91" s="49"/>
+      <c r="E91" s="40"/>
       <c r="F91" s="39"/>
-      <c r="G91" s="50"/>
+      <c r="G91" s="41"/>
       <c r="H91" s="7"/>
       <c r="I91" s="7"/>
       <c r="J91" s="8"/>
@@ -2721,9 +2721,9 @@
       <c r="B92" s="7"/>
       <c r="C92" s="8"/>
       <c r="D92" s="7"/>
-      <c r="E92" s="49"/>
+      <c r="E92" s="40"/>
       <c r="F92" s="39"/>
-      <c r="G92" s="50"/>
+      <c r="G92" s="41"/>
       <c r="H92" s="7"/>
       <c r="I92" s="7"/>
       <c r="J92" s="8"/>
@@ -2738,9 +2738,9 @@
       <c r="B93" s="7"/>
       <c r="C93" s="8"/>
       <c r="D93" s="7"/>
-      <c r="E93" s="49"/>
+      <c r="E93" s="40"/>
       <c r="F93" s="39"/>
-      <c r="G93" s="50"/>
+      <c r="G93" s="41"/>
       <c r="H93" s="7"/>
       <c r="I93" s="7"/>
       <c r="J93" s="8"/>
@@ -2755,9 +2755,9 @@
       <c r="B94" s="7"/>
       <c r="C94" s="8"/>
       <c r="D94" s="7"/>
-      <c r="E94" s="49"/>
+      <c r="E94" s="40"/>
       <c r="F94" s="39"/>
-      <c r="G94" s="50"/>
+      <c r="G94" s="41"/>
       <c r="H94" s="7"/>
       <c r="I94" s="7"/>
       <c r="J94" s="8"/>
@@ -2772,9 +2772,9 @@
       <c r="B95" s="7"/>
       <c r="C95" s="8"/>
       <c r="D95" s="7"/>
-      <c r="E95" s="49"/>
+      <c r="E95" s="40"/>
       <c r="F95" s="39"/>
-      <c r="G95" s="50"/>
+      <c r="G95" s="41"/>
       <c r="H95" s="7"/>
       <c r="I95" s="7"/>
       <c r="J95" s="8"/>
@@ -2789,9 +2789,9 @@
       <c r="B96" s="7"/>
       <c r="C96" s="8"/>
       <c r="D96" s="7"/>
-      <c r="E96" s="49"/>
+      <c r="E96" s="40"/>
       <c r="F96" s="39"/>
-      <c r="G96" s="50"/>
+      <c r="G96" s="41"/>
       <c r="H96" s="7"/>
       <c r="I96" s="7"/>
       <c r="J96" s="8"/>
@@ -2806,9 +2806,9 @@
       <c r="B97" s="7"/>
       <c r="C97" s="8"/>
       <c r="D97" s="7"/>
-      <c r="E97" s="49"/>
+      <c r="E97" s="40"/>
       <c r="F97" s="39"/>
-      <c r="G97" s="50"/>
+      <c r="G97" s="41"/>
       <c r="H97" s="7"/>
       <c r="I97" s="7"/>
       <c r="J97" s="8"/>
@@ -2823,9 +2823,9 @@
       <c r="B98" s="7"/>
       <c r="C98" s="8"/>
       <c r="D98" s="7"/>
-      <c r="E98" s="49"/>
+      <c r="E98" s="40"/>
       <c r="F98" s="39"/>
-      <c r="G98" s="50"/>
+      <c r="G98" s="41"/>
       <c r="H98" s="7"/>
       <c r="I98" s="7"/>
       <c r="J98" s="8"/>
@@ -2840,9 +2840,9 @@
       <c r="B99" s="7"/>
       <c r="C99" s="8"/>
       <c r="D99" s="7"/>
-      <c r="E99" s="49"/>
+      <c r="E99" s="40"/>
       <c r="F99" s="39"/>
-      <c r="G99" s="50"/>
+      <c r="G99" s="41"/>
       <c r="H99" s="7"/>
       <c r="I99" s="7"/>
       <c r="J99" s="8"/>
@@ -2857,9 +2857,9 @@
       <c r="B100" s="7"/>
       <c r="C100" s="8"/>
       <c r="D100" s="7"/>
-      <c r="E100" s="49"/>
+      <c r="E100" s="40"/>
       <c r="F100" s="39"/>
-      <c r="G100" s="50"/>
+      <c r="G100" s="41"/>
       <c r="H100" s="7"/>
       <c r="I100" s="7"/>
       <c r="J100" s="8"/>
@@ -2874,9 +2874,9 @@
       <c r="B101" s="7"/>
       <c r="C101" s="8"/>
       <c r="D101" s="7"/>
-      <c r="E101" s="49"/>
+      <c r="E101" s="40"/>
       <c r="F101" s="39"/>
-      <c r="G101" s="50"/>
+      <c r="G101" s="41"/>
       <c r="H101" s="7"/>
       <c r="I101" s="7"/>
       <c r="J101" s="8"/>
@@ -2891,9 +2891,9 @@
       <c r="B102" s="7"/>
       <c r="C102" s="8"/>
       <c r="D102" s="7"/>
-      <c r="E102" s="49"/>
+      <c r="E102" s="40"/>
       <c r="F102" s="39"/>
-      <c r="G102" s="50"/>
+      <c r="G102" s="41"/>
       <c r="H102" s="7"/>
       <c r="I102" s="7"/>
       <c r="J102" s="8"/>
@@ -2908,9 +2908,9 @@
       <c r="B103" s="7"/>
       <c r="C103" s="8"/>
       <c r="D103" s="7"/>
-      <c r="E103" s="49"/>
+      <c r="E103" s="40"/>
       <c r="F103" s="39"/>
-      <c r="G103" s="50"/>
+      <c r="G103" s="41"/>
       <c r="H103" s="7"/>
       <c r="I103" s="7"/>
       <c r="J103" s="8"/>
@@ -2925,9 +2925,9 @@
       <c r="B104" s="7"/>
       <c r="C104" s="8"/>
       <c r="D104" s="7"/>
-      <c r="E104" s="49"/>
+      <c r="E104" s="40"/>
       <c r="F104" s="39"/>
-      <c r="G104" s="50"/>
+      <c r="G104" s="41"/>
       <c r="H104" s="7"/>
       <c r="I104" s="7"/>
       <c r="J104" s="8"/>
@@ -2942,9 +2942,9 @@
       <c r="B105" s="7"/>
       <c r="C105" s="8"/>
       <c r="D105" s="7"/>
-      <c r="E105" s="49"/>
+      <c r="E105" s="40"/>
       <c r="F105" s="39"/>
-      <c r="G105" s="50"/>
+      <c r="G105" s="41"/>
       <c r="H105" s="7"/>
       <c r="I105" s="7"/>
       <c r="J105" s="8"/>
@@ -2959,9 +2959,9 @@
       <c r="B106" s="7"/>
       <c r="C106" s="8"/>
       <c r="D106" s="7"/>
-      <c r="E106" s="49"/>
+      <c r="E106" s="40"/>
       <c r="F106" s="39"/>
-      <c r="G106" s="50"/>
+      <c r="G106" s="41"/>
       <c r="H106" s="7"/>
       <c r="I106" s="7"/>
       <c r="J106" s="8"/>
@@ -2976,9 +2976,9 @@
       <c r="B107" s="7"/>
       <c r="C107" s="8"/>
       <c r="D107" s="7"/>
-      <c r="E107" s="49"/>
+      <c r="E107" s="40"/>
       <c r="F107" s="39"/>
-      <c r="G107" s="50"/>
+      <c r="G107" s="41"/>
       <c r="H107" s="7"/>
       <c r="I107" s="7"/>
       <c r="J107" s="8"/>
@@ -2993,9 +2993,9 @@
       <c r="B108" s="7"/>
       <c r="C108" s="8"/>
       <c r="D108" s="7"/>
-      <c r="E108" s="49"/>
+      <c r="E108" s="40"/>
       <c r="F108" s="39"/>
-      <c r="G108" s="50"/>
+      <c r="G108" s="41"/>
       <c r="H108" s="7"/>
       <c r="I108" s="7"/>
       <c r="J108" s="8"/>
@@ -3010,9 +3010,9 @@
       <c r="B109" s="7"/>
       <c r="C109" s="8"/>
       <c r="D109" s="7"/>
-      <c r="E109" s="49"/>
+      <c r="E109" s="40"/>
       <c r="F109" s="39"/>
-      <c r="G109" s="50"/>
+      <c r="G109" s="41"/>
       <c r="H109" s="7"/>
       <c r="I109" s="7"/>
       <c r="J109" s="8"/>
@@ -3027,9 +3027,9 @@
       <c r="B110" s="7"/>
       <c r="C110" s="8"/>
       <c r="D110" s="7"/>
-      <c r="E110" s="49"/>
+      <c r="E110" s="40"/>
       <c r="F110" s="39"/>
-      <c r="G110" s="50"/>
+      <c r="G110" s="41"/>
       <c r="H110" s="7"/>
       <c r="I110" s="7"/>
       <c r="J110" s="8"/>
@@ -3044,9 +3044,9 @@
       <c r="B111" s="7"/>
       <c r="C111" s="8"/>
       <c r="D111" s="7"/>
-      <c r="E111" s="49"/>
+      <c r="E111" s="40"/>
       <c r="F111" s="39"/>
-      <c r="G111" s="50"/>
+      <c r="G111" s="41"/>
       <c r="H111" s="7"/>
       <c r="I111" s="7"/>
       <c r="J111" s="8"/>
@@ -3061,9 +3061,9 @@
       <c r="B112" s="7"/>
       <c r="C112" s="8"/>
       <c r="D112" s="7"/>
-      <c r="E112" s="49"/>
+      <c r="E112" s="40"/>
       <c r="F112" s="39"/>
-      <c r="G112" s="50"/>
+      <c r="G112" s="41"/>
       <c r="H112" s="7"/>
       <c r="I112" s="7"/>
       <c r="J112" s="8"/>
@@ -3078,9 +3078,9 @@
       <c r="B113" s="7"/>
       <c r="C113" s="8"/>
       <c r="D113" s="7"/>
-      <c r="E113" s="49"/>
+      <c r="E113" s="40"/>
       <c r="F113" s="39"/>
-      <c r="G113" s="50"/>
+      <c r="G113" s="41"/>
       <c r="H113" s="7"/>
       <c r="I113" s="7"/>
       <c r="J113" s="8"/>
@@ -3095,9 +3095,9 @@
       <c r="B114" s="7"/>
       <c r="C114" s="8"/>
       <c r="D114" s="7"/>
-      <c r="E114" s="49"/>
+      <c r="E114" s="40"/>
       <c r="F114" s="39"/>
-      <c r="G114" s="50"/>
+      <c r="G114" s="41"/>
       <c r="H114" s="7"/>
       <c r="I114" s="7"/>
       <c r="J114" s="8"/>
@@ -3112,9 +3112,9 @@
       <c r="B115" s="7"/>
       <c r="C115" s="8"/>
       <c r="D115" s="7"/>
-      <c r="E115" s="49"/>
+      <c r="E115" s="40"/>
       <c r="F115" s="39"/>
-      <c r="G115" s="50"/>
+      <c r="G115" s="41"/>
       <c r="H115" s="7"/>
       <c r="I115" s="7"/>
       <c r="J115" s="8"/>
@@ -3129,9 +3129,9 @@
       <c r="B116" s="7"/>
       <c r="C116" s="8"/>
       <c r="D116" s="7"/>
-      <c r="E116" s="49"/>
+      <c r="E116" s="40"/>
       <c r="F116" s="39"/>
-      <c r="G116" s="50"/>
+      <c r="G116" s="41"/>
       <c r="H116" s="7"/>
       <c r="I116" s="7"/>
       <c r="J116" s="8"/>
@@ -3146,9 +3146,9 @@
       <c r="B117" s="7"/>
       <c r="C117" s="8"/>
       <c r="D117" s="7"/>
-      <c r="E117" s="49"/>
+      <c r="E117" s="40"/>
       <c r="F117" s="39"/>
-      <c r="G117" s="50"/>
+      <c r="G117" s="41"/>
       <c r="H117" s="7"/>
       <c r="I117" s="7"/>
       <c r="J117" s="8"/>
@@ -3163,9 +3163,9 @@
       <c r="B118" s="7"/>
       <c r="C118" s="8"/>
       <c r="D118" s="7"/>
-      <c r="E118" s="49"/>
+      <c r="E118" s="40"/>
       <c r="F118" s="39"/>
-      <c r="G118" s="50"/>
+      <c r="G118" s="41"/>
       <c r="H118" s="7"/>
       <c r="I118" s="7"/>
       <c r="J118" s="8"/>
@@ -3180,9 +3180,9 @@
       <c r="B119" s="7"/>
       <c r="C119" s="8"/>
       <c r="D119" s="7"/>
-      <c r="E119" s="49"/>
+      <c r="E119" s="40"/>
       <c r="F119" s="39"/>
-      <c r="G119" s="50"/>
+      <c r="G119" s="41"/>
       <c r="H119" s="7"/>
       <c r="I119" s="7"/>
       <c r="J119" s="8"/>
@@ -3197,9 +3197,9 @@
       <c r="B120" s="7"/>
       <c r="C120" s="8"/>
       <c r="D120" s="7"/>
-      <c r="E120" s="49"/>
+      <c r="E120" s="40"/>
       <c r="F120" s="39"/>
-      <c r="G120" s="50"/>
+      <c r="G120" s="41"/>
       <c r="H120" s="7"/>
       <c r="I120" s="7"/>
       <c r="J120" s="8"/>
@@ -3214,9 +3214,9 @@
       <c r="B121" s="7"/>
       <c r="C121" s="8"/>
       <c r="D121" s="7"/>
-      <c r="E121" s="49"/>
+      <c r="E121" s="40"/>
       <c r="F121" s="39"/>
-      <c r="G121" s="50"/>
+      <c r="G121" s="41"/>
       <c r="H121" s="7"/>
       <c r="I121" s="7"/>
       <c r="J121" s="8"/>
@@ -3231,9 +3231,9 @@
       <c r="B122" s="7"/>
       <c r="C122" s="8"/>
       <c r="D122" s="7"/>
-      <c r="E122" s="49"/>
+      <c r="E122" s="40"/>
       <c r="F122" s="39"/>
-      <c r="G122" s="50"/>
+      <c r="G122" s="41"/>
       <c r="H122" s="7"/>
       <c r="I122" s="7"/>
       <c r="J122" s="8"/>
@@ -3248,9 +3248,9 @@
       <c r="B123" s="7"/>
       <c r="C123" s="8"/>
       <c r="D123" s="7"/>
-      <c r="E123" s="49"/>
+      <c r="E123" s="40"/>
       <c r="F123" s="39"/>
-      <c r="G123" s="50"/>
+      <c r="G123" s="41"/>
       <c r="H123" s="7"/>
       <c r="I123" s="7"/>
       <c r="J123" s="8"/>
@@ -3265,9 +3265,9 @@
       <c r="B124" s="7"/>
       <c r="C124" s="8"/>
       <c r="D124" s="7"/>
-      <c r="E124" s="49"/>
+      <c r="E124" s="40"/>
       <c r="F124" s="39"/>
-      <c r="G124" s="50"/>
+      <c r="G124" s="41"/>
       <c r="H124" s="7"/>
       <c r="I124" s="7"/>
       <c r="J124" s="8"/>
@@ -3282,9 +3282,9 @@
       <c r="B125" s="7"/>
       <c r="C125" s="8"/>
       <c r="D125" s="7"/>
-      <c r="E125" s="49"/>
+      <c r="E125" s="40"/>
       <c r="F125" s="39"/>
-      <c r="G125" s="50"/>
+      <c r="G125" s="41"/>
       <c r="H125" s="7"/>
       <c r="I125" s="7"/>
       <c r="J125" s="8"/>
@@ -3299,9 +3299,9 @@
       <c r="B126" s="7"/>
       <c r="C126" s="8"/>
       <c r="D126" s="7"/>
-      <c r="E126" s="49"/>
+      <c r="E126" s="40"/>
       <c r="F126" s="39"/>
-      <c r="G126" s="50"/>
+      <c r="G126" s="41"/>
       <c r="H126" s="7"/>
       <c r="I126" s="7"/>
       <c r="J126" s="8"/>
@@ -3316,9 +3316,9 @@
       <c r="B127" s="7"/>
       <c r="C127" s="8"/>
       <c r="D127" s="7"/>
-      <c r="E127" s="49"/>
+      <c r="E127" s="40"/>
       <c r="F127" s="39"/>
-      <c r="G127" s="50"/>
+      <c r="G127" s="41"/>
       <c r="H127" s="7"/>
       <c r="I127" s="7"/>
       <c r="J127" s="8"/>
@@ -3333,9 +3333,9 @@
       <c r="B128" s="7"/>
       <c r="C128" s="8"/>
       <c r="D128" s="7"/>
-      <c r="E128" s="49"/>
+      <c r="E128" s="40"/>
       <c r="F128" s="39"/>
-      <c r="G128" s="50"/>
+      <c r="G128" s="41"/>
       <c r="H128" s="7"/>
       <c r="I128" s="7"/>
       <c r="J128" s="8"/>
@@ -3350,9 +3350,9 @@
       <c r="B129" s="7"/>
       <c r="C129" s="8"/>
       <c r="D129" s="7"/>
-      <c r="E129" s="49"/>
+      <c r="E129" s="40"/>
       <c r="F129" s="39"/>
-      <c r="G129" s="50"/>
+      <c r="G129" s="41"/>
       <c r="H129" s="7"/>
       <c r="I129" s="7"/>
       <c r="J129" s="8"/>
@@ -3367,9 +3367,9 @@
       <c r="B130" s="7"/>
       <c r="C130" s="8"/>
       <c r="D130" s="7"/>
-      <c r="E130" s="49"/>
+      <c r="E130" s="40"/>
       <c r="F130" s="39"/>
-      <c r="G130" s="50"/>
+      <c r="G130" s="41"/>
       <c r="H130" s="7"/>
       <c r="I130" s="7"/>
       <c r="J130" s="8"/>
@@ -3384,9 +3384,9 @@
       <c r="B131" s="7"/>
       <c r="C131" s="8"/>
       <c r="D131" s="7"/>
-      <c r="E131" s="49"/>
+      <c r="E131" s="40"/>
       <c r="F131" s="39"/>
-      <c r="G131" s="50"/>
+      <c r="G131" s="41"/>
       <c r="H131" s="7"/>
       <c r="I131" s="7"/>
       <c r="J131" s="8"/>
@@ -3401,9 +3401,9 @@
       <c r="B132" s="7"/>
       <c r="C132" s="8"/>
       <c r="D132" s="7"/>
-      <c r="E132" s="49"/>
+      <c r="E132" s="40"/>
       <c r="F132" s="39"/>
-      <c r="G132" s="50"/>
+      <c r="G132" s="41"/>
       <c r="H132" s="7"/>
       <c r="I132" s="7"/>
       <c r="J132" s="8"/>
@@ -3418,9 +3418,9 @@
       <c r="B133" s="7"/>
       <c r="C133" s="8"/>
       <c r="D133" s="7"/>
-      <c r="E133" s="49"/>
+      <c r="E133" s="40"/>
       <c r="F133" s="39"/>
-      <c r="G133" s="50"/>
+      <c r="G133" s="41"/>
       <c r="H133" s="7"/>
       <c r="I133" s="7"/>
       <c r="J133" s="8"/>
@@ -3435,9 +3435,9 @@
       <c r="B134" s="7"/>
       <c r="C134" s="8"/>
       <c r="D134" s="7"/>
-      <c r="E134" s="49"/>
+      <c r="E134" s="40"/>
       <c r="F134" s="39"/>
-      <c r="G134" s="50"/>
+      <c r="G134" s="41"/>
       <c r="H134" s="7"/>
       <c r="I134" s="7"/>
       <c r="J134" s="8"/>
@@ -3452,9 +3452,9 @@
       <c r="B135" s="7"/>
       <c r="C135" s="8"/>
       <c r="D135" s="7"/>
-      <c r="E135" s="49"/>
+      <c r="E135" s="40"/>
       <c r="F135" s="39"/>
-      <c r="G135" s="50"/>
+      <c r="G135" s="41"/>
       <c r="H135" s="7"/>
       <c r="I135" s="7"/>
       <c r="J135" s="8"/>
@@ -3469,9 +3469,9 @@
       <c r="B136" s="7"/>
       <c r="C136" s="8"/>
       <c r="D136" s="7"/>
-      <c r="E136" s="49"/>
+      <c r="E136" s="40"/>
       <c r="F136" s="39"/>
-      <c r="G136" s="50"/>
+      <c r="G136" s="41"/>
       <c r="H136" s="7"/>
       <c r="I136" s="7"/>
       <c r="J136" s="8"/>
@@ -3486,9 +3486,9 @@
       <c r="B137" s="7"/>
       <c r="C137" s="8"/>
       <c r="D137" s="7"/>
-      <c r="E137" s="49"/>
+      <c r="E137" s="40"/>
       <c r="F137" s="39"/>
-      <c r="G137" s="50"/>
+      <c r="G137" s="41"/>
       <c r="H137" s="7"/>
       <c r="I137" s="7"/>
       <c r="J137" s="8"/>
@@ -3503,9 +3503,9 @@
       <c r="B138" s="7"/>
       <c r="C138" s="8"/>
       <c r="D138" s="7"/>
-      <c r="E138" s="49"/>
+      <c r="E138" s="40"/>
       <c r="F138" s="39"/>
-      <c r="G138" s="50"/>
+      <c r="G138" s="41"/>
       <c r="H138" s="7"/>
       <c r="I138" s="7"/>
       <c r="J138" s="8"/>
@@ -3520,9 +3520,9 @@
       <c r="B139" s="7"/>
       <c r="C139" s="8"/>
       <c r="D139" s="7"/>
-      <c r="E139" s="49"/>
+      <c r="E139" s="40"/>
       <c r="F139" s="39"/>
-      <c r="G139" s="50"/>
+      <c r="G139" s="41"/>
       <c r="H139" s="7"/>
       <c r="I139" s="7"/>
       <c r="J139" s="8"/>
@@ -3537,9 +3537,9 @@
       <c r="B140" s="7"/>
       <c r="C140" s="8"/>
       <c r="D140" s="7"/>
-      <c r="E140" s="49"/>
+      <c r="E140" s="40"/>
       <c r="F140" s="39"/>
-      <c r="G140" s="50"/>
+      <c r="G140" s="41"/>
       <c r="H140" s="7"/>
       <c r="I140" s="7"/>
       <c r="J140" s="8"/>
@@ -3554,9 +3554,9 @@
       <c r="B141" s="7"/>
       <c r="C141" s="8"/>
       <c r="D141" s="7"/>
-      <c r="E141" s="49"/>
+      <c r="E141" s="40"/>
       <c r="F141" s="39"/>
-      <c r="G141" s="50"/>
+      <c r="G141" s="41"/>
       <c r="H141" s="7"/>
       <c r="I141" s="7"/>
       <c r="J141" s="8"/>
@@ -3571,9 +3571,9 @@
       <c r="B142" s="7"/>
       <c r="C142" s="8"/>
       <c r="D142" s="7"/>
-      <c r="E142" s="49"/>
+      <c r="E142" s="40"/>
       <c r="F142" s="39"/>
-      <c r="G142" s="50"/>
+      <c r="G142" s="41"/>
       <c r="H142" s="7"/>
       <c r="I142" s="7"/>
       <c r="J142" s="8"/>
@@ -3588,9 +3588,9 @@
       <c r="B143" s="7"/>
       <c r="C143" s="8"/>
       <c r="D143" s="7"/>
-      <c r="E143" s="49"/>
+      <c r="E143" s="40"/>
       <c r="F143" s="39"/>
-      <c r="G143" s="50"/>
+      <c r="G143" s="41"/>
       <c r="H143" s="7"/>
       <c r="I143" s="7"/>
       <c r="J143" s="8"/>
@@ -3605,9 +3605,9 @@
       <c r="B144" s="7"/>
       <c r="C144" s="8"/>
       <c r="D144" s="7"/>
-      <c r="E144" s="49"/>
+      <c r="E144" s="40"/>
       <c r="F144" s="39"/>
-      <c r="G144" s="50"/>
+      <c r="G144" s="41"/>
       <c r="H144" s="7"/>
       <c r="I144" s="7"/>
       <c r="J144" s="8"/>
@@ -3622,9 +3622,9 @@
       <c r="B145" s="7"/>
       <c r="C145" s="8"/>
       <c r="D145" s="7"/>
-      <c r="E145" s="49"/>
+      <c r="E145" s="40"/>
       <c r="F145" s="39"/>
-      <c r="G145" s="50"/>
+      <c r="G145" s="41"/>
       <c r="H145" s="7"/>
       <c r="I145" s="7"/>
       <c r="J145" s="8"/>
@@ -3639,9 +3639,9 @@
       <c r="B146" s="7"/>
       <c r="C146" s="8"/>
       <c r="D146" s="7"/>
-      <c r="E146" s="49"/>
+      <c r="E146" s="40"/>
       <c r="F146" s="39"/>
-      <c r="G146" s="50"/>
+      <c r="G146" s="41"/>
       <c r="H146" s="7"/>
       <c r="I146" s="7"/>
       <c r="J146" s="8"/>
@@ -3656,9 +3656,9 @@
       <c r="B147" s="7"/>
       <c r="C147" s="8"/>
       <c r="D147" s="7"/>
-      <c r="E147" s="49"/>
+      <c r="E147" s="40"/>
       <c r="F147" s="39"/>
-      <c r="G147" s="50"/>
+      <c r="G147" s="41"/>
       <c r="H147" s="7"/>
       <c r="I147" s="7"/>
       <c r="J147" s="8"/>
@@ -3673,9 +3673,9 @@
       <c r="B148" s="7"/>
       <c r="C148" s="8"/>
       <c r="D148" s="7"/>
-      <c r="E148" s="49"/>
+      <c r="E148" s="40"/>
       <c r="F148" s="39"/>
-      <c r="G148" s="50"/>
+      <c r="G148" s="41"/>
       <c r="H148" s="7"/>
       <c r="I148" s="7"/>
       <c r="J148" s="8"/>
@@ -3690,9 +3690,9 @@
       <c r="B149" s="7"/>
       <c r="C149" s="8"/>
       <c r="D149" s="7"/>
-      <c r="E149" s="49"/>
+      <c r="E149" s="40"/>
       <c r="F149" s="39"/>
-      <c r="G149" s="50"/>
+      <c r="G149" s="41"/>
       <c r="H149" s="7"/>
       <c r="I149" s="7"/>
       <c r="J149" s="8"/>
@@ -3707,9 +3707,9 @@
       <c r="B150" s="7"/>
       <c r="C150" s="8"/>
       <c r="D150" s="7"/>
-      <c r="E150" s="49"/>
+      <c r="E150" s="40"/>
       <c r="F150" s="39"/>
-      <c r="G150" s="50"/>
+      <c r="G150" s="41"/>
       <c r="H150" s="7"/>
       <c r="I150" s="7"/>
       <c r="J150" s="8"/>
@@ -3724,9 +3724,9 @@
       <c r="B151" s="7"/>
       <c r="C151" s="8"/>
       <c r="D151" s="7"/>
-      <c r="E151" s="49"/>
+      <c r="E151" s="40"/>
       <c r="F151" s="39"/>
-      <c r="G151" s="50"/>
+      <c r="G151" s="41"/>
       <c r="H151" s="7"/>
       <c r="I151" s="7"/>
       <c r="J151" s="8"/>
@@ -3741,9 +3741,9 @@
       <c r="B152" s="7"/>
       <c r="C152" s="8"/>
       <c r="D152" s="7"/>
-      <c r="E152" s="49"/>
+      <c r="E152" s="40"/>
       <c r="F152" s="39"/>
-      <c r="G152" s="50"/>
+      <c r="G152" s="41"/>
       <c r="H152" s="7"/>
       <c r="I152" s="7"/>
       <c r="J152" s="8"/>
@@ -3758,9 +3758,9 @@
       <c r="B153" s="7"/>
       <c r="C153" s="8"/>
       <c r="D153" s="7"/>
-      <c r="E153" s="49"/>
+      <c r="E153" s="40"/>
       <c r="F153" s="39"/>
-      <c r="G153" s="50"/>
+      <c r="G153" s="41"/>
       <c r="H153" s="7"/>
       <c r="I153" s="7"/>
       <c r="J153" s="8"/>
@@ -3775,9 +3775,9 @@
       <c r="B154" s="7"/>
       <c r="C154" s="8"/>
       <c r="D154" s="7"/>
-      <c r="E154" s="49"/>
+      <c r="E154" s="40"/>
       <c r="F154" s="39"/>
-      <c r="G154" s="50"/>
+      <c r="G154" s="41"/>
       <c r="H154" s="7"/>
       <c r="I154" s="7"/>
       <c r="J154" s="8"/>
@@ -3792,9 +3792,9 @@
       <c r="B155" s="7"/>
       <c r="C155" s="8"/>
       <c r="D155" s="7"/>
-      <c r="E155" s="49"/>
+      <c r="E155" s="40"/>
       <c r="F155" s="39"/>
-      <c r="G155" s="50"/>
+      <c r="G155" s="41"/>
       <c r="H155" s="7"/>
       <c r="I155" s="7"/>
       <c r="J155" s="8"/>
@@ -3809,9 +3809,9 @@
       <c r="B156" s="7"/>
       <c r="C156" s="8"/>
       <c r="D156" s="7"/>
-      <c r="E156" s="49"/>
+      <c r="E156" s="40"/>
       <c r="F156" s="39"/>
-      <c r="G156" s="50"/>
+      <c r="G156" s="41"/>
       <c r="H156" s="7"/>
       <c r="I156" s="7"/>
       <c r="J156" s="8"/>
@@ -3826,9 +3826,9 @@
       <c r="B157" s="7"/>
       <c r="C157" s="8"/>
       <c r="D157" s="7"/>
-      <c r="E157" s="49"/>
+      <c r="E157" s="40"/>
       <c r="F157" s="39"/>
-      <c r="G157" s="50"/>
+      <c r="G157" s="41"/>
       <c r="H157" s="7"/>
       <c r="I157" s="7"/>
       <c r="J157" s="8"/>
@@ -3843,9 +3843,9 @@
       <c r="B158" s="7"/>
       <c r="C158" s="8"/>
       <c r="D158" s="7"/>
-      <c r="E158" s="49"/>
+      <c r="E158" s="40"/>
       <c r="F158" s="39"/>
-      <c r="G158" s="50"/>
+      <c r="G158" s="41"/>
       <c r="H158" s="7"/>
       <c r="I158" s="7"/>
       <c r="J158" s="8"/>
@@ -3860,9 +3860,9 @@
       <c r="B159" s="7"/>
       <c r="C159" s="8"/>
       <c r="D159" s="7"/>
-      <c r="E159" s="49"/>
+      <c r="E159" s="40"/>
       <c r="F159" s="39"/>
-      <c r="G159" s="50"/>
+      <c r="G159" s="41"/>
       <c r="H159" s="7"/>
       <c r="I159" s="7"/>
       <c r="J159" s="8"/>
@@ -3877,9 +3877,9 @@
       <c r="B160" s="7"/>
       <c r="C160" s="8"/>
       <c r="D160" s="7"/>
-      <c r="E160" s="49"/>
+      <c r="E160" s="40"/>
       <c r="F160" s="39"/>
-      <c r="G160" s="50"/>
+      <c r="G160" s="41"/>
       <c r="H160" s="7"/>
       <c r="I160" s="7"/>
       <c r="J160" s="8"/>
@@ -3894,9 +3894,9 @@
       <c r="B161" s="7"/>
       <c r="C161" s="8"/>
       <c r="D161" s="7"/>
-      <c r="E161" s="49"/>
+      <c r="E161" s="40"/>
       <c r="F161" s="39"/>
-      <c r="G161" s="50"/>
+      <c r="G161" s="41"/>
       <c r="H161" s="7"/>
       <c r="I161" s="7"/>
       <c r="J161" s="8"/>
@@ -3911,9 +3911,9 @@
       <c r="B162" s="7"/>
       <c r="C162" s="8"/>
       <c r="D162" s="7"/>
-      <c r="E162" s="49"/>
+      <c r="E162" s="40"/>
       <c r="F162" s="39"/>
-      <c r="G162" s="50"/>
+      <c r="G162" s="41"/>
       <c r="H162" s="7"/>
       <c r="I162" s="7"/>
       <c r="J162" s="8"/>
@@ -3928,9 +3928,9 @@
       <c r="B163" s="7"/>
       <c r="C163" s="8"/>
       <c r="D163" s="7"/>
-      <c r="E163" s="49"/>
+      <c r="E163" s="40"/>
       <c r="F163" s="39"/>
-      <c r="G163" s="50"/>
+      <c r="G163" s="41"/>
       <c r="H163" s="7"/>
       <c r="I163" s="7"/>
       <c r="J163" s="8"/>
@@ -3945,9 +3945,9 @@
       <c r="B164" s="7"/>
       <c r="C164" s="8"/>
       <c r="D164" s="7"/>
-      <c r="E164" s="49"/>
+      <c r="E164" s="40"/>
       <c r="F164" s="39"/>
-      <c r="G164" s="50"/>
+      <c r="G164" s="41"/>
       <c r="H164" s="7"/>
       <c r="I164" s="7"/>
       <c r="J164" s="8"/>
@@ -3962,9 +3962,9 @@
       <c r="B165" s="7"/>
       <c r="C165" s="8"/>
       <c r="D165" s="7"/>
-      <c r="E165" s="49"/>
+      <c r="E165" s="40"/>
       <c r="F165" s="39"/>
-      <c r="G165" s="50"/>
+      <c r="G165" s="41"/>
       <c r="H165" s="7"/>
       <c r="I165" s="7"/>
       <c r="J165" s="8"/>
@@ -3979,9 +3979,9 @@
       <c r="B166" s="7"/>
       <c r="C166" s="8"/>
       <c r="D166" s="7"/>
-      <c r="E166" s="49"/>
+      <c r="E166" s="40"/>
       <c r="F166" s="39"/>
-      <c r="G166" s="50"/>
+      <c r="G166" s="41"/>
       <c r="H166" s="7"/>
       <c r="I166" s="7"/>
       <c r="J166" s="8"/>
@@ -3996,9 +3996,9 @@
       <c r="B167" s="7"/>
       <c r="C167" s="8"/>
       <c r="D167" s="7"/>
-      <c r="E167" s="49"/>
+      <c r="E167" s="40"/>
       <c r="F167" s="39"/>
-      <c r="G167" s="50"/>
+      <c r="G167" s="41"/>
       <c r="H167" s="7"/>
       <c r="I167" s="7"/>
       <c r="J167" s="8"/>
@@ -4013,9 +4013,9 @@
       <c r="B168" s="7"/>
       <c r="C168" s="8"/>
       <c r="D168" s="7"/>
-      <c r="E168" s="49"/>
+      <c r="E168" s="40"/>
       <c r="F168" s="39"/>
-      <c r="G168" s="50"/>
+      <c r="G168" s="41"/>
       <c r="H168" s="7"/>
       <c r="I168" s="7"/>
       <c r="J168" s="8"/>
@@ -4030,9 +4030,9 @@
       <c r="B169" s="7"/>
       <c r="C169" s="8"/>
       <c r="D169" s="7"/>
-      <c r="E169" s="49"/>
+      <c r="E169" s="40"/>
       <c r="F169" s="39"/>
-      <c r="G169" s="50"/>
+      <c r="G169" s="41"/>
       <c r="H169" s="7"/>
       <c r="I169" s="7"/>
       <c r="J169" s="8"/>
@@ -4047,9 +4047,9 @@
       <c r="B170" s="7"/>
       <c r="C170" s="8"/>
       <c r="D170" s="7"/>
-      <c r="E170" s="49"/>
+      <c r="E170" s="40"/>
       <c r="F170" s="39"/>
-      <c r="G170" s="50"/>
+      <c r="G170" s="41"/>
       <c r="H170" s="7"/>
       <c r="I170" s="7"/>
       <c r="J170" s="8"/>
@@ -4064,9 +4064,9 @@
       <c r="B171" s="7"/>
       <c r="C171" s="8"/>
       <c r="D171" s="7"/>
-      <c r="E171" s="49"/>
+      <c r="E171" s="40"/>
       <c r="F171" s="39"/>
-      <c r="G171" s="50"/>
+      <c r="G171" s="41"/>
       <c r="H171" s="7"/>
       <c r="I171" s="7"/>
       <c r="J171" s="8"/>
@@ -4081,9 +4081,9 @@
       <c r="B172" s="7"/>
       <c r="C172" s="8"/>
       <c r="D172" s="7"/>
-      <c r="E172" s="49"/>
+      <c r="E172" s="40"/>
       <c r="F172" s="39"/>
-      <c r="G172" s="50"/>
+      <c r="G172" s="41"/>
       <c r="H172" s="7"/>
       <c r="I172" s="7"/>
       <c r="J172" s="8"/>
@@ -4098,9 +4098,9 @@
       <c r="B173" s="7"/>
       <c r="C173" s="8"/>
       <c r="D173" s="7"/>
-      <c r="E173" s="49"/>
+      <c r="E173" s="40"/>
       <c r="F173" s="39"/>
-      <c r="G173" s="50"/>
+      <c r="G173" s="41"/>
       <c r="H173" s="7"/>
       <c r="I173" s="7"/>
       <c r="J173" s="8"/>
@@ -4115,9 +4115,9 @@
       <c r="B174" s="7"/>
       <c r="C174" s="8"/>
       <c r="D174" s="7"/>
-      <c r="E174" s="49"/>
+      <c r="E174" s="40"/>
       <c r="F174" s="39"/>
-      <c r="G174" s="50"/>
+      <c r="G174" s="41"/>
       <c r="H174" s="7"/>
       <c r="I174" s="7"/>
       <c r="J174" s="8"/>
@@ -4132,9 +4132,9 @@
       <c r="B175" s="7"/>
       <c r="C175" s="8"/>
       <c r="D175" s="7"/>
-      <c r="E175" s="49"/>
+      <c r="E175" s="40"/>
       <c r="F175" s="39"/>
-      <c r="G175" s="50"/>
+      <c r="G175" s="41"/>
       <c r="H175" s="7"/>
       <c r="I175" s="7"/>
       <c r="J175" s="8"/>
@@ -4149,9 +4149,9 @@
       <c r="B176" s="7"/>
       <c r="C176" s="8"/>
       <c r="D176" s="7"/>
-      <c r="E176" s="49"/>
+      <c r="E176" s="40"/>
       <c r="F176" s="39"/>
-      <c r="G176" s="50"/>
+      <c r="G176" s="41"/>
       <c r="H176" s="7"/>
       <c r="I176" s="7"/>
       <c r="J176" s="8"/>
@@ -4166,9 +4166,9 @@
       <c r="B177" s="7"/>
       <c r="C177" s="8"/>
       <c r="D177" s="7"/>
-      <c r="E177" s="49"/>
+      <c r="E177" s="40"/>
       <c r="F177" s="39"/>
-      <c r="G177" s="50"/>
+      <c r="G177" s="41"/>
       <c r="H177" s="7"/>
       <c r="I177" s="7"/>
       <c r="J177" s="8"/>
@@ -4183,9 +4183,9 @@
       <c r="B178" s="7"/>
       <c r="C178" s="8"/>
       <c r="D178" s="7"/>
-      <c r="E178" s="49"/>
+      <c r="E178" s="40"/>
       <c r="F178" s="39"/>
-      <c r="G178" s="50"/>
+      <c r="G178" s="41"/>
       <c r="H178" s="7"/>
       <c r="I178" s="7"/>
       <c r="J178" s="8"/>
@@ -4200,9 +4200,9 @@
       <c r="B179" s="7"/>
       <c r="C179" s="8"/>
       <c r="D179" s="7"/>
-      <c r="E179" s="49"/>
+      <c r="E179" s="40"/>
       <c r="F179" s="39"/>
-      <c r="G179" s="50"/>
+      <c r="G179" s="41"/>
       <c r="H179" s="7"/>
       <c r="I179" s="7"/>
       <c r="J179" s="8"/>
@@ -4217,9 +4217,9 @@
       <c r="B180" s="7"/>
       <c r="C180" s="8"/>
       <c r="D180" s="7"/>
-      <c r="E180" s="49"/>
+      <c r="E180" s="40"/>
       <c r="F180" s="39"/>
-      <c r="G180" s="50"/>
+      <c r="G180" s="41"/>
       <c r="H180" s="7"/>
       <c r="I180" s="7"/>
       <c r="J180" s="8"/>
@@ -4234,9 +4234,9 @@
       <c r="B181" s="7"/>
       <c r="C181" s="8"/>
       <c r="D181" s="7"/>
-      <c r="E181" s="49"/>
+      <c r="E181" s="40"/>
       <c r="F181" s="39"/>
-      <c r="G181" s="50"/>
+      <c r="G181" s="41"/>
       <c r="H181" s="7"/>
       <c r="I181" s="7"/>
       <c r="J181" s="8"/>
@@ -4251,9 +4251,9 @@
       <c r="B182" s="7"/>
       <c r="C182" s="8"/>
       <c r="D182" s="7"/>
-      <c r="E182" s="49"/>
+      <c r="E182" s="40"/>
       <c r="F182" s="39"/>
-      <c r="G182" s="50"/>
+      <c r="G182" s="41"/>
       <c r="H182" s="7"/>
       <c r="I182" s="7"/>
       <c r="J182" s="8"/>
@@ -4268,9 +4268,9 @@
       <c r="B183" s="7"/>
       <c r="C183" s="8"/>
       <c r="D183" s="7"/>
-      <c r="E183" s="49"/>
+      <c r="E183" s="40"/>
       <c r="F183" s="39"/>
-      <c r="G183" s="50"/>
+      <c r="G183" s="41"/>
       <c r="H183" s="7"/>
       <c r="I183" s="7"/>
       <c r="J183" s="8"/>
@@ -4285,9 +4285,9 @@
       <c r="B184" s="7"/>
       <c r="C184" s="8"/>
       <c r="D184" s="7"/>
-      <c r="E184" s="49"/>
+      <c r="E184" s="40"/>
       <c r="F184" s="39"/>
-      <c r="G184" s="50"/>
+      <c r="G184" s="41"/>
       <c r="H184" s="7"/>
       <c r="I184" s="7"/>
       <c r="J184" s="8"/>
@@ -4302,9 +4302,9 @@
       <c r="B185" s="7"/>
       <c r="C185" s="8"/>
       <c r="D185" s="7"/>
-      <c r="E185" s="49"/>
+      <c r="E185" s="40"/>
       <c r="F185" s="39"/>
-      <c r="G185" s="50"/>
+      <c r="G185" s="41"/>
       <c r="H185" s="7"/>
       <c r="I185" s="7"/>
       <c r="J185" s="8"/>
@@ -4319,9 +4319,9 @@
       <c r="B186" s="7"/>
       <c r="C186" s="8"/>
       <c r="D186" s="7"/>
-      <c r="E186" s="49"/>
+      <c r="E186" s="40"/>
       <c r="F186" s="39"/>
-      <c r="G186" s="50"/>
+      <c r="G186" s="41"/>
       <c r="H186" s="7"/>
       <c r="I186" s="7"/>
       <c r="J186" s="8"/>
@@ -4336,9 +4336,9 @@
       <c r="B187" s="7"/>
       <c r="C187" s="8"/>
       <c r="D187" s="7"/>
-      <c r="E187" s="49"/>
+      <c r="E187" s="40"/>
       <c r="F187" s="39"/>
-      <c r="G187" s="50"/>
+      <c r="G187" s="41"/>
       <c r="H187" s="7"/>
       <c r="I187" s="7"/>
       <c r="J187" s="8"/>
@@ -4353,9 +4353,9 @@
       <c r="B188" s="7"/>
       <c r="C188" s="8"/>
       <c r="D188" s="7"/>
-      <c r="E188" s="49"/>
+      <c r="E188" s="40"/>
       <c r="F188" s="39"/>
-      <c r="G188" s="50"/>
+      <c r="G188" s="41"/>
       <c r="H188" s="7"/>
       <c r="I188" s="7"/>
       <c r="J188" s="8"/>
@@ -4370,9 +4370,9 @@
       <c r="B189" s="7"/>
       <c r="C189" s="8"/>
       <c r="D189" s="7"/>
-      <c r="E189" s="49"/>
+      <c r="E189" s="40"/>
       <c r="F189" s="39"/>
-      <c r="G189" s="50"/>
+      <c r="G189" s="41"/>
       <c r="H189" s="7"/>
       <c r="I189" s="7"/>
       <c r="J189" s="8"/>
@@ -4387,9 +4387,9 @@
       <c r="B190" s="7"/>
       <c r="C190" s="8"/>
       <c r="D190" s="7"/>
-      <c r="E190" s="49"/>
+      <c r="E190" s="40"/>
       <c r="F190" s="39"/>
-      <c r="G190" s="50"/>
+      <c r="G190" s="41"/>
       <c r="H190" s="7"/>
       <c r="I190" s="7"/>
       <c r="J190" s="8"/>
@@ -4404,9 +4404,9 @@
       <c r="B191" s="7"/>
       <c r="C191" s="8"/>
       <c r="D191" s="7"/>
-      <c r="E191" s="49"/>
+      <c r="E191" s="40"/>
       <c r="F191" s="39"/>
-      <c r="G191" s="50"/>
+      <c r="G191" s="41"/>
       <c r="H191" s="7"/>
       <c r="I191" s="7"/>
       <c r="J191" s="8"/>
@@ -4421,9 +4421,9 @@
       <c r="B192" s="7"/>
       <c r="C192" s="8"/>
       <c r="D192" s="7"/>
-      <c r="E192" s="49"/>
+      <c r="E192" s="40"/>
       <c r="F192" s="39"/>
-      <c r="G192" s="50"/>
+      <c r="G192" s="41"/>
       <c r="H192" s="7"/>
       <c r="I192" s="7"/>
       <c r="J192" s="8"/>
@@ -4438,9 +4438,9 @@
       <c r="B193" s="7"/>
       <c r="C193" s="8"/>
       <c r="D193" s="7"/>
-      <c r="E193" s="49"/>
+      <c r="E193" s="40"/>
       <c r="F193" s="39"/>
-      <c r="G193" s="50"/>
+      <c r="G193" s="41"/>
       <c r="H193" s="7"/>
       <c r="I193" s="7"/>
       <c r="J193" s="8"/>
@@ -4455,9 +4455,9 @@
       <c r="B194" s="7"/>
       <c r="C194" s="8"/>
       <c r="D194" s="7"/>
-      <c r="E194" s="49"/>
+      <c r="E194" s="40"/>
       <c r="F194" s="39"/>
-      <c r="G194" s="50"/>
+      <c r="G194" s="41"/>
       <c r="H194" s="7"/>
       <c r="I194" s="7"/>
       <c r="J194" s="8"/>
@@ -4472,9 +4472,9 @@
       <c r="B195" s="7"/>
       <c r="C195" s="8"/>
       <c r="D195" s="7"/>
-      <c r="E195" s="49"/>
+      <c r="E195" s="40"/>
       <c r="F195" s="39"/>
-      <c r="G195" s="50"/>
+      <c r="G195" s="41"/>
       <c r="H195" s="7"/>
       <c r="I195" s="7"/>
       <c r="J195" s="8"/>
@@ -4489,9 +4489,9 @@
       <c r="B196" s="7"/>
       <c r="C196" s="8"/>
       <c r="D196" s="7"/>
-      <c r="E196" s="49"/>
+      <c r="E196" s="40"/>
       <c r="F196" s="39"/>
-      <c r="G196" s="50"/>
+      <c r="G196" s="41"/>
       <c r="H196" s="7"/>
       <c r="I196" s="7"/>
       <c r="J196" s="8"/>
@@ -4506,9 +4506,9 @@
       <c r="B197" s="7"/>
       <c r="C197" s="8"/>
       <c r="D197" s="7"/>
-      <c r="E197" s="49"/>
+      <c r="E197" s="40"/>
       <c r="F197" s="39"/>
-      <c r="G197" s="50"/>
+      <c r="G197" s="41"/>
       <c r="H197" s="7"/>
       <c r="I197" s="7"/>
       <c r="J197" s="8"/>
@@ -4523,9 +4523,9 @@
       <c r="B198" s="7"/>
       <c r="C198" s="8"/>
       <c r="D198" s="7"/>
-      <c r="E198" s="49"/>
+      <c r="E198" s="40"/>
       <c r="F198" s="39"/>
-      <c r="G198" s="50"/>
+      <c r="G198" s="41"/>
       <c r="H198" s="7"/>
       <c r="I198" s="7"/>
       <c r="J198" s="8"/>
@@ -4540,9 +4540,9 @@
       <c r="B199" s="7"/>
       <c r="C199" s="8"/>
       <c r="D199" s="7"/>
-      <c r="E199" s="49"/>
+      <c r="E199" s="40"/>
       <c r="F199" s="39"/>
-      <c r="G199" s="50"/>
+      <c r="G199" s="41"/>
       <c r="H199" s="7"/>
       <c r="I199" s="7"/>
       <c r="J199" s="8"/>
@@ -4557,9 +4557,9 @@
       <c r="B200" s="7"/>
       <c r="C200" s="8"/>
       <c r="D200" s="7"/>
-      <c r="E200" s="49"/>
+      <c r="E200" s="40"/>
       <c r="F200" s="39"/>
-      <c r="G200" s="50"/>
+      <c r="G200" s="41"/>
       <c r="H200" s="7"/>
       <c r="I200" s="7"/>
       <c r="J200" s="8"/>
@@ -4574,9 +4574,9 @@
       <c r="B201" s="7"/>
       <c r="C201" s="8"/>
       <c r="D201" s="7"/>
-      <c r="E201" s="49"/>
+      <c r="E201" s="40"/>
       <c r="F201" s="39"/>
-      <c r="G201" s="50"/>
+      <c r="G201" s="41"/>
       <c r="H201" s="7"/>
       <c r="I201" s="7"/>
       <c r="J201" s="8"/>
@@ -4591,9 +4591,9 @@
       <c r="B202" s="7"/>
       <c r="C202" s="8"/>
       <c r="D202" s="7"/>
-      <c r="E202" s="49"/>
+      <c r="E202" s="40"/>
       <c r="F202" s="39"/>
-      <c r="G202" s="50"/>
+      <c r="G202" s="41"/>
       <c r="H202" s="7"/>
       <c r="I202" s="7"/>
       <c r="J202" s="8"/>
@@ -4608,9 +4608,9 @@
       <c r="B203" s="7"/>
       <c r="C203" s="8"/>
       <c r="D203" s="7"/>
-      <c r="E203" s="49"/>
+      <c r="E203" s="40"/>
       <c r="F203" s="39"/>
-      <c r="G203" s="50"/>
+      <c r="G203" s="41"/>
       <c r="H203" s="7"/>
       <c r="I203" s="7"/>
       <c r="J203" s="8"/>
@@ -4625,9 +4625,9 @@
       <c r="B204" s="7"/>
       <c r="C204" s="8"/>
       <c r="D204" s="7"/>
-      <c r="E204" s="49"/>
+      <c r="E204" s="40"/>
       <c r="F204" s="39"/>
-      <c r="G204" s="50"/>
+      <c r="G204" s="41"/>
       <c r="H204" s="7"/>
       <c r="I204" s="7"/>
       <c r="J204" s="8"/>
@@ -4642,9 +4642,9 @@
       <c r="B205" s="7"/>
       <c r="C205" s="8"/>
       <c r="D205" s="7"/>
-      <c r="E205" s="49"/>
+      <c r="E205" s="40"/>
       <c r="F205" s="39"/>
-      <c r="G205" s="50"/>
+      <c r="G205" s="41"/>
       <c r="H205" s="7"/>
       <c r="I205" s="7"/>
       <c r="J205" s="8"/>

--- a/public/DownloadExcels/Materias_Primas.xlsx
+++ b/public/DownloadExcels/Materias_Primas.xlsx
@@ -5,23 +5,23 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Mario\Desktop\Carlos\FormulariosEcopcion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Mario\Desktop\Ecopcion Desarrollo\ecopFront-Desarrollo\public\DownloadExcels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F88EB8D8-1F55-44EB-8549-A00788014073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B972856-956A-46CF-A751-832C0835E4C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INVENTARIO DE MATERIAS PRIMAS" sheetId="1" r:id="rId1"/>
-    <sheet name="Lista desplegable" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Lista desplegable" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="67">
   <si>
     <t>INVENTARIO DE MATERIAS PRIMAS / INSUMOS</t>
   </si>
@@ -157,6 +157,86 @@
     <t>Rete ICA</t>
   </si>
   <si>
+    <t>Si la materia prima tiene IVA ¿Cuál es el porcentaje de IVA aplicable a tu materia prima?
+Si no aplica, elegir 
+NO APLICA</t>
+  </si>
+  <si>
+    <t>Si la materia prima tiene impuesto al consumo ¿Cuál es el porcentaje de impuesto al consumo aplicable a tu materia prima?
+Si no aplica, elegir 
+NO APLICA</t>
+  </si>
+  <si>
+    <t>Si la materia prima tiene retención en al fuente ¿Qué porcentaje le aplica?
+Si no aplica, elegir 
+NO APLICA</t>
+  </si>
+  <si>
+    <t>Si la materia prima tiene retención de IVA
+ ¿Qué porcentaje le aplica?
+Si no aplica, elegir 
+NO APLICA</t>
+  </si>
+  <si>
+    <t>Impuestos a bebidas azucaradas</t>
+  </si>
+  <si>
+    <t>Impuestos a comestibles ultraprocesados</t>
+  </si>
+  <si>
+    <t>Si la materia prima tiene impuestos a bebidas azucaradas ¿Qué valor aplica?
+Si no aplica, elegir 
+NO APLICA</t>
+  </si>
+  <si>
+    <t>Si la materia prima tiene impuestos a comestibles ultraprocesados ¿Qué porcentaje aplica?
+Si no aplica, elegir 
+NO APLICA</t>
+  </si>
+  <si>
+    <t>Impuesto al consumo</t>
+  </si>
+  <si>
+    <t>Tipo de retención en la fuente</t>
+  </si>
+  <si>
+    <t>Porcentaje de Rete Fuente</t>
+  </si>
+  <si>
+    <t>Honorarios y consultoria</t>
+  </si>
+  <si>
+    <t>Servicios</t>
+  </si>
+  <si>
+    <t>Compras</t>
+  </si>
+  <si>
+    <t>Otros</t>
+  </si>
+  <si>
+    <t>Pagos al exterior y dividendos</t>
+  </si>
+  <si>
+    <t>Selecciona el tipo de retencion en la fuente aplicable a tu materia prima, sino no aplica, dejar en blanco</t>
+  </si>
+  <si>
+    <t>¿A qué precio compraste cada unidad de tu materia prima? 
+Ej: 1700
+Ej: 70000</t>
+  </si>
+  <si>
+    <t>DD/MM/AAAA
+Ej: 01/05/2024
+Ej: 31/12/2024</t>
+  </si>
+  <si>
+    <t>No aplica</t>
+  </si>
+  <si>
+    <t>Precio de unitario de compra antes de impuestos</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -246,7 +326,7 @@
 10.  OBLIGATORIO: En la columna J, ELIGE DE LA LISTA DESPLEGABLE, EL TIPO DE RETENCIÓN DE ICA APLICABLE A TU MATERIA PRIMA. 
 11. OBLIGATORIO: En la columna K, ELIGE DE LA LISTA DESPLEGABLE, OTRO IMPUESTO APLICABLES A TU MATERIA PRIMA.
 12. OBLIGATORIO: En la columna L, ESCRIBE EN NÚMEROS EL PRECIO DE VENTA DE TU MATERIA PRIMA INCLUYENDO TODOS LOS IMPUESTOS APLICABLES.
-13. OBlIGATORIO: En la columna M, ESCRIBE LA FECHA DE VENCIMIENTO DE TU MATERIA PRIMA ASÍ: DIA/MES/AÑO. 
+13. OBLIGATORIO: En la columna M, ESCRIBE LA FECHA DE VENCIMIENTO DE TU MATERIA PRIMA ASÍ: DIA/MES/AÑO. 
 14. En la columna N, COPIA EL CÓDIGO DE BARRAS A MANO O CON EL LECTOR DE CÓDIGO, NO OMITAS NINGUNA LETRA O NÚMERO.  
 15.</t>
     </r>
@@ -270,84 +350,13 @@
     </r>
   </si>
   <si>
-    <t>Si la materia prima tiene IVA ¿Cuál es el porcentaje de IVA aplicable a tu materia prima?
-Si no aplica, elegir 
-NO APLICA</t>
+    <t>Bolsa</t>
   </si>
   <si>
-    <t>Si la materia prima tiene impuesto al consumo ¿Cuál es el porcentaje de impuesto al consumo aplicable a tu materia prima?
-Si no aplica, elegir 
-NO APLICA</t>
+    <t>Caneca</t>
   </si>
   <si>
-    <t>Si la materia prima tiene retención en al fuente ¿Qué porcentaje le aplica?
-Si no aplica, elegir 
-NO APLICA</t>
-  </si>
-  <si>
-    <t>Si la materia prima tiene retención de IVA
- ¿Qué porcentaje le aplica?
-Si no aplica, elegir 
-NO APLICA</t>
-  </si>
-  <si>
-    <t>Impuestos a bebidas azucaradas</t>
-  </si>
-  <si>
-    <t>Impuestos a comestibles ultraprocesados</t>
-  </si>
-  <si>
-    <t>Si la materia prima tiene impuestos a bebidas azucaradas ¿Qué valor aplica?
-Si no aplica, elegir 
-NO APLICA</t>
-  </si>
-  <si>
-    <t>Si la materia prima tiene impuestos a comestibles ultraprocesados ¿Qué porcentaje aplica?
-Si no aplica, elegir 
-NO APLICA</t>
-  </si>
-  <si>
-    <t>Impuesto al consumo</t>
-  </si>
-  <si>
-    <t>Tipo de retención en la fuente</t>
-  </si>
-  <si>
-    <t>Porcentaje de Rete Fuente</t>
-  </si>
-  <si>
-    <t>Honorarios y consultoria</t>
-  </si>
-  <si>
-    <t>Servicios</t>
-  </si>
-  <si>
-    <t>Compras</t>
-  </si>
-  <si>
-    <t>Otros</t>
-  </si>
-  <si>
-    <t>Pagos al exterior y dividendos</t>
-  </si>
-  <si>
-    <t>Selecciona el tipo de retencion en la fuente aplicable a tu materia prima, sino no aplica, dejar en blanco</t>
-  </si>
-  <si>
-    <t>¿A qué precio compraste cada unidad de tu materia prima? 
-Ej: 1700
-Ej: 70000</t>
-  </si>
-  <si>
-    <t>DD/MM/AAAA
-Ej: 01/05/2024
-Ej: 31/12/2024</t>
-  </si>
-  <si>
-    <t>No aplica</t>
-  </si>
-  <si>
-    <t>Precio de unitario de compra antes de impuestos</t>
+    <t>Frasco</t>
   </si>
 </sst>
 </file>
@@ -358,7 +367,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="169" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -506,7 +515,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -605,13 +614,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -782,6 +802,9 @@
     <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -797,20 +820,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="8" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1080,8 +1094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA899"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:O1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1090,70 +1104,68 @@
     <col min="2" max="3" width="28.5703125" style="3" customWidth="1"/>
     <col min="4" max="5" width="23.85546875" style="3" customWidth="1"/>
     <col min="6" max="7" width="25" style="3" customWidth="1"/>
-    <col min="8" max="9" width="23.85546875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="23.85546875" style="67" customWidth="1"/>
-    <col min="11" max="14" width="23.85546875" style="3" customWidth="1"/>
+    <col min="8" max="14" width="23.85546875" style="3" customWidth="1"/>
     <col min="15" max="15" width="28.140625" style="3" customWidth="1"/>
     <col min="16" max="27" width="10.5703125" style="3" customWidth="1"/>
     <col min="28" max="16384" width="14.42578125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
     </row>
     <row r="2" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
     </row>
     <row r="3" spans="1:27" ht="322.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="62" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
+      <c r="A3" s="63" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
     </row>
     <row r="4" spans="1:27" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17"/>
@@ -1170,7 +1182,7 @@
         <v>5</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G4" s="24" t="s">
         <v>35</v>
@@ -1179,13 +1191,13 @@
         <v>2</v>
       </c>
       <c r="I4" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="J4" s="64" t="s">
+      <c r="K4" s="24" t="s">
         <v>52</v>
-      </c>
-      <c r="K4" s="24" t="s">
-        <v>53</v>
       </c>
       <c r="L4" s="24" t="s">
         <v>40</v>
@@ -1194,10 +1206,10 @@
         <v>41</v>
       </c>
       <c r="N4" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="O4" s="24" t="s">
         <v>47</v>
-      </c>
-      <c r="O4" s="24" t="s">
-        <v>48</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
@@ -1229,34 +1241,34 @@
         <v>37</v>
       </c>
       <c r="F5" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="G5" s="22" t="s">
-        <v>61</v>
-      </c>
       <c r="H5" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="22" t="s">
+      <c r="J5" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="K5" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="J5" s="65" t="s">
-        <v>59</v>
-      </c>
-      <c r="K5" s="22" t="s">
+      <c r="L5" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="L5" s="22" t="s">
-        <v>46</v>
-      </c>
       <c r="M5" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N5" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="O5" s="22" t="s">
         <v>49</v>
-      </c>
-      <c r="O5" s="22" t="s">
-        <v>50</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
@@ -1278,8 +1290,8 @@
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="63"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="58"/>
       <c r="G6" s="54"/>
       <c r="H6" s="56"/>
       <c r="I6" s="56"/>
@@ -1297,8 +1309,8 @@
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="63"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="58"/>
       <c r="G7" s="54"/>
       <c r="H7" s="56"/>
       <c r="I7" s="56"/>
@@ -1316,8 +1328,8 @@
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="63"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="58"/>
       <c r="G8" s="23"/>
       <c r="H8" s="56"/>
       <c r="I8" s="56"/>
@@ -1335,8 +1347,8 @@
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="63"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="58"/>
       <c r="G9" s="23"/>
       <c r="H9" s="56"/>
       <c r="I9" s="56"/>
@@ -1354,8 +1366,8 @@
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="63"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="58"/>
       <c r="G10" s="23"/>
       <c r="H10" s="56"/>
       <c r="I10" s="56"/>
@@ -1373,8 +1385,8 @@
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="63"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="58"/>
       <c r="G11" s="23"/>
       <c r="H11" s="56"/>
       <c r="I11" s="56"/>
@@ -1392,8 +1404,8 @@
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="63"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="58"/>
       <c r="G12" s="23"/>
       <c r="H12" s="56"/>
       <c r="I12" s="56"/>
@@ -1411,8 +1423,8 @@
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="63"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="58"/>
       <c r="G13" s="23"/>
       <c r="H13" s="56"/>
       <c r="I13" s="56"/>
@@ -1430,8 +1442,8 @@
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="63"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="58"/>
       <c r="G14" s="23"/>
       <c r="H14" s="56"/>
       <c r="I14" s="56"/>
@@ -1449,8 +1461,8 @@
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="63"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="58"/>
       <c r="G15" s="23"/>
       <c r="H15" s="56"/>
       <c r="I15" s="56"/>
@@ -1468,8 +1480,8 @@
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="63"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="58"/>
       <c r="G16" s="23"/>
       <c r="H16" s="56"/>
       <c r="I16" s="56"/>
@@ -1487,8 +1499,8 @@
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="5"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="63"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="58"/>
       <c r="G17" s="23"/>
       <c r="H17" s="56"/>
       <c r="I17" s="56"/>
@@ -1506,8 +1518,8 @@
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="63"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="58"/>
       <c r="G18" s="23"/>
       <c r="H18" s="56"/>
       <c r="I18" s="56"/>
@@ -1525,8 +1537,8 @@
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="63"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="58"/>
       <c r="G19" s="23"/>
       <c r="H19" s="56"/>
       <c r="I19" s="56"/>
@@ -1544,8 +1556,8 @@
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="63"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="58"/>
       <c r="G20" s="23"/>
       <c r="H20" s="56"/>
       <c r="I20" s="56"/>
@@ -1563,8 +1575,8 @@
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="5"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="63"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="58"/>
       <c r="G21" s="23"/>
       <c r="H21" s="56"/>
       <c r="I21" s="56"/>
@@ -1582,8 +1594,8 @@
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="5"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="63"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="58"/>
       <c r="G22" s="23"/>
       <c r="H22" s="56"/>
       <c r="I22" s="56"/>
@@ -1601,8 +1613,8 @@
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="5"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="63"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="58"/>
       <c r="G23" s="23"/>
       <c r="H23" s="56"/>
       <c r="I23" s="56"/>
@@ -1620,8 +1632,8 @@
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="5"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="63"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="58"/>
       <c r="G24" s="23"/>
       <c r="H24" s="56"/>
       <c r="I24" s="56"/>
@@ -1639,8 +1651,8 @@
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="5"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="63"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="58"/>
       <c r="G25" s="23"/>
       <c r="H25" s="56"/>
       <c r="I25" s="56"/>
@@ -1658,8 +1670,8 @@
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="5"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="63"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="58"/>
       <c r="G26" s="23"/>
       <c r="H26" s="56"/>
       <c r="I26" s="56"/>
@@ -1677,8 +1689,8 @@
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="5"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="63"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="58"/>
       <c r="G27" s="23"/>
       <c r="H27" s="56"/>
       <c r="I27" s="56"/>
@@ -1696,8 +1708,8 @@
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="5"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="63"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="58"/>
       <c r="G28" s="23"/>
       <c r="H28" s="56"/>
       <c r="I28" s="56"/>
@@ -1715,8 +1727,8 @@
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="5"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="63"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="58"/>
       <c r="G29" s="23"/>
       <c r="H29" s="56"/>
       <c r="I29" s="56"/>
@@ -1734,8 +1746,8 @@
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="5"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="63"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="58"/>
       <c r="G30" s="23"/>
       <c r="H30" s="56"/>
       <c r="I30" s="56"/>
@@ -1753,8 +1765,8 @@
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="5"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="63"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="58"/>
       <c r="G31" s="23"/>
       <c r="H31" s="56"/>
       <c r="I31" s="56"/>
@@ -1772,8 +1784,8 @@
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="5"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="63"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="58"/>
       <c r="G32" s="23"/>
       <c r="H32" s="56"/>
       <c r="I32" s="56"/>
@@ -1791,8 +1803,8 @@
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="5"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="63"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="58"/>
       <c r="G33" s="23"/>
       <c r="H33" s="56"/>
       <c r="I33" s="56"/>
@@ -1810,8 +1822,8 @@
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="5"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="63"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="58"/>
       <c r="G34" s="23"/>
       <c r="H34" s="56"/>
       <c r="I34" s="56"/>
@@ -1829,8 +1841,8 @@
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="5"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="63"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="58"/>
       <c r="G35" s="23"/>
       <c r="H35" s="56"/>
       <c r="I35" s="56"/>
@@ -1848,8 +1860,8 @@
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="5"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="63"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="58"/>
       <c r="G36" s="23"/>
       <c r="H36" s="56"/>
       <c r="I36" s="56"/>
@@ -1867,8 +1879,8 @@
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="5"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="63"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="58"/>
       <c r="G37" s="23"/>
       <c r="H37" s="56"/>
       <c r="I37" s="56"/>
@@ -1886,8 +1898,8 @@
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="5"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="63"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="58"/>
       <c r="G38" s="23"/>
       <c r="H38" s="56"/>
       <c r="I38" s="56"/>
@@ -1905,8 +1917,8 @@
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="5"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="63"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="58"/>
       <c r="G39" s="23"/>
       <c r="H39" s="56"/>
       <c r="I39" s="56"/>
@@ -1924,8 +1936,8 @@
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="5"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="63"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="58"/>
       <c r="G40" s="23"/>
       <c r="H40" s="56"/>
       <c r="I40" s="56"/>
@@ -1943,8 +1955,8 @@
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="5"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="63"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="58"/>
       <c r="G41" s="23"/>
       <c r="H41" s="56"/>
       <c r="I41" s="56"/>
@@ -1962,8 +1974,8 @@
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="5"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="63"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="58"/>
       <c r="G42" s="23"/>
       <c r="H42" s="56"/>
       <c r="I42" s="56"/>
@@ -1981,8 +1993,8 @@
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="5"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="63"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="58"/>
       <c r="G43" s="23"/>
       <c r="H43" s="56"/>
       <c r="I43" s="56"/>
@@ -2000,8 +2012,8 @@
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="5"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="63"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="58"/>
       <c r="G44" s="23"/>
       <c r="H44" s="56"/>
       <c r="I44" s="56"/>
@@ -2019,8 +2031,8 @@
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="5"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="63"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="58"/>
       <c r="G45" s="23"/>
       <c r="H45" s="56"/>
       <c r="I45" s="56"/>
@@ -2038,8 +2050,8 @@
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="5"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="63"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="58"/>
       <c r="G46" s="23"/>
       <c r="H46" s="56"/>
       <c r="I46" s="56"/>
@@ -2057,8 +2069,8 @@
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="5"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="63"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="58"/>
       <c r="G47" s="23"/>
       <c r="H47" s="56"/>
       <c r="I47" s="56"/>
@@ -2076,8 +2088,8 @@
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="5"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="63"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="58"/>
       <c r="G48" s="23"/>
       <c r="H48" s="56"/>
       <c r="I48" s="56"/>
@@ -2095,8 +2107,8 @@
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="5"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="63"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="58"/>
       <c r="G49" s="23"/>
       <c r="H49" s="56"/>
       <c r="I49" s="56"/>
@@ -2114,8 +2126,8 @@
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="5"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="63"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="58"/>
       <c r="G50" s="23"/>
       <c r="H50" s="56"/>
       <c r="I50" s="56"/>
@@ -2133,8 +2145,8 @@
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
       <c r="D51" s="5"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="63"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="58"/>
       <c r="G51" s="23"/>
       <c r="H51" s="56"/>
       <c r="I51" s="56"/>
@@ -2152,8 +2164,8 @@
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
       <c r="D52" s="5"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="63"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="58"/>
       <c r="G52" s="23"/>
       <c r="H52" s="56"/>
       <c r="I52" s="56"/>
@@ -2171,8 +2183,8 @@
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
       <c r="D53" s="5"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="63"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="58"/>
       <c r="G53" s="23"/>
       <c r="H53" s="56"/>
       <c r="I53" s="56"/>
@@ -2190,8 +2202,8 @@
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
       <c r="D54" s="5"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="63"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="58"/>
       <c r="G54" s="23"/>
       <c r="H54" s="56"/>
       <c r="I54" s="56"/>
@@ -2209,8 +2221,8 @@
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="D55" s="5"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="63"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="58"/>
       <c r="G55" s="23"/>
       <c r="H55" s="56"/>
       <c r="I55" s="56"/>
@@ -2228,8 +2240,8 @@
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
       <c r="D56" s="5"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="63"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="58"/>
       <c r="G56" s="23"/>
       <c r="H56" s="56"/>
       <c r="I56" s="56"/>
@@ -2247,8 +2259,8 @@
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
       <c r="D57" s="5"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="63"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="58"/>
       <c r="G57" s="23"/>
       <c r="H57" s="56"/>
       <c r="I57" s="56"/>
@@ -2266,8 +2278,8 @@
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
       <c r="D58" s="5"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="63"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="58"/>
       <c r="G58" s="23"/>
       <c r="H58" s="56"/>
       <c r="I58" s="56"/>
@@ -2285,8 +2297,8 @@
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
       <c r="D59" s="5"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="63"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="58"/>
       <c r="G59" s="23"/>
       <c r="H59" s="56"/>
       <c r="I59" s="56"/>
@@ -2304,8 +2316,8 @@
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
       <c r="D60" s="5"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="63"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="58"/>
       <c r="G60" s="23"/>
       <c r="H60" s="56"/>
       <c r="I60" s="56"/>
@@ -2323,8 +2335,8 @@
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
       <c r="D61" s="5"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="63"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="58"/>
       <c r="G61" s="23"/>
       <c r="H61" s="56"/>
       <c r="I61" s="56"/>
@@ -2342,8 +2354,8 @@
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
       <c r="D62" s="5"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="63"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="58"/>
       <c r="G62" s="23"/>
       <c r="H62" s="56"/>
       <c r="I62" s="56"/>
@@ -2361,8 +2373,8 @@
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
       <c r="D63" s="5"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="63"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="58"/>
       <c r="G63" s="23"/>
       <c r="H63" s="56"/>
       <c r="I63" s="56"/>
@@ -2380,8 +2392,8 @@
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
       <c r="D64" s="5"/>
-      <c r="E64" s="4"/>
-      <c r="F64" s="63"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="58"/>
       <c r="G64" s="23"/>
       <c r="H64" s="56"/>
       <c r="I64" s="56"/>
@@ -2399,8 +2411,8 @@
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
       <c r="D65" s="5"/>
-      <c r="E65" s="4"/>
-      <c r="F65" s="63"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="58"/>
       <c r="G65" s="23"/>
       <c r="H65" s="56"/>
       <c r="I65" s="56"/>
@@ -2418,8 +2430,8 @@
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
       <c r="D66" s="5"/>
-      <c r="E66" s="4"/>
-      <c r="F66" s="63"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="58"/>
       <c r="G66" s="23"/>
       <c r="H66" s="56"/>
       <c r="I66" s="56"/>
@@ -2437,8 +2449,8 @@
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
       <c r="D67" s="5"/>
-      <c r="E67" s="4"/>
-      <c r="F67" s="63"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="58"/>
       <c r="G67" s="23"/>
       <c r="H67" s="56"/>
       <c r="I67" s="56"/>
@@ -2456,8 +2468,8 @@
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
       <c r="D68" s="5"/>
-      <c r="E68" s="4"/>
-      <c r="F68" s="63"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="58"/>
       <c r="G68" s="23"/>
       <c r="H68" s="56"/>
       <c r="I68" s="56"/>
@@ -2475,8 +2487,8 @@
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
       <c r="D69" s="5"/>
-      <c r="E69" s="4"/>
-      <c r="F69" s="63"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="58"/>
       <c r="G69" s="23"/>
       <c r="H69" s="56"/>
       <c r="I69" s="56"/>
@@ -2494,8 +2506,8 @@
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
       <c r="D70" s="5"/>
-      <c r="E70" s="4"/>
-      <c r="F70" s="63"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="58"/>
       <c r="G70" s="23"/>
       <c r="H70" s="56"/>
       <c r="I70" s="56"/>
@@ -2513,8 +2525,8 @@
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
       <c r="D71" s="5"/>
-      <c r="E71" s="4"/>
-      <c r="F71" s="63"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="58"/>
       <c r="G71" s="23"/>
       <c r="H71" s="56"/>
       <c r="I71" s="56"/>
@@ -2532,8 +2544,8 @@
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
       <c r="D72" s="5"/>
-      <c r="E72" s="4"/>
-      <c r="F72" s="63"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="58"/>
       <c r="G72" s="23"/>
       <c r="H72" s="56"/>
       <c r="I72" s="56"/>
@@ -2551,8 +2563,8 @@
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
       <c r="D73" s="5"/>
-      <c r="E73" s="4"/>
-      <c r="F73" s="63"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="58"/>
       <c r="G73" s="23"/>
       <c r="H73" s="56"/>
       <c r="I73" s="56"/>
@@ -2570,8 +2582,8 @@
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
       <c r="D74" s="5"/>
-      <c r="E74" s="4"/>
-      <c r="F74" s="63"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="58"/>
       <c r="G74" s="23"/>
       <c r="H74" s="56"/>
       <c r="I74" s="56"/>
@@ -2589,8 +2601,8 @@
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
       <c r="D75" s="5"/>
-      <c r="E75" s="4"/>
-      <c r="F75" s="63"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="58"/>
       <c r="G75" s="23"/>
       <c r="H75" s="56"/>
       <c r="I75" s="56"/>
@@ -2608,8 +2620,8 @@
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
       <c r="D76" s="5"/>
-      <c r="E76" s="4"/>
-      <c r="F76" s="63"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="58"/>
       <c r="G76" s="23"/>
       <c r="H76" s="56"/>
       <c r="I76" s="56"/>
@@ -2627,8 +2639,8 @@
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
       <c r="D77" s="5"/>
-      <c r="E77" s="4"/>
-      <c r="F77" s="63"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="58"/>
       <c r="G77" s="23"/>
       <c r="H77" s="56"/>
       <c r="I77" s="56"/>
@@ -2646,8 +2658,8 @@
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
       <c r="D78" s="5"/>
-      <c r="E78" s="4"/>
-      <c r="F78" s="63"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="58"/>
       <c r="G78" s="23"/>
       <c r="H78" s="56"/>
       <c r="I78" s="56"/>
@@ -2665,8 +2677,8 @@
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
       <c r="D79" s="5"/>
-      <c r="E79" s="4"/>
-      <c r="F79" s="63"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="58"/>
       <c r="G79" s="23"/>
       <c r="H79" s="56"/>
       <c r="I79" s="56"/>
@@ -2684,8 +2696,8 @@
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
       <c r="D80" s="5"/>
-      <c r="E80" s="4"/>
-      <c r="F80" s="63"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="58"/>
       <c r="G80" s="23"/>
       <c r="H80" s="56"/>
       <c r="I80" s="56"/>
@@ -2703,8 +2715,8 @@
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
       <c r="D81" s="5"/>
-      <c r="E81" s="4"/>
-      <c r="F81" s="63"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="58"/>
       <c r="G81" s="23"/>
       <c r="H81" s="56"/>
       <c r="I81" s="56"/>
@@ -2722,8 +2734,8 @@
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
       <c r="D82" s="5"/>
-      <c r="E82" s="4"/>
-      <c r="F82" s="63"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="58"/>
       <c r="G82" s="23"/>
       <c r="H82" s="56"/>
       <c r="I82" s="56"/>
@@ -2741,8 +2753,8 @@
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
       <c r="D83" s="5"/>
-      <c r="E83" s="4"/>
-      <c r="F83" s="63"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="58"/>
       <c r="G83" s="23"/>
       <c r="H83" s="56"/>
       <c r="I83" s="56"/>
@@ -2760,8 +2772,8 @@
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
       <c r="D84" s="5"/>
-      <c r="E84" s="4"/>
-      <c r="F84" s="63"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="58"/>
       <c r="G84" s="23"/>
       <c r="H84" s="56"/>
       <c r="I84" s="56"/>
@@ -2779,8 +2791,8 @@
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
       <c r="D85" s="5"/>
-      <c r="E85" s="4"/>
-      <c r="F85" s="63"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="58"/>
       <c r="G85" s="23"/>
       <c r="H85" s="56"/>
       <c r="I85" s="56"/>
@@ -2798,8 +2810,8 @@
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
       <c r="D86" s="5"/>
-      <c r="E86" s="4"/>
-      <c r="F86" s="63"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="58"/>
       <c r="G86" s="23"/>
       <c r="H86" s="56"/>
       <c r="I86" s="56"/>
@@ -2817,8 +2829,8 @@
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
       <c r="D87" s="5"/>
-      <c r="E87" s="4"/>
-      <c r="F87" s="63"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="58"/>
       <c r="G87" s="23"/>
       <c r="H87" s="56"/>
       <c r="I87" s="56"/>
@@ -2836,8 +2848,8 @@
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
       <c r="D88" s="5"/>
-      <c r="E88" s="4"/>
-      <c r="F88" s="63"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="58"/>
       <c r="G88" s="23"/>
       <c r="H88" s="56"/>
       <c r="I88" s="56"/>
@@ -2855,8 +2867,8 @@
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
       <c r="D89" s="5"/>
-      <c r="E89" s="4"/>
-      <c r="F89" s="63"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="58"/>
       <c r="G89" s="23"/>
       <c r="H89" s="56"/>
       <c r="I89" s="56"/>
@@ -2874,8 +2886,8 @@
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
       <c r="D90" s="5"/>
-      <c r="E90" s="4"/>
-      <c r="F90" s="63"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="58"/>
       <c r="G90" s="23"/>
       <c r="H90" s="56"/>
       <c r="I90" s="56"/>
@@ -2893,8 +2905,8 @@
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
       <c r="D91" s="5"/>
-      <c r="E91" s="4"/>
-      <c r="F91" s="63"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="58"/>
       <c r="G91" s="23"/>
       <c r="H91" s="56"/>
       <c r="I91" s="56"/>
@@ -2912,8 +2924,8 @@
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
       <c r="D92" s="5"/>
-      <c r="E92" s="4"/>
-      <c r="F92" s="63"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="58"/>
       <c r="G92" s="23"/>
       <c r="H92" s="56"/>
       <c r="I92" s="56"/>
@@ -2931,8 +2943,8 @@
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
       <c r="D93" s="5"/>
-      <c r="E93" s="4"/>
-      <c r="F93" s="63"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="58"/>
       <c r="G93" s="23"/>
       <c r="H93" s="56"/>
       <c r="I93" s="56"/>
@@ -2950,8 +2962,8 @@
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
       <c r="D94" s="5"/>
-      <c r="E94" s="4"/>
-      <c r="F94" s="63"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="58"/>
       <c r="G94" s="23"/>
       <c r="H94" s="56"/>
       <c r="I94" s="56"/>
@@ -2969,8 +2981,8 @@
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
       <c r="D95" s="5"/>
-      <c r="E95" s="4"/>
-      <c r="F95" s="63"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="58"/>
       <c r="G95" s="23"/>
       <c r="H95" s="56"/>
       <c r="I95" s="56"/>
@@ -2988,8 +3000,8 @@
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
       <c r="D96" s="5"/>
-      <c r="E96" s="4"/>
-      <c r="F96" s="63"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="58"/>
       <c r="G96" s="23"/>
       <c r="H96" s="56"/>
       <c r="I96" s="56"/>
@@ -3007,8 +3019,8 @@
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
       <c r="D97" s="5"/>
-      <c r="E97" s="4"/>
-      <c r="F97" s="63"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="58"/>
       <c r="G97" s="23"/>
       <c r="H97" s="56"/>
       <c r="I97" s="56"/>
@@ -3026,8 +3038,8 @@
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
       <c r="D98" s="5"/>
-      <c r="E98" s="4"/>
-      <c r="F98" s="63"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="58"/>
       <c r="G98" s="23"/>
       <c r="H98" s="56"/>
       <c r="I98" s="56"/>
@@ -3045,8 +3057,8 @@
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
       <c r="D99" s="5"/>
-      <c r="E99" s="4"/>
-      <c r="F99" s="63"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="58"/>
       <c r="G99" s="23"/>
       <c r="H99" s="56"/>
       <c r="I99" s="56"/>
@@ -3064,8 +3076,8 @@
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
       <c r="D100" s="5"/>
-      <c r="E100" s="4"/>
-      <c r="F100" s="63"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="58"/>
       <c r="G100" s="23"/>
       <c r="H100" s="56"/>
       <c r="I100" s="56"/>
@@ -3083,8 +3095,8 @@
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
       <c r="D101" s="5"/>
-      <c r="E101" s="4"/>
-      <c r="F101" s="63"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="58"/>
       <c r="G101" s="23"/>
       <c r="H101" s="56"/>
       <c r="I101" s="56"/>
@@ -3102,8 +3114,8 @@
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
       <c r="D102" s="5"/>
-      <c r="E102" s="4"/>
-      <c r="F102" s="63"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="58"/>
       <c r="G102" s="23"/>
       <c r="H102" s="56"/>
       <c r="I102" s="56"/>
@@ -3121,8 +3133,8 @@
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
       <c r="D103" s="5"/>
-      <c r="E103" s="4"/>
-      <c r="F103" s="63"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="58"/>
       <c r="G103" s="23"/>
       <c r="H103" s="56"/>
       <c r="I103" s="56"/>
@@ -3140,8 +3152,8 @@
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
       <c r="D104" s="5"/>
-      <c r="E104" s="4"/>
-      <c r="F104" s="63"/>
+      <c r="E104" s="5"/>
+      <c r="F104" s="58"/>
       <c r="G104" s="23"/>
       <c r="H104" s="56"/>
       <c r="I104" s="56"/>
@@ -3159,8 +3171,8 @@
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
       <c r="D105" s="5"/>
-      <c r="E105" s="4"/>
-      <c r="F105" s="63"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="58"/>
       <c r="G105" s="23"/>
       <c r="H105" s="56"/>
       <c r="I105" s="56"/>
@@ -3178,8 +3190,8 @@
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
       <c r="D106" s="5"/>
-      <c r="E106" s="4"/>
-      <c r="F106" s="63"/>
+      <c r="E106" s="5"/>
+      <c r="F106" s="58"/>
       <c r="G106" s="23"/>
       <c r="H106" s="56"/>
       <c r="I106" s="56"/>
@@ -3197,8 +3209,8 @@
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
       <c r="D107" s="5"/>
-      <c r="E107" s="4"/>
-      <c r="F107" s="63"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="58"/>
       <c r="G107" s="23"/>
       <c r="H107" s="56"/>
       <c r="I107" s="56"/>
@@ -3216,8 +3228,8 @@
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
       <c r="D108" s="5"/>
-      <c r="E108" s="4"/>
-      <c r="F108" s="63"/>
+      <c r="E108" s="5"/>
+      <c r="F108" s="58"/>
       <c r="G108" s="23"/>
       <c r="H108" s="56"/>
       <c r="I108" s="56"/>
@@ -3235,8 +3247,8 @@
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
       <c r="D109" s="5"/>
-      <c r="E109" s="4"/>
-      <c r="F109" s="63"/>
+      <c r="E109" s="5"/>
+      <c r="F109" s="58"/>
       <c r="G109" s="23"/>
       <c r="H109" s="56"/>
       <c r="I109" s="56"/>
@@ -3254,8 +3266,8 @@
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
       <c r="D110" s="5"/>
-      <c r="E110" s="4"/>
-      <c r="F110" s="63"/>
+      <c r="E110" s="5"/>
+      <c r="F110" s="58"/>
       <c r="G110" s="23"/>
       <c r="H110" s="56"/>
       <c r="I110" s="56"/>
@@ -3273,8 +3285,8 @@
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
       <c r="D111" s="5"/>
-      <c r="E111" s="4"/>
-      <c r="F111" s="63"/>
+      <c r="E111" s="5"/>
+      <c r="F111" s="58"/>
       <c r="G111" s="23"/>
       <c r="H111" s="56"/>
       <c r="I111" s="56"/>
@@ -3292,8 +3304,8 @@
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
       <c r="D112" s="5"/>
-      <c r="E112" s="4"/>
-      <c r="F112" s="63"/>
+      <c r="E112" s="5"/>
+      <c r="F112" s="58"/>
       <c r="G112" s="23"/>
       <c r="H112" s="56"/>
       <c r="I112" s="56"/>
@@ -3311,8 +3323,8 @@
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
       <c r="D113" s="5"/>
-      <c r="E113" s="4"/>
-      <c r="F113" s="63"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="58"/>
       <c r="G113" s="23"/>
       <c r="H113" s="56"/>
       <c r="I113" s="56"/>
@@ -3330,8 +3342,8 @@
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
       <c r="D114" s="5"/>
-      <c r="E114" s="4"/>
-      <c r="F114" s="63"/>
+      <c r="E114" s="5"/>
+      <c r="F114" s="58"/>
       <c r="G114" s="23"/>
       <c r="H114" s="56"/>
       <c r="I114" s="56"/>
@@ -3349,8 +3361,8 @@
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
       <c r="D115" s="5"/>
-      <c r="E115" s="4"/>
-      <c r="F115" s="63"/>
+      <c r="E115" s="5"/>
+      <c r="F115" s="58"/>
       <c r="G115" s="23"/>
       <c r="H115" s="56"/>
       <c r="I115" s="56"/>
@@ -3368,8 +3380,8 @@
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
       <c r="D116" s="5"/>
-      <c r="E116" s="4"/>
-      <c r="F116" s="63"/>
+      <c r="E116" s="5"/>
+      <c r="F116" s="58"/>
       <c r="G116" s="23"/>
       <c r="H116" s="56"/>
       <c r="I116" s="56"/>
@@ -3387,8 +3399,8 @@
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
       <c r="D117" s="5"/>
-      <c r="E117" s="4"/>
-      <c r="F117" s="63"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="58"/>
       <c r="G117" s="23"/>
       <c r="H117" s="56"/>
       <c r="I117" s="56"/>
@@ -3406,8 +3418,8 @@
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
       <c r="D118" s="5"/>
-      <c r="E118" s="4"/>
-      <c r="F118" s="63"/>
+      <c r="E118" s="5"/>
+      <c r="F118" s="58"/>
       <c r="G118" s="23"/>
       <c r="H118" s="56"/>
       <c r="I118" s="56"/>
@@ -3425,8 +3437,8 @@
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
       <c r="D119" s="5"/>
-      <c r="E119" s="4"/>
-      <c r="F119" s="63"/>
+      <c r="E119" s="5"/>
+      <c r="F119" s="58"/>
       <c r="G119" s="23"/>
       <c r="H119" s="56"/>
       <c r="I119" s="56"/>
@@ -3444,8 +3456,8 @@
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
       <c r="D120" s="5"/>
-      <c r="E120" s="4"/>
-      <c r="F120" s="63"/>
+      <c r="E120" s="5"/>
+      <c r="F120" s="58"/>
       <c r="G120" s="23"/>
       <c r="H120" s="56"/>
       <c r="I120" s="56"/>
@@ -3463,8 +3475,8 @@
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
       <c r="D121" s="5"/>
-      <c r="E121" s="4"/>
-      <c r="F121" s="63"/>
+      <c r="E121" s="5"/>
+      <c r="F121" s="58"/>
       <c r="G121" s="23"/>
       <c r="H121" s="56"/>
       <c r="I121" s="56"/>
@@ -3482,8 +3494,8 @@
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
       <c r="D122" s="5"/>
-      <c r="E122" s="4"/>
-      <c r="F122" s="63"/>
+      <c r="E122" s="5"/>
+      <c r="F122" s="58"/>
       <c r="G122" s="23"/>
       <c r="H122" s="56"/>
       <c r="I122" s="56"/>
@@ -3501,8 +3513,8 @@
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
       <c r="D123" s="5"/>
-      <c r="E123" s="4"/>
-      <c r="F123" s="63"/>
+      <c r="E123" s="5"/>
+      <c r="F123" s="58"/>
       <c r="G123" s="23"/>
       <c r="H123" s="56"/>
       <c r="I123" s="56"/>
@@ -3520,8 +3532,8 @@
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
       <c r="D124" s="5"/>
-      <c r="E124" s="4"/>
-      <c r="F124" s="63"/>
+      <c r="E124" s="5"/>
+      <c r="F124" s="58"/>
       <c r="G124" s="23"/>
       <c r="H124" s="56"/>
       <c r="I124" s="56"/>
@@ -3539,8 +3551,8 @@
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
       <c r="D125" s="5"/>
-      <c r="E125" s="4"/>
-      <c r="F125" s="63"/>
+      <c r="E125" s="5"/>
+      <c r="F125" s="58"/>
       <c r="G125" s="23"/>
       <c r="H125" s="56"/>
       <c r="I125" s="56"/>
@@ -3558,8 +3570,8 @@
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
       <c r="D126" s="5"/>
-      <c r="E126" s="4"/>
-      <c r="F126" s="63"/>
+      <c r="E126" s="5"/>
+      <c r="F126" s="58"/>
       <c r="G126" s="23"/>
       <c r="H126" s="56"/>
       <c r="I126" s="56"/>
@@ -3577,8 +3589,8 @@
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
       <c r="D127" s="5"/>
-      <c r="E127" s="4"/>
-      <c r="F127" s="63"/>
+      <c r="E127" s="5"/>
+      <c r="F127" s="58"/>
       <c r="G127" s="23"/>
       <c r="H127" s="56"/>
       <c r="I127" s="56"/>
@@ -3596,8 +3608,8 @@
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
       <c r="D128" s="5"/>
-      <c r="E128" s="4"/>
-      <c r="F128" s="63"/>
+      <c r="E128" s="5"/>
+      <c r="F128" s="58"/>
       <c r="G128" s="23"/>
       <c r="H128" s="56"/>
       <c r="I128" s="56"/>
@@ -3615,8 +3627,8 @@
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
       <c r="D129" s="5"/>
-      <c r="E129" s="4"/>
-      <c r="F129" s="63"/>
+      <c r="E129" s="5"/>
+      <c r="F129" s="58"/>
       <c r="G129" s="23"/>
       <c r="H129" s="56"/>
       <c r="I129" s="56"/>
@@ -3634,8 +3646,8 @@
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
       <c r="D130" s="5"/>
-      <c r="E130" s="4"/>
-      <c r="F130" s="63"/>
+      <c r="E130" s="5"/>
+      <c r="F130" s="58"/>
       <c r="G130" s="23"/>
       <c r="H130" s="56"/>
       <c r="I130" s="56"/>
@@ -3653,8 +3665,8 @@
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
       <c r="D131" s="5"/>
-      <c r="E131" s="4"/>
-      <c r="F131" s="63"/>
+      <c r="E131" s="5"/>
+      <c r="F131" s="58"/>
       <c r="G131" s="23"/>
       <c r="H131" s="56"/>
       <c r="I131" s="56"/>
@@ -3672,8 +3684,8 @@
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
       <c r="D132" s="5"/>
-      <c r="E132" s="4"/>
-      <c r="F132" s="63"/>
+      <c r="E132" s="5"/>
+      <c r="F132" s="58"/>
       <c r="G132" s="23"/>
       <c r="H132" s="56"/>
       <c r="I132" s="56"/>
@@ -3691,8 +3703,8 @@
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
       <c r="D133" s="5"/>
-      <c r="E133" s="4"/>
-      <c r="F133" s="63"/>
+      <c r="E133" s="5"/>
+      <c r="F133" s="58"/>
       <c r="G133" s="23"/>
       <c r="H133" s="56"/>
       <c r="I133" s="56"/>
@@ -3710,8 +3722,8 @@
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
       <c r="D134" s="5"/>
-      <c r="E134" s="4"/>
-      <c r="F134" s="63"/>
+      <c r="E134" s="5"/>
+      <c r="F134" s="58"/>
       <c r="G134" s="23"/>
       <c r="H134" s="56"/>
       <c r="I134" s="56"/>
@@ -3729,8 +3741,8 @@
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
       <c r="D135" s="5"/>
-      <c r="E135" s="4"/>
-      <c r="F135" s="63"/>
+      <c r="E135" s="5"/>
+      <c r="F135" s="58"/>
       <c r="G135" s="23"/>
       <c r="H135" s="56"/>
       <c r="I135" s="56"/>
@@ -3748,8 +3760,8 @@
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
       <c r="D136" s="5"/>
-      <c r="E136" s="4"/>
-      <c r="F136" s="63"/>
+      <c r="E136" s="5"/>
+      <c r="F136" s="58"/>
       <c r="G136" s="23"/>
       <c r="H136" s="56"/>
       <c r="I136" s="56"/>
@@ -3767,8 +3779,8 @@
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
       <c r="D137" s="5"/>
-      <c r="E137" s="4"/>
-      <c r="F137" s="63"/>
+      <c r="E137" s="5"/>
+      <c r="F137" s="58"/>
       <c r="G137" s="23"/>
       <c r="H137" s="56"/>
       <c r="I137" s="56"/>
@@ -3786,8 +3798,8 @@
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
       <c r="D138" s="5"/>
-      <c r="E138" s="4"/>
-      <c r="F138" s="63"/>
+      <c r="E138" s="5"/>
+      <c r="F138" s="58"/>
       <c r="G138" s="23"/>
       <c r="H138" s="56"/>
       <c r="I138" s="56"/>
@@ -3805,8 +3817,8 @@
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
       <c r="D139" s="5"/>
-      <c r="E139" s="4"/>
-      <c r="F139" s="63"/>
+      <c r="E139" s="5"/>
+      <c r="F139" s="58"/>
       <c r="G139" s="23"/>
       <c r="H139" s="56"/>
       <c r="I139" s="56"/>
@@ -3824,8 +3836,8 @@
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
       <c r="D140" s="5"/>
-      <c r="E140" s="4"/>
-      <c r="F140" s="63"/>
+      <c r="E140" s="5"/>
+      <c r="F140" s="58"/>
       <c r="G140" s="23"/>
       <c r="H140" s="56"/>
       <c r="I140" s="56"/>
@@ -3843,8 +3855,8 @@
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
       <c r="D141" s="5"/>
-      <c r="E141" s="4"/>
-      <c r="F141" s="63"/>
+      <c r="E141" s="5"/>
+      <c r="F141" s="58"/>
       <c r="G141" s="23"/>
       <c r="H141" s="56"/>
       <c r="I141" s="56"/>
@@ -3862,8 +3874,8 @@
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
       <c r="D142" s="5"/>
-      <c r="E142" s="4"/>
-      <c r="F142" s="63"/>
+      <c r="E142" s="5"/>
+      <c r="F142" s="58"/>
       <c r="G142" s="23"/>
       <c r="H142" s="56"/>
       <c r="I142" s="56"/>
@@ -3881,8 +3893,8 @@
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
       <c r="D143" s="5"/>
-      <c r="E143" s="4"/>
-      <c r="F143" s="63"/>
+      <c r="E143" s="5"/>
+      <c r="F143" s="58"/>
       <c r="G143" s="23"/>
       <c r="H143" s="56"/>
       <c r="I143" s="56"/>
@@ -3900,8 +3912,8 @@
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
       <c r="D144" s="5"/>
-      <c r="E144" s="4"/>
-      <c r="F144" s="63"/>
+      <c r="E144" s="5"/>
+      <c r="F144" s="58"/>
       <c r="G144" s="23"/>
       <c r="H144" s="56"/>
       <c r="I144" s="56"/>
@@ -3919,8 +3931,8 @@
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
       <c r="D145" s="5"/>
-      <c r="E145" s="4"/>
-      <c r="F145" s="63"/>
+      <c r="E145" s="5"/>
+      <c r="F145" s="58"/>
       <c r="G145" s="23"/>
       <c r="H145" s="56"/>
       <c r="I145" s="56"/>
@@ -3938,8 +3950,8 @@
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
       <c r="D146" s="5"/>
-      <c r="E146" s="4"/>
-      <c r="F146" s="63"/>
+      <c r="E146" s="5"/>
+      <c r="F146" s="58"/>
       <c r="G146" s="23"/>
       <c r="H146" s="56"/>
       <c r="I146" s="56"/>
@@ -3957,8 +3969,8 @@
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
       <c r="D147" s="5"/>
-      <c r="E147" s="4"/>
-      <c r="F147" s="63"/>
+      <c r="E147" s="5"/>
+      <c r="F147" s="58"/>
       <c r="G147" s="23"/>
       <c r="H147" s="56"/>
       <c r="I147" s="56"/>
@@ -3976,8 +3988,8 @@
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
       <c r="D148" s="5"/>
-      <c r="E148" s="4"/>
-      <c r="F148" s="63"/>
+      <c r="E148" s="5"/>
+      <c r="F148" s="58"/>
       <c r="G148" s="23"/>
       <c r="H148" s="56"/>
       <c r="I148" s="56"/>
@@ -3995,8 +4007,8 @@
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
       <c r="D149" s="5"/>
-      <c r="E149" s="4"/>
-      <c r="F149" s="63"/>
+      <c r="E149" s="5"/>
+      <c r="F149" s="58"/>
       <c r="G149" s="23"/>
       <c r="H149" s="56"/>
       <c r="I149" s="56"/>
@@ -4014,8 +4026,8 @@
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
       <c r="D150" s="5"/>
-      <c r="E150" s="4"/>
-      <c r="F150" s="63"/>
+      <c r="E150" s="5"/>
+      <c r="F150" s="58"/>
       <c r="G150" s="23"/>
       <c r="H150" s="56"/>
       <c r="I150" s="56"/>
@@ -4033,8 +4045,8 @@
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
       <c r="D151" s="5"/>
-      <c r="E151" s="4"/>
-      <c r="F151" s="63"/>
+      <c r="E151" s="5"/>
+      <c r="F151" s="58"/>
       <c r="G151" s="23"/>
       <c r="H151" s="56"/>
       <c r="I151" s="56"/>
@@ -4052,8 +4064,8 @@
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
       <c r="D152" s="5"/>
-      <c r="E152" s="4"/>
-      <c r="F152" s="63"/>
+      <c r="E152" s="5"/>
+      <c r="F152" s="58"/>
       <c r="G152" s="23"/>
       <c r="H152" s="56"/>
       <c r="I152" s="56"/>
@@ -4071,8 +4083,8 @@
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
       <c r="D153" s="5"/>
-      <c r="E153" s="4"/>
-      <c r="F153" s="63"/>
+      <c r="E153" s="5"/>
+      <c r="F153" s="58"/>
       <c r="G153" s="23"/>
       <c r="H153" s="56"/>
       <c r="I153" s="56"/>
@@ -4090,8 +4102,8 @@
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
       <c r="D154" s="5"/>
-      <c r="E154" s="4"/>
-      <c r="F154" s="63"/>
+      <c r="E154" s="5"/>
+      <c r="F154" s="58"/>
       <c r="G154" s="23"/>
       <c r="H154" s="56"/>
       <c r="I154" s="56"/>
@@ -4109,8 +4121,8 @@
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
       <c r="D155" s="5"/>
-      <c r="E155" s="4"/>
-      <c r="F155" s="63"/>
+      <c r="E155" s="5"/>
+      <c r="F155" s="58"/>
       <c r="G155" s="23"/>
       <c r="H155" s="56"/>
       <c r="I155" s="56"/>
@@ -4128,8 +4140,8 @@
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
       <c r="D156" s="5"/>
-      <c r="E156" s="4"/>
-      <c r="F156" s="63"/>
+      <c r="E156" s="5"/>
+      <c r="F156" s="58"/>
       <c r="G156" s="23"/>
       <c r="H156" s="56"/>
       <c r="I156" s="56"/>
@@ -4147,8 +4159,8 @@
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
       <c r="D157" s="5"/>
-      <c r="E157" s="4"/>
-      <c r="F157" s="63"/>
+      <c r="E157" s="5"/>
+      <c r="F157" s="58"/>
       <c r="G157" s="23"/>
       <c r="H157" s="56"/>
       <c r="I157" s="56"/>
@@ -4166,8 +4178,8 @@
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
       <c r="D158" s="5"/>
-      <c r="E158" s="4"/>
-      <c r="F158" s="63"/>
+      <c r="E158" s="5"/>
+      <c r="F158" s="58"/>
       <c r="G158" s="23"/>
       <c r="H158" s="56"/>
       <c r="I158" s="56"/>
@@ -4185,8 +4197,8 @@
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
       <c r="D159" s="5"/>
-      <c r="E159" s="4"/>
-      <c r="F159" s="63"/>
+      <c r="E159" s="5"/>
+      <c r="F159" s="58"/>
       <c r="G159" s="23"/>
       <c r="H159" s="56"/>
       <c r="I159" s="56"/>
@@ -4204,8 +4216,8 @@
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
       <c r="D160" s="5"/>
-      <c r="E160" s="4"/>
-      <c r="F160" s="63"/>
+      <c r="E160" s="5"/>
+      <c r="F160" s="58"/>
       <c r="G160" s="23"/>
       <c r="H160" s="56"/>
       <c r="I160" s="56"/>
@@ -4223,8 +4235,8 @@
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
       <c r="D161" s="5"/>
-      <c r="E161" s="4"/>
-      <c r="F161" s="63"/>
+      <c r="E161" s="5"/>
+      <c r="F161" s="58"/>
       <c r="G161" s="23"/>
       <c r="H161" s="56"/>
       <c r="I161" s="56"/>
@@ -4242,8 +4254,8 @@
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
       <c r="D162" s="5"/>
-      <c r="E162" s="4"/>
-      <c r="F162" s="63"/>
+      <c r="E162" s="5"/>
+      <c r="F162" s="58"/>
       <c r="G162" s="23"/>
       <c r="H162" s="56"/>
       <c r="I162" s="56"/>
@@ -4261,8 +4273,8 @@
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
       <c r="D163" s="5"/>
-      <c r="E163" s="4"/>
-      <c r="F163" s="63"/>
+      <c r="E163" s="5"/>
+      <c r="F163" s="58"/>
       <c r="G163" s="23"/>
       <c r="H163" s="56"/>
       <c r="I163" s="56"/>
@@ -4280,8 +4292,8 @@
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
       <c r="D164" s="5"/>
-      <c r="E164" s="4"/>
-      <c r="F164" s="63"/>
+      <c r="E164" s="5"/>
+      <c r="F164" s="58"/>
       <c r="G164" s="23"/>
       <c r="H164" s="56"/>
       <c r="I164" s="56"/>
@@ -4299,8 +4311,8 @@
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
       <c r="D165" s="5"/>
-      <c r="E165" s="4"/>
-      <c r="F165" s="63"/>
+      <c r="E165" s="5"/>
+      <c r="F165" s="58"/>
       <c r="G165" s="23"/>
       <c r="H165" s="56"/>
       <c r="I165" s="56"/>
@@ -4318,8 +4330,8 @@
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
       <c r="D166" s="5"/>
-      <c r="E166" s="4"/>
-      <c r="F166" s="63"/>
+      <c r="E166" s="5"/>
+      <c r="F166" s="58"/>
       <c r="G166" s="23"/>
       <c r="H166" s="56"/>
       <c r="I166" s="56"/>
@@ -4337,8 +4349,8 @@
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
       <c r="D167" s="5"/>
-      <c r="E167" s="4"/>
-      <c r="F167" s="63"/>
+      <c r="E167" s="5"/>
+      <c r="F167" s="58"/>
       <c r="G167" s="23"/>
       <c r="H167" s="56"/>
       <c r="I167" s="56"/>
@@ -4356,8 +4368,8 @@
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
       <c r="D168" s="5"/>
-      <c r="E168" s="4"/>
-      <c r="F168" s="63"/>
+      <c r="E168" s="5"/>
+      <c r="F168" s="58"/>
       <c r="G168" s="23"/>
       <c r="H168" s="56"/>
       <c r="I168" s="56"/>
@@ -4375,8 +4387,8 @@
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
       <c r="D169" s="5"/>
-      <c r="E169" s="4"/>
-      <c r="F169" s="63"/>
+      <c r="E169" s="5"/>
+      <c r="F169" s="58"/>
       <c r="G169" s="23"/>
       <c r="H169" s="56"/>
       <c r="I169" s="56"/>
@@ -4394,8 +4406,8 @@
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
       <c r="D170" s="5"/>
-      <c r="E170" s="4"/>
-      <c r="F170" s="63"/>
+      <c r="E170" s="5"/>
+      <c r="F170" s="58"/>
       <c r="G170" s="23"/>
       <c r="H170" s="56"/>
       <c r="I170" s="56"/>
@@ -4413,8 +4425,8 @@
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
       <c r="D171" s="5"/>
-      <c r="E171" s="4"/>
-      <c r="F171" s="63"/>
+      <c r="E171" s="5"/>
+      <c r="F171" s="58"/>
       <c r="G171" s="23"/>
       <c r="H171" s="56"/>
       <c r="I171" s="56"/>
@@ -4432,8 +4444,8 @@
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
       <c r="D172" s="5"/>
-      <c r="E172" s="4"/>
-      <c r="F172" s="63"/>
+      <c r="E172" s="5"/>
+      <c r="F172" s="58"/>
       <c r="G172" s="23"/>
       <c r="H172" s="56"/>
       <c r="I172" s="56"/>
@@ -4451,8 +4463,8 @@
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
       <c r="D173" s="5"/>
-      <c r="E173" s="4"/>
-      <c r="F173" s="63"/>
+      <c r="E173" s="5"/>
+      <c r="F173" s="58"/>
       <c r="G173" s="23"/>
       <c r="H173" s="56"/>
       <c r="I173" s="56"/>
@@ -4470,8 +4482,8 @@
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
       <c r="D174" s="5"/>
-      <c r="E174" s="4"/>
-      <c r="F174" s="63"/>
+      <c r="E174" s="5"/>
+      <c r="F174" s="58"/>
       <c r="G174" s="23"/>
       <c r="H174" s="56"/>
       <c r="I174" s="56"/>
@@ -4489,8 +4501,8 @@
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
       <c r="D175" s="5"/>
-      <c r="E175" s="4"/>
-      <c r="F175" s="63"/>
+      <c r="E175" s="5"/>
+      <c r="F175" s="58"/>
       <c r="G175" s="23"/>
       <c r="H175" s="56"/>
       <c r="I175" s="56"/>
@@ -4508,8 +4520,8 @@
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
       <c r="D176" s="5"/>
-      <c r="E176" s="4"/>
-      <c r="F176" s="63"/>
+      <c r="E176" s="5"/>
+      <c r="F176" s="58"/>
       <c r="G176" s="23"/>
       <c r="H176" s="56"/>
       <c r="I176" s="56"/>
@@ -4527,8 +4539,8 @@
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
       <c r="D177" s="5"/>
-      <c r="E177" s="4"/>
-      <c r="F177" s="63"/>
+      <c r="E177" s="5"/>
+      <c r="F177" s="58"/>
       <c r="G177" s="23"/>
       <c r="H177" s="56"/>
       <c r="I177" s="56"/>
@@ -4546,8 +4558,8 @@
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
       <c r="D178" s="5"/>
-      <c r="E178" s="4"/>
-      <c r="F178" s="63"/>
+      <c r="E178" s="5"/>
+      <c r="F178" s="58"/>
       <c r="G178" s="23"/>
       <c r="H178" s="56"/>
       <c r="I178" s="56"/>
@@ -4565,8 +4577,8 @@
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
       <c r="D179" s="5"/>
-      <c r="E179" s="4"/>
-      <c r="F179" s="63"/>
+      <c r="E179" s="5"/>
+      <c r="F179" s="58"/>
       <c r="G179" s="23"/>
       <c r="H179" s="56"/>
       <c r="I179" s="56"/>
@@ -4584,8 +4596,8 @@
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
       <c r="D180" s="5"/>
-      <c r="E180" s="4"/>
-      <c r="F180" s="63"/>
+      <c r="E180" s="5"/>
+      <c r="F180" s="58"/>
       <c r="G180" s="23"/>
       <c r="H180" s="56"/>
       <c r="I180" s="56"/>
@@ -4603,8 +4615,8 @@
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
       <c r="D181" s="5"/>
-      <c r="E181" s="4"/>
-      <c r="F181" s="63"/>
+      <c r="E181" s="5"/>
+      <c r="F181" s="58"/>
       <c r="G181" s="23"/>
       <c r="H181" s="56"/>
       <c r="I181" s="56"/>
@@ -4622,8 +4634,8 @@
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
       <c r="D182" s="5"/>
-      <c r="E182" s="4"/>
-      <c r="F182" s="63"/>
+      <c r="E182" s="5"/>
+      <c r="F182" s="58"/>
       <c r="G182" s="23"/>
       <c r="H182" s="56"/>
       <c r="I182" s="56"/>
@@ -4641,8 +4653,8 @@
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
       <c r="D183" s="5"/>
-      <c r="E183" s="4"/>
-      <c r="F183" s="63"/>
+      <c r="E183" s="5"/>
+      <c r="F183" s="58"/>
       <c r="G183" s="23"/>
       <c r="H183" s="56"/>
       <c r="I183" s="56"/>
@@ -4660,8 +4672,8 @@
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
       <c r="D184" s="5"/>
-      <c r="E184" s="4"/>
-      <c r="F184" s="63"/>
+      <c r="E184" s="5"/>
+      <c r="F184" s="58"/>
       <c r="G184" s="23"/>
       <c r="H184" s="56"/>
       <c r="I184" s="56"/>
@@ -4679,8 +4691,8 @@
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
       <c r="D185" s="5"/>
-      <c r="E185" s="4"/>
-      <c r="F185" s="63"/>
+      <c r="E185" s="5"/>
+      <c r="F185" s="58"/>
       <c r="G185" s="23"/>
       <c r="H185" s="56"/>
       <c r="I185" s="56"/>
@@ -4698,8 +4710,8 @@
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
       <c r="D186" s="5"/>
-      <c r="E186" s="4"/>
-      <c r="F186" s="63"/>
+      <c r="E186" s="5"/>
+      <c r="F186" s="58"/>
       <c r="G186" s="23"/>
       <c r="H186" s="56"/>
       <c r="I186" s="56"/>
@@ -4717,8 +4729,8 @@
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
       <c r="D187" s="5"/>
-      <c r="E187" s="4"/>
-      <c r="F187" s="63"/>
+      <c r="E187" s="5"/>
+      <c r="F187" s="58"/>
       <c r="G187" s="23"/>
       <c r="H187" s="56"/>
       <c r="I187" s="56"/>
@@ -4736,8 +4748,8 @@
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
       <c r="D188" s="5"/>
-      <c r="E188" s="4"/>
-      <c r="F188" s="63"/>
+      <c r="E188" s="5"/>
+      <c r="F188" s="58"/>
       <c r="G188" s="23"/>
       <c r="H188" s="56"/>
       <c r="I188" s="56"/>
@@ -4755,8 +4767,8 @@
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
       <c r="D189" s="5"/>
-      <c r="E189" s="4"/>
-      <c r="F189" s="63"/>
+      <c r="E189" s="5"/>
+      <c r="F189" s="58"/>
       <c r="G189" s="23"/>
       <c r="H189" s="56"/>
       <c r="I189" s="56"/>
@@ -4774,8 +4786,8 @@
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
       <c r="D190" s="5"/>
-      <c r="E190" s="4"/>
-      <c r="F190" s="63"/>
+      <c r="E190" s="5"/>
+      <c r="F190" s="58"/>
       <c r="G190" s="23"/>
       <c r="H190" s="56"/>
       <c r="I190" s="56"/>
@@ -4793,8 +4805,8 @@
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
       <c r="D191" s="5"/>
-      <c r="E191" s="4"/>
-      <c r="F191" s="63"/>
+      <c r="E191" s="5"/>
+      <c r="F191" s="58"/>
       <c r="G191" s="23"/>
       <c r="H191" s="56"/>
       <c r="I191" s="56"/>
@@ -4812,8 +4824,8 @@
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
       <c r="D192" s="5"/>
-      <c r="E192" s="4"/>
-      <c r="F192" s="63"/>
+      <c r="E192" s="5"/>
+      <c r="F192" s="58"/>
       <c r="G192" s="23"/>
       <c r="H192" s="56"/>
       <c r="I192" s="56"/>
@@ -4831,8 +4843,8 @@
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
       <c r="D193" s="5"/>
-      <c r="E193" s="4"/>
-      <c r="F193" s="63"/>
+      <c r="E193" s="5"/>
+      <c r="F193" s="58"/>
       <c r="G193" s="23"/>
       <c r="H193" s="56"/>
       <c r="I193" s="56"/>
@@ -4850,8 +4862,8 @@
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
       <c r="D194" s="5"/>
-      <c r="E194" s="4"/>
-      <c r="F194" s="63"/>
+      <c r="E194" s="5"/>
+      <c r="F194" s="58"/>
       <c r="G194" s="23"/>
       <c r="H194" s="56"/>
       <c r="I194" s="56"/>
@@ -4869,8 +4881,8 @@
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
       <c r="D195" s="5"/>
-      <c r="E195" s="4"/>
-      <c r="F195" s="63"/>
+      <c r="E195" s="5"/>
+      <c r="F195" s="58"/>
       <c r="G195" s="23"/>
       <c r="H195" s="56"/>
       <c r="I195" s="56"/>
@@ -4888,8 +4900,8 @@
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
       <c r="D196" s="5"/>
-      <c r="E196" s="4"/>
-      <c r="F196" s="63"/>
+      <c r="E196" s="5"/>
+      <c r="F196" s="58"/>
       <c r="G196" s="23"/>
       <c r="H196" s="56"/>
       <c r="I196" s="56"/>
@@ -4907,8 +4919,8 @@
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
       <c r="D197" s="5"/>
-      <c r="E197" s="4"/>
-      <c r="F197" s="63"/>
+      <c r="E197" s="5"/>
+      <c r="F197" s="58"/>
       <c r="G197" s="23"/>
       <c r="H197" s="56"/>
       <c r="I197" s="56"/>
@@ -4926,8 +4938,8 @@
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
       <c r="D198" s="5"/>
-      <c r="E198" s="4"/>
-      <c r="F198" s="63"/>
+      <c r="E198" s="5"/>
+      <c r="F198" s="58"/>
       <c r="G198" s="23"/>
       <c r="H198" s="56"/>
       <c r="I198" s="56"/>
@@ -4945,8 +4957,8 @@
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
       <c r="D199" s="5"/>
-      <c r="E199" s="4"/>
-      <c r="F199" s="63"/>
+      <c r="E199" s="5"/>
+      <c r="F199" s="58"/>
       <c r="G199" s="23"/>
       <c r="H199" s="56"/>
       <c r="I199" s="56"/>
@@ -4964,8 +4976,8 @@
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
       <c r="D200" s="5"/>
-      <c r="E200" s="4"/>
-      <c r="F200" s="63"/>
+      <c r="E200" s="5"/>
+      <c r="F200" s="58"/>
       <c r="G200" s="23"/>
       <c r="H200" s="56"/>
       <c r="I200" s="56"/>
@@ -4983,8 +4995,8 @@
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
       <c r="D201" s="5"/>
-      <c r="E201" s="4"/>
-      <c r="F201" s="63"/>
+      <c r="E201" s="5"/>
+      <c r="F201" s="58"/>
       <c r="G201" s="23"/>
       <c r="H201" s="56"/>
       <c r="I201" s="56"/>
@@ -5002,8 +5014,8 @@
       <c r="B202" s="4"/>
       <c r="C202" s="4"/>
       <c r="D202" s="5"/>
-      <c r="E202" s="4"/>
-      <c r="F202" s="63"/>
+      <c r="E202" s="5"/>
+      <c r="F202" s="58"/>
       <c r="G202" s="23"/>
       <c r="H202" s="56"/>
       <c r="I202" s="56"/>
@@ -5021,8 +5033,8 @@
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
       <c r="D203" s="5"/>
-      <c r="E203" s="4"/>
-      <c r="F203" s="63"/>
+      <c r="E203" s="5"/>
+      <c r="F203" s="58"/>
       <c r="G203" s="23"/>
       <c r="H203" s="56"/>
       <c r="I203" s="56"/>
@@ -5040,8 +5052,8 @@
       <c r="B204" s="4"/>
       <c r="C204" s="4"/>
       <c r="D204" s="5"/>
-      <c r="E204" s="4"/>
-      <c r="F204" s="63"/>
+      <c r="E204" s="5"/>
+      <c r="F204" s="58"/>
       <c r="G204" s="23"/>
       <c r="H204" s="56"/>
       <c r="I204" s="56"/>
@@ -5059,8 +5071,8 @@
       <c r="B205" s="4"/>
       <c r="C205" s="4"/>
       <c r="D205" s="5"/>
-      <c r="E205" s="4"/>
-      <c r="F205" s="63"/>
+      <c r="E205" s="5"/>
+      <c r="F205" s="58"/>
       <c r="G205" s="23"/>
       <c r="H205" s="56"/>
       <c r="I205" s="56"/>
@@ -5081,7 +5093,7 @@
       <c r="G206" s="8"/>
       <c r="H206" s="6"/>
       <c r="I206" s="6"/>
-      <c r="J206" s="66"/>
+      <c r="J206" s="6"/>
       <c r="K206" s="6"/>
       <c r="L206" s="6"/>
       <c r="M206" s="6"/>
@@ -5098,7 +5110,7 @@
       <c r="G207" s="8"/>
       <c r="H207" s="6"/>
       <c r="I207" s="6"/>
-      <c r="J207" s="66"/>
+      <c r="J207" s="6"/>
       <c r="K207" s="6"/>
       <c r="L207" s="6"/>
       <c r="M207" s="6"/>
@@ -5115,7 +5127,7 @@
       <c r="G208" s="8"/>
       <c r="H208" s="6"/>
       <c r="I208" s="6"/>
-      <c r="J208" s="66"/>
+      <c r="J208" s="6"/>
       <c r="K208" s="6"/>
       <c r="L208" s="6"/>
       <c r="M208" s="6"/>
@@ -5132,7 +5144,7 @@
       <c r="G209" s="8"/>
       <c r="H209" s="6"/>
       <c r="I209" s="6"/>
-      <c r="J209" s="66"/>
+      <c r="J209" s="6"/>
       <c r="K209" s="6"/>
       <c r="L209" s="6"/>
       <c r="M209" s="6"/>
@@ -5149,7 +5161,7 @@
       <c r="G210" s="8"/>
       <c r="H210" s="6"/>
       <c r="I210" s="6"/>
-      <c r="J210" s="66"/>
+      <c r="J210" s="6"/>
       <c r="K210" s="6"/>
       <c r="L210" s="6"/>
       <c r="M210" s="6"/>
@@ -5166,7 +5178,7 @@
       <c r="G211" s="8"/>
       <c r="H211" s="6"/>
       <c r="I211" s="6"/>
-      <c r="J211" s="66"/>
+      <c r="J211" s="6"/>
       <c r="K211" s="6"/>
       <c r="L211" s="6"/>
       <c r="M211" s="6"/>
@@ -5183,7 +5195,7 @@
       <c r="G212" s="8"/>
       <c r="H212" s="6"/>
       <c r="I212" s="6"/>
-      <c r="J212" s="66"/>
+      <c r="J212" s="6"/>
       <c r="K212" s="6"/>
       <c r="L212" s="6"/>
       <c r="M212" s="6"/>
@@ -5200,7 +5212,7 @@
       <c r="G213" s="8"/>
       <c r="H213" s="6"/>
       <c r="I213" s="6"/>
-      <c r="J213" s="66"/>
+      <c r="J213" s="6"/>
       <c r="K213" s="6"/>
       <c r="L213" s="6"/>
       <c r="M213" s="6"/>
@@ -5217,7 +5229,7 @@
       <c r="G214" s="8"/>
       <c r="H214" s="6"/>
       <c r="I214" s="6"/>
-      <c r="J214" s="66"/>
+      <c r="J214" s="6"/>
       <c r="K214" s="6"/>
       <c r="L214" s="6"/>
       <c r="M214" s="6"/>
@@ -5234,7 +5246,7 @@
       <c r="G215" s="8"/>
       <c r="H215" s="6"/>
       <c r="I215" s="6"/>
-      <c r="J215" s="66"/>
+      <c r="J215" s="6"/>
       <c r="K215" s="6"/>
       <c r="L215" s="6"/>
       <c r="M215" s="6"/>
@@ -5251,7 +5263,7 @@
       <c r="G216" s="8"/>
       <c r="H216" s="6"/>
       <c r="I216" s="6"/>
-      <c r="J216" s="66"/>
+      <c r="J216" s="6"/>
       <c r="K216" s="6"/>
       <c r="L216" s="6"/>
       <c r="M216" s="6"/>
@@ -5268,7 +5280,7 @@
       <c r="G217" s="8"/>
       <c r="H217" s="6"/>
       <c r="I217" s="6"/>
-      <c r="J217" s="66"/>
+      <c r="J217" s="6"/>
       <c r="K217" s="6"/>
       <c r="L217" s="6"/>
       <c r="M217" s="6"/>
@@ -5285,7 +5297,7 @@
       <c r="G218" s="8"/>
       <c r="H218" s="6"/>
       <c r="I218" s="6"/>
-      <c r="J218" s="66"/>
+      <c r="J218" s="6"/>
       <c r="K218" s="6"/>
       <c r="L218" s="6"/>
       <c r="M218" s="6"/>
@@ -5302,7 +5314,7 @@
       <c r="G219" s="8"/>
       <c r="H219" s="6"/>
       <c r="I219" s="6"/>
-      <c r="J219" s="66"/>
+      <c r="J219" s="6"/>
       <c r="K219" s="6"/>
       <c r="L219" s="6"/>
       <c r="M219" s="6"/>
@@ -5319,7 +5331,7 @@
       <c r="G220" s="8"/>
       <c r="H220" s="6"/>
       <c r="I220" s="6"/>
-      <c r="J220" s="66"/>
+      <c r="J220" s="6"/>
       <c r="K220" s="6"/>
       <c r="L220" s="6"/>
       <c r="M220" s="6"/>
@@ -5336,7 +5348,7 @@
       <c r="G221" s="8"/>
       <c r="H221" s="6"/>
       <c r="I221" s="6"/>
-      <c r="J221" s="66"/>
+      <c r="J221" s="6"/>
       <c r="K221" s="6"/>
       <c r="L221" s="6"/>
       <c r="M221" s="6"/>
@@ -5353,7 +5365,7 @@
       <c r="G222" s="8"/>
       <c r="H222" s="6"/>
       <c r="I222" s="6"/>
-      <c r="J222" s="66"/>
+      <c r="J222" s="6"/>
       <c r="K222" s="6"/>
       <c r="L222" s="6"/>
       <c r="M222" s="6"/>
@@ -5370,7 +5382,7 @@
       <c r="G223" s="8"/>
       <c r="H223" s="6"/>
       <c r="I223" s="6"/>
-      <c r="J223" s="66"/>
+      <c r="J223" s="6"/>
       <c r="K223" s="6"/>
       <c r="L223" s="6"/>
       <c r="M223" s="6"/>
@@ -5387,7 +5399,7 @@
       <c r="G224" s="8"/>
       <c r="H224" s="6"/>
       <c r="I224" s="6"/>
-      <c r="J224" s="66"/>
+      <c r="J224" s="6"/>
       <c r="K224" s="6"/>
       <c r="L224" s="6"/>
       <c r="M224" s="6"/>
@@ -5404,7 +5416,7 @@
       <c r="G225" s="8"/>
       <c r="H225" s="6"/>
       <c r="I225" s="6"/>
-      <c r="J225" s="66"/>
+      <c r="J225" s="6"/>
       <c r="K225" s="6"/>
       <c r="L225" s="6"/>
       <c r="M225" s="6"/>
@@ -5421,7 +5433,7 @@
       <c r="G226" s="8"/>
       <c r="H226" s="6"/>
       <c r="I226" s="6"/>
-      <c r="J226" s="66"/>
+      <c r="J226" s="6"/>
       <c r="K226" s="6"/>
       <c r="L226" s="6"/>
       <c r="M226" s="6"/>
@@ -5438,7 +5450,7 @@
       <c r="G227" s="8"/>
       <c r="H227" s="6"/>
       <c r="I227" s="6"/>
-      <c r="J227" s="66"/>
+      <c r="J227" s="6"/>
       <c r="K227" s="6"/>
       <c r="L227" s="6"/>
       <c r="M227" s="6"/>
@@ -5455,7 +5467,7 @@
       <c r="G228" s="8"/>
       <c r="H228" s="6"/>
       <c r="I228" s="6"/>
-      <c r="J228" s="66"/>
+      <c r="J228" s="6"/>
       <c r="K228" s="6"/>
       <c r="L228" s="6"/>
       <c r="M228" s="6"/>
@@ -5472,7 +5484,7 @@
       <c r="G229" s="8"/>
       <c r="H229" s="6"/>
       <c r="I229" s="6"/>
-      <c r="J229" s="66"/>
+      <c r="J229" s="6"/>
       <c r="K229" s="6"/>
       <c r="L229" s="6"/>
       <c r="M229" s="6"/>
@@ -5489,7 +5501,7 @@
       <c r="G230" s="8"/>
       <c r="H230" s="6"/>
       <c r="I230" s="6"/>
-      <c r="J230" s="66"/>
+      <c r="J230" s="6"/>
       <c r="K230" s="6"/>
       <c r="L230" s="6"/>
       <c r="M230" s="6"/>
@@ -5506,7 +5518,7 @@
       <c r="G231" s="8"/>
       <c r="H231" s="6"/>
       <c r="I231" s="6"/>
-      <c r="J231" s="66"/>
+      <c r="J231" s="6"/>
       <c r="K231" s="6"/>
       <c r="L231" s="6"/>
       <c r="M231" s="6"/>
@@ -5523,7 +5535,7 @@
       <c r="G232" s="8"/>
       <c r="H232" s="6"/>
       <c r="I232" s="6"/>
-      <c r="J232" s="66"/>
+      <c r="J232" s="6"/>
       <c r="K232" s="6"/>
       <c r="L232" s="6"/>
       <c r="M232" s="6"/>
@@ -5540,7 +5552,7 @@
       <c r="G233" s="8"/>
       <c r="H233" s="6"/>
       <c r="I233" s="6"/>
-      <c r="J233" s="66"/>
+      <c r="J233" s="6"/>
       <c r="K233" s="6"/>
       <c r="L233" s="6"/>
       <c r="M233" s="6"/>
@@ -5557,7 +5569,7 @@
       <c r="G234" s="8"/>
       <c r="H234" s="6"/>
       <c r="I234" s="6"/>
-      <c r="J234" s="66"/>
+      <c r="J234" s="6"/>
       <c r="K234" s="6"/>
       <c r="L234" s="6"/>
       <c r="M234" s="6"/>
@@ -5574,7 +5586,7 @@
       <c r="G235" s="8"/>
       <c r="H235" s="6"/>
       <c r="I235" s="6"/>
-      <c r="J235" s="66"/>
+      <c r="J235" s="6"/>
       <c r="K235" s="6"/>
       <c r="L235" s="6"/>
       <c r="M235" s="6"/>
@@ -5591,7 +5603,7 @@
       <c r="G236" s="8"/>
       <c r="H236" s="6"/>
       <c r="I236" s="6"/>
-      <c r="J236" s="66"/>
+      <c r="J236" s="6"/>
       <c r="K236" s="6"/>
       <c r="L236" s="6"/>
       <c r="M236" s="6"/>
@@ -5608,7 +5620,7 @@
       <c r="G237" s="8"/>
       <c r="H237" s="6"/>
       <c r="I237" s="6"/>
-      <c r="J237" s="66"/>
+      <c r="J237" s="6"/>
       <c r="K237" s="6"/>
       <c r="L237" s="6"/>
       <c r="M237" s="6"/>
@@ -5625,7 +5637,7 @@
       <c r="G238" s="8"/>
       <c r="H238" s="6"/>
       <c r="I238" s="6"/>
-      <c r="J238" s="66"/>
+      <c r="J238" s="6"/>
       <c r="K238" s="6"/>
       <c r="L238" s="6"/>
       <c r="M238" s="6"/>
@@ -5642,7 +5654,7 @@
       <c r="G239" s="8"/>
       <c r="H239" s="6"/>
       <c r="I239" s="6"/>
-      <c r="J239" s="66"/>
+      <c r="J239" s="6"/>
       <c r="K239" s="6"/>
       <c r="L239" s="6"/>
       <c r="M239" s="6"/>
@@ -5659,7 +5671,7 @@
       <c r="G240" s="8"/>
       <c r="H240" s="6"/>
       <c r="I240" s="6"/>
-      <c r="J240" s="66"/>
+      <c r="J240" s="6"/>
       <c r="K240" s="6"/>
       <c r="L240" s="6"/>
       <c r="M240" s="6"/>
@@ -5676,7 +5688,7 @@
       <c r="G241" s="8"/>
       <c r="H241" s="6"/>
       <c r="I241" s="6"/>
-      <c r="J241" s="66"/>
+      <c r="J241" s="6"/>
       <c r="K241" s="6"/>
       <c r="L241" s="6"/>
       <c r="M241" s="6"/>
@@ -5693,7 +5705,7 @@
       <c r="G242" s="8"/>
       <c r="H242" s="6"/>
       <c r="I242" s="6"/>
-      <c r="J242" s="66"/>
+      <c r="J242" s="6"/>
       <c r="K242" s="6"/>
       <c r="L242" s="6"/>
       <c r="M242" s="6"/>
@@ -5710,7 +5722,7 @@
       <c r="G243" s="8"/>
       <c r="H243" s="6"/>
       <c r="I243" s="6"/>
-      <c r="J243" s="66"/>
+      <c r="J243" s="6"/>
       <c r="K243" s="6"/>
       <c r="L243" s="6"/>
       <c r="M243" s="6"/>
@@ -5727,7 +5739,7 @@
       <c r="G244" s="8"/>
       <c r="H244" s="6"/>
       <c r="I244" s="6"/>
-      <c r="J244" s="66"/>
+      <c r="J244" s="6"/>
       <c r="K244" s="6"/>
       <c r="L244" s="6"/>
       <c r="M244" s="6"/>
@@ -5744,7 +5756,7 @@
       <c r="G245" s="8"/>
       <c r="H245" s="6"/>
       <c r="I245" s="6"/>
-      <c r="J245" s="66"/>
+      <c r="J245" s="6"/>
       <c r="K245" s="6"/>
       <c r="L245" s="6"/>
       <c r="M245" s="6"/>
@@ -5761,7 +5773,7 @@
       <c r="G246" s="8"/>
       <c r="H246" s="6"/>
       <c r="I246" s="6"/>
-      <c r="J246" s="66"/>
+      <c r="J246" s="6"/>
       <c r="K246" s="6"/>
       <c r="L246" s="6"/>
       <c r="M246" s="6"/>
@@ -5778,7 +5790,7 @@
       <c r="G247" s="8"/>
       <c r="H247" s="6"/>
       <c r="I247" s="6"/>
-      <c r="J247" s="66"/>
+      <c r="J247" s="6"/>
       <c r="K247" s="6"/>
       <c r="L247" s="6"/>
       <c r="M247" s="6"/>
@@ -5795,7 +5807,7 @@
       <c r="G248" s="8"/>
       <c r="H248" s="6"/>
       <c r="I248" s="6"/>
-      <c r="J248" s="66"/>
+      <c r="J248" s="6"/>
       <c r="K248" s="6"/>
       <c r="L248" s="6"/>
       <c r="M248" s="6"/>
@@ -5812,7 +5824,7 @@
       <c r="G249" s="8"/>
       <c r="H249" s="6"/>
       <c r="I249" s="6"/>
-      <c r="J249" s="66"/>
+      <c r="J249" s="6"/>
       <c r="K249" s="6"/>
       <c r="L249" s="6"/>
       <c r="M249" s="6"/>
@@ -5829,7 +5841,7 @@
       <c r="G250" s="8"/>
       <c r="H250" s="6"/>
       <c r="I250" s="6"/>
-      <c r="J250" s="66"/>
+      <c r="J250" s="6"/>
       <c r="K250" s="6"/>
       <c r="L250" s="6"/>
       <c r="M250" s="6"/>
@@ -5846,7 +5858,7 @@
       <c r="G251" s="8"/>
       <c r="H251" s="6"/>
       <c r="I251" s="6"/>
-      <c r="J251" s="66"/>
+      <c r="J251" s="6"/>
       <c r="K251" s="6"/>
       <c r="L251" s="6"/>
       <c r="M251" s="6"/>
@@ -5863,7 +5875,7 @@
       <c r="G252" s="8"/>
       <c r="H252" s="6"/>
       <c r="I252" s="6"/>
-      <c r="J252" s="66"/>
+      <c r="J252" s="6"/>
       <c r="K252" s="6"/>
       <c r="L252" s="6"/>
       <c r="M252" s="6"/>
@@ -5880,7 +5892,7 @@
       <c r="G253" s="8"/>
       <c r="H253" s="6"/>
       <c r="I253" s="6"/>
-      <c r="J253" s="66"/>
+      <c r="J253" s="6"/>
       <c r="K253" s="6"/>
       <c r="L253" s="6"/>
       <c r="M253" s="6"/>
@@ -5897,7 +5909,7 @@
       <c r="G254" s="8"/>
       <c r="H254" s="6"/>
       <c r="I254" s="6"/>
-      <c r="J254" s="66"/>
+      <c r="J254" s="6"/>
       <c r="K254" s="6"/>
       <c r="L254" s="6"/>
       <c r="M254" s="6"/>
@@ -5914,7 +5926,7 @@
       <c r="G255" s="8"/>
       <c r="H255" s="6"/>
       <c r="I255" s="6"/>
-      <c r="J255" s="66"/>
+      <c r="J255" s="6"/>
       <c r="K255" s="6"/>
       <c r="L255" s="6"/>
       <c r="M255" s="6"/>
@@ -5931,7 +5943,7 @@
       <c r="G256" s="8"/>
       <c r="H256" s="6"/>
       <c r="I256" s="6"/>
-      <c r="J256" s="66"/>
+      <c r="J256" s="6"/>
       <c r="K256" s="6"/>
       <c r="L256" s="6"/>
       <c r="M256" s="6"/>
@@ -5948,7 +5960,7 @@
       <c r="G257" s="8"/>
       <c r="H257" s="6"/>
       <c r="I257" s="6"/>
-      <c r="J257" s="66"/>
+      <c r="J257" s="6"/>
       <c r="K257" s="6"/>
       <c r="L257" s="6"/>
       <c r="M257" s="6"/>
@@ -5965,7 +5977,7 @@
       <c r="G258" s="8"/>
       <c r="H258" s="6"/>
       <c r="I258" s="6"/>
-      <c r="J258" s="66"/>
+      <c r="J258" s="6"/>
       <c r="K258" s="6"/>
       <c r="L258" s="6"/>
       <c r="M258" s="6"/>
@@ -5982,7 +5994,7 @@
       <c r="G259" s="8"/>
       <c r="H259" s="6"/>
       <c r="I259" s="6"/>
-      <c r="J259" s="66"/>
+      <c r="J259" s="6"/>
       <c r="K259" s="6"/>
       <c r="L259" s="6"/>
       <c r="M259" s="6"/>
@@ -5999,7 +6011,7 @@
       <c r="G260" s="8"/>
       <c r="H260" s="6"/>
       <c r="I260" s="6"/>
-      <c r="J260" s="66"/>
+      <c r="J260" s="6"/>
       <c r="K260" s="6"/>
       <c r="L260" s="6"/>
       <c r="M260" s="6"/>
@@ -6016,7 +6028,7 @@
       <c r="G261" s="8"/>
       <c r="H261" s="6"/>
       <c r="I261" s="6"/>
-      <c r="J261" s="66"/>
+      <c r="J261" s="6"/>
       <c r="K261" s="6"/>
       <c r="L261" s="6"/>
       <c r="M261" s="6"/>
@@ -6033,7 +6045,7 @@
       <c r="G262" s="8"/>
       <c r="H262" s="6"/>
       <c r="I262" s="6"/>
-      <c r="J262" s="66"/>
+      <c r="J262" s="6"/>
       <c r="K262" s="6"/>
       <c r="L262" s="6"/>
       <c r="M262" s="6"/>
@@ -6050,7 +6062,7 @@
       <c r="G263" s="8"/>
       <c r="H263" s="6"/>
       <c r="I263" s="6"/>
-      <c r="J263" s="66"/>
+      <c r="J263" s="6"/>
       <c r="K263" s="6"/>
       <c r="L263" s="6"/>
       <c r="M263" s="6"/>
@@ -6067,7 +6079,7 @@
       <c r="G264" s="8"/>
       <c r="H264" s="6"/>
       <c r="I264" s="6"/>
-      <c r="J264" s="66"/>
+      <c r="J264" s="6"/>
       <c r="K264" s="6"/>
       <c r="L264" s="6"/>
       <c r="M264" s="6"/>
@@ -6084,7 +6096,7 @@
       <c r="G265" s="8"/>
       <c r="H265" s="6"/>
       <c r="I265" s="6"/>
-      <c r="J265" s="66"/>
+      <c r="J265" s="6"/>
       <c r="K265" s="6"/>
       <c r="L265" s="6"/>
       <c r="M265" s="6"/>
@@ -6101,7 +6113,7 @@
       <c r="G266" s="8"/>
       <c r="H266" s="6"/>
       <c r="I266" s="6"/>
-      <c r="J266" s="66"/>
+      <c r="J266" s="6"/>
       <c r="K266" s="6"/>
       <c r="L266" s="6"/>
       <c r="M266" s="6"/>
@@ -6118,7 +6130,7 @@
       <c r="G267" s="8"/>
       <c r="H267" s="6"/>
       <c r="I267" s="6"/>
-      <c r="J267" s="66"/>
+      <c r="J267" s="6"/>
       <c r="K267" s="6"/>
       <c r="L267" s="6"/>
       <c r="M267" s="6"/>
@@ -6135,7 +6147,7 @@
       <c r="G268" s="8"/>
       <c r="H268" s="6"/>
       <c r="I268" s="6"/>
-      <c r="J268" s="66"/>
+      <c r="J268" s="6"/>
       <c r="K268" s="6"/>
       <c r="L268" s="6"/>
       <c r="M268" s="6"/>
@@ -6152,7 +6164,7 @@
       <c r="G269" s="8"/>
       <c r="H269" s="6"/>
       <c r="I269" s="6"/>
-      <c r="J269" s="66"/>
+      <c r="J269" s="6"/>
       <c r="K269" s="6"/>
       <c r="L269" s="6"/>
       <c r="M269" s="6"/>
@@ -6169,7 +6181,7 @@
       <c r="G270" s="8"/>
       <c r="H270" s="6"/>
       <c r="I270" s="6"/>
-      <c r="J270" s="66"/>
+      <c r="J270" s="6"/>
       <c r="K270" s="6"/>
       <c r="L270" s="6"/>
       <c r="M270" s="6"/>
@@ -6186,7 +6198,7 @@
       <c r="G271" s="8"/>
       <c r="H271" s="6"/>
       <c r="I271" s="6"/>
-      <c r="J271" s="66"/>
+      <c r="J271" s="6"/>
       <c r="K271" s="6"/>
       <c r="L271" s="6"/>
       <c r="M271" s="6"/>
@@ -6203,7 +6215,7 @@
       <c r="G272" s="8"/>
       <c r="H272" s="6"/>
       <c r="I272" s="6"/>
-      <c r="J272" s="66"/>
+      <c r="J272" s="6"/>
       <c r="K272" s="6"/>
       <c r="L272" s="6"/>
       <c r="M272" s="6"/>
@@ -6220,7 +6232,7 @@
       <c r="G273" s="8"/>
       <c r="H273" s="6"/>
       <c r="I273" s="6"/>
-      <c r="J273" s="66"/>
+      <c r="J273" s="6"/>
       <c r="K273" s="6"/>
       <c r="L273" s="6"/>
       <c r="M273" s="6"/>
@@ -6237,7 +6249,7 @@
       <c r="G274" s="8"/>
       <c r="H274" s="6"/>
       <c r="I274" s="6"/>
-      <c r="J274" s="66"/>
+      <c r="J274" s="6"/>
       <c r="K274" s="6"/>
       <c r="L274" s="6"/>
       <c r="M274" s="6"/>
@@ -6254,7 +6266,7 @@
       <c r="G275" s="8"/>
       <c r="H275" s="6"/>
       <c r="I275" s="6"/>
-      <c r="J275" s="66"/>
+      <c r="J275" s="6"/>
       <c r="K275" s="6"/>
       <c r="L275" s="6"/>
       <c r="M275" s="6"/>
@@ -6271,7 +6283,7 @@
       <c r="G276" s="8"/>
       <c r="H276" s="6"/>
       <c r="I276" s="6"/>
-      <c r="J276" s="66"/>
+      <c r="J276" s="6"/>
       <c r="K276" s="6"/>
       <c r="L276" s="6"/>
       <c r="M276" s="6"/>
@@ -6288,7 +6300,7 @@
       <c r="G277" s="8"/>
       <c r="H277" s="6"/>
       <c r="I277" s="6"/>
-      <c r="J277" s="66"/>
+      <c r="J277" s="6"/>
       <c r="K277" s="6"/>
       <c r="L277" s="6"/>
       <c r="M277" s="6"/>
@@ -6305,7 +6317,7 @@
       <c r="G278" s="8"/>
       <c r="H278" s="6"/>
       <c r="I278" s="6"/>
-      <c r="J278" s="66"/>
+      <c r="J278" s="6"/>
       <c r="K278" s="6"/>
       <c r="L278" s="6"/>
       <c r="M278" s="6"/>
@@ -6322,7 +6334,7 @@
       <c r="G279" s="8"/>
       <c r="H279" s="6"/>
       <c r="I279" s="6"/>
-      <c r="J279" s="66"/>
+      <c r="J279" s="6"/>
       <c r="K279" s="6"/>
       <c r="L279" s="6"/>
       <c r="M279" s="6"/>
@@ -6339,7 +6351,7 @@
       <c r="G280" s="8"/>
       <c r="H280" s="6"/>
       <c r="I280" s="6"/>
-      <c r="J280" s="66"/>
+      <c r="J280" s="6"/>
       <c r="K280" s="6"/>
       <c r="L280" s="6"/>
       <c r="M280" s="6"/>
@@ -6356,7 +6368,7 @@
       <c r="G281" s="8"/>
       <c r="H281" s="6"/>
       <c r="I281" s="6"/>
-      <c r="J281" s="66"/>
+      <c r="J281" s="6"/>
       <c r="K281" s="6"/>
       <c r="L281" s="6"/>
       <c r="M281" s="6"/>
@@ -6373,7 +6385,7 @@
       <c r="G282" s="8"/>
       <c r="H282" s="6"/>
       <c r="I282" s="6"/>
-      <c r="J282" s="66"/>
+      <c r="J282" s="6"/>
       <c r="K282" s="6"/>
       <c r="L282" s="6"/>
       <c r="M282" s="6"/>
@@ -6390,7 +6402,7 @@
       <c r="G283" s="8"/>
       <c r="H283" s="6"/>
       <c r="I283" s="6"/>
-      <c r="J283" s="66"/>
+      <c r="J283" s="6"/>
       <c r="K283" s="6"/>
       <c r="L283" s="6"/>
       <c r="M283" s="6"/>
@@ -6407,7 +6419,7 @@
       <c r="G284" s="8"/>
       <c r="H284" s="6"/>
       <c r="I284" s="6"/>
-      <c r="J284" s="66"/>
+      <c r="J284" s="6"/>
       <c r="K284" s="6"/>
       <c r="L284" s="6"/>
       <c r="M284" s="6"/>
@@ -6424,7 +6436,7 @@
       <c r="G285" s="8"/>
       <c r="H285" s="6"/>
       <c r="I285" s="6"/>
-      <c r="J285" s="66"/>
+      <c r="J285" s="6"/>
       <c r="K285" s="6"/>
       <c r="L285" s="6"/>
       <c r="M285" s="6"/>
@@ -6441,7 +6453,7 @@
       <c r="G286" s="8"/>
       <c r="H286" s="6"/>
       <c r="I286" s="6"/>
-      <c r="J286" s="66"/>
+      <c r="J286" s="6"/>
       <c r="K286" s="6"/>
       <c r="L286" s="6"/>
       <c r="M286" s="6"/>
@@ -6458,7 +6470,7 @@
       <c r="G287" s="8"/>
       <c r="H287" s="6"/>
       <c r="I287" s="6"/>
-      <c r="J287" s="66"/>
+      <c r="J287" s="6"/>
       <c r="K287" s="6"/>
       <c r="L287" s="6"/>
       <c r="M287" s="6"/>
@@ -6475,7 +6487,7 @@
       <c r="G288" s="8"/>
       <c r="H288" s="6"/>
       <c r="I288" s="6"/>
-      <c r="J288" s="66"/>
+      <c r="J288" s="6"/>
       <c r="K288" s="6"/>
       <c r="L288" s="6"/>
       <c r="M288" s="6"/>
@@ -6492,7 +6504,7 @@
       <c r="G289" s="8"/>
       <c r="H289" s="6"/>
       <c r="I289" s="6"/>
-      <c r="J289" s="66"/>
+      <c r="J289" s="6"/>
       <c r="K289" s="6"/>
       <c r="L289" s="6"/>
       <c r="M289" s="6"/>
@@ -6509,7 +6521,7 @@
       <c r="G290" s="8"/>
       <c r="H290" s="6"/>
       <c r="I290" s="6"/>
-      <c r="J290" s="66"/>
+      <c r="J290" s="6"/>
       <c r="K290" s="6"/>
       <c r="L290" s="6"/>
       <c r="M290" s="6"/>
@@ -6526,7 +6538,7 @@
       <c r="G291" s="8"/>
       <c r="H291" s="6"/>
       <c r="I291" s="6"/>
-      <c r="J291" s="66"/>
+      <c r="J291" s="6"/>
       <c r="K291" s="6"/>
       <c r="L291" s="6"/>
       <c r="M291" s="6"/>
@@ -6543,7 +6555,7 @@
       <c r="G292" s="8"/>
       <c r="H292" s="6"/>
       <c r="I292" s="6"/>
-      <c r="J292" s="66"/>
+      <c r="J292" s="6"/>
       <c r="K292" s="6"/>
       <c r="L292" s="6"/>
       <c r="M292" s="6"/>
@@ -6560,7 +6572,7 @@
       <c r="G293" s="8"/>
       <c r="H293" s="6"/>
       <c r="I293" s="6"/>
-      <c r="J293" s="66"/>
+      <c r="J293" s="6"/>
       <c r="K293" s="6"/>
       <c r="L293" s="6"/>
       <c r="M293" s="6"/>
@@ -6577,7 +6589,7 @@
       <c r="G294" s="8"/>
       <c r="H294" s="6"/>
       <c r="I294" s="6"/>
-      <c r="J294" s="66"/>
+      <c r="J294" s="6"/>
       <c r="K294" s="6"/>
       <c r="L294" s="6"/>
       <c r="M294" s="6"/>
@@ -6594,7 +6606,7 @@
       <c r="G295" s="8"/>
       <c r="H295" s="6"/>
       <c r="I295" s="6"/>
-      <c r="J295" s="66"/>
+      <c r="J295" s="6"/>
       <c r="K295" s="6"/>
       <c r="L295" s="6"/>
       <c r="M295" s="6"/>
@@ -6611,7 +6623,7 @@
       <c r="G296" s="8"/>
       <c r="H296" s="6"/>
       <c r="I296" s="6"/>
-      <c r="J296" s="66"/>
+      <c r="J296" s="6"/>
       <c r="K296" s="6"/>
       <c r="L296" s="6"/>
       <c r="M296" s="6"/>
@@ -6628,7 +6640,7 @@
       <c r="G297" s="8"/>
       <c r="H297" s="6"/>
       <c r="I297" s="6"/>
-      <c r="J297" s="66"/>
+      <c r="J297" s="6"/>
       <c r="K297" s="6"/>
       <c r="L297" s="6"/>
       <c r="M297" s="6"/>
@@ -6645,7 +6657,7 @@
       <c r="G298" s="8"/>
       <c r="H298" s="6"/>
       <c r="I298" s="6"/>
-      <c r="J298" s="66"/>
+      <c r="J298" s="6"/>
       <c r="K298" s="6"/>
       <c r="L298" s="6"/>
       <c r="M298" s="6"/>
@@ -6662,7 +6674,7 @@
       <c r="G299" s="8"/>
       <c r="H299" s="6"/>
       <c r="I299" s="6"/>
-      <c r="J299" s="66"/>
+      <c r="J299" s="6"/>
       <c r="K299" s="6"/>
       <c r="L299" s="6"/>
       <c r="M299" s="6"/>
@@ -6679,7 +6691,7 @@
       <c r="G300" s="8"/>
       <c r="H300" s="6"/>
       <c r="I300" s="6"/>
-      <c r="J300" s="66"/>
+      <c r="J300" s="6"/>
       <c r="K300" s="6"/>
       <c r="L300" s="6"/>
       <c r="M300" s="6"/>
@@ -6696,7 +6708,7 @@
       <c r="G301" s="8"/>
       <c r="H301" s="6"/>
       <c r="I301" s="6"/>
-      <c r="J301" s="66"/>
+      <c r="J301" s="6"/>
       <c r="K301" s="6"/>
       <c r="L301" s="6"/>
       <c r="M301" s="6"/>
@@ -6713,7 +6725,7 @@
       <c r="G302" s="8"/>
       <c r="H302" s="6"/>
       <c r="I302" s="6"/>
-      <c r="J302" s="66"/>
+      <c r="J302" s="6"/>
       <c r="K302" s="6"/>
       <c r="L302" s="6"/>
       <c r="M302" s="6"/>
@@ -6730,7 +6742,7 @@
       <c r="G303" s="8"/>
       <c r="H303" s="6"/>
       <c r="I303" s="6"/>
-      <c r="J303" s="66"/>
+      <c r="J303" s="6"/>
       <c r="K303" s="6"/>
       <c r="L303" s="6"/>
       <c r="M303" s="6"/>
@@ -6747,7 +6759,7 @@
       <c r="G304" s="8"/>
       <c r="H304" s="6"/>
       <c r="I304" s="6"/>
-      <c r="J304" s="66"/>
+      <c r="J304" s="6"/>
       <c r="K304" s="6"/>
       <c r="L304" s="6"/>
       <c r="M304" s="6"/>
@@ -6764,7 +6776,7 @@
       <c r="G305" s="8"/>
       <c r="H305" s="6"/>
       <c r="I305" s="6"/>
-      <c r="J305" s="66"/>
+      <c r="J305" s="6"/>
       <c r="K305" s="6"/>
       <c r="L305" s="6"/>
       <c r="M305" s="6"/>
@@ -6781,7 +6793,7 @@
       <c r="G306" s="8"/>
       <c r="H306" s="6"/>
       <c r="I306" s="6"/>
-      <c r="J306" s="66"/>
+      <c r="J306" s="6"/>
       <c r="K306" s="6"/>
       <c r="L306" s="6"/>
       <c r="M306" s="6"/>
@@ -6798,7 +6810,7 @@
       <c r="G307" s="8"/>
       <c r="H307" s="6"/>
       <c r="I307" s="6"/>
-      <c r="J307" s="66"/>
+      <c r="J307" s="6"/>
       <c r="K307" s="6"/>
       <c r="L307" s="6"/>
       <c r="M307" s="6"/>
@@ -6815,7 +6827,7 @@
       <c r="G308" s="8"/>
       <c r="H308" s="6"/>
       <c r="I308" s="6"/>
-      <c r="J308" s="66"/>
+      <c r="J308" s="6"/>
       <c r="K308" s="6"/>
       <c r="L308" s="6"/>
       <c r="M308" s="6"/>
@@ -6832,7 +6844,7 @@
       <c r="G309" s="8"/>
       <c r="H309" s="6"/>
       <c r="I309" s="6"/>
-      <c r="J309" s="66"/>
+      <c r="J309" s="6"/>
       <c r="K309" s="6"/>
       <c r="L309" s="6"/>
       <c r="M309" s="6"/>
@@ -6849,7 +6861,7 @@
       <c r="G310" s="8"/>
       <c r="H310" s="6"/>
       <c r="I310" s="6"/>
-      <c r="J310" s="66"/>
+      <c r="J310" s="6"/>
       <c r="K310" s="6"/>
       <c r="L310" s="6"/>
       <c r="M310" s="6"/>
@@ -6866,7 +6878,7 @@
       <c r="G311" s="8"/>
       <c r="H311" s="6"/>
       <c r="I311" s="6"/>
-      <c r="J311" s="66"/>
+      <c r="J311" s="6"/>
       <c r="K311" s="6"/>
       <c r="L311" s="6"/>
       <c r="M311" s="6"/>
@@ -6883,7 +6895,7 @@
       <c r="G312" s="8"/>
       <c r="H312" s="6"/>
       <c r="I312" s="6"/>
-      <c r="J312" s="66"/>
+      <c r="J312" s="6"/>
       <c r="K312" s="6"/>
       <c r="L312" s="6"/>
       <c r="M312" s="6"/>
@@ -6900,7 +6912,7 @@
       <c r="G313" s="8"/>
       <c r="H313" s="6"/>
       <c r="I313" s="6"/>
-      <c r="J313" s="66"/>
+      <c r="J313" s="6"/>
       <c r="K313" s="6"/>
       <c r="L313" s="6"/>
       <c r="M313" s="6"/>
@@ -6917,7 +6929,7 @@
       <c r="G314" s="8"/>
       <c r="H314" s="6"/>
       <c r="I314" s="6"/>
-      <c r="J314" s="66"/>
+      <c r="J314" s="6"/>
       <c r="K314" s="6"/>
       <c r="L314" s="6"/>
       <c r="M314" s="6"/>
@@ -6934,7 +6946,7 @@
       <c r="G315" s="8"/>
       <c r="H315" s="6"/>
       <c r="I315" s="6"/>
-      <c r="J315" s="66"/>
+      <c r="J315" s="6"/>
       <c r="K315" s="6"/>
       <c r="L315" s="6"/>
       <c r="M315" s="6"/>
@@ -6951,7 +6963,7 @@
       <c r="G316" s="8"/>
       <c r="H316" s="6"/>
       <c r="I316" s="6"/>
-      <c r="J316" s="66"/>
+      <c r="J316" s="6"/>
       <c r="K316" s="6"/>
       <c r="L316" s="6"/>
       <c r="M316" s="6"/>
@@ -6968,7 +6980,7 @@
       <c r="G317" s="8"/>
       <c r="H317" s="6"/>
       <c r="I317" s="6"/>
-      <c r="J317" s="66"/>
+      <c r="J317" s="6"/>
       <c r="K317" s="6"/>
       <c r="L317" s="6"/>
       <c r="M317" s="6"/>
@@ -6985,7 +6997,7 @@
       <c r="G318" s="8"/>
       <c r="H318" s="6"/>
       <c r="I318" s="6"/>
-      <c r="J318" s="66"/>
+      <c r="J318" s="6"/>
       <c r="K318" s="6"/>
       <c r="L318" s="6"/>
       <c r="M318" s="6"/>
@@ -7002,7 +7014,7 @@
       <c r="G319" s="8"/>
       <c r="H319" s="6"/>
       <c r="I319" s="6"/>
-      <c r="J319" s="66"/>
+      <c r="J319" s="6"/>
       <c r="K319" s="6"/>
       <c r="L319" s="6"/>
       <c r="M319" s="6"/>
@@ -7019,7 +7031,7 @@
       <c r="G320" s="8"/>
       <c r="H320" s="6"/>
       <c r="I320" s="6"/>
-      <c r="J320" s="66"/>
+      <c r="J320" s="6"/>
       <c r="K320" s="6"/>
       <c r="L320" s="6"/>
       <c r="M320" s="6"/>
@@ -7036,7 +7048,7 @@
       <c r="G321" s="8"/>
       <c r="H321" s="6"/>
       <c r="I321" s="6"/>
-      <c r="J321" s="66"/>
+      <c r="J321" s="6"/>
       <c r="K321" s="6"/>
       <c r="L321" s="6"/>
       <c r="M321" s="6"/>
@@ -7053,7 +7065,7 @@
       <c r="G322" s="8"/>
       <c r="H322" s="6"/>
       <c r="I322" s="6"/>
-      <c r="J322" s="66"/>
+      <c r="J322" s="6"/>
       <c r="K322" s="6"/>
       <c r="L322" s="6"/>
       <c r="M322" s="6"/>
@@ -7070,7 +7082,7 @@
       <c r="G323" s="8"/>
       <c r="H323" s="6"/>
       <c r="I323" s="6"/>
-      <c r="J323" s="66"/>
+      <c r="J323" s="6"/>
       <c r="K323" s="6"/>
       <c r="L323" s="6"/>
       <c r="M323" s="6"/>
@@ -7087,7 +7099,7 @@
       <c r="G324" s="8"/>
       <c r="H324" s="6"/>
       <c r="I324" s="6"/>
-      <c r="J324" s="66"/>
+      <c r="J324" s="6"/>
       <c r="K324" s="6"/>
       <c r="L324" s="6"/>
       <c r="M324" s="6"/>
@@ -7104,7 +7116,7 @@
       <c r="G325" s="8"/>
       <c r="H325" s="6"/>
       <c r="I325" s="6"/>
-      <c r="J325" s="66"/>
+      <c r="J325" s="6"/>
       <c r="K325" s="6"/>
       <c r="L325" s="6"/>
       <c r="M325" s="6"/>
@@ -7121,7 +7133,7 @@
       <c r="G326" s="8"/>
       <c r="H326" s="6"/>
       <c r="I326" s="6"/>
-      <c r="J326" s="66"/>
+      <c r="J326" s="6"/>
       <c r="K326" s="6"/>
       <c r="L326" s="6"/>
       <c r="M326" s="6"/>
@@ -7138,7 +7150,7 @@
       <c r="G327" s="8"/>
       <c r="H327" s="6"/>
       <c r="I327" s="6"/>
-      <c r="J327" s="66"/>
+      <c r="J327" s="6"/>
       <c r="K327" s="6"/>
       <c r="L327" s="6"/>
       <c r="M327" s="6"/>
@@ -7155,7 +7167,7 @@
       <c r="G328" s="8"/>
       <c r="H328" s="6"/>
       <c r="I328" s="6"/>
-      <c r="J328" s="66"/>
+      <c r="J328" s="6"/>
       <c r="K328" s="6"/>
       <c r="L328" s="6"/>
       <c r="M328" s="6"/>
@@ -7172,7 +7184,7 @@
       <c r="G329" s="8"/>
       <c r="H329" s="6"/>
       <c r="I329" s="6"/>
-      <c r="J329" s="66"/>
+      <c r="J329" s="6"/>
       <c r="K329" s="6"/>
       <c r="L329" s="6"/>
       <c r="M329" s="6"/>
@@ -7189,7 +7201,7 @@
       <c r="G330" s="8"/>
       <c r="H330" s="6"/>
       <c r="I330" s="6"/>
-      <c r="J330" s="66"/>
+      <c r="J330" s="6"/>
       <c r="K330" s="6"/>
       <c r="L330" s="6"/>
       <c r="M330" s="6"/>
@@ -7206,7 +7218,7 @@
       <c r="G331" s="8"/>
       <c r="H331" s="6"/>
       <c r="I331" s="6"/>
-      <c r="J331" s="66"/>
+      <c r="J331" s="6"/>
       <c r="K331" s="6"/>
       <c r="L331" s="6"/>
       <c r="M331" s="6"/>
@@ -7223,7 +7235,7 @@
       <c r="G332" s="8"/>
       <c r="H332" s="6"/>
       <c r="I332" s="6"/>
-      <c r="J332" s="66"/>
+      <c r="J332" s="6"/>
       <c r="K332" s="6"/>
       <c r="L332" s="6"/>
       <c r="M332" s="6"/>
@@ -7240,7 +7252,7 @@
       <c r="G333" s="8"/>
       <c r="H333" s="6"/>
       <c r="I333" s="6"/>
-      <c r="J333" s="66"/>
+      <c r="J333" s="6"/>
       <c r="K333" s="6"/>
       <c r="L333" s="6"/>
       <c r="M333" s="6"/>
@@ -7257,7 +7269,7 @@
       <c r="G334" s="8"/>
       <c r="H334" s="6"/>
       <c r="I334" s="6"/>
-      <c r="J334" s="66"/>
+      <c r="J334" s="6"/>
       <c r="K334" s="6"/>
       <c r="L334" s="6"/>
       <c r="M334" s="6"/>
@@ -7274,7 +7286,7 @@
       <c r="G335" s="8"/>
       <c r="H335" s="6"/>
       <c r="I335" s="6"/>
-      <c r="J335" s="66"/>
+      <c r="J335" s="6"/>
       <c r="K335" s="6"/>
       <c r="L335" s="6"/>
       <c r="M335" s="6"/>
@@ -7291,7 +7303,7 @@
       <c r="G336" s="8"/>
       <c r="H336" s="6"/>
       <c r="I336" s="6"/>
-      <c r="J336" s="66"/>
+      <c r="J336" s="6"/>
       <c r="K336" s="6"/>
       <c r="L336" s="6"/>
       <c r="M336" s="6"/>
@@ -7308,7 +7320,7 @@
       <c r="G337" s="8"/>
       <c r="H337" s="6"/>
       <c r="I337" s="6"/>
-      <c r="J337" s="66"/>
+      <c r="J337" s="6"/>
       <c r="K337" s="6"/>
       <c r="L337" s="6"/>
       <c r="M337" s="6"/>
@@ -7325,7 +7337,7 @@
       <c r="G338" s="8"/>
       <c r="H338" s="6"/>
       <c r="I338" s="6"/>
-      <c r="J338" s="66"/>
+      <c r="J338" s="6"/>
       <c r="K338" s="6"/>
       <c r="L338" s="6"/>
       <c r="M338" s="6"/>
@@ -7342,7 +7354,7 @@
       <c r="G339" s="8"/>
       <c r="H339" s="6"/>
       <c r="I339" s="6"/>
-      <c r="J339" s="66"/>
+      <c r="J339" s="6"/>
       <c r="K339" s="6"/>
       <c r="L339" s="6"/>
       <c r="M339" s="6"/>
@@ -7359,7 +7371,7 @@
       <c r="G340" s="8"/>
       <c r="H340" s="6"/>
       <c r="I340" s="6"/>
-      <c r="J340" s="66"/>
+      <c r="J340" s="6"/>
       <c r="K340" s="6"/>
       <c r="L340" s="6"/>
       <c r="M340" s="6"/>
@@ -7376,7 +7388,7 @@
       <c r="G341" s="8"/>
       <c r="H341" s="6"/>
       <c r="I341" s="6"/>
-      <c r="J341" s="66"/>
+      <c r="J341" s="6"/>
       <c r="K341" s="6"/>
       <c r="L341" s="6"/>
       <c r="M341" s="6"/>
@@ -7393,7 +7405,7 @@
       <c r="G342" s="8"/>
       <c r="H342" s="6"/>
       <c r="I342" s="6"/>
-      <c r="J342" s="66"/>
+      <c r="J342" s="6"/>
       <c r="K342" s="6"/>
       <c r="L342" s="6"/>
       <c r="M342" s="6"/>
@@ -7410,7 +7422,7 @@
       <c r="G343" s="8"/>
       <c r="H343" s="6"/>
       <c r="I343" s="6"/>
-      <c r="J343" s="66"/>
+      <c r="J343" s="6"/>
       <c r="K343" s="6"/>
       <c r="L343" s="6"/>
       <c r="M343" s="6"/>
@@ -7427,7 +7439,7 @@
       <c r="G344" s="8"/>
       <c r="H344" s="6"/>
       <c r="I344" s="6"/>
-      <c r="J344" s="66"/>
+      <c r="J344" s="6"/>
       <c r="K344" s="6"/>
       <c r="L344" s="6"/>
       <c r="M344" s="6"/>
@@ -7444,7 +7456,7 @@
       <c r="G345" s="8"/>
       <c r="H345" s="6"/>
       <c r="I345" s="6"/>
-      <c r="J345" s="66"/>
+      <c r="J345" s="6"/>
       <c r="K345" s="6"/>
       <c r="L345" s="6"/>
       <c r="M345" s="6"/>
@@ -7461,7 +7473,7 @@
       <c r="G346" s="8"/>
       <c r="H346" s="6"/>
       <c r="I346" s="6"/>
-      <c r="J346" s="66"/>
+      <c r="J346" s="6"/>
       <c r="K346" s="6"/>
       <c r="L346" s="6"/>
       <c r="M346" s="6"/>
@@ -7478,7 +7490,7 @@
       <c r="G347" s="8"/>
       <c r="H347" s="6"/>
       <c r="I347" s="6"/>
-      <c r="J347" s="66"/>
+      <c r="J347" s="6"/>
       <c r="K347" s="6"/>
       <c r="L347" s="6"/>
       <c r="M347" s="6"/>
@@ -7495,7 +7507,7 @@
       <c r="G348" s="8"/>
       <c r="H348" s="6"/>
       <c r="I348" s="6"/>
-      <c r="J348" s="66"/>
+      <c r="J348" s="6"/>
       <c r="K348" s="6"/>
       <c r="L348" s="6"/>
       <c r="M348" s="6"/>
@@ -7512,7 +7524,7 @@
       <c r="G349" s="8"/>
       <c r="H349" s="6"/>
       <c r="I349" s="6"/>
-      <c r="J349" s="66"/>
+      <c r="J349" s="6"/>
       <c r="K349" s="6"/>
       <c r="L349" s="6"/>
       <c r="M349" s="6"/>
@@ -7529,7 +7541,7 @@
       <c r="G350" s="8"/>
       <c r="H350" s="6"/>
       <c r="I350" s="6"/>
-      <c r="J350" s="66"/>
+      <c r="J350" s="6"/>
       <c r="K350" s="6"/>
       <c r="L350" s="6"/>
       <c r="M350" s="6"/>
@@ -7546,7 +7558,7 @@
       <c r="G351" s="8"/>
       <c r="H351" s="6"/>
       <c r="I351" s="6"/>
-      <c r="J351" s="66"/>
+      <c r="J351" s="6"/>
       <c r="K351" s="6"/>
       <c r="L351" s="6"/>
       <c r="M351" s="6"/>
@@ -7563,7 +7575,7 @@
       <c r="G352" s="8"/>
       <c r="H352" s="6"/>
       <c r="I352" s="6"/>
-      <c r="J352" s="66"/>
+      <c r="J352" s="6"/>
       <c r="K352" s="6"/>
       <c r="L352" s="6"/>
       <c r="M352" s="6"/>
@@ -7580,7 +7592,7 @@
       <c r="G353" s="8"/>
       <c r="H353" s="6"/>
       <c r="I353" s="6"/>
-      <c r="J353" s="66"/>
+      <c r="J353" s="6"/>
       <c r="K353" s="6"/>
       <c r="L353" s="6"/>
       <c r="M353" s="6"/>
@@ -7597,7 +7609,7 @@
       <c r="G354" s="8"/>
       <c r="H354" s="6"/>
       <c r="I354" s="6"/>
-      <c r="J354" s="66"/>
+      <c r="J354" s="6"/>
       <c r="K354" s="6"/>
       <c r="L354" s="6"/>
       <c r="M354" s="6"/>
@@ -7614,7 +7626,7 @@
       <c r="G355" s="8"/>
       <c r="H355" s="6"/>
       <c r="I355" s="6"/>
-      <c r="J355" s="66"/>
+      <c r="J355" s="6"/>
       <c r="K355" s="6"/>
       <c r="L355" s="6"/>
       <c r="M355" s="6"/>
@@ -7631,7 +7643,7 @@
       <c r="G356" s="8"/>
       <c r="H356" s="6"/>
       <c r="I356" s="6"/>
-      <c r="J356" s="66"/>
+      <c r="J356" s="6"/>
       <c r="K356" s="6"/>
       <c r="L356" s="6"/>
       <c r="M356" s="6"/>
@@ -7648,7 +7660,7 @@
       <c r="G357" s="8"/>
       <c r="H357" s="6"/>
       <c r="I357" s="6"/>
-      <c r="J357" s="66"/>
+      <c r="J357" s="6"/>
       <c r="K357" s="6"/>
       <c r="L357" s="6"/>
       <c r="M357" s="6"/>
@@ -7665,7 +7677,7 @@
       <c r="G358" s="8"/>
       <c r="H358" s="6"/>
       <c r="I358" s="6"/>
-      <c r="J358" s="66"/>
+      <c r="J358" s="6"/>
       <c r="K358" s="6"/>
       <c r="L358" s="6"/>
       <c r="M358" s="6"/>
@@ -7682,7 +7694,7 @@
       <c r="G359" s="8"/>
       <c r="H359" s="6"/>
       <c r="I359" s="6"/>
-      <c r="J359" s="66"/>
+      <c r="J359" s="6"/>
       <c r="K359" s="6"/>
       <c r="L359" s="6"/>
       <c r="M359" s="6"/>
@@ -7699,7 +7711,7 @@
       <c r="G360" s="8"/>
       <c r="H360" s="6"/>
       <c r="I360" s="6"/>
-      <c r="J360" s="66"/>
+      <c r="J360" s="6"/>
       <c r="K360" s="6"/>
       <c r="L360" s="6"/>
       <c r="M360" s="6"/>
@@ -7716,7 +7728,7 @@
       <c r="G361" s="8"/>
       <c r="H361" s="6"/>
       <c r="I361" s="6"/>
-      <c r="J361" s="66"/>
+      <c r="J361" s="6"/>
       <c r="K361" s="6"/>
       <c r="L361" s="6"/>
       <c r="M361" s="6"/>
@@ -7733,7 +7745,7 @@
       <c r="G362" s="8"/>
       <c r="H362" s="6"/>
       <c r="I362" s="6"/>
-      <c r="J362" s="66"/>
+      <c r="J362" s="6"/>
       <c r="K362" s="6"/>
       <c r="L362" s="6"/>
       <c r="M362" s="6"/>
@@ -7750,7 +7762,7 @@
       <c r="G363" s="8"/>
       <c r="H363" s="6"/>
       <c r="I363" s="6"/>
-      <c r="J363" s="66"/>
+      <c r="J363" s="6"/>
       <c r="K363" s="6"/>
       <c r="L363" s="6"/>
       <c r="M363" s="6"/>
@@ -7767,7 +7779,7 @@
       <c r="G364" s="8"/>
       <c r="H364" s="6"/>
       <c r="I364" s="6"/>
-      <c r="J364" s="66"/>
+      <c r="J364" s="6"/>
       <c r="K364" s="6"/>
       <c r="L364" s="6"/>
       <c r="M364" s="6"/>
@@ -7784,7 +7796,7 @@
       <c r="G365" s="8"/>
       <c r="H365" s="6"/>
       <c r="I365" s="6"/>
-      <c r="J365" s="66"/>
+      <c r="J365" s="6"/>
       <c r="K365" s="6"/>
       <c r="L365" s="6"/>
       <c r="M365" s="6"/>
@@ -7801,7 +7813,7 @@
       <c r="G366" s="8"/>
       <c r="H366" s="6"/>
       <c r="I366" s="6"/>
-      <c r="J366" s="66"/>
+      <c r="J366" s="6"/>
       <c r="K366" s="6"/>
       <c r="L366" s="6"/>
       <c r="M366" s="6"/>
@@ -7818,7 +7830,7 @@
       <c r="G367" s="8"/>
       <c r="H367" s="6"/>
       <c r="I367" s="6"/>
-      <c r="J367" s="66"/>
+      <c r="J367" s="6"/>
       <c r="K367" s="6"/>
       <c r="L367" s="6"/>
       <c r="M367" s="6"/>
@@ -7835,7 +7847,7 @@
       <c r="G368" s="8"/>
       <c r="H368" s="6"/>
       <c r="I368" s="6"/>
-      <c r="J368" s="66"/>
+      <c r="J368" s="6"/>
       <c r="K368" s="6"/>
       <c r="L368" s="6"/>
       <c r="M368" s="6"/>
@@ -7852,7 +7864,7 @@
       <c r="G369" s="8"/>
       <c r="H369" s="6"/>
       <c r="I369" s="6"/>
-      <c r="J369" s="66"/>
+      <c r="J369" s="6"/>
       <c r="K369" s="6"/>
       <c r="L369" s="6"/>
       <c r="M369" s="6"/>
@@ -7869,7 +7881,7 @@
       <c r="G370" s="8"/>
       <c r="H370" s="6"/>
       <c r="I370" s="6"/>
-      <c r="J370" s="66"/>
+      <c r="J370" s="6"/>
       <c r="K370" s="6"/>
       <c r="L370" s="6"/>
       <c r="M370" s="6"/>
@@ -7886,7 +7898,7 @@
       <c r="G371" s="8"/>
       <c r="H371" s="6"/>
       <c r="I371" s="6"/>
-      <c r="J371" s="66"/>
+      <c r="J371" s="6"/>
       <c r="K371" s="6"/>
       <c r="L371" s="6"/>
       <c r="M371" s="6"/>
@@ -7903,7 +7915,7 @@
       <c r="G372" s="8"/>
       <c r="H372" s="6"/>
       <c r="I372" s="6"/>
-      <c r="J372" s="66"/>
+      <c r="J372" s="6"/>
       <c r="K372" s="6"/>
       <c r="L372" s="6"/>
       <c r="M372" s="6"/>
@@ -7920,7 +7932,7 @@
       <c r="G373" s="8"/>
       <c r="H373" s="6"/>
       <c r="I373" s="6"/>
-      <c r="J373" s="66"/>
+      <c r="J373" s="6"/>
       <c r="K373" s="6"/>
       <c r="L373" s="6"/>
       <c r="M373" s="6"/>
@@ -7937,7 +7949,7 @@
       <c r="G374" s="8"/>
       <c r="H374" s="6"/>
       <c r="I374" s="6"/>
-      <c r="J374" s="66"/>
+      <c r="J374" s="6"/>
       <c r="K374" s="6"/>
       <c r="L374" s="6"/>
       <c r="M374" s="6"/>
@@ -7954,7 +7966,7 @@
       <c r="G375" s="8"/>
       <c r="H375" s="6"/>
       <c r="I375" s="6"/>
-      <c r="J375" s="66"/>
+      <c r="J375" s="6"/>
       <c r="K375" s="6"/>
       <c r="L375" s="6"/>
       <c r="M375" s="6"/>
@@ -7971,7 +7983,7 @@
       <c r="G376" s="8"/>
       <c r="H376" s="6"/>
       <c r="I376" s="6"/>
-      <c r="J376" s="66"/>
+      <c r="J376" s="6"/>
       <c r="K376" s="6"/>
       <c r="L376" s="6"/>
       <c r="M376" s="6"/>
@@ -7988,7 +8000,7 @@
       <c r="G377" s="8"/>
       <c r="H377" s="6"/>
       <c r="I377" s="6"/>
-      <c r="J377" s="66"/>
+      <c r="J377" s="6"/>
       <c r="K377" s="6"/>
       <c r="L377" s="6"/>
       <c r="M377" s="6"/>
@@ -8005,7 +8017,7 @@
       <c r="G378" s="8"/>
       <c r="H378" s="6"/>
       <c r="I378" s="6"/>
-      <c r="J378" s="66"/>
+      <c r="J378" s="6"/>
       <c r="K378" s="6"/>
       <c r="L378" s="6"/>
       <c r="M378" s="6"/>
@@ -8022,7 +8034,7 @@
       <c r="G379" s="8"/>
       <c r="H379" s="6"/>
       <c r="I379" s="6"/>
-      <c r="J379" s="66"/>
+      <c r="J379" s="6"/>
       <c r="K379" s="6"/>
       <c r="L379" s="6"/>
       <c r="M379" s="6"/>
@@ -8039,7 +8051,7 @@
       <c r="G380" s="8"/>
       <c r="H380" s="6"/>
       <c r="I380" s="6"/>
-      <c r="J380" s="66"/>
+      <c r="J380" s="6"/>
       <c r="K380" s="6"/>
       <c r="L380" s="6"/>
       <c r="M380" s="6"/>
@@ -8056,7 +8068,7 @@
       <c r="G381" s="8"/>
       <c r="H381" s="6"/>
       <c r="I381" s="6"/>
-      <c r="J381" s="66"/>
+      <c r="J381" s="6"/>
       <c r="K381" s="6"/>
       <c r="L381" s="6"/>
       <c r="M381" s="6"/>
@@ -8073,7 +8085,7 @@
       <c r="G382" s="8"/>
       <c r="H382" s="6"/>
       <c r="I382" s="6"/>
-      <c r="J382" s="66"/>
+      <c r="J382" s="6"/>
       <c r="K382" s="6"/>
       <c r="L382" s="6"/>
       <c r="M382" s="6"/>
@@ -8090,7 +8102,7 @@
       <c r="G383" s="8"/>
       <c r="H383" s="6"/>
       <c r="I383" s="6"/>
-      <c r="J383" s="66"/>
+      <c r="J383" s="6"/>
       <c r="K383" s="6"/>
       <c r="L383" s="6"/>
       <c r="M383" s="6"/>
@@ -8107,7 +8119,7 @@
       <c r="G384" s="8"/>
       <c r="H384" s="6"/>
       <c r="I384" s="6"/>
-      <c r="J384" s="66"/>
+      <c r="J384" s="6"/>
       <c r="K384" s="6"/>
       <c r="L384" s="6"/>
       <c r="M384" s="6"/>
@@ -8124,7 +8136,7 @@
       <c r="G385" s="8"/>
       <c r="H385" s="6"/>
       <c r="I385" s="6"/>
-      <c r="J385" s="66"/>
+      <c r="J385" s="6"/>
       <c r="K385" s="6"/>
       <c r="L385" s="6"/>
       <c r="M385" s="6"/>
@@ -8141,7 +8153,7 @@
       <c r="G386" s="8"/>
       <c r="H386" s="6"/>
       <c r="I386" s="6"/>
-      <c r="J386" s="66"/>
+      <c r="J386" s="6"/>
       <c r="K386" s="6"/>
       <c r="L386" s="6"/>
       <c r="M386" s="6"/>
@@ -8158,7 +8170,7 @@
       <c r="G387" s="8"/>
       <c r="H387" s="6"/>
       <c r="I387" s="6"/>
-      <c r="J387" s="66"/>
+      <c r="J387" s="6"/>
       <c r="K387" s="6"/>
       <c r="L387" s="6"/>
       <c r="M387" s="6"/>
@@ -8175,7 +8187,7 @@
       <c r="G388" s="8"/>
       <c r="H388" s="6"/>
       <c r="I388" s="6"/>
-      <c r="J388" s="66"/>
+      <c r="J388" s="6"/>
       <c r="K388" s="6"/>
       <c r="L388" s="6"/>
       <c r="M388" s="6"/>
@@ -8192,7 +8204,7 @@
       <c r="G389" s="8"/>
       <c r="H389" s="6"/>
       <c r="I389" s="6"/>
-      <c r="J389" s="66"/>
+      <c r="J389" s="6"/>
       <c r="K389" s="6"/>
       <c r="L389" s="6"/>
       <c r="M389" s="6"/>
@@ -8209,7 +8221,7 @@
       <c r="G390" s="8"/>
       <c r="H390" s="6"/>
       <c r="I390" s="6"/>
-      <c r="J390" s="66"/>
+      <c r="J390" s="6"/>
       <c r="K390" s="6"/>
       <c r="L390" s="6"/>
       <c r="M390" s="6"/>
@@ -8226,7 +8238,7 @@
       <c r="G391" s="8"/>
       <c r="H391" s="6"/>
       <c r="I391" s="6"/>
-      <c r="J391" s="66"/>
+      <c r="J391" s="6"/>
       <c r="K391" s="6"/>
       <c r="L391" s="6"/>
       <c r="M391" s="6"/>
@@ -8243,7 +8255,7 @@
       <c r="G392" s="8"/>
       <c r="H392" s="6"/>
       <c r="I392" s="6"/>
-      <c r="J392" s="66"/>
+      <c r="J392" s="6"/>
       <c r="K392" s="6"/>
       <c r="L392" s="6"/>
       <c r="M392" s="6"/>
@@ -8260,7 +8272,7 @@
       <c r="G393" s="8"/>
       <c r="H393" s="6"/>
       <c r="I393" s="6"/>
-      <c r="J393" s="66"/>
+      <c r="J393" s="6"/>
       <c r="K393" s="6"/>
       <c r="L393" s="6"/>
       <c r="M393" s="6"/>
@@ -8277,7 +8289,7 @@
       <c r="G394" s="8"/>
       <c r="H394" s="6"/>
       <c r="I394" s="6"/>
-      <c r="J394" s="66"/>
+      <c r="J394" s="6"/>
       <c r="K394" s="6"/>
       <c r="L394" s="6"/>
       <c r="M394" s="6"/>
@@ -8294,7 +8306,7 @@
       <c r="G395" s="8"/>
       <c r="H395" s="6"/>
       <c r="I395" s="6"/>
-      <c r="J395" s="66"/>
+      <c r="J395" s="6"/>
       <c r="K395" s="6"/>
       <c r="L395" s="6"/>
       <c r="M395" s="6"/>
@@ -8311,7 +8323,7 @@
       <c r="G396" s="8"/>
       <c r="H396" s="6"/>
       <c r="I396" s="6"/>
-      <c r="J396" s="66"/>
+      <c r="J396" s="6"/>
       <c r="K396" s="6"/>
       <c r="L396" s="6"/>
       <c r="M396" s="6"/>
@@ -8328,7 +8340,7 @@
       <c r="G397" s="8"/>
       <c r="H397" s="6"/>
       <c r="I397" s="6"/>
-      <c r="J397" s="66"/>
+      <c r="J397" s="6"/>
       <c r="K397" s="6"/>
       <c r="L397" s="6"/>
       <c r="M397" s="6"/>
@@ -8345,7 +8357,7 @@
       <c r="G398" s="8"/>
       <c r="H398" s="6"/>
       <c r="I398" s="6"/>
-      <c r="J398" s="66"/>
+      <c r="J398" s="6"/>
       <c r="K398" s="6"/>
       <c r="L398" s="6"/>
       <c r="M398" s="6"/>
@@ -8362,7 +8374,7 @@
       <c r="G399" s="8"/>
       <c r="H399" s="6"/>
       <c r="I399" s="6"/>
-      <c r="J399" s="66"/>
+      <c r="J399" s="6"/>
       <c r="K399" s="6"/>
       <c r="L399" s="6"/>
       <c r="M399" s="6"/>
@@ -8379,7 +8391,7 @@
       <c r="G400" s="8"/>
       <c r="H400" s="6"/>
       <c r="I400" s="6"/>
-      <c r="J400" s="66"/>
+      <c r="J400" s="6"/>
       <c r="K400" s="6"/>
       <c r="L400" s="6"/>
       <c r="M400" s="6"/>
@@ -8396,7 +8408,7 @@
       <c r="G401" s="8"/>
       <c r="H401" s="6"/>
       <c r="I401" s="6"/>
-      <c r="J401" s="66"/>
+      <c r="J401" s="6"/>
       <c r="K401" s="6"/>
       <c r="L401" s="6"/>
       <c r="M401" s="6"/>
@@ -8413,7 +8425,7 @@
       <c r="G402" s="8"/>
       <c r="H402" s="6"/>
       <c r="I402" s="6"/>
-      <c r="J402" s="66"/>
+      <c r="J402" s="6"/>
       <c r="K402" s="6"/>
       <c r="L402" s="6"/>
       <c r="M402" s="6"/>
@@ -8430,7 +8442,7 @@
       <c r="G403" s="8"/>
       <c r="H403" s="6"/>
       <c r="I403" s="6"/>
-      <c r="J403" s="66"/>
+      <c r="J403" s="6"/>
       <c r="K403" s="6"/>
       <c r="L403" s="6"/>
       <c r="M403" s="6"/>
@@ -8447,7 +8459,7 @@
       <c r="G404" s="8"/>
       <c r="H404" s="6"/>
       <c r="I404" s="6"/>
-      <c r="J404" s="66"/>
+      <c r="J404" s="6"/>
       <c r="K404" s="6"/>
       <c r="L404" s="6"/>
       <c r="M404" s="6"/>
@@ -8464,7 +8476,7 @@
       <c r="G405" s="8"/>
       <c r="H405" s="6"/>
       <c r="I405" s="6"/>
-      <c r="J405" s="66"/>
+      <c r="J405" s="6"/>
       <c r="K405" s="6"/>
       <c r="L405" s="6"/>
       <c r="M405" s="6"/>
@@ -8481,7 +8493,7 @@
       <c r="G406" s="8"/>
       <c r="H406" s="6"/>
       <c r="I406" s="6"/>
-      <c r="J406" s="66"/>
+      <c r="J406" s="6"/>
       <c r="K406" s="6"/>
       <c r="L406" s="6"/>
       <c r="M406" s="6"/>
@@ -8498,7 +8510,7 @@
       <c r="G407" s="8"/>
       <c r="H407" s="6"/>
       <c r="I407" s="6"/>
-      <c r="J407" s="66"/>
+      <c r="J407" s="6"/>
       <c r="K407" s="6"/>
       <c r="L407" s="6"/>
       <c r="M407" s="6"/>
@@ -8515,7 +8527,7 @@
       <c r="G408" s="8"/>
       <c r="H408" s="6"/>
       <c r="I408" s="6"/>
-      <c r="J408" s="66"/>
+      <c r="J408" s="6"/>
       <c r="K408" s="6"/>
       <c r="L408" s="6"/>
       <c r="M408" s="6"/>
@@ -8532,7 +8544,7 @@
       <c r="G409" s="8"/>
       <c r="H409" s="6"/>
       <c r="I409" s="6"/>
-      <c r="J409" s="66"/>
+      <c r="J409" s="6"/>
       <c r="K409" s="6"/>
       <c r="L409" s="6"/>
       <c r="M409" s="6"/>
@@ -8549,7 +8561,7 @@
       <c r="G410" s="8"/>
       <c r="H410" s="6"/>
       <c r="I410" s="6"/>
-      <c r="J410" s="66"/>
+      <c r="J410" s="6"/>
       <c r="K410" s="6"/>
       <c r="L410" s="6"/>
       <c r="M410" s="6"/>
@@ -8566,7 +8578,7 @@
       <c r="G411" s="8"/>
       <c r="H411" s="6"/>
       <c r="I411" s="6"/>
-      <c r="J411" s="66"/>
+      <c r="J411" s="6"/>
       <c r="K411" s="6"/>
       <c r="L411" s="6"/>
       <c r="M411" s="6"/>
@@ -8583,7 +8595,7 @@
       <c r="G412" s="8"/>
       <c r="H412" s="6"/>
       <c r="I412" s="6"/>
-      <c r="J412" s="66"/>
+      <c r="J412" s="6"/>
       <c r="K412" s="6"/>
       <c r="L412" s="6"/>
       <c r="M412" s="6"/>
@@ -8600,7 +8612,7 @@
       <c r="G413" s="8"/>
       <c r="H413" s="6"/>
       <c r="I413" s="6"/>
-      <c r="J413" s="66"/>
+      <c r="J413" s="6"/>
       <c r="K413" s="6"/>
       <c r="L413" s="6"/>
       <c r="M413" s="6"/>
@@ -8617,7 +8629,7 @@
       <c r="G414" s="8"/>
       <c r="H414" s="6"/>
       <c r="I414" s="6"/>
-      <c r="J414" s="66"/>
+      <c r="J414" s="6"/>
       <c r="K414" s="6"/>
       <c r="L414" s="6"/>
       <c r="M414" s="6"/>
@@ -8634,7 +8646,7 @@
       <c r="G415" s="8"/>
       <c r="H415" s="6"/>
       <c r="I415" s="6"/>
-      <c r="J415" s="66"/>
+      <c r="J415" s="6"/>
       <c r="K415" s="6"/>
       <c r="L415" s="6"/>
       <c r="M415" s="6"/>
@@ -8651,7 +8663,7 @@
       <c r="G416" s="8"/>
       <c r="H416" s="6"/>
       <c r="I416" s="6"/>
-      <c r="J416" s="66"/>
+      <c r="J416" s="6"/>
       <c r="K416" s="6"/>
       <c r="L416" s="6"/>
       <c r="M416" s="6"/>
@@ -8668,7 +8680,7 @@
       <c r="G417" s="8"/>
       <c r="H417" s="6"/>
       <c r="I417" s="6"/>
-      <c r="J417" s="66"/>
+      <c r="J417" s="6"/>
       <c r="K417" s="6"/>
       <c r="L417" s="6"/>
       <c r="M417" s="6"/>
@@ -8685,7 +8697,7 @@
       <c r="G418" s="8"/>
       <c r="H418" s="6"/>
       <c r="I418" s="6"/>
-      <c r="J418" s="66"/>
+      <c r="J418" s="6"/>
       <c r="K418" s="6"/>
       <c r="L418" s="6"/>
       <c r="M418" s="6"/>
@@ -8702,7 +8714,7 @@
       <c r="G419" s="8"/>
       <c r="H419" s="6"/>
       <c r="I419" s="6"/>
-      <c r="J419" s="66"/>
+      <c r="J419" s="6"/>
       <c r="K419" s="6"/>
       <c r="L419" s="6"/>
       <c r="M419" s="6"/>
@@ -8719,7 +8731,7 @@
       <c r="G420" s="8"/>
       <c r="H420" s="6"/>
       <c r="I420" s="6"/>
-      <c r="J420" s="66"/>
+      <c r="J420" s="6"/>
       <c r="K420" s="6"/>
       <c r="L420" s="6"/>
       <c r="M420" s="6"/>
@@ -8736,7 +8748,7 @@
       <c r="G421" s="8"/>
       <c r="H421" s="6"/>
       <c r="I421" s="6"/>
-      <c r="J421" s="66"/>
+      <c r="J421" s="6"/>
       <c r="K421" s="6"/>
       <c r="L421" s="6"/>
       <c r="M421" s="6"/>
@@ -8753,7 +8765,7 @@
       <c r="G422" s="8"/>
       <c r="H422" s="6"/>
       <c r="I422" s="6"/>
-      <c r="J422" s="66"/>
+      <c r="J422" s="6"/>
       <c r="K422" s="6"/>
       <c r="L422" s="6"/>
       <c r="M422" s="6"/>
@@ -8770,7 +8782,7 @@
       <c r="G423" s="8"/>
       <c r="H423" s="6"/>
       <c r="I423" s="6"/>
-      <c r="J423" s="66"/>
+      <c r="J423" s="6"/>
       <c r="K423" s="6"/>
       <c r="L423" s="6"/>
       <c r="M423" s="6"/>
@@ -8787,7 +8799,7 @@
       <c r="G424" s="8"/>
       <c r="H424" s="6"/>
       <c r="I424" s="6"/>
-      <c r="J424" s="66"/>
+      <c r="J424" s="6"/>
       <c r="K424" s="6"/>
       <c r="L424" s="6"/>
       <c r="M424" s="6"/>
@@ -8804,7 +8816,7 @@
       <c r="G425" s="8"/>
       <c r="H425" s="6"/>
       <c r="I425" s="6"/>
-      <c r="J425" s="66"/>
+      <c r="J425" s="6"/>
       <c r="K425" s="6"/>
       <c r="L425" s="6"/>
       <c r="M425" s="6"/>
@@ -8821,7 +8833,7 @@
       <c r="G426" s="8"/>
       <c r="H426" s="6"/>
       <c r="I426" s="6"/>
-      <c r="J426" s="66"/>
+      <c r="J426" s="6"/>
       <c r="K426" s="6"/>
       <c r="L426" s="6"/>
       <c r="M426" s="6"/>
@@ -8838,7 +8850,7 @@
       <c r="G427" s="8"/>
       <c r="H427" s="6"/>
       <c r="I427" s="6"/>
-      <c r="J427" s="66"/>
+      <c r="J427" s="6"/>
       <c r="K427" s="6"/>
       <c r="L427" s="6"/>
       <c r="M427" s="6"/>
@@ -8855,7 +8867,7 @@
       <c r="G428" s="8"/>
       <c r="H428" s="6"/>
       <c r="I428" s="6"/>
-      <c r="J428" s="66"/>
+      <c r="J428" s="6"/>
       <c r="K428" s="6"/>
       <c r="L428" s="6"/>
       <c r="M428" s="6"/>
@@ -8872,7 +8884,7 @@
       <c r="G429" s="8"/>
       <c r="H429" s="6"/>
       <c r="I429" s="6"/>
-      <c r="J429" s="66"/>
+      <c r="J429" s="6"/>
       <c r="K429" s="6"/>
       <c r="L429" s="6"/>
       <c r="M429" s="6"/>
@@ -8889,7 +8901,7 @@
       <c r="G430" s="8"/>
       <c r="H430" s="6"/>
       <c r="I430" s="6"/>
-      <c r="J430" s="66"/>
+      <c r="J430" s="6"/>
       <c r="K430" s="6"/>
       <c r="L430" s="6"/>
       <c r="M430" s="6"/>
@@ -8906,7 +8918,7 @@
       <c r="G431" s="8"/>
       <c r="H431" s="6"/>
       <c r="I431" s="6"/>
-      <c r="J431" s="66"/>
+      <c r="J431" s="6"/>
       <c r="K431" s="6"/>
       <c r="L431" s="6"/>
       <c r="M431" s="6"/>
@@ -8923,7 +8935,7 @@
       <c r="G432" s="8"/>
       <c r="H432" s="6"/>
       <c r="I432" s="6"/>
-      <c r="J432" s="66"/>
+      <c r="J432" s="6"/>
       <c r="K432" s="6"/>
       <c r="L432" s="6"/>
       <c r="M432" s="6"/>
@@ -8940,7 +8952,7 @@
       <c r="G433" s="8"/>
       <c r="H433" s="6"/>
       <c r="I433" s="6"/>
-      <c r="J433" s="66"/>
+      <c r="J433" s="6"/>
       <c r="K433" s="6"/>
       <c r="L433" s="6"/>
       <c r="M433" s="6"/>
@@ -8957,7 +8969,7 @@
       <c r="G434" s="8"/>
       <c r="H434" s="6"/>
       <c r="I434" s="6"/>
-      <c r="J434" s="66"/>
+      <c r="J434" s="6"/>
       <c r="K434" s="6"/>
       <c r="L434" s="6"/>
       <c r="M434" s="6"/>
@@ -8974,7 +8986,7 @@
       <c r="G435" s="8"/>
       <c r="H435" s="6"/>
       <c r="I435" s="6"/>
-      <c r="J435" s="66"/>
+      <c r="J435" s="6"/>
       <c r="K435" s="6"/>
       <c r="L435" s="6"/>
       <c r="M435" s="6"/>
@@ -8991,7 +9003,7 @@
       <c r="G436" s="8"/>
       <c r="H436" s="6"/>
       <c r="I436" s="6"/>
-      <c r="J436" s="66"/>
+      <c r="J436" s="6"/>
       <c r="K436" s="6"/>
       <c r="L436" s="6"/>
       <c r="M436" s="6"/>
@@ -9008,7 +9020,7 @@
       <c r="G437" s="8"/>
       <c r="H437" s="6"/>
       <c r="I437" s="6"/>
-      <c r="J437" s="66"/>
+      <c r="J437" s="6"/>
       <c r="K437" s="6"/>
       <c r="L437" s="6"/>
       <c r="M437" s="6"/>
@@ -9025,7 +9037,7 @@
       <c r="G438" s="8"/>
       <c r="H438" s="6"/>
       <c r="I438" s="6"/>
-      <c r="J438" s="66"/>
+      <c r="J438" s="6"/>
       <c r="K438" s="6"/>
       <c r="L438" s="6"/>
       <c r="M438" s="6"/>
@@ -9042,7 +9054,7 @@
       <c r="G439" s="8"/>
       <c r="H439" s="6"/>
       <c r="I439" s="6"/>
-      <c r="J439" s="66"/>
+      <c r="J439" s="6"/>
       <c r="K439" s="6"/>
       <c r="L439" s="6"/>
       <c r="M439" s="6"/>
@@ -9059,7 +9071,7 @@
       <c r="G440" s="8"/>
       <c r="H440" s="6"/>
       <c r="I440" s="6"/>
-      <c r="J440" s="66"/>
+      <c r="J440" s="6"/>
       <c r="K440" s="6"/>
       <c r="L440" s="6"/>
       <c r="M440" s="6"/>
@@ -9076,7 +9088,7 @@
       <c r="G441" s="8"/>
       <c r="H441" s="6"/>
       <c r="I441" s="6"/>
-      <c r="J441" s="66"/>
+      <c r="J441" s="6"/>
       <c r="K441" s="6"/>
       <c r="L441" s="6"/>
       <c r="M441" s="6"/>
@@ -9093,7 +9105,7 @@
       <c r="G442" s="8"/>
       <c r="H442" s="6"/>
       <c r="I442" s="6"/>
-      <c r="J442" s="66"/>
+      <c r="J442" s="6"/>
       <c r="K442" s="6"/>
       <c r="L442" s="6"/>
       <c r="M442" s="6"/>
@@ -9110,7 +9122,7 @@
       <c r="G443" s="8"/>
       <c r="H443" s="6"/>
       <c r="I443" s="6"/>
-      <c r="J443" s="66"/>
+      <c r="J443" s="6"/>
       <c r="K443" s="6"/>
       <c r="L443" s="6"/>
       <c r="M443" s="6"/>
@@ -9127,7 +9139,7 @@
       <c r="G444" s="8"/>
       <c r="H444" s="6"/>
       <c r="I444" s="6"/>
-      <c r="J444" s="66"/>
+      <c r="J444" s="6"/>
       <c r="K444" s="6"/>
       <c r="L444" s="6"/>
       <c r="M444" s="6"/>
@@ -9144,7 +9156,7 @@
       <c r="G445" s="8"/>
       <c r="H445" s="6"/>
       <c r="I445" s="6"/>
-      <c r="J445" s="66"/>
+      <c r="J445" s="6"/>
       <c r="K445" s="6"/>
       <c r="L445" s="6"/>
       <c r="M445" s="6"/>
@@ -9161,7 +9173,7 @@
       <c r="G446" s="8"/>
       <c r="H446" s="6"/>
       <c r="I446" s="6"/>
-      <c r="J446" s="66"/>
+      <c r="J446" s="6"/>
       <c r="K446" s="6"/>
       <c r="L446" s="6"/>
       <c r="M446" s="6"/>
@@ -9178,7 +9190,7 @@
       <c r="G447" s="8"/>
       <c r="H447" s="6"/>
       <c r="I447" s="6"/>
-      <c r="J447" s="66"/>
+      <c r="J447" s="6"/>
       <c r="K447" s="6"/>
       <c r="L447" s="6"/>
       <c r="M447" s="6"/>
@@ -9195,7 +9207,7 @@
       <c r="G448" s="8"/>
       <c r="H448" s="6"/>
       <c r="I448" s="6"/>
-      <c r="J448" s="66"/>
+      <c r="J448" s="6"/>
       <c r="K448" s="6"/>
       <c r="L448" s="6"/>
       <c r="M448" s="6"/>
@@ -9212,7 +9224,7 @@
       <c r="G449" s="8"/>
       <c r="H449" s="6"/>
       <c r="I449" s="6"/>
-      <c r="J449" s="66"/>
+      <c r="J449" s="6"/>
       <c r="K449" s="6"/>
       <c r="L449" s="6"/>
       <c r="M449" s="6"/>
@@ -9229,7 +9241,7 @@
       <c r="G450" s="8"/>
       <c r="H450" s="6"/>
       <c r="I450" s="6"/>
-      <c r="J450" s="66"/>
+      <c r="J450" s="6"/>
       <c r="K450" s="6"/>
       <c r="L450" s="6"/>
       <c r="M450" s="6"/>
@@ -9246,7 +9258,7 @@
       <c r="G451" s="8"/>
       <c r="H451" s="6"/>
       <c r="I451" s="6"/>
-      <c r="J451" s="66"/>
+      <c r="J451" s="6"/>
       <c r="K451" s="6"/>
       <c r="L451" s="6"/>
       <c r="M451" s="6"/>
@@ -9263,7 +9275,7 @@
       <c r="G452" s="8"/>
       <c r="H452" s="6"/>
       <c r="I452" s="6"/>
-      <c r="J452" s="66"/>
+      <c r="J452" s="6"/>
       <c r="K452" s="6"/>
       <c r="L452" s="6"/>
       <c r="M452" s="6"/>
@@ -9280,7 +9292,7 @@
       <c r="G453" s="8"/>
       <c r="H453" s="6"/>
       <c r="I453" s="6"/>
-      <c r="J453" s="66"/>
+      <c r="J453" s="6"/>
       <c r="K453" s="6"/>
       <c r="L453" s="6"/>
       <c r="M453" s="6"/>
@@ -9297,7 +9309,7 @@
       <c r="G454" s="8"/>
       <c r="H454" s="6"/>
       <c r="I454" s="6"/>
-      <c r="J454" s="66"/>
+      <c r="J454" s="6"/>
       <c r="K454" s="6"/>
       <c r="L454" s="6"/>
       <c r="M454" s="6"/>
@@ -9314,7 +9326,7 @@
       <c r="G455" s="8"/>
       <c r="H455" s="6"/>
       <c r="I455" s="6"/>
-      <c r="J455" s="66"/>
+      <c r="J455" s="6"/>
       <c r="K455" s="6"/>
       <c r="L455" s="6"/>
       <c r="M455" s="6"/>
@@ -9331,7 +9343,7 @@
       <c r="G456" s="8"/>
       <c r="H456" s="6"/>
       <c r="I456" s="6"/>
-      <c r="J456" s="66"/>
+      <c r="J456" s="6"/>
       <c r="K456" s="6"/>
       <c r="L456" s="6"/>
       <c r="M456" s="6"/>
@@ -9348,7 +9360,7 @@
       <c r="G457" s="8"/>
       <c r="H457" s="6"/>
       <c r="I457" s="6"/>
-      <c r="J457" s="66"/>
+      <c r="J457" s="6"/>
       <c r="K457" s="6"/>
       <c r="L457" s="6"/>
       <c r="M457" s="6"/>
@@ -9365,7 +9377,7 @@
       <c r="G458" s="8"/>
       <c r="H458" s="6"/>
       <c r="I458" s="6"/>
-      <c r="J458" s="66"/>
+      <c r="J458" s="6"/>
       <c r="K458" s="6"/>
       <c r="L458" s="6"/>
       <c r="M458" s="6"/>
@@ -9382,7 +9394,7 @@
       <c r="G459" s="8"/>
       <c r="H459" s="6"/>
       <c r="I459" s="6"/>
-      <c r="J459" s="66"/>
+      <c r="J459" s="6"/>
       <c r="K459" s="6"/>
       <c r="L459" s="6"/>
       <c r="M459" s="6"/>
@@ -9399,7 +9411,7 @@
       <c r="G460" s="8"/>
       <c r="H460" s="6"/>
       <c r="I460" s="6"/>
-      <c r="J460" s="66"/>
+      <c r="J460" s="6"/>
       <c r="K460" s="6"/>
       <c r="L460" s="6"/>
       <c r="M460" s="6"/>
@@ -9416,7 +9428,7 @@
       <c r="G461" s="8"/>
       <c r="H461" s="6"/>
       <c r="I461" s="6"/>
-      <c r="J461" s="66"/>
+      <c r="J461" s="6"/>
       <c r="K461" s="6"/>
       <c r="L461" s="6"/>
       <c r="M461" s="6"/>
@@ -9433,7 +9445,7 @@
       <c r="G462" s="8"/>
       <c r="H462" s="6"/>
       <c r="I462" s="6"/>
-      <c r="J462" s="66"/>
+      <c r="J462" s="6"/>
       <c r="K462" s="6"/>
       <c r="L462" s="6"/>
       <c r="M462" s="6"/>
@@ -9450,7 +9462,7 @@
       <c r="G463" s="8"/>
       <c r="H463" s="6"/>
       <c r="I463" s="6"/>
-      <c r="J463" s="66"/>
+      <c r="J463" s="6"/>
       <c r="K463" s="6"/>
       <c r="L463" s="6"/>
       <c r="M463" s="6"/>
@@ -9467,7 +9479,7 @@
       <c r="G464" s="8"/>
       <c r="H464" s="6"/>
       <c r="I464" s="6"/>
-      <c r="J464" s="66"/>
+      <c r="J464" s="6"/>
       <c r="K464" s="6"/>
       <c r="L464" s="6"/>
       <c r="M464" s="6"/>
@@ -9484,7 +9496,7 @@
       <c r="G465" s="8"/>
       <c r="H465" s="6"/>
       <c r="I465" s="6"/>
-      <c r="J465" s="66"/>
+      <c r="J465" s="6"/>
       <c r="K465" s="6"/>
       <c r="L465" s="6"/>
       <c r="M465" s="6"/>
@@ -9501,7 +9513,7 @@
       <c r="G466" s="8"/>
       <c r="H466" s="6"/>
       <c r="I466" s="6"/>
-      <c r="J466" s="66"/>
+      <c r="J466" s="6"/>
       <c r="K466" s="6"/>
       <c r="L466" s="6"/>
       <c r="M466" s="6"/>
@@ -9518,7 +9530,7 @@
       <c r="G467" s="8"/>
       <c r="H467" s="6"/>
       <c r="I467" s="6"/>
-      <c r="J467" s="66"/>
+      <c r="J467" s="6"/>
       <c r="K467" s="6"/>
       <c r="L467" s="6"/>
       <c r="M467" s="6"/>
@@ -9535,7 +9547,7 @@
       <c r="G468" s="8"/>
       <c r="H468" s="6"/>
       <c r="I468" s="6"/>
-      <c r="J468" s="66"/>
+      <c r="J468" s="6"/>
       <c r="K468" s="6"/>
       <c r="L468" s="6"/>
       <c r="M468" s="6"/>
@@ -9552,7 +9564,7 @@
       <c r="G469" s="8"/>
       <c r="H469" s="6"/>
       <c r="I469" s="6"/>
-      <c r="J469" s="66"/>
+      <c r="J469" s="6"/>
       <c r="K469" s="6"/>
       <c r="L469" s="6"/>
       <c r="M469" s="6"/>
@@ -9569,7 +9581,7 @@
       <c r="G470" s="8"/>
       <c r="H470" s="6"/>
       <c r="I470" s="6"/>
-      <c r="J470" s="66"/>
+      <c r="J470" s="6"/>
       <c r="K470" s="6"/>
       <c r="L470" s="6"/>
       <c r="M470" s="6"/>
@@ -9586,7 +9598,7 @@
       <c r="G471" s="8"/>
       <c r="H471" s="6"/>
       <c r="I471" s="6"/>
-      <c r="J471" s="66"/>
+      <c r="J471" s="6"/>
       <c r="K471" s="6"/>
       <c r="L471" s="6"/>
       <c r="M471" s="6"/>
@@ -9603,7 +9615,7 @@
       <c r="G472" s="8"/>
       <c r="H472" s="6"/>
       <c r="I472" s="6"/>
-      <c r="J472" s="66"/>
+      <c r="J472" s="6"/>
       <c r="K472" s="6"/>
       <c r="L472" s="6"/>
       <c r="M472" s="6"/>
@@ -9620,7 +9632,7 @@
       <c r="G473" s="8"/>
       <c r="H473" s="6"/>
       <c r="I473" s="6"/>
-      <c r="J473" s="66"/>
+      <c r="J473" s="6"/>
       <c r="K473" s="6"/>
       <c r="L473" s="6"/>
       <c r="M473" s="6"/>
@@ -9637,7 +9649,7 @@
       <c r="G474" s="8"/>
       <c r="H474" s="6"/>
       <c r="I474" s="6"/>
-      <c r="J474" s="66"/>
+      <c r="J474" s="6"/>
       <c r="K474" s="6"/>
       <c r="L474" s="6"/>
       <c r="M474" s="6"/>
@@ -9654,7 +9666,7 @@
       <c r="G475" s="8"/>
       <c r="H475" s="6"/>
       <c r="I475" s="6"/>
-      <c r="J475" s="66"/>
+      <c r="J475" s="6"/>
       <c r="K475" s="6"/>
       <c r="L475" s="6"/>
       <c r="M475" s="6"/>
@@ -9671,7 +9683,7 @@
       <c r="G476" s="8"/>
       <c r="H476" s="6"/>
       <c r="I476" s="6"/>
-      <c r="J476" s="66"/>
+      <c r="J476" s="6"/>
       <c r="K476" s="6"/>
       <c r="L476" s="6"/>
       <c r="M476" s="6"/>
@@ -9688,7 +9700,7 @@
       <c r="G477" s="8"/>
       <c r="H477" s="6"/>
       <c r="I477" s="6"/>
-      <c r="J477" s="66"/>
+      <c r="J477" s="6"/>
       <c r="K477" s="6"/>
       <c r="L477" s="6"/>
       <c r="M477" s="6"/>
@@ -9705,7 +9717,7 @@
       <c r="G478" s="8"/>
       <c r="H478" s="6"/>
       <c r="I478" s="6"/>
-      <c r="J478" s="66"/>
+      <c r="J478" s="6"/>
       <c r="K478" s="6"/>
       <c r="L478" s="6"/>
       <c r="M478" s="6"/>
@@ -9722,7 +9734,7 @@
       <c r="G479" s="8"/>
       <c r="H479" s="6"/>
       <c r="I479" s="6"/>
-      <c r="J479" s="66"/>
+      <c r="J479" s="6"/>
       <c r="K479" s="6"/>
       <c r="L479" s="6"/>
       <c r="M479" s="6"/>
@@ -9739,7 +9751,7 @@
       <c r="G480" s="8"/>
       <c r="H480" s="6"/>
       <c r="I480" s="6"/>
-      <c r="J480" s="66"/>
+      <c r="J480" s="6"/>
       <c r="K480" s="6"/>
       <c r="L480" s="6"/>
       <c r="M480" s="6"/>
@@ -9756,7 +9768,7 @@
       <c r="G481" s="8"/>
       <c r="H481" s="6"/>
       <c r="I481" s="6"/>
-      <c r="J481" s="66"/>
+      <c r="J481" s="6"/>
       <c r="K481" s="6"/>
       <c r="L481" s="6"/>
       <c r="M481" s="6"/>
@@ -9773,7 +9785,7 @@
       <c r="G482" s="8"/>
       <c r="H482" s="6"/>
       <c r="I482" s="6"/>
-      <c r="J482" s="66"/>
+      <c r="J482" s="6"/>
       <c r="K482" s="6"/>
       <c r="L482" s="6"/>
       <c r="M482" s="6"/>
@@ -9790,7 +9802,7 @@
       <c r="G483" s="8"/>
       <c r="H483" s="6"/>
       <c r="I483" s="6"/>
-      <c r="J483" s="66"/>
+      <c r="J483" s="6"/>
       <c r="K483" s="6"/>
       <c r="L483" s="6"/>
       <c r="M483" s="6"/>
@@ -9807,7 +9819,7 @@
       <c r="G484" s="8"/>
       <c r="H484" s="6"/>
       <c r="I484" s="6"/>
-      <c r="J484" s="66"/>
+      <c r="J484" s="6"/>
       <c r="K484" s="6"/>
       <c r="L484" s="6"/>
       <c r="M484" s="6"/>
@@ -9824,7 +9836,7 @@
       <c r="G485" s="8"/>
       <c r="H485" s="6"/>
       <c r="I485" s="6"/>
-      <c r="J485" s="66"/>
+      <c r="J485" s="6"/>
       <c r="K485" s="6"/>
       <c r="L485" s="6"/>
       <c r="M485" s="6"/>
@@ -9841,7 +9853,7 @@
       <c r="G486" s="8"/>
       <c r="H486" s="6"/>
       <c r="I486" s="6"/>
-      <c r="J486" s="66"/>
+      <c r="J486" s="6"/>
       <c r="K486" s="6"/>
       <c r="L486" s="6"/>
       <c r="M486" s="6"/>
@@ -9858,7 +9870,7 @@
       <c r="G487" s="8"/>
       <c r="H487" s="6"/>
       <c r="I487" s="6"/>
-      <c r="J487" s="66"/>
+      <c r="J487" s="6"/>
       <c r="K487" s="6"/>
       <c r="L487" s="6"/>
       <c r="M487" s="6"/>
@@ -9875,7 +9887,7 @@
       <c r="G488" s="8"/>
       <c r="H488" s="6"/>
       <c r="I488" s="6"/>
-      <c r="J488" s="66"/>
+      <c r="J488" s="6"/>
       <c r="K488" s="6"/>
       <c r="L488" s="6"/>
       <c r="M488" s="6"/>
@@ -9892,7 +9904,7 @@
       <c r="G489" s="8"/>
       <c r="H489" s="6"/>
       <c r="I489" s="6"/>
-      <c r="J489" s="66"/>
+      <c r="J489" s="6"/>
       <c r="K489" s="6"/>
       <c r="L489" s="6"/>
       <c r="M489" s="6"/>
@@ -9909,7 +9921,7 @@
       <c r="G490" s="8"/>
       <c r="H490" s="6"/>
       <c r="I490" s="6"/>
-      <c r="J490" s="66"/>
+      <c r="J490" s="6"/>
       <c r="K490" s="6"/>
       <c r="L490" s="6"/>
       <c r="M490" s="6"/>
@@ -9926,7 +9938,7 @@
       <c r="G491" s="8"/>
       <c r="H491" s="6"/>
       <c r="I491" s="6"/>
-      <c r="J491" s="66"/>
+      <c r="J491" s="6"/>
       <c r="K491" s="6"/>
       <c r="L491" s="6"/>
       <c r="M491" s="6"/>
@@ -9943,7 +9955,7 @@
       <c r="G492" s="8"/>
       <c r="H492" s="6"/>
       <c r="I492" s="6"/>
-      <c r="J492" s="66"/>
+      <c r="J492" s="6"/>
       <c r="K492" s="6"/>
       <c r="L492" s="6"/>
       <c r="M492" s="6"/>
@@ -9960,7 +9972,7 @@
       <c r="G493" s="8"/>
       <c r="H493" s="6"/>
       <c r="I493" s="6"/>
-      <c r="J493" s="66"/>
+      <c r="J493" s="6"/>
       <c r="K493" s="6"/>
       <c r="L493" s="6"/>
       <c r="M493" s="6"/>
@@ -9977,7 +9989,7 @@
       <c r="G494" s="8"/>
       <c r="H494" s="6"/>
       <c r="I494" s="6"/>
-      <c r="J494" s="66"/>
+      <c r="J494" s="6"/>
       <c r="K494" s="6"/>
       <c r="L494" s="6"/>
       <c r="M494" s="6"/>
@@ -9994,7 +10006,7 @@
       <c r="G495" s="8"/>
       <c r="H495" s="6"/>
       <c r="I495" s="6"/>
-      <c r="J495" s="66"/>
+      <c r="J495" s="6"/>
       <c r="K495" s="6"/>
       <c r="L495" s="6"/>
       <c r="M495" s="6"/>
@@ -10011,7 +10023,7 @@
       <c r="G496" s="8"/>
       <c r="H496" s="6"/>
       <c r="I496" s="6"/>
-      <c r="J496" s="66"/>
+      <c r="J496" s="6"/>
       <c r="K496" s="6"/>
       <c r="L496" s="6"/>
       <c r="M496" s="6"/>
@@ -10028,7 +10040,7 @@
       <c r="G497" s="8"/>
       <c r="H497" s="6"/>
       <c r="I497" s="6"/>
-      <c r="J497" s="66"/>
+      <c r="J497" s="6"/>
       <c r="K497" s="6"/>
       <c r="L497" s="6"/>
       <c r="M497" s="6"/>
@@ -10045,7 +10057,7 @@
       <c r="G498" s="8"/>
       <c r="H498" s="6"/>
       <c r="I498" s="6"/>
-      <c r="J498" s="66"/>
+      <c r="J498" s="6"/>
       <c r="K498" s="6"/>
       <c r="L498" s="6"/>
       <c r="M498" s="6"/>
@@ -10062,7 +10074,7 @@
       <c r="G499" s="8"/>
       <c r="H499" s="6"/>
       <c r="I499" s="6"/>
-      <c r="J499" s="66"/>
+      <c r="J499" s="6"/>
       <c r="K499" s="6"/>
       <c r="L499" s="6"/>
       <c r="M499" s="6"/>
@@ -10079,7 +10091,7 @@
       <c r="G500" s="8"/>
       <c r="H500" s="6"/>
       <c r="I500" s="6"/>
-      <c r="J500" s="66"/>
+      <c r="J500" s="6"/>
       <c r="K500" s="6"/>
       <c r="L500" s="6"/>
       <c r="M500" s="6"/>
@@ -10096,7 +10108,7 @@
       <c r="G501" s="8"/>
       <c r="H501" s="6"/>
       <c r="I501" s="6"/>
-      <c r="J501" s="66"/>
+      <c r="J501" s="6"/>
       <c r="K501" s="6"/>
       <c r="L501" s="6"/>
       <c r="M501" s="6"/>
@@ -10113,7 +10125,7 @@
       <c r="G502" s="8"/>
       <c r="H502" s="6"/>
       <c r="I502" s="6"/>
-      <c r="J502" s="66"/>
+      <c r="J502" s="6"/>
       <c r="K502" s="6"/>
       <c r="L502" s="6"/>
       <c r="M502" s="6"/>
@@ -10130,7 +10142,7 @@
       <c r="G503" s="8"/>
       <c r="H503" s="6"/>
       <c r="I503" s="6"/>
-      <c r="J503" s="66"/>
+      <c r="J503" s="6"/>
       <c r="K503" s="6"/>
       <c r="L503" s="6"/>
       <c r="M503" s="6"/>
@@ -10147,7 +10159,7 @@
       <c r="G504" s="8"/>
       <c r="H504" s="6"/>
       <c r="I504" s="6"/>
-      <c r="J504" s="66"/>
+      <c r="J504" s="6"/>
       <c r="K504" s="6"/>
       <c r="L504" s="6"/>
       <c r="M504" s="6"/>
@@ -10164,7 +10176,7 @@
       <c r="G505" s="8"/>
       <c r="H505" s="6"/>
       <c r="I505" s="6"/>
-      <c r="J505" s="66"/>
+      <c r="J505" s="6"/>
       <c r="K505" s="6"/>
       <c r="L505" s="6"/>
       <c r="M505" s="6"/>
@@ -10181,7 +10193,7 @@
       <c r="G506" s="8"/>
       <c r="H506" s="6"/>
       <c r="I506" s="6"/>
-      <c r="J506" s="66"/>
+      <c r="J506" s="6"/>
       <c r="K506" s="6"/>
       <c r="L506" s="6"/>
       <c r="M506" s="6"/>
@@ -10198,7 +10210,7 @@
       <c r="G507" s="8"/>
       <c r="H507" s="6"/>
       <c r="I507" s="6"/>
-      <c r="J507" s="66"/>
+      <c r="J507" s="6"/>
       <c r="K507" s="6"/>
       <c r="L507" s="6"/>
       <c r="M507" s="6"/>
@@ -10215,7 +10227,7 @@
       <c r="G508" s="8"/>
       <c r="H508" s="6"/>
       <c r="I508" s="6"/>
-      <c r="J508" s="66"/>
+      <c r="J508" s="6"/>
       <c r="K508" s="6"/>
       <c r="L508" s="6"/>
       <c r="M508" s="6"/>
@@ -10232,7 +10244,7 @@
       <c r="G509" s="8"/>
       <c r="H509" s="6"/>
       <c r="I509" s="6"/>
-      <c r="J509" s="66"/>
+      <c r="J509" s="6"/>
       <c r="K509" s="6"/>
       <c r="L509" s="6"/>
       <c r="M509" s="6"/>
@@ -10249,7 +10261,7 @@
       <c r="G510" s="8"/>
       <c r="H510" s="6"/>
       <c r="I510" s="6"/>
-      <c r="J510" s="66"/>
+      <c r="J510" s="6"/>
       <c r="K510" s="6"/>
       <c r="L510" s="6"/>
       <c r="M510" s="6"/>
@@ -10266,7 +10278,7 @@
       <c r="G511" s="8"/>
       <c r="H511" s="6"/>
       <c r="I511" s="6"/>
-      <c r="J511" s="66"/>
+      <c r="J511" s="6"/>
       <c r="K511" s="6"/>
       <c r="L511" s="6"/>
       <c r="M511" s="6"/>
@@ -10283,7 +10295,7 @@
       <c r="G512" s="8"/>
       <c r="H512" s="6"/>
       <c r="I512" s="6"/>
-      <c r="J512" s="66"/>
+      <c r="J512" s="6"/>
       <c r="K512" s="6"/>
       <c r="L512" s="6"/>
       <c r="M512" s="6"/>
@@ -10300,7 +10312,7 @@
       <c r="G513" s="8"/>
       <c r="H513" s="6"/>
       <c r="I513" s="6"/>
-      <c r="J513" s="66"/>
+      <c r="J513" s="6"/>
       <c r="K513" s="6"/>
       <c r="L513" s="6"/>
       <c r="M513" s="6"/>
@@ -10317,7 +10329,7 @@
       <c r="G514" s="8"/>
       <c r="H514" s="6"/>
       <c r="I514" s="6"/>
-      <c r="J514" s="66"/>
+      <c r="J514" s="6"/>
       <c r="K514" s="6"/>
       <c r="L514" s="6"/>
       <c r="M514" s="6"/>
@@ -10334,7 +10346,7 @@
       <c r="G515" s="8"/>
       <c r="H515" s="6"/>
       <c r="I515" s="6"/>
-      <c r="J515" s="66"/>
+      <c r="J515" s="6"/>
       <c r="K515" s="6"/>
       <c r="L515" s="6"/>
       <c r="M515" s="6"/>
@@ -10351,7 +10363,7 @@
       <c r="G516" s="8"/>
       <c r="H516" s="6"/>
       <c r="I516" s="6"/>
-      <c r="J516" s="66"/>
+      <c r="J516" s="6"/>
       <c r="K516" s="6"/>
       <c r="L516" s="6"/>
       <c r="M516" s="6"/>
@@ -10368,7 +10380,7 @@
       <c r="G517" s="8"/>
       <c r="H517" s="6"/>
       <c r="I517" s="6"/>
-      <c r="J517" s="66"/>
+      <c r="J517" s="6"/>
       <c r="K517" s="6"/>
       <c r="L517" s="6"/>
       <c r="M517" s="6"/>
@@ -10385,7 +10397,7 @@
       <c r="G518" s="8"/>
       <c r="H518" s="6"/>
       <c r="I518" s="6"/>
-      <c r="J518" s="66"/>
+      <c r="J518" s="6"/>
       <c r="K518" s="6"/>
       <c r="L518" s="6"/>
       <c r="M518" s="6"/>
@@ -10402,7 +10414,7 @@
       <c r="G519" s="8"/>
       <c r="H519" s="6"/>
       <c r="I519" s="6"/>
-      <c r="J519" s="66"/>
+      <c r="J519" s="6"/>
       <c r="K519" s="6"/>
       <c r="L519" s="6"/>
       <c r="M519" s="6"/>
@@ -10419,7 +10431,7 @@
       <c r="G520" s="8"/>
       <c r="H520" s="6"/>
       <c r="I520" s="6"/>
-      <c r="J520" s="66"/>
+      <c r="J520" s="6"/>
       <c r="K520" s="6"/>
       <c r="L520" s="6"/>
       <c r="M520" s="6"/>
@@ -10436,7 +10448,7 @@
       <c r="G521" s="8"/>
       <c r="H521" s="6"/>
       <c r="I521" s="6"/>
-      <c r="J521" s="66"/>
+      <c r="J521" s="6"/>
       <c r="K521" s="6"/>
       <c r="L521" s="6"/>
       <c r="M521" s="6"/>
@@ -10453,7 +10465,7 @@
       <c r="G522" s="8"/>
       <c r="H522" s="6"/>
       <c r="I522" s="6"/>
-      <c r="J522" s="66"/>
+      <c r="J522" s="6"/>
       <c r="K522" s="6"/>
       <c r="L522" s="6"/>
       <c r="M522" s="6"/>
@@ -10470,7 +10482,7 @@
       <c r="G523" s="8"/>
       <c r="H523" s="6"/>
       <c r="I523" s="6"/>
-      <c r="J523" s="66"/>
+      <c r="J523" s="6"/>
       <c r="K523" s="6"/>
       <c r="L523" s="6"/>
       <c r="M523" s="6"/>
@@ -10487,7 +10499,7 @@
       <c r="G524" s="8"/>
       <c r="H524" s="6"/>
       <c r="I524" s="6"/>
-      <c r="J524" s="66"/>
+      <c r="J524" s="6"/>
       <c r="K524" s="6"/>
       <c r="L524" s="6"/>
       <c r="M524" s="6"/>
@@ -10504,7 +10516,7 @@
       <c r="G525" s="8"/>
       <c r="H525" s="6"/>
       <c r="I525" s="6"/>
-      <c r="J525" s="66"/>
+      <c r="J525" s="6"/>
       <c r="K525" s="6"/>
       <c r="L525" s="6"/>
       <c r="M525" s="6"/>
@@ -10521,7 +10533,7 @@
       <c r="G526" s="8"/>
       <c r="H526" s="6"/>
       <c r="I526" s="6"/>
-      <c r="J526" s="66"/>
+      <c r="J526" s="6"/>
       <c r="K526" s="6"/>
       <c r="L526" s="6"/>
       <c r="M526" s="6"/>
@@ -10538,7 +10550,7 @@
       <c r="G527" s="8"/>
       <c r="H527" s="6"/>
       <c r="I527" s="6"/>
-      <c r="J527" s="66"/>
+      <c r="J527" s="6"/>
       <c r="K527" s="6"/>
       <c r="L527" s="6"/>
       <c r="M527" s="6"/>
@@ -10555,7 +10567,7 @@
       <c r="G528" s="8"/>
       <c r="H528" s="6"/>
       <c r="I528" s="6"/>
-      <c r="J528" s="66"/>
+      <c r="J528" s="6"/>
       <c r="K528" s="6"/>
       <c r="L528" s="6"/>
       <c r="M528" s="6"/>
@@ -10572,7 +10584,7 @@
       <c r="G529" s="8"/>
       <c r="H529" s="6"/>
       <c r="I529" s="6"/>
-      <c r="J529" s="66"/>
+      <c r="J529" s="6"/>
       <c r="K529" s="6"/>
       <c r="L529" s="6"/>
       <c r="M529" s="6"/>
@@ -10589,7 +10601,7 @@
       <c r="G530" s="8"/>
       <c r="H530" s="6"/>
       <c r="I530" s="6"/>
-      <c r="J530" s="66"/>
+      <c r="J530" s="6"/>
       <c r="K530" s="6"/>
       <c r="L530" s="6"/>
       <c r="M530" s="6"/>
@@ -10606,7 +10618,7 @@
       <c r="G531" s="8"/>
       <c r="H531" s="6"/>
       <c r="I531" s="6"/>
-      <c r="J531" s="66"/>
+      <c r="J531" s="6"/>
       <c r="K531" s="6"/>
       <c r="L531" s="6"/>
       <c r="M531" s="6"/>
@@ -10623,7 +10635,7 @@
       <c r="G532" s="8"/>
       <c r="H532" s="6"/>
       <c r="I532" s="6"/>
-      <c r="J532" s="66"/>
+      <c r="J532" s="6"/>
       <c r="K532" s="6"/>
       <c r="L532" s="6"/>
       <c r="M532" s="6"/>
@@ -10640,7 +10652,7 @@
       <c r="G533" s="8"/>
       <c r="H533" s="6"/>
       <c r="I533" s="6"/>
-      <c r="J533" s="66"/>
+      <c r="J533" s="6"/>
       <c r="K533" s="6"/>
       <c r="L533" s="6"/>
       <c r="M533" s="6"/>
@@ -10657,7 +10669,7 @@
       <c r="G534" s="8"/>
       <c r="H534" s="6"/>
       <c r="I534" s="6"/>
-      <c r="J534" s="66"/>
+      <c r="J534" s="6"/>
       <c r="K534" s="6"/>
       <c r="L534" s="6"/>
       <c r="M534" s="6"/>
@@ -10674,7 +10686,7 @@
       <c r="G535" s="8"/>
       <c r="H535" s="6"/>
       <c r="I535" s="6"/>
-      <c r="J535" s="66"/>
+      <c r="J535" s="6"/>
       <c r="K535" s="6"/>
       <c r="L535" s="6"/>
       <c r="M535" s="6"/>
@@ -10691,7 +10703,7 @@
       <c r="G536" s="8"/>
       <c r="H536" s="6"/>
       <c r="I536" s="6"/>
-      <c r="J536" s="66"/>
+      <c r="J536" s="6"/>
       <c r="K536" s="6"/>
       <c r="L536" s="6"/>
       <c r="M536" s="6"/>
@@ -10708,7 +10720,7 @@
       <c r="G537" s="8"/>
       <c r="H537" s="6"/>
       <c r="I537" s="6"/>
-      <c r="J537" s="66"/>
+      <c r="J537" s="6"/>
       <c r="K537" s="6"/>
       <c r="L537" s="6"/>
       <c r="M537" s="6"/>
@@ -10725,7 +10737,7 @@
       <c r="G538" s="8"/>
       <c r="H538" s="6"/>
       <c r="I538" s="6"/>
-      <c r="J538" s="66"/>
+      <c r="J538" s="6"/>
       <c r="K538" s="6"/>
       <c r="L538" s="6"/>
       <c r="M538" s="6"/>
@@ -10742,7 +10754,7 @@
       <c r="G539" s="8"/>
       <c r="H539" s="6"/>
       <c r="I539" s="6"/>
-      <c r="J539" s="66"/>
+      <c r="J539" s="6"/>
       <c r="K539" s="6"/>
       <c r="L539" s="6"/>
       <c r="M539" s="6"/>
@@ -10759,7 +10771,7 @@
       <c r="G540" s="8"/>
       <c r="H540" s="6"/>
       <c r="I540" s="6"/>
-      <c r="J540" s="66"/>
+      <c r="J540" s="6"/>
       <c r="K540" s="6"/>
       <c r="L540" s="6"/>
       <c r="M540" s="6"/>
@@ -10776,7 +10788,7 @@
       <c r="G541" s="8"/>
       <c r="H541" s="6"/>
       <c r="I541" s="6"/>
-      <c r="J541" s="66"/>
+      <c r="J541" s="6"/>
       <c r="K541" s="6"/>
       <c r="L541" s="6"/>
       <c r="M541" s="6"/>
@@ -10793,7 +10805,7 @@
       <c r="G542" s="8"/>
       <c r="H542" s="6"/>
       <c r="I542" s="6"/>
-      <c r="J542" s="66"/>
+      <c r="J542" s="6"/>
       <c r="K542" s="6"/>
       <c r="L542" s="6"/>
       <c r="M542" s="6"/>
@@ -10810,7 +10822,7 @@
       <c r="G543" s="8"/>
       <c r="H543" s="6"/>
       <c r="I543" s="6"/>
-      <c r="J543" s="66"/>
+      <c r="J543" s="6"/>
       <c r="K543" s="6"/>
       <c r="L543" s="6"/>
       <c r="M543" s="6"/>
@@ -10827,7 +10839,7 @@
       <c r="G544" s="8"/>
       <c r="H544" s="6"/>
       <c r="I544" s="6"/>
-      <c r="J544" s="66"/>
+      <c r="J544" s="6"/>
       <c r="K544" s="6"/>
       <c r="L544" s="6"/>
       <c r="M544" s="6"/>
@@ -10844,7 +10856,7 @@
       <c r="G545" s="8"/>
       <c r="H545" s="6"/>
       <c r="I545" s="6"/>
-      <c r="J545" s="66"/>
+      <c r="J545" s="6"/>
       <c r="K545" s="6"/>
       <c r="L545" s="6"/>
       <c r="M545" s="6"/>
@@ -10861,7 +10873,7 @@
       <c r="G546" s="8"/>
       <c r="H546" s="6"/>
       <c r="I546" s="6"/>
-      <c r="J546" s="66"/>
+      <c r="J546" s="6"/>
       <c r="K546" s="6"/>
       <c r="L546" s="6"/>
       <c r="M546" s="6"/>
@@ -10878,7 +10890,7 @@
       <c r="G547" s="8"/>
       <c r="H547" s="6"/>
       <c r="I547" s="6"/>
-      <c r="J547" s="66"/>
+      <c r="J547" s="6"/>
       <c r="K547" s="6"/>
       <c r="L547" s="6"/>
       <c r="M547" s="6"/>
@@ -10895,7 +10907,7 @@
       <c r="G548" s="8"/>
       <c r="H548" s="6"/>
       <c r="I548" s="6"/>
-      <c r="J548" s="66"/>
+      <c r="J548" s="6"/>
       <c r="K548" s="6"/>
       <c r="L548" s="6"/>
       <c r="M548" s="6"/>
@@ -10912,7 +10924,7 @@
       <c r="G549" s="8"/>
       <c r="H549" s="6"/>
       <c r="I549" s="6"/>
-      <c r="J549" s="66"/>
+      <c r="J549" s="6"/>
       <c r="K549" s="6"/>
       <c r="L549" s="6"/>
       <c r="M549" s="6"/>
@@ -10929,7 +10941,7 @@
       <c r="G550" s="8"/>
       <c r="H550" s="6"/>
       <c r="I550" s="6"/>
-      <c r="J550" s="66"/>
+      <c r="J550" s="6"/>
       <c r="K550" s="6"/>
       <c r="L550" s="6"/>
       <c r="M550" s="6"/>
@@ -10946,7 +10958,7 @@
       <c r="G551" s="8"/>
       <c r="H551" s="6"/>
       <c r="I551" s="6"/>
-      <c r="J551" s="66"/>
+      <c r="J551" s="6"/>
       <c r="K551" s="6"/>
       <c r="L551" s="6"/>
       <c r="M551" s="6"/>
@@ -10963,7 +10975,7 @@
       <c r="G552" s="8"/>
       <c r="H552" s="6"/>
       <c r="I552" s="6"/>
-      <c r="J552" s="66"/>
+      <c r="J552" s="6"/>
       <c r="K552" s="6"/>
       <c r="L552" s="6"/>
       <c r="M552" s="6"/>
@@ -10980,7 +10992,7 @@
       <c r="G553" s="8"/>
       <c r="H553" s="6"/>
       <c r="I553" s="6"/>
-      <c r="J553" s="66"/>
+      <c r="J553" s="6"/>
       <c r="K553" s="6"/>
       <c r="L553" s="6"/>
       <c r="M553" s="6"/>
@@ -10997,7 +11009,7 @@
       <c r="G554" s="8"/>
       <c r="H554" s="6"/>
       <c r="I554" s="6"/>
-      <c r="J554" s="66"/>
+      <c r="J554" s="6"/>
       <c r="K554" s="6"/>
       <c r="L554" s="6"/>
       <c r="M554" s="6"/>
@@ -11014,7 +11026,7 @@
       <c r="G555" s="8"/>
       <c r="H555" s="6"/>
       <c r="I555" s="6"/>
-      <c r="J555" s="66"/>
+      <c r="J555" s="6"/>
       <c r="K555" s="6"/>
       <c r="L555" s="6"/>
       <c r="M555" s="6"/>
@@ -11031,7 +11043,7 @@
       <c r="G556" s="8"/>
       <c r="H556" s="6"/>
       <c r="I556" s="6"/>
-      <c r="J556" s="66"/>
+      <c r="J556" s="6"/>
       <c r="K556" s="6"/>
       <c r="L556" s="6"/>
       <c r="M556" s="6"/>
@@ -11048,7 +11060,7 @@
       <c r="G557" s="8"/>
       <c r="H557" s="6"/>
       <c r="I557" s="6"/>
-      <c r="J557" s="66"/>
+      <c r="J557" s="6"/>
       <c r="K557" s="6"/>
       <c r="L557" s="6"/>
       <c r="M557" s="6"/>
@@ -11065,7 +11077,7 @@
       <c r="G558" s="8"/>
       <c r="H558" s="6"/>
       <c r="I558" s="6"/>
-      <c r="J558" s="66"/>
+      <c r="J558" s="6"/>
       <c r="K558" s="6"/>
       <c r="L558" s="6"/>
       <c r="M558" s="6"/>
@@ -11082,7 +11094,7 @@
       <c r="G559" s="8"/>
       <c r="H559" s="6"/>
       <c r="I559" s="6"/>
-      <c r="J559" s="66"/>
+      <c r="J559" s="6"/>
       <c r="K559" s="6"/>
       <c r="L559" s="6"/>
       <c r="M559" s="6"/>
@@ -11099,7 +11111,7 @@
       <c r="G560" s="8"/>
       <c r="H560" s="6"/>
       <c r="I560" s="6"/>
-      <c r="J560" s="66"/>
+      <c r="J560" s="6"/>
       <c r="K560" s="6"/>
       <c r="L560" s="6"/>
       <c r="M560" s="6"/>
@@ -11116,7 +11128,7 @@
       <c r="G561" s="8"/>
       <c r="H561" s="6"/>
       <c r="I561" s="6"/>
-      <c r="J561" s="66"/>
+      <c r="J561" s="6"/>
       <c r="K561" s="6"/>
       <c r="L561" s="6"/>
       <c r="M561" s="6"/>
@@ -11133,7 +11145,7 @@
       <c r="G562" s="8"/>
       <c r="H562" s="6"/>
       <c r="I562" s="6"/>
-      <c r="J562" s="66"/>
+      <c r="J562" s="6"/>
       <c r="K562" s="6"/>
       <c r="L562" s="6"/>
       <c r="M562" s="6"/>
@@ -11150,7 +11162,7 @@
       <c r="G563" s="8"/>
       <c r="H563" s="6"/>
       <c r="I563" s="6"/>
-      <c r="J563" s="66"/>
+      <c r="J563" s="6"/>
       <c r="K563" s="6"/>
       <c r="L563" s="6"/>
       <c r="M563" s="6"/>
@@ -11167,7 +11179,7 @@
       <c r="G564" s="8"/>
       <c r="H564" s="6"/>
       <c r="I564" s="6"/>
-      <c r="J564" s="66"/>
+      <c r="J564" s="6"/>
       <c r="K564" s="6"/>
       <c r="L564" s="6"/>
       <c r="M564" s="6"/>
@@ -11184,7 +11196,7 @@
       <c r="G565" s="8"/>
       <c r="H565" s="6"/>
       <c r="I565" s="6"/>
-      <c r="J565" s="66"/>
+      <c r="J565" s="6"/>
       <c r="K565" s="6"/>
       <c r="L565" s="6"/>
       <c r="M565" s="6"/>
@@ -11201,7 +11213,7 @@
       <c r="G566" s="8"/>
       <c r="H566" s="6"/>
       <c r="I566" s="6"/>
-      <c r="J566" s="66"/>
+      <c r="J566" s="6"/>
       <c r="K566" s="6"/>
       <c r="L566" s="6"/>
       <c r="M566" s="6"/>
@@ -11218,7 +11230,7 @@
       <c r="G567" s="8"/>
       <c r="H567" s="6"/>
       <c r="I567" s="6"/>
-      <c r="J567" s="66"/>
+      <c r="J567" s="6"/>
       <c r="K567" s="6"/>
       <c r="L567" s="6"/>
       <c r="M567" s="6"/>
@@ -11235,7 +11247,7 @@
       <c r="G568" s="8"/>
       <c r="H568" s="6"/>
       <c r="I568" s="6"/>
-      <c r="J568" s="66"/>
+      <c r="J568" s="6"/>
       <c r="K568" s="6"/>
       <c r="L568" s="6"/>
       <c r="M568" s="6"/>
@@ -11252,7 +11264,7 @@
       <c r="G569" s="8"/>
       <c r="H569" s="6"/>
       <c r="I569" s="6"/>
-      <c r="J569" s="66"/>
+      <c r="J569" s="6"/>
       <c r="K569" s="6"/>
       <c r="L569" s="6"/>
       <c r="M569" s="6"/>
@@ -11269,7 +11281,7 @@
       <c r="G570" s="8"/>
       <c r="H570" s="6"/>
       <c r="I570" s="6"/>
-      <c r="J570" s="66"/>
+      <c r="J570" s="6"/>
       <c r="K570" s="6"/>
       <c r="L570" s="6"/>
       <c r="M570" s="6"/>
@@ -11286,7 +11298,7 @@
       <c r="G571" s="8"/>
       <c r="H571" s="6"/>
       <c r="I571" s="6"/>
-      <c r="J571" s="66"/>
+      <c r="J571" s="6"/>
       <c r="K571" s="6"/>
       <c r="L571" s="6"/>
       <c r="M571" s="6"/>
@@ -11303,7 +11315,7 @@
       <c r="G572" s="8"/>
       <c r="H572" s="6"/>
       <c r="I572" s="6"/>
-      <c r="J572" s="66"/>
+      <c r="J572" s="6"/>
       <c r="K572" s="6"/>
       <c r="L572" s="6"/>
       <c r="M572" s="6"/>
@@ -11320,7 +11332,7 @@
       <c r="G573" s="8"/>
       <c r="H573" s="6"/>
       <c r="I573" s="6"/>
-      <c r="J573" s="66"/>
+      <c r="J573" s="6"/>
       <c r="K573" s="6"/>
       <c r="L573" s="6"/>
       <c r="M573" s="6"/>
@@ -11337,7 +11349,7 @@
       <c r="G574" s="8"/>
       <c r="H574" s="6"/>
       <c r="I574" s="6"/>
-      <c r="J574" s="66"/>
+      <c r="J574" s="6"/>
       <c r="K574" s="6"/>
       <c r="L574" s="6"/>
       <c r="M574" s="6"/>
@@ -11354,7 +11366,7 @@
       <c r="G575" s="8"/>
       <c r="H575" s="6"/>
       <c r="I575" s="6"/>
-      <c r="J575" s="66"/>
+      <c r="J575" s="6"/>
       <c r="K575" s="6"/>
       <c r="L575" s="6"/>
       <c r="M575" s="6"/>
@@ -11371,7 +11383,7 @@
       <c r="G576" s="8"/>
       <c r="H576" s="6"/>
       <c r="I576" s="6"/>
-      <c r="J576" s="66"/>
+      <c r="J576" s="6"/>
       <c r="K576" s="6"/>
       <c r="L576" s="6"/>
       <c r="M576" s="6"/>
@@ -11388,7 +11400,7 @@
       <c r="G577" s="8"/>
       <c r="H577" s="6"/>
       <c r="I577" s="6"/>
-      <c r="J577" s="66"/>
+      <c r="J577" s="6"/>
       <c r="K577" s="6"/>
       <c r="L577" s="6"/>
       <c r="M577" s="6"/>
@@ -11405,7 +11417,7 @@
       <c r="G578" s="8"/>
       <c r="H578" s="6"/>
       <c r="I578" s="6"/>
-      <c r="J578" s="66"/>
+      <c r="J578" s="6"/>
       <c r="K578" s="6"/>
       <c r="L578" s="6"/>
       <c r="M578" s="6"/>
@@ -11422,7 +11434,7 @@
       <c r="G579" s="8"/>
       <c r="H579" s="6"/>
       <c r="I579" s="6"/>
-      <c r="J579" s="66"/>
+      <c r="J579" s="6"/>
       <c r="K579" s="6"/>
       <c r="L579" s="6"/>
       <c r="M579" s="6"/>
@@ -11439,7 +11451,7 @@
       <c r="G580" s="8"/>
       <c r="H580" s="6"/>
       <c r="I580" s="6"/>
-      <c r="J580" s="66"/>
+      <c r="J580" s="6"/>
       <c r="K580" s="6"/>
       <c r="L580" s="6"/>
       <c r="M580" s="6"/>
@@ -11456,7 +11468,7 @@
       <c r="G581" s="8"/>
       <c r="H581" s="6"/>
       <c r="I581" s="6"/>
-      <c r="J581" s="66"/>
+      <c r="J581" s="6"/>
       <c r="K581" s="6"/>
       <c r="L581" s="6"/>
       <c r="M581" s="6"/>
@@ -11473,7 +11485,7 @@
       <c r="G582" s="8"/>
       <c r="H582" s="6"/>
       <c r="I582" s="6"/>
-      <c r="J582" s="66"/>
+      <c r="J582" s="6"/>
       <c r="K582" s="6"/>
       <c r="L582" s="6"/>
       <c r="M582" s="6"/>
@@ -11490,7 +11502,7 @@
       <c r="G583" s="8"/>
       <c r="H583" s="6"/>
       <c r="I583" s="6"/>
-      <c r="J583" s="66"/>
+      <c r="J583" s="6"/>
       <c r="K583" s="6"/>
       <c r="L583" s="6"/>
       <c r="M583" s="6"/>
@@ -11507,7 +11519,7 @@
       <c r="G584" s="8"/>
       <c r="H584" s="6"/>
       <c r="I584" s="6"/>
-      <c r="J584" s="66"/>
+      <c r="J584" s="6"/>
       <c r="K584" s="6"/>
       <c r="L584" s="6"/>
       <c r="M584" s="6"/>
@@ -11524,7 +11536,7 @@
       <c r="G585" s="8"/>
       <c r="H585" s="6"/>
       <c r="I585" s="6"/>
-      <c r="J585" s="66"/>
+      <c r="J585" s="6"/>
       <c r="K585" s="6"/>
       <c r="L585" s="6"/>
       <c r="M585" s="6"/>
@@ -11541,7 +11553,7 @@
       <c r="G586" s="8"/>
       <c r="H586" s="6"/>
       <c r="I586" s="6"/>
-      <c r="J586" s="66"/>
+      <c r="J586" s="6"/>
       <c r="K586" s="6"/>
       <c r="L586" s="6"/>
       <c r="M586" s="6"/>
@@ -11558,7 +11570,7 @@
       <c r="G587" s="8"/>
       <c r="H587" s="6"/>
       <c r="I587" s="6"/>
-      <c r="J587" s="66"/>
+      <c r="J587" s="6"/>
       <c r="K587" s="6"/>
       <c r="L587" s="6"/>
       <c r="M587" s="6"/>
@@ -11575,7 +11587,7 @@
       <c r="G588" s="8"/>
       <c r="H588" s="6"/>
       <c r="I588" s="6"/>
-      <c r="J588" s="66"/>
+      <c r="J588" s="6"/>
       <c r="K588" s="6"/>
       <c r="L588" s="6"/>
       <c r="M588" s="6"/>
@@ -11592,7 +11604,7 @@
       <c r="G589" s="8"/>
       <c r="H589" s="6"/>
       <c r="I589" s="6"/>
-      <c r="J589" s="66"/>
+      <c r="J589" s="6"/>
       <c r="K589" s="6"/>
       <c r="L589" s="6"/>
       <c r="M589" s="6"/>
@@ -11609,7 +11621,7 @@
       <c r="G590" s="8"/>
       <c r="H590" s="6"/>
       <c r="I590" s="6"/>
-      <c r="J590" s="66"/>
+      <c r="J590" s="6"/>
       <c r="K590" s="6"/>
       <c r="L590" s="6"/>
       <c r="M590" s="6"/>
@@ -11626,7 +11638,7 @@
       <c r="G591" s="8"/>
       <c r="H591" s="6"/>
       <c r="I591" s="6"/>
-      <c r="J591" s="66"/>
+      <c r="J591" s="6"/>
       <c r="K591" s="6"/>
       <c r="L591" s="6"/>
       <c r="M591" s="6"/>
@@ -11643,7 +11655,7 @@
       <c r="G592" s="8"/>
       <c r="H592" s="6"/>
       <c r="I592" s="6"/>
-      <c r="J592" s="66"/>
+      <c r="J592" s="6"/>
       <c r="K592" s="6"/>
       <c r="L592" s="6"/>
       <c r="M592" s="6"/>
@@ -11660,7 +11672,7 @@
       <c r="G593" s="8"/>
       <c r="H593" s="6"/>
       <c r="I593" s="6"/>
-      <c r="J593" s="66"/>
+      <c r="J593" s="6"/>
       <c r="K593" s="6"/>
       <c r="L593" s="6"/>
       <c r="M593" s="6"/>
@@ -11677,7 +11689,7 @@
       <c r="G594" s="8"/>
       <c r="H594" s="6"/>
       <c r="I594" s="6"/>
-      <c r="J594" s="66"/>
+      <c r="J594" s="6"/>
       <c r="K594" s="6"/>
       <c r="L594" s="6"/>
       <c r="M594" s="6"/>
@@ -11694,7 +11706,7 @@
       <c r="G595" s="8"/>
       <c r="H595" s="6"/>
       <c r="I595" s="6"/>
-      <c r="J595" s="66"/>
+      <c r="J595" s="6"/>
       <c r="K595" s="6"/>
       <c r="L595" s="6"/>
       <c r="M595" s="6"/>
@@ -11711,7 +11723,7 @@
       <c r="G596" s="8"/>
       <c r="H596" s="6"/>
       <c r="I596" s="6"/>
-      <c r="J596" s="66"/>
+      <c r="J596" s="6"/>
       <c r="K596" s="6"/>
       <c r="L596" s="6"/>
       <c r="M596" s="6"/>
@@ -11728,7 +11740,7 @@
       <c r="G597" s="8"/>
       <c r="H597" s="6"/>
       <c r="I597" s="6"/>
-      <c r="J597" s="66"/>
+      <c r="J597" s="6"/>
       <c r="K597" s="6"/>
       <c r="L597" s="6"/>
       <c r="M597" s="6"/>
@@ -11745,7 +11757,7 @@
       <c r="G598" s="8"/>
       <c r="H598" s="6"/>
       <c r="I598" s="6"/>
-      <c r="J598" s="66"/>
+      <c r="J598" s="6"/>
       <c r="K598" s="6"/>
       <c r="L598" s="6"/>
       <c r="M598" s="6"/>
@@ -11762,7 +11774,7 @@
       <c r="G599" s="8"/>
       <c r="H599" s="6"/>
       <c r="I599" s="6"/>
-      <c r="J599" s="66"/>
+      <c r="J599" s="6"/>
       <c r="K599" s="6"/>
       <c r="L599" s="6"/>
       <c r="M599" s="6"/>
@@ -11779,7 +11791,7 @@
       <c r="G600" s="8"/>
       <c r="H600" s="6"/>
       <c r="I600" s="6"/>
-      <c r="J600" s="66"/>
+      <c r="J600" s="6"/>
       <c r="K600" s="6"/>
       <c r="L600" s="6"/>
       <c r="M600" s="6"/>
@@ -11796,7 +11808,7 @@
       <c r="G601" s="8"/>
       <c r="H601" s="6"/>
       <c r="I601" s="6"/>
-      <c r="J601" s="66"/>
+      <c r="J601" s="6"/>
       <c r="K601" s="6"/>
       <c r="L601" s="6"/>
       <c r="M601" s="6"/>
@@ -11813,7 +11825,7 @@
       <c r="G602" s="8"/>
       <c r="H602" s="6"/>
       <c r="I602" s="6"/>
-      <c r="J602" s="66"/>
+      <c r="J602" s="6"/>
       <c r="K602" s="6"/>
       <c r="L602" s="6"/>
       <c r="M602" s="6"/>
@@ -11830,7 +11842,7 @@
       <c r="G603" s="8"/>
       <c r="H603" s="6"/>
       <c r="I603" s="6"/>
-      <c r="J603" s="66"/>
+      <c r="J603" s="6"/>
       <c r="K603" s="6"/>
       <c r="L603" s="6"/>
       <c r="M603" s="6"/>
@@ -11847,7 +11859,7 @@
       <c r="G604" s="8"/>
       <c r="H604" s="6"/>
       <c r="I604" s="6"/>
-      <c r="J604" s="66"/>
+      <c r="J604" s="6"/>
       <c r="K604" s="6"/>
       <c r="L604" s="6"/>
       <c r="M604" s="6"/>
@@ -11864,7 +11876,7 @@
       <c r="G605" s="8"/>
       <c r="H605" s="6"/>
       <c r="I605" s="6"/>
-      <c r="J605" s="66"/>
+      <c r="J605" s="6"/>
       <c r="K605" s="6"/>
       <c r="L605" s="6"/>
       <c r="M605" s="6"/>
@@ -11881,7 +11893,7 @@
       <c r="G606" s="8"/>
       <c r="H606" s="6"/>
       <c r="I606" s="6"/>
-      <c r="J606" s="66"/>
+      <c r="J606" s="6"/>
       <c r="K606" s="6"/>
       <c r="L606" s="6"/>
       <c r="M606" s="6"/>
@@ -11898,7 +11910,7 @@
       <c r="G607" s="8"/>
       <c r="H607" s="6"/>
       <c r="I607" s="6"/>
-      <c r="J607" s="66"/>
+      <c r="J607" s="6"/>
       <c r="K607" s="6"/>
       <c r="L607" s="6"/>
       <c r="M607" s="6"/>
@@ -11915,7 +11927,7 @@
       <c r="G608" s="8"/>
       <c r="H608" s="6"/>
       <c r="I608" s="6"/>
-      <c r="J608" s="66"/>
+      <c r="J608" s="6"/>
       <c r="K608" s="6"/>
       <c r="L608" s="6"/>
       <c r="M608" s="6"/>
@@ -11932,7 +11944,7 @@
       <c r="G609" s="8"/>
       <c r="H609" s="6"/>
       <c r="I609" s="6"/>
-      <c r="J609" s="66"/>
+      <c r="J609" s="6"/>
       <c r="K609" s="6"/>
       <c r="L609" s="6"/>
       <c r="M609" s="6"/>
@@ -11949,7 +11961,7 @@
       <c r="G610" s="8"/>
       <c r="H610" s="6"/>
       <c r="I610" s="6"/>
-      <c r="J610" s="66"/>
+      <c r="J610" s="6"/>
       <c r="K610" s="6"/>
       <c r="L610" s="6"/>
       <c r="M610" s="6"/>
@@ -11966,7 +11978,7 @@
       <c r="G611" s="8"/>
       <c r="H611" s="6"/>
       <c r="I611" s="6"/>
-      <c r="J611" s="66"/>
+      <c r="J611" s="6"/>
       <c r="K611" s="6"/>
       <c r="L611" s="6"/>
       <c r="M611" s="6"/>
@@ -11983,7 +11995,7 @@
       <c r="G612" s="8"/>
       <c r="H612" s="6"/>
       <c r="I612" s="6"/>
-      <c r="J612" s="66"/>
+      <c r="J612" s="6"/>
       <c r="K612" s="6"/>
       <c r="L612" s="6"/>
       <c r="M612" s="6"/>
@@ -12000,7 +12012,7 @@
       <c r="G613" s="8"/>
       <c r="H613" s="6"/>
       <c r="I613" s="6"/>
-      <c r="J613" s="66"/>
+      <c r="J613" s="6"/>
       <c r="K613" s="6"/>
       <c r="L613" s="6"/>
       <c r="M613" s="6"/>
@@ -12017,7 +12029,7 @@
       <c r="G614" s="8"/>
       <c r="H614" s="6"/>
       <c r="I614" s="6"/>
-      <c r="J614" s="66"/>
+      <c r="J614" s="6"/>
       <c r="K614" s="6"/>
       <c r="L614" s="6"/>
       <c r="M614" s="6"/>
@@ -12034,7 +12046,7 @@
       <c r="G615" s="8"/>
       <c r="H615" s="6"/>
       <c r="I615" s="6"/>
-      <c r="J615" s="66"/>
+      <c r="J615" s="6"/>
       <c r="K615" s="6"/>
       <c r="L615" s="6"/>
       <c r="M615" s="6"/>
@@ -12051,7 +12063,7 @@
       <c r="G616" s="8"/>
       <c r="H616" s="6"/>
       <c r="I616" s="6"/>
-      <c r="J616" s="66"/>
+      <c r="J616" s="6"/>
       <c r="K616" s="6"/>
       <c r="L616" s="6"/>
       <c r="M616" s="6"/>
@@ -12068,7 +12080,7 @@
       <c r="G617" s="8"/>
       <c r="H617" s="6"/>
       <c r="I617" s="6"/>
-      <c r="J617" s="66"/>
+      <c r="J617" s="6"/>
       <c r="K617" s="6"/>
       <c r="L617" s="6"/>
       <c r="M617" s="6"/>
@@ -12085,7 +12097,7 @@
       <c r="G618" s="8"/>
       <c r="H618" s="6"/>
       <c r="I618" s="6"/>
-      <c r="J618" s="66"/>
+      <c r="J618" s="6"/>
       <c r="K618" s="6"/>
       <c r="L618" s="6"/>
       <c r="M618" s="6"/>
@@ -12102,7 +12114,7 @@
       <c r="G619" s="8"/>
       <c r="H619" s="6"/>
       <c r="I619" s="6"/>
-      <c r="J619" s="66"/>
+      <c r="J619" s="6"/>
       <c r="K619" s="6"/>
       <c r="L619" s="6"/>
       <c r="M619" s="6"/>
@@ -12119,7 +12131,7 @@
       <c r="G620" s="8"/>
       <c r="H620" s="6"/>
       <c r="I620" s="6"/>
-      <c r="J620" s="66"/>
+      <c r="J620" s="6"/>
       <c r="K620" s="6"/>
       <c r="L620" s="6"/>
       <c r="M620" s="6"/>
@@ -12136,7 +12148,7 @@
       <c r="G621" s="8"/>
       <c r="H621" s="6"/>
       <c r="I621" s="6"/>
-      <c r="J621" s="66"/>
+      <c r="J621" s="6"/>
       <c r="K621" s="6"/>
       <c r="L621" s="6"/>
       <c r="M621" s="6"/>
@@ -12153,7 +12165,7 @@
       <c r="G622" s="8"/>
       <c r="H622" s="6"/>
       <c r="I622" s="6"/>
-      <c r="J622" s="66"/>
+      <c r="J622" s="6"/>
       <c r="K622" s="6"/>
       <c r="L622" s="6"/>
       <c r="M622" s="6"/>
@@ -12170,7 +12182,7 @@
       <c r="G623" s="8"/>
       <c r="H623" s="6"/>
       <c r="I623" s="6"/>
-      <c r="J623" s="66"/>
+      <c r="J623" s="6"/>
       <c r="K623" s="6"/>
       <c r="L623" s="6"/>
       <c r="M623" s="6"/>
@@ -12187,7 +12199,7 @@
       <c r="G624" s="8"/>
       <c r="H624" s="6"/>
       <c r="I624" s="6"/>
-      <c r="J624" s="66"/>
+      <c r="J624" s="6"/>
       <c r="K624" s="6"/>
       <c r="L624" s="6"/>
       <c r="M624" s="6"/>
@@ -12204,7 +12216,7 @@
       <c r="G625" s="8"/>
       <c r="H625" s="6"/>
       <c r="I625" s="6"/>
-      <c r="J625" s="66"/>
+      <c r="J625" s="6"/>
       <c r="K625" s="6"/>
       <c r="L625" s="6"/>
       <c r="M625" s="6"/>
@@ -12221,7 +12233,7 @@
       <c r="G626" s="8"/>
       <c r="H626" s="6"/>
       <c r="I626" s="6"/>
-      <c r="J626" s="66"/>
+      <c r="J626" s="6"/>
       <c r="K626" s="6"/>
       <c r="L626" s="6"/>
       <c r="M626" s="6"/>
@@ -12238,7 +12250,7 @@
       <c r="G627" s="8"/>
       <c r="H627" s="6"/>
       <c r="I627" s="6"/>
-      <c r="J627" s="66"/>
+      <c r="J627" s="6"/>
       <c r="K627" s="6"/>
       <c r="L627" s="6"/>
       <c r="M627" s="6"/>
@@ -12255,7 +12267,7 @@
       <c r="G628" s="8"/>
       <c r="H628" s="6"/>
       <c r="I628" s="6"/>
-      <c r="J628" s="66"/>
+      <c r="J628" s="6"/>
       <c r="K628" s="6"/>
       <c r="L628" s="6"/>
       <c r="M628" s="6"/>
@@ -12272,7 +12284,7 @@
       <c r="G629" s="8"/>
       <c r="H629" s="6"/>
       <c r="I629" s="6"/>
-      <c r="J629" s="66"/>
+      <c r="J629" s="6"/>
       <c r="K629" s="6"/>
       <c r="L629" s="6"/>
       <c r="M629" s="6"/>
@@ -12289,7 +12301,7 @@
       <c r="G630" s="8"/>
       <c r="H630" s="6"/>
       <c r="I630" s="6"/>
-      <c r="J630" s="66"/>
+      <c r="J630" s="6"/>
       <c r="K630" s="6"/>
       <c r="L630" s="6"/>
       <c r="M630" s="6"/>
@@ -12306,7 +12318,7 @@
       <c r="G631" s="8"/>
       <c r="H631" s="6"/>
       <c r="I631" s="6"/>
-      <c r="J631" s="66"/>
+      <c r="J631" s="6"/>
       <c r="K631" s="6"/>
       <c r="L631" s="6"/>
       <c r="M631" s="6"/>
@@ -12323,7 +12335,7 @@
       <c r="G632" s="8"/>
       <c r="H632" s="6"/>
       <c r="I632" s="6"/>
-      <c r="J632" s="66"/>
+      <c r="J632" s="6"/>
       <c r="K632" s="6"/>
       <c r="L632" s="6"/>
       <c r="M632" s="6"/>
@@ -12340,7 +12352,7 @@
       <c r="G633" s="8"/>
       <c r="H633" s="6"/>
       <c r="I633" s="6"/>
-      <c r="J633" s="66"/>
+      <c r="J633" s="6"/>
       <c r="K633" s="6"/>
       <c r="L633" s="6"/>
       <c r="M633" s="6"/>
@@ -12357,7 +12369,7 @@
       <c r="G634" s="8"/>
       <c r="H634" s="6"/>
       <c r="I634" s="6"/>
-      <c r="J634" s="66"/>
+      <c r="J634" s="6"/>
       <c r="K634" s="6"/>
       <c r="L634" s="6"/>
       <c r="M634" s="6"/>
@@ -12374,7 +12386,7 @@
       <c r="G635" s="8"/>
       <c r="H635" s="6"/>
       <c r="I635" s="6"/>
-      <c r="J635" s="66"/>
+      <c r="J635" s="6"/>
       <c r="K635" s="6"/>
       <c r="L635" s="6"/>
       <c r="M635" s="6"/>
@@ -12391,7 +12403,7 @@
       <c r="G636" s="8"/>
       <c r="H636" s="6"/>
       <c r="I636" s="6"/>
-      <c r="J636" s="66"/>
+      <c r="J636" s="6"/>
       <c r="K636" s="6"/>
       <c r="L636" s="6"/>
       <c r="M636" s="6"/>
@@ -12408,7 +12420,7 @@
       <c r="G637" s="8"/>
       <c r="H637" s="6"/>
       <c r="I637" s="6"/>
-      <c r="J637" s="66"/>
+      <c r="J637" s="6"/>
       <c r="K637" s="6"/>
       <c r="L637" s="6"/>
       <c r="M637" s="6"/>
@@ -12425,7 +12437,7 @@
       <c r="G638" s="8"/>
       <c r="H638" s="6"/>
       <c r="I638" s="6"/>
-      <c r="J638" s="66"/>
+      <c r="J638" s="6"/>
       <c r="K638" s="6"/>
       <c r="L638" s="6"/>
       <c r="M638" s="6"/>
@@ -12442,7 +12454,7 @@
       <c r="G639" s="8"/>
       <c r="H639" s="6"/>
       <c r="I639" s="6"/>
-      <c r="J639" s="66"/>
+      <c r="J639" s="6"/>
       <c r="K639" s="6"/>
       <c r="L639" s="6"/>
       <c r="M639" s="6"/>
@@ -12459,7 +12471,7 @@
       <c r="G640" s="8"/>
       <c r="H640" s="6"/>
       <c r="I640" s="6"/>
-      <c r="J640" s="66"/>
+      <c r="J640" s="6"/>
       <c r="K640" s="6"/>
       <c r="L640" s="6"/>
       <c r="M640" s="6"/>
@@ -12476,7 +12488,7 @@
       <c r="G641" s="8"/>
       <c r="H641" s="6"/>
       <c r="I641" s="6"/>
-      <c r="J641" s="66"/>
+      <c r="J641" s="6"/>
       <c r="K641" s="6"/>
       <c r="L641" s="6"/>
       <c r="M641" s="6"/>
@@ -12493,7 +12505,7 @@
       <c r="G642" s="8"/>
       <c r="H642" s="6"/>
       <c r="I642" s="6"/>
-      <c r="J642" s="66"/>
+      <c r="J642" s="6"/>
       <c r="K642" s="6"/>
       <c r="L642" s="6"/>
       <c r="M642" s="6"/>
@@ -12510,7 +12522,7 @@
       <c r="G643" s="8"/>
       <c r="H643" s="6"/>
       <c r="I643" s="6"/>
-      <c r="J643" s="66"/>
+      <c r="J643" s="6"/>
       <c r="K643" s="6"/>
       <c r="L643" s="6"/>
       <c r="M643" s="6"/>
@@ -12527,7 +12539,7 @@
       <c r="G644" s="8"/>
       <c r="H644" s="6"/>
       <c r="I644" s="6"/>
-      <c r="J644" s="66"/>
+      <c r="J644" s="6"/>
       <c r="K644" s="6"/>
       <c r="L644" s="6"/>
       <c r="M644" s="6"/>
@@ -12544,7 +12556,7 @@
       <c r="G645" s="8"/>
       <c r="H645" s="6"/>
       <c r="I645" s="6"/>
-      <c r="J645" s="66"/>
+      <c r="J645" s="6"/>
       <c r="K645" s="6"/>
       <c r="L645" s="6"/>
       <c r="M645" s="6"/>
@@ -12561,7 +12573,7 @@
       <c r="G646" s="8"/>
       <c r="H646" s="6"/>
       <c r="I646" s="6"/>
-      <c r="J646" s="66"/>
+      <c r="J646" s="6"/>
       <c r="K646" s="6"/>
       <c r="L646" s="6"/>
       <c r="M646" s="6"/>
@@ -12578,7 +12590,7 @@
       <c r="G647" s="8"/>
       <c r="H647" s="6"/>
       <c r="I647" s="6"/>
-      <c r="J647" s="66"/>
+      <c r="J647" s="6"/>
       <c r="K647" s="6"/>
       <c r="L647" s="6"/>
       <c r="M647" s="6"/>
@@ -12595,7 +12607,7 @@
       <c r="G648" s="8"/>
       <c r="H648" s="6"/>
       <c r="I648" s="6"/>
-      <c r="J648" s="66"/>
+      <c r="J648" s="6"/>
       <c r="K648" s="6"/>
       <c r="L648" s="6"/>
       <c r="M648" s="6"/>
@@ -12612,7 +12624,7 @@
       <c r="G649" s="8"/>
       <c r="H649" s="6"/>
       <c r="I649" s="6"/>
-      <c r="J649" s="66"/>
+      <c r="J649" s="6"/>
       <c r="K649" s="6"/>
       <c r="L649" s="6"/>
       <c r="M649" s="6"/>
@@ -12629,7 +12641,7 @@
       <c r="G650" s="8"/>
       <c r="H650" s="6"/>
       <c r="I650" s="6"/>
-      <c r="J650" s="66"/>
+      <c r="J650" s="6"/>
       <c r="K650" s="6"/>
       <c r="L650" s="6"/>
       <c r="M650" s="6"/>
@@ -12646,7 +12658,7 @@
       <c r="G651" s="8"/>
       <c r="H651" s="6"/>
       <c r="I651" s="6"/>
-      <c r="J651" s="66"/>
+      <c r="J651" s="6"/>
       <c r="K651" s="6"/>
       <c r="L651" s="6"/>
       <c r="M651" s="6"/>
@@ -12663,7 +12675,7 @@
       <c r="G652" s="8"/>
       <c r="H652" s="6"/>
       <c r="I652" s="6"/>
-      <c r="J652" s="66"/>
+      <c r="J652" s="6"/>
       <c r="K652" s="6"/>
       <c r="L652" s="6"/>
       <c r="M652" s="6"/>
@@ -12680,7 +12692,7 @@
       <c r="G653" s="8"/>
       <c r="H653" s="6"/>
       <c r="I653" s="6"/>
-      <c r="J653" s="66"/>
+      <c r="J653" s="6"/>
       <c r="K653" s="6"/>
       <c r="L653" s="6"/>
       <c r="M653" s="6"/>
@@ -12697,7 +12709,7 @@
       <c r="G654" s="8"/>
       <c r="H654" s="6"/>
       <c r="I654" s="6"/>
-      <c r="J654" s="66"/>
+      <c r="J654" s="6"/>
       <c r="K654" s="6"/>
       <c r="L654" s="6"/>
       <c r="M654" s="6"/>
@@ -12714,7 +12726,7 @@
       <c r="G655" s="8"/>
       <c r="H655" s="6"/>
       <c r="I655" s="6"/>
-      <c r="J655" s="66"/>
+      <c r="J655" s="6"/>
       <c r="K655" s="6"/>
       <c r="L655" s="6"/>
       <c r="M655" s="6"/>
@@ -12731,7 +12743,7 @@
       <c r="G656" s="8"/>
       <c r="H656" s="6"/>
       <c r="I656" s="6"/>
-      <c r="J656" s="66"/>
+      <c r="J656" s="6"/>
       <c r="K656" s="6"/>
       <c r="L656" s="6"/>
       <c r="M656" s="6"/>
@@ -12748,7 +12760,7 @@
       <c r="G657" s="8"/>
       <c r="H657" s="6"/>
       <c r="I657" s="6"/>
-      <c r="J657" s="66"/>
+      <c r="J657" s="6"/>
       <c r="K657" s="6"/>
       <c r="L657" s="6"/>
       <c r="M657" s="6"/>
@@ -12765,7 +12777,7 @@
       <c r="G658" s="8"/>
       <c r="H658" s="6"/>
       <c r="I658" s="6"/>
-      <c r="J658" s="66"/>
+      <c r="J658" s="6"/>
       <c r="K658" s="6"/>
       <c r="L658" s="6"/>
       <c r="M658" s="6"/>
@@ -12782,7 +12794,7 @@
       <c r="G659" s="8"/>
       <c r="H659" s="6"/>
       <c r="I659" s="6"/>
-      <c r="J659" s="66"/>
+      <c r="J659" s="6"/>
       <c r="K659" s="6"/>
       <c r="L659" s="6"/>
       <c r="M659" s="6"/>
@@ -12799,7 +12811,7 @@
       <c r="G660" s="8"/>
       <c r="H660" s="6"/>
       <c r="I660" s="6"/>
-      <c r="J660" s="66"/>
+      <c r="J660" s="6"/>
       <c r="K660" s="6"/>
       <c r="L660" s="6"/>
       <c r="M660" s="6"/>
@@ -12816,7 +12828,7 @@
       <c r="G661" s="8"/>
       <c r="H661" s="6"/>
       <c r="I661" s="6"/>
-      <c r="J661" s="66"/>
+      <c r="J661" s="6"/>
       <c r="K661" s="6"/>
       <c r="L661" s="6"/>
       <c r="M661" s="6"/>
@@ -12833,7 +12845,7 @@
       <c r="G662" s="8"/>
       <c r="H662" s="6"/>
       <c r="I662" s="6"/>
-      <c r="J662" s="66"/>
+      <c r="J662" s="6"/>
       <c r="K662" s="6"/>
       <c r="L662" s="6"/>
       <c r="M662" s="6"/>
@@ -12850,7 +12862,7 @@
       <c r="G663" s="8"/>
       <c r="H663" s="6"/>
       <c r="I663" s="6"/>
-      <c r="J663" s="66"/>
+      <c r="J663" s="6"/>
       <c r="K663" s="6"/>
       <c r="L663" s="6"/>
       <c r="M663" s="6"/>
@@ -12867,7 +12879,7 @@
       <c r="G664" s="8"/>
       <c r="H664" s="6"/>
       <c r="I664" s="6"/>
-      <c r="J664" s="66"/>
+      <c r="J664" s="6"/>
       <c r="K664" s="6"/>
       <c r="L664" s="6"/>
       <c r="M664" s="6"/>
@@ -12884,7 +12896,7 @@
       <c r="G665" s="8"/>
       <c r="H665" s="6"/>
       <c r="I665" s="6"/>
-      <c r="J665" s="66"/>
+      <c r="J665" s="6"/>
       <c r="K665" s="6"/>
       <c r="L665" s="6"/>
       <c r="M665" s="6"/>
@@ -12901,7 +12913,7 @@
       <c r="G666" s="8"/>
       <c r="H666" s="6"/>
       <c r="I666" s="6"/>
-      <c r="J666" s="66"/>
+      <c r="J666" s="6"/>
       <c r="K666" s="6"/>
       <c r="L666" s="6"/>
       <c r="M666" s="6"/>
@@ -12918,7 +12930,7 @@
       <c r="G667" s="8"/>
       <c r="H667" s="6"/>
       <c r="I667" s="6"/>
-      <c r="J667" s="66"/>
+      <c r="J667" s="6"/>
       <c r="K667" s="6"/>
       <c r="L667" s="6"/>
       <c r="M667" s="6"/>
@@ -12935,7 +12947,7 @@
       <c r="G668" s="8"/>
       <c r="H668" s="6"/>
       <c r="I668" s="6"/>
-      <c r="J668" s="66"/>
+      <c r="J668" s="6"/>
       <c r="K668" s="6"/>
       <c r="L668" s="6"/>
       <c r="M668" s="6"/>
@@ -12952,7 +12964,7 @@
       <c r="G669" s="8"/>
       <c r="H669" s="6"/>
       <c r="I669" s="6"/>
-      <c r="J669" s="66"/>
+      <c r="J669" s="6"/>
       <c r="K669" s="6"/>
       <c r="L669" s="6"/>
       <c r="M669" s="6"/>
@@ -12969,7 +12981,7 @@
       <c r="G670" s="8"/>
       <c r="H670" s="6"/>
       <c r="I670" s="6"/>
-      <c r="J670" s="66"/>
+      <c r="J670" s="6"/>
       <c r="K670" s="6"/>
       <c r="L670" s="6"/>
       <c r="M670" s="6"/>
@@ -12986,7 +12998,7 @@
       <c r="G671" s="8"/>
       <c r="H671" s="6"/>
       <c r="I671" s="6"/>
-      <c r="J671" s="66"/>
+      <c r="J671" s="6"/>
       <c r="K671" s="6"/>
       <c r="L671" s="6"/>
       <c r="M671" s="6"/>
@@ -13003,7 +13015,7 @@
       <c r="G672" s="8"/>
       <c r="H672" s="6"/>
       <c r="I672" s="6"/>
-      <c r="J672" s="66"/>
+      <c r="J672" s="6"/>
       <c r="K672" s="6"/>
       <c r="L672" s="6"/>
       <c r="M672" s="6"/>
@@ -13020,7 +13032,7 @@
       <c r="G673" s="8"/>
       <c r="H673" s="6"/>
       <c r="I673" s="6"/>
-      <c r="J673" s="66"/>
+      <c r="J673" s="6"/>
       <c r="K673" s="6"/>
       <c r="L673" s="6"/>
       <c r="M673" s="6"/>
@@ -13037,7 +13049,7 @@
       <c r="G674" s="8"/>
       <c r="H674" s="6"/>
       <c r="I674" s="6"/>
-      <c r="J674" s="66"/>
+      <c r="J674" s="6"/>
       <c r="K674" s="6"/>
       <c r="L674" s="6"/>
       <c r="M674" s="6"/>
@@ -13054,7 +13066,7 @@
       <c r="G675" s="8"/>
       <c r="H675" s="6"/>
       <c r="I675" s="6"/>
-      <c r="J675" s="66"/>
+      <c r="J675" s="6"/>
       <c r="K675" s="6"/>
       <c r="L675" s="6"/>
       <c r="M675" s="6"/>
@@ -13071,7 +13083,7 @@
       <c r="G676" s="8"/>
       <c r="H676" s="6"/>
       <c r="I676" s="6"/>
-      <c r="J676" s="66"/>
+      <c r="J676" s="6"/>
       <c r="K676" s="6"/>
       <c r="L676" s="6"/>
       <c r="M676" s="6"/>
@@ -13088,7 +13100,7 @@
       <c r="G677" s="8"/>
       <c r="H677" s="6"/>
       <c r="I677" s="6"/>
-      <c r="J677" s="66"/>
+      <c r="J677" s="6"/>
       <c r="K677" s="6"/>
       <c r="L677" s="6"/>
       <c r="M677" s="6"/>
@@ -13105,7 +13117,7 @@
       <c r="G678" s="8"/>
       <c r="H678" s="6"/>
       <c r="I678" s="6"/>
-      <c r="J678" s="66"/>
+      <c r="J678" s="6"/>
       <c r="K678" s="6"/>
       <c r="L678" s="6"/>
       <c r="M678" s="6"/>
@@ -13122,7 +13134,7 @@
       <c r="G679" s="8"/>
       <c r="H679" s="6"/>
       <c r="I679" s="6"/>
-      <c r="J679" s="66"/>
+      <c r="J679" s="6"/>
       <c r="K679" s="6"/>
       <c r="L679" s="6"/>
       <c r="M679" s="6"/>
@@ -13139,7 +13151,7 @@
       <c r="G680" s="8"/>
       <c r="H680" s="6"/>
       <c r="I680" s="6"/>
-      <c r="J680" s="66"/>
+      <c r="J680" s="6"/>
       <c r="K680" s="6"/>
       <c r="L680" s="6"/>
       <c r="M680" s="6"/>
@@ -13156,7 +13168,7 @@
       <c r="G681" s="8"/>
       <c r="H681" s="6"/>
       <c r="I681" s="6"/>
-      <c r="J681" s="66"/>
+      <c r="J681" s="6"/>
       <c r="K681" s="6"/>
       <c r="L681" s="6"/>
       <c r="M681" s="6"/>
@@ -13173,7 +13185,7 @@
       <c r="G682" s="8"/>
       <c r="H682" s="6"/>
       <c r="I682" s="6"/>
-      <c r="J682" s="66"/>
+      <c r="J682" s="6"/>
       <c r="K682" s="6"/>
       <c r="L682" s="6"/>
       <c r="M682" s="6"/>
@@ -13190,7 +13202,7 @@
       <c r="G683" s="8"/>
       <c r="H683" s="6"/>
       <c r="I683" s="6"/>
-      <c r="J683" s="66"/>
+      <c r="J683" s="6"/>
       <c r="K683" s="6"/>
       <c r="L683" s="6"/>
       <c r="M683" s="6"/>
@@ -13207,7 +13219,7 @@
       <c r="G684" s="8"/>
       <c r="H684" s="6"/>
       <c r="I684" s="6"/>
-      <c r="J684" s="66"/>
+      <c r="J684" s="6"/>
       <c r="K684" s="6"/>
       <c r="L684" s="6"/>
       <c r="M684" s="6"/>
@@ -13224,7 +13236,7 @@
       <c r="G685" s="8"/>
       <c r="H685" s="6"/>
       <c r="I685" s="6"/>
-      <c r="J685" s="66"/>
+      <c r="J685" s="6"/>
       <c r="K685" s="6"/>
       <c r="L685" s="6"/>
       <c r="M685" s="6"/>
@@ -13241,7 +13253,7 @@
       <c r="G686" s="8"/>
       <c r="H686" s="6"/>
       <c r="I686" s="6"/>
-      <c r="J686" s="66"/>
+      <c r="J686" s="6"/>
       <c r="K686" s="6"/>
       <c r="L686" s="6"/>
       <c r="M686" s="6"/>
@@ -13258,7 +13270,7 @@
       <c r="G687" s="8"/>
       <c r="H687" s="6"/>
       <c r="I687" s="6"/>
-      <c r="J687" s="66"/>
+      <c r="J687" s="6"/>
       <c r="K687" s="6"/>
       <c r="L687" s="6"/>
       <c r="M687" s="6"/>
@@ -13275,7 +13287,7 @@
       <c r="G688" s="8"/>
       <c r="H688" s="6"/>
       <c r="I688" s="6"/>
-      <c r="J688" s="66"/>
+      <c r="J688" s="6"/>
       <c r="K688" s="6"/>
       <c r="L688" s="6"/>
       <c r="M688" s="6"/>
@@ -13292,7 +13304,7 @@
       <c r="G689" s="8"/>
       <c r="H689" s="6"/>
       <c r="I689" s="6"/>
-      <c r="J689" s="66"/>
+      <c r="J689" s="6"/>
       <c r="K689" s="6"/>
       <c r="L689" s="6"/>
       <c r="M689" s="6"/>
@@ -13309,7 +13321,7 @@
       <c r="G690" s="8"/>
       <c r="H690" s="6"/>
       <c r="I690" s="6"/>
-      <c r="J690" s="66"/>
+      <c r="J690" s="6"/>
       <c r="K690" s="6"/>
       <c r="L690" s="6"/>
       <c r="M690" s="6"/>
@@ -13326,7 +13338,7 @@
       <c r="G691" s="8"/>
       <c r="H691" s="6"/>
       <c r="I691" s="6"/>
-      <c r="J691" s="66"/>
+      <c r="J691" s="6"/>
       <c r="K691" s="6"/>
       <c r="L691" s="6"/>
       <c r="M691" s="6"/>
@@ -13343,7 +13355,7 @@
       <c r="G692" s="8"/>
       <c r="H692" s="6"/>
       <c r="I692" s="6"/>
-      <c r="J692" s="66"/>
+      <c r="J692" s="6"/>
       <c r="K692" s="6"/>
       <c r="L692" s="6"/>
       <c r="M692" s="6"/>
@@ -13360,7 +13372,7 @@
       <c r="G693" s="8"/>
       <c r="H693" s="6"/>
       <c r="I693" s="6"/>
-      <c r="J693" s="66"/>
+      <c r="J693" s="6"/>
       <c r="K693" s="6"/>
       <c r="L693" s="6"/>
       <c r="M693" s="6"/>
@@ -13377,7 +13389,7 @@
       <c r="G694" s="8"/>
       <c r="H694" s="6"/>
       <c r="I694" s="6"/>
-      <c r="J694" s="66"/>
+      <c r="J694" s="6"/>
       <c r="K694" s="6"/>
       <c r="L694" s="6"/>
       <c r="M694" s="6"/>
@@ -13394,7 +13406,7 @@
       <c r="G695" s="8"/>
       <c r="H695" s="6"/>
       <c r="I695" s="6"/>
-      <c r="J695" s="66"/>
+      <c r="J695" s="6"/>
       <c r="K695" s="6"/>
       <c r="L695" s="6"/>
       <c r="M695" s="6"/>
@@ -13411,7 +13423,7 @@
       <c r="G696" s="8"/>
       <c r="H696" s="6"/>
       <c r="I696" s="6"/>
-      <c r="J696" s="66"/>
+      <c r="J696" s="6"/>
       <c r="K696" s="6"/>
       <c r="L696" s="6"/>
       <c r="M696" s="6"/>
@@ -13428,7 +13440,7 @@
       <c r="G697" s="8"/>
       <c r="H697" s="6"/>
       <c r="I697" s="6"/>
-      <c r="J697" s="66"/>
+      <c r="J697" s="6"/>
       <c r="K697" s="6"/>
       <c r="L697" s="6"/>
       <c r="M697" s="6"/>
@@ -13445,7 +13457,7 @@
       <c r="G698" s="8"/>
       <c r="H698" s="6"/>
       <c r="I698" s="6"/>
-      <c r="J698" s="66"/>
+      <c r="J698" s="6"/>
       <c r="K698" s="6"/>
       <c r="L698" s="6"/>
       <c r="M698" s="6"/>
@@ -13462,7 +13474,7 @@
       <c r="G699" s="8"/>
       <c r="H699" s="6"/>
       <c r="I699" s="6"/>
-      <c r="J699" s="66"/>
+      <c r="J699" s="6"/>
       <c r="K699" s="6"/>
       <c r="L699" s="6"/>
       <c r="M699" s="6"/>
@@ -13479,7 +13491,7 @@
       <c r="G700" s="8"/>
       <c r="H700" s="6"/>
       <c r="I700" s="6"/>
-      <c r="J700" s="66"/>
+      <c r="J700" s="6"/>
       <c r="K700" s="6"/>
       <c r="L700" s="6"/>
       <c r="M700" s="6"/>
@@ -13496,7 +13508,7 @@
       <c r="G701" s="8"/>
       <c r="H701" s="6"/>
       <c r="I701" s="6"/>
-      <c r="J701" s="66"/>
+      <c r="J701" s="6"/>
       <c r="K701" s="6"/>
       <c r="L701" s="6"/>
       <c r="M701" s="6"/>
@@ -13513,7 +13525,7 @@
       <c r="G702" s="8"/>
       <c r="H702" s="6"/>
       <c r="I702" s="6"/>
-      <c r="J702" s="66"/>
+      <c r="J702" s="6"/>
       <c r="K702" s="6"/>
       <c r="L702" s="6"/>
       <c r="M702" s="6"/>
@@ -13530,7 +13542,7 @@
       <c r="G703" s="8"/>
       <c r="H703" s="6"/>
       <c r="I703" s="6"/>
-      <c r="J703" s="66"/>
+      <c r="J703" s="6"/>
       <c r="K703" s="6"/>
       <c r="L703" s="6"/>
       <c r="M703" s="6"/>
@@ -13547,7 +13559,7 @@
       <c r="G704" s="8"/>
       <c r="H704" s="6"/>
       <c r="I704" s="6"/>
-      <c r="J704" s="66"/>
+      <c r="J704" s="6"/>
       <c r="K704" s="6"/>
       <c r="L704" s="6"/>
       <c r="M704" s="6"/>
@@ -13564,7 +13576,7 @@
       <c r="G705" s="8"/>
       <c r="H705" s="6"/>
       <c r="I705" s="6"/>
-      <c r="J705" s="66"/>
+      <c r="J705" s="6"/>
       <c r="K705" s="6"/>
       <c r="L705" s="6"/>
       <c r="M705" s="6"/>
@@ -13581,7 +13593,7 @@
       <c r="G706" s="8"/>
       <c r="H706" s="6"/>
       <c r="I706" s="6"/>
-      <c r="J706" s="66"/>
+      <c r="J706" s="6"/>
       <c r="K706" s="6"/>
       <c r="L706" s="6"/>
       <c r="M706" s="6"/>
@@ -13598,7 +13610,7 @@
       <c r="G707" s="8"/>
       <c r="H707" s="6"/>
       <c r="I707" s="6"/>
-      <c r="J707" s="66"/>
+      <c r="J707" s="6"/>
       <c r="K707" s="6"/>
       <c r="L707" s="6"/>
       <c r="M707" s="6"/>
@@ -13615,7 +13627,7 @@
       <c r="G708" s="8"/>
       <c r="H708" s="6"/>
       <c r="I708" s="6"/>
-      <c r="J708" s="66"/>
+      <c r="J708" s="6"/>
       <c r="K708" s="6"/>
       <c r="L708" s="6"/>
       <c r="M708" s="6"/>
@@ -13632,7 +13644,7 @@
       <c r="G709" s="8"/>
       <c r="H709" s="6"/>
       <c r="I709" s="6"/>
-      <c r="J709" s="66"/>
+      <c r="J709" s="6"/>
       <c r="K709" s="6"/>
       <c r="L709" s="6"/>
       <c r="M709" s="6"/>
@@ -13649,7 +13661,7 @@
       <c r="G710" s="8"/>
       <c r="H710" s="6"/>
       <c r="I710" s="6"/>
-      <c r="J710" s="66"/>
+      <c r="J710" s="6"/>
       <c r="K710" s="6"/>
       <c r="L710" s="6"/>
       <c r="M710" s="6"/>
@@ -13666,7 +13678,7 @@
       <c r="G711" s="8"/>
       <c r="H711" s="6"/>
       <c r="I711" s="6"/>
-      <c r="J711" s="66"/>
+      <c r="J711" s="6"/>
       <c r="K711" s="6"/>
       <c r="L711" s="6"/>
       <c r="M711" s="6"/>
@@ -13683,7 +13695,7 @@
       <c r="G712" s="8"/>
       <c r="H712" s="6"/>
       <c r="I712" s="6"/>
-      <c r="J712" s="66"/>
+      <c r="J712" s="6"/>
       <c r="K712" s="6"/>
       <c r="L712" s="6"/>
       <c r="M712" s="6"/>
@@ -13700,7 +13712,7 @@
       <c r="G713" s="8"/>
       <c r="H713" s="6"/>
       <c r="I713" s="6"/>
-      <c r="J713" s="66"/>
+      <c r="J713" s="6"/>
       <c r="K713" s="6"/>
       <c r="L713" s="6"/>
       <c r="M713" s="6"/>
@@ -13717,7 +13729,7 @@
       <c r="G714" s="8"/>
       <c r="H714" s="6"/>
       <c r="I714" s="6"/>
-      <c r="J714" s="66"/>
+      <c r="J714" s="6"/>
       <c r="K714" s="6"/>
       <c r="L714" s="6"/>
       <c r="M714" s="6"/>
@@ -13734,7 +13746,7 @@
       <c r="G715" s="8"/>
       <c r="H715" s="6"/>
       <c r="I715" s="6"/>
-      <c r="J715" s="66"/>
+      <c r="J715" s="6"/>
       <c r="K715" s="6"/>
       <c r="L715" s="6"/>
       <c r="M715" s="6"/>
@@ -13751,7 +13763,7 @@
       <c r="G716" s="8"/>
       <c r="H716" s="6"/>
       <c r="I716" s="6"/>
-      <c r="J716" s="66"/>
+      <c r="J716" s="6"/>
       <c r="K716" s="6"/>
       <c r="L716" s="6"/>
       <c r="M716" s="6"/>
@@ -13768,7 +13780,7 @@
       <c r="G717" s="8"/>
       <c r="H717" s="6"/>
       <c r="I717" s="6"/>
-      <c r="J717" s="66"/>
+      <c r="J717" s="6"/>
       <c r="K717" s="6"/>
       <c r="L717" s="6"/>
       <c r="M717" s="6"/>
@@ -13785,7 +13797,7 @@
       <c r="G718" s="8"/>
       <c r="H718" s="6"/>
       <c r="I718" s="6"/>
-      <c r="J718" s="66"/>
+      <c r="J718" s="6"/>
       <c r="K718" s="6"/>
       <c r="L718" s="6"/>
       <c r="M718" s="6"/>
@@ -13802,7 +13814,7 @@
       <c r="G719" s="8"/>
       <c r="H719" s="6"/>
       <c r="I719" s="6"/>
-      <c r="J719" s="66"/>
+      <c r="J719" s="6"/>
       <c r="K719" s="6"/>
       <c r="L719" s="6"/>
       <c r="M719" s="6"/>
@@ -13819,7 +13831,7 @@
       <c r="G720" s="8"/>
       <c r="H720" s="6"/>
       <c r="I720" s="6"/>
-      <c r="J720" s="66"/>
+      <c r="J720" s="6"/>
       <c r="K720" s="6"/>
       <c r="L720" s="6"/>
       <c r="M720" s="6"/>
@@ -13836,7 +13848,7 @@
       <c r="G721" s="8"/>
       <c r="H721" s="6"/>
       <c r="I721" s="6"/>
-      <c r="J721" s="66"/>
+      <c r="J721" s="6"/>
       <c r="K721" s="6"/>
       <c r="L721" s="6"/>
       <c r="M721" s="6"/>
@@ -13853,7 +13865,7 @@
       <c r="G722" s="8"/>
       <c r="H722" s="6"/>
       <c r="I722" s="6"/>
-      <c r="J722" s="66"/>
+      <c r="J722" s="6"/>
       <c r="K722" s="6"/>
       <c r="L722" s="6"/>
       <c r="M722" s="6"/>
@@ -13870,7 +13882,7 @@
       <c r="G723" s="8"/>
       <c r="H723" s="6"/>
       <c r="I723" s="6"/>
-      <c r="J723" s="66"/>
+      <c r="J723" s="6"/>
       <c r="K723" s="6"/>
       <c r="L723" s="6"/>
       <c r="M723" s="6"/>
@@ -13887,7 +13899,7 @@
       <c r="G724" s="8"/>
       <c r="H724" s="6"/>
       <c r="I724" s="6"/>
-      <c r="J724" s="66"/>
+      <c r="J724" s="6"/>
       <c r="K724" s="6"/>
       <c r="L724" s="6"/>
       <c r="M724" s="6"/>
@@ -13904,7 +13916,7 @@
       <c r="G725" s="8"/>
       <c r="H725" s="6"/>
       <c r="I725" s="6"/>
-      <c r="J725" s="66"/>
+      <c r="J725" s="6"/>
       <c r="K725" s="6"/>
       <c r="L725" s="6"/>
       <c r="M725" s="6"/>
@@ -13921,7 +13933,7 @@
       <c r="G726" s="8"/>
       <c r="H726" s="6"/>
       <c r="I726" s="6"/>
-      <c r="J726" s="66"/>
+      <c r="J726" s="6"/>
       <c r="K726" s="6"/>
       <c r="L726" s="6"/>
       <c r="M726" s="6"/>
@@ -13938,7 +13950,7 @@
       <c r="G727" s="8"/>
       <c r="H727" s="6"/>
       <c r="I727" s="6"/>
-      <c r="J727" s="66"/>
+      <c r="J727" s="6"/>
       <c r="K727" s="6"/>
       <c r="L727" s="6"/>
       <c r="M727" s="6"/>
@@ -13955,7 +13967,7 @@
       <c r="G728" s="8"/>
       <c r="H728" s="6"/>
       <c r="I728" s="6"/>
-      <c r="J728" s="66"/>
+      <c r="J728" s="6"/>
       <c r="K728" s="6"/>
       <c r="L728" s="6"/>
       <c r="M728" s="6"/>
@@ -13972,7 +13984,7 @@
       <c r="G729" s="8"/>
       <c r="H729" s="6"/>
       <c r="I729" s="6"/>
-      <c r="J729" s="66"/>
+      <c r="J729" s="6"/>
       <c r="K729" s="6"/>
       <c r="L729" s="6"/>
       <c r="M729" s="6"/>
@@ -13989,7 +14001,7 @@
       <c r="G730" s="8"/>
       <c r="H730" s="6"/>
       <c r="I730" s="6"/>
-      <c r="J730" s="66"/>
+      <c r="J730" s="6"/>
       <c r="K730" s="6"/>
       <c r="L730" s="6"/>
       <c r="M730" s="6"/>
@@ -14006,7 +14018,7 @@
       <c r="G731" s="8"/>
       <c r="H731" s="6"/>
       <c r="I731" s="6"/>
-      <c r="J731" s="66"/>
+      <c r="J731" s="6"/>
       <c r="K731" s="6"/>
       <c r="L731" s="6"/>
       <c r="M731" s="6"/>
@@ -14023,7 +14035,7 @@
       <c r="G732" s="8"/>
       <c r="H732" s="6"/>
       <c r="I732" s="6"/>
-      <c r="J732" s="66"/>
+      <c r="J732" s="6"/>
       <c r="K732" s="6"/>
       <c r="L732" s="6"/>
       <c r="M732" s="6"/>
@@ -14040,7 +14052,7 @@
       <c r="G733" s="8"/>
       <c r="H733" s="6"/>
       <c r="I733" s="6"/>
-      <c r="J733" s="66"/>
+      <c r="J733" s="6"/>
       <c r="K733" s="6"/>
       <c r="L733" s="6"/>
       <c r="M733" s="6"/>
@@ -14057,7 +14069,7 @@
       <c r="G734" s="8"/>
       <c r="H734" s="6"/>
       <c r="I734" s="6"/>
-      <c r="J734" s="66"/>
+      <c r="J734" s="6"/>
       <c r="K734" s="6"/>
       <c r="L734" s="6"/>
       <c r="M734" s="6"/>
@@ -14074,7 +14086,7 @@
       <c r="G735" s="8"/>
       <c r="H735" s="6"/>
       <c r="I735" s="6"/>
-      <c r="J735" s="66"/>
+      <c r="J735" s="6"/>
       <c r="K735" s="6"/>
       <c r="L735" s="6"/>
       <c r="M735" s="6"/>
@@ -14091,7 +14103,7 @@
       <c r="G736" s="8"/>
       <c r="H736" s="6"/>
       <c r="I736" s="6"/>
-      <c r="J736" s="66"/>
+      <c r="J736" s="6"/>
       <c r="K736" s="6"/>
       <c r="L736" s="6"/>
       <c r="M736" s="6"/>
@@ -14108,7 +14120,7 @@
       <c r="G737" s="8"/>
       <c r="H737" s="6"/>
       <c r="I737" s="6"/>
-      <c r="J737" s="66"/>
+      <c r="J737" s="6"/>
       <c r="K737" s="6"/>
       <c r="L737" s="6"/>
       <c r="M737" s="6"/>
@@ -14125,7 +14137,7 @@
       <c r="G738" s="8"/>
       <c r="H738" s="6"/>
       <c r="I738" s="6"/>
-      <c r="J738" s="66"/>
+      <c r="J738" s="6"/>
       <c r="K738" s="6"/>
       <c r="L738" s="6"/>
       <c r="M738" s="6"/>
@@ -14142,7 +14154,7 @@
       <c r="G739" s="8"/>
       <c r="H739" s="6"/>
       <c r="I739" s="6"/>
-      <c r="J739" s="66"/>
+      <c r="J739" s="6"/>
       <c r="K739" s="6"/>
       <c r="L739" s="6"/>
       <c r="M739" s="6"/>
@@ -14159,7 +14171,7 @@
       <c r="G740" s="8"/>
       <c r="H740" s="6"/>
       <c r="I740" s="6"/>
-      <c r="J740" s="66"/>
+      <c r="J740" s="6"/>
       <c r="K740" s="6"/>
       <c r="L740" s="6"/>
       <c r="M740" s="6"/>
@@ -14176,7 +14188,7 @@
       <c r="G741" s="8"/>
       <c r="H741" s="6"/>
       <c r="I741" s="6"/>
-      <c r="J741" s="66"/>
+      <c r="J741" s="6"/>
       <c r="K741" s="6"/>
       <c r="L741" s="6"/>
       <c r="M741" s="6"/>
@@ -14193,7 +14205,7 @@
       <c r="G742" s="8"/>
       <c r="H742" s="6"/>
       <c r="I742" s="6"/>
-      <c r="J742" s="66"/>
+      <c r="J742" s="6"/>
       <c r="K742" s="6"/>
       <c r="L742" s="6"/>
       <c r="M742" s="6"/>
@@ -14210,7 +14222,7 @@
       <c r="G743" s="8"/>
       <c r="H743" s="6"/>
       <c r="I743" s="6"/>
-      <c r="J743" s="66"/>
+      <c r="J743" s="6"/>
       <c r="K743" s="6"/>
       <c r="L743" s="6"/>
       <c r="M743" s="6"/>
@@ -14227,7 +14239,7 @@
       <c r="G744" s="8"/>
       <c r="H744" s="6"/>
       <c r="I744" s="6"/>
-      <c r="J744" s="66"/>
+      <c r="J744" s="6"/>
       <c r="K744" s="6"/>
       <c r="L744" s="6"/>
       <c r="M744" s="6"/>
@@ -14244,7 +14256,7 @@
       <c r="G745" s="8"/>
       <c r="H745" s="6"/>
       <c r="I745" s="6"/>
-      <c r="J745" s="66"/>
+      <c r="J745" s="6"/>
       <c r="K745" s="6"/>
       <c r="L745" s="6"/>
       <c r="M745" s="6"/>
@@ -14261,7 +14273,7 @@
       <c r="G746" s="8"/>
       <c r="H746" s="6"/>
       <c r="I746" s="6"/>
-      <c r="J746" s="66"/>
+      <c r="J746" s="6"/>
       <c r="K746" s="6"/>
       <c r="L746" s="6"/>
       <c r="M746" s="6"/>
@@ -14278,7 +14290,7 @@
       <c r="G747" s="8"/>
       <c r="H747" s="6"/>
       <c r="I747" s="6"/>
-      <c r="J747" s="66"/>
+      <c r="J747" s="6"/>
       <c r="K747" s="6"/>
       <c r="L747" s="6"/>
       <c r="M747" s="6"/>
@@ -14295,7 +14307,7 @@
       <c r="G748" s="8"/>
       <c r="H748" s="6"/>
       <c r="I748" s="6"/>
-      <c r="J748" s="66"/>
+      <c r="J748" s="6"/>
       <c r="K748" s="6"/>
       <c r="L748" s="6"/>
       <c r="M748" s="6"/>
@@ -14312,7 +14324,7 @@
       <c r="G749" s="8"/>
       <c r="H749" s="6"/>
       <c r="I749" s="6"/>
-      <c r="J749" s="66"/>
+      <c r="J749" s="6"/>
       <c r="K749" s="6"/>
       <c r="L749" s="6"/>
       <c r="M749" s="6"/>
@@ -14329,7 +14341,7 @@
       <c r="G750" s="8"/>
       <c r="H750" s="6"/>
       <c r="I750" s="6"/>
-      <c r="J750" s="66"/>
+      <c r="J750" s="6"/>
       <c r="K750" s="6"/>
       <c r="L750" s="6"/>
       <c r="M750" s="6"/>
@@ -14346,7 +14358,7 @@
       <c r="G751" s="8"/>
       <c r="H751" s="6"/>
       <c r="I751" s="6"/>
-      <c r="J751" s="66"/>
+      <c r="J751" s="6"/>
       <c r="K751" s="6"/>
       <c r="L751" s="6"/>
       <c r="M751" s="6"/>
@@ -14363,7 +14375,7 @@
       <c r="G752" s="8"/>
       <c r="H752" s="6"/>
       <c r="I752" s="6"/>
-      <c r="J752" s="66"/>
+      <c r="J752" s="6"/>
       <c r="K752" s="6"/>
       <c r="L752" s="6"/>
       <c r="M752" s="6"/>
@@ -14380,7 +14392,7 @@
       <c r="G753" s="8"/>
       <c r="H753" s="6"/>
       <c r="I753" s="6"/>
-      <c r="J753" s="66"/>
+      <c r="J753" s="6"/>
       <c r="K753" s="6"/>
       <c r="L753" s="6"/>
       <c r="M753" s="6"/>
@@ -14397,7 +14409,7 @@
       <c r="G754" s="8"/>
       <c r="H754" s="6"/>
       <c r="I754" s="6"/>
-      <c r="J754" s="66"/>
+      <c r="J754" s="6"/>
       <c r="K754" s="6"/>
       <c r="L754" s="6"/>
       <c r="M754" s="6"/>
@@ -14414,7 +14426,7 @@
       <c r="G755" s="8"/>
       <c r="H755" s="6"/>
       <c r="I755" s="6"/>
-      <c r="J755" s="66"/>
+      <c r="J755" s="6"/>
       <c r="K755" s="6"/>
       <c r="L755" s="6"/>
       <c r="M755" s="6"/>
@@ -14431,7 +14443,7 @@
       <c r="G756" s="8"/>
       <c r="H756" s="6"/>
       <c r="I756" s="6"/>
-      <c r="J756" s="66"/>
+      <c r="J756" s="6"/>
       <c r="K756" s="6"/>
       <c r="L756" s="6"/>
       <c r="M756" s="6"/>
@@ -14448,7 +14460,7 @@
       <c r="G757" s="8"/>
       <c r="H757" s="6"/>
       <c r="I757" s="6"/>
-      <c r="J757" s="66"/>
+      <c r="J757" s="6"/>
       <c r="K757" s="6"/>
       <c r="L757" s="6"/>
       <c r="M757" s="6"/>
@@ -14465,7 +14477,7 @@
       <c r="G758" s="8"/>
       <c r="H758" s="6"/>
       <c r="I758" s="6"/>
-      <c r="J758" s="66"/>
+      <c r="J758" s="6"/>
       <c r="K758" s="6"/>
       <c r="L758" s="6"/>
       <c r="M758" s="6"/>
@@ -14482,7 +14494,7 @@
       <c r="G759" s="8"/>
       <c r="H759" s="6"/>
       <c r="I759" s="6"/>
-      <c r="J759" s="66"/>
+      <c r="J759" s="6"/>
       <c r="K759" s="6"/>
       <c r="L759" s="6"/>
       <c r="M759" s="6"/>
@@ -14499,7 +14511,7 @@
       <c r="G760" s="8"/>
       <c r="H760" s="6"/>
       <c r="I760" s="6"/>
-      <c r="J760" s="66"/>
+      <c r="J760" s="6"/>
       <c r="K760" s="6"/>
       <c r="L760" s="6"/>
       <c r="M760" s="6"/>
@@ -14516,7 +14528,7 @@
       <c r="G761" s="8"/>
       <c r="H761" s="6"/>
       <c r="I761" s="6"/>
-      <c r="J761" s="66"/>
+      <c r="J761" s="6"/>
       <c r="K761" s="6"/>
       <c r="L761" s="6"/>
       <c r="M761" s="6"/>
@@ -14533,7 +14545,7 @@
       <c r="G762" s="8"/>
       <c r="H762" s="6"/>
       <c r="I762" s="6"/>
-      <c r="J762" s="66"/>
+      <c r="J762" s="6"/>
       <c r="K762" s="6"/>
       <c r="L762" s="6"/>
       <c r="M762" s="6"/>
@@ -14550,7 +14562,7 @@
       <c r="G763" s="8"/>
       <c r="H763" s="6"/>
       <c r="I763" s="6"/>
-      <c r="J763" s="66"/>
+      <c r="J763" s="6"/>
       <c r="K763" s="6"/>
       <c r="L763" s="6"/>
       <c r="M763" s="6"/>
@@ -14567,7 +14579,7 @@
       <c r="G764" s="8"/>
       <c r="H764" s="6"/>
       <c r="I764" s="6"/>
-      <c r="J764" s="66"/>
+      <c r="J764" s="6"/>
       <c r="K764" s="6"/>
       <c r="L764" s="6"/>
       <c r="M764" s="6"/>
@@ -14584,7 +14596,7 @@
       <c r="G765" s="8"/>
       <c r="H765" s="6"/>
       <c r="I765" s="6"/>
-      <c r="J765" s="66"/>
+      <c r="J765" s="6"/>
       <c r="K765" s="6"/>
       <c r="L765" s="6"/>
       <c r="M765" s="6"/>
@@ -14601,7 +14613,7 @@
       <c r="G766" s="8"/>
       <c r="H766" s="6"/>
       <c r="I766" s="6"/>
-      <c r="J766" s="66"/>
+      <c r="J766" s="6"/>
       <c r="K766" s="6"/>
       <c r="L766" s="6"/>
       <c r="M766" s="6"/>
@@ -14618,7 +14630,7 @@
       <c r="G767" s="8"/>
       <c r="H767" s="6"/>
       <c r="I767" s="6"/>
-      <c r="J767" s="66"/>
+      <c r="J767" s="6"/>
       <c r="K767" s="6"/>
       <c r="L767" s="6"/>
       <c r="M767" s="6"/>
@@ -14635,7 +14647,7 @@
       <c r="G768" s="8"/>
       <c r="H768" s="6"/>
       <c r="I768" s="6"/>
-      <c r="J768" s="66"/>
+      <c r="J768" s="6"/>
       <c r="K768" s="6"/>
       <c r="L768" s="6"/>
       <c r="M768" s="6"/>
@@ -14652,7 +14664,7 @@
       <c r="G769" s="8"/>
       <c r="H769" s="6"/>
       <c r="I769" s="6"/>
-      <c r="J769" s="66"/>
+      <c r="J769" s="6"/>
       <c r="K769" s="6"/>
       <c r="L769" s="6"/>
       <c r="M769" s="6"/>
@@ -14669,7 +14681,7 @@
       <c r="G770" s="8"/>
       <c r="H770" s="6"/>
       <c r="I770" s="6"/>
-      <c r="J770" s="66"/>
+      <c r="J770" s="6"/>
       <c r="K770" s="6"/>
       <c r="L770" s="6"/>
       <c r="M770" s="6"/>
@@ -14686,7 +14698,7 @@
       <c r="G771" s="8"/>
       <c r="H771" s="6"/>
       <c r="I771" s="6"/>
-      <c r="J771" s="66"/>
+      <c r="J771" s="6"/>
       <c r="K771" s="6"/>
       <c r="L771" s="6"/>
       <c r="M771" s="6"/>
@@ -14703,7 +14715,7 @@
       <c r="G772" s="8"/>
       <c r="H772" s="6"/>
       <c r="I772" s="6"/>
-      <c r="J772" s="66"/>
+      <c r="J772" s="6"/>
       <c r="K772" s="6"/>
       <c r="L772" s="6"/>
       <c r="M772" s="6"/>
@@ -14720,7 +14732,7 @@
       <c r="G773" s="8"/>
       <c r="H773" s="6"/>
       <c r="I773" s="6"/>
-      <c r="J773" s="66"/>
+      <c r="J773" s="6"/>
       <c r="K773" s="6"/>
       <c r="L773" s="6"/>
       <c r="M773" s="6"/>
@@ -14737,7 +14749,7 @@
       <c r="G774" s="8"/>
       <c r="H774" s="6"/>
       <c r="I774" s="6"/>
-      <c r="J774" s="66"/>
+      <c r="J774" s="6"/>
       <c r="K774" s="6"/>
       <c r="L774" s="6"/>
       <c r="M774" s="6"/>
@@ -14754,7 +14766,7 @@
       <c r="G775" s="8"/>
       <c r="H775" s="6"/>
       <c r="I775" s="6"/>
-      <c r="J775" s="66"/>
+      <c r="J775" s="6"/>
       <c r="K775" s="6"/>
       <c r="L775" s="6"/>
       <c r="M775" s="6"/>
@@ -14771,7 +14783,7 @@
       <c r="G776" s="8"/>
       <c r="H776" s="6"/>
       <c r="I776" s="6"/>
-      <c r="J776" s="66"/>
+      <c r="J776" s="6"/>
       <c r="K776" s="6"/>
       <c r="L776" s="6"/>
       <c r="M776" s="6"/>
@@ -14788,7 +14800,7 @@
       <c r="G777" s="8"/>
       <c r="H777" s="6"/>
       <c r="I777" s="6"/>
-      <c r="J777" s="66"/>
+      <c r="J777" s="6"/>
       <c r="K777" s="6"/>
       <c r="L777" s="6"/>
       <c r="M777" s="6"/>
@@ -14805,7 +14817,7 @@
       <c r="G778" s="8"/>
       <c r="H778" s="6"/>
       <c r="I778" s="6"/>
-      <c r="J778" s="66"/>
+      <c r="J778" s="6"/>
       <c r="K778" s="6"/>
       <c r="L778" s="6"/>
       <c r="M778" s="6"/>
@@ -14822,7 +14834,7 @@
       <c r="G779" s="8"/>
       <c r="H779" s="6"/>
       <c r="I779" s="6"/>
-      <c r="J779" s="66"/>
+      <c r="J779" s="6"/>
       <c r="K779" s="6"/>
       <c r="L779" s="6"/>
       <c r="M779" s="6"/>
@@ -14839,7 +14851,7 @@
       <c r="G780" s="8"/>
       <c r="H780" s="6"/>
       <c r="I780" s="6"/>
-      <c r="J780" s="66"/>
+      <c r="J780" s="6"/>
       <c r="K780" s="6"/>
       <c r="L780" s="6"/>
       <c r="M780" s="6"/>
@@ -14856,7 +14868,7 @@
       <c r="G781" s="8"/>
       <c r="H781" s="6"/>
       <c r="I781" s="6"/>
-      <c r="J781" s="66"/>
+      <c r="J781" s="6"/>
       <c r="K781" s="6"/>
       <c r="L781" s="6"/>
       <c r="M781" s="6"/>
@@ -14873,7 +14885,7 @@
       <c r="G782" s="8"/>
       <c r="H782" s="6"/>
       <c r="I782" s="6"/>
-      <c r="J782" s="66"/>
+      <c r="J782" s="6"/>
       <c r="K782" s="6"/>
       <c r="L782" s="6"/>
       <c r="M782" s="6"/>
@@ -14890,7 +14902,7 @@
       <c r="G783" s="8"/>
       <c r="H783" s="6"/>
       <c r="I783" s="6"/>
-      <c r="J783" s="66"/>
+      <c r="J783" s="6"/>
       <c r="K783" s="6"/>
       <c r="L783" s="6"/>
       <c r="M783" s="6"/>
@@ -14907,7 +14919,7 @@
       <c r="G784" s="8"/>
       <c r="H784" s="6"/>
       <c r="I784" s="6"/>
-      <c r="J784" s="66"/>
+      <c r="J784" s="6"/>
       <c r="K784" s="6"/>
       <c r="L784" s="6"/>
       <c r="M784" s="6"/>
@@ -14924,7 +14936,7 @@
       <c r="G785" s="8"/>
       <c r="H785" s="6"/>
       <c r="I785" s="6"/>
-      <c r="J785" s="66"/>
+      <c r="J785" s="6"/>
       <c r="K785" s="6"/>
       <c r="L785" s="6"/>
       <c r="M785" s="6"/>
@@ -14941,7 +14953,7 @@
       <c r="G786" s="8"/>
       <c r="H786" s="6"/>
       <c r="I786" s="6"/>
-      <c r="J786" s="66"/>
+      <c r="J786" s="6"/>
       <c r="K786" s="6"/>
       <c r="L786" s="6"/>
       <c r="M786" s="6"/>
@@ -14958,7 +14970,7 @@
       <c r="G787" s="8"/>
       <c r="H787" s="6"/>
       <c r="I787" s="6"/>
-      <c r="J787" s="66"/>
+      <c r="J787" s="6"/>
       <c r="K787" s="6"/>
       <c r="L787" s="6"/>
       <c r="M787" s="6"/>
@@ -14975,7 +14987,7 @@
       <c r="G788" s="8"/>
       <c r="H788" s="6"/>
       <c r="I788" s="6"/>
-      <c r="J788" s="66"/>
+      <c r="J788" s="6"/>
       <c r="K788" s="6"/>
       <c r="L788" s="6"/>
       <c r="M788" s="6"/>
@@ -14992,7 +15004,7 @@
       <c r="G789" s="8"/>
       <c r="H789" s="6"/>
       <c r="I789" s="6"/>
-      <c r="J789" s="66"/>
+      <c r="J789" s="6"/>
       <c r="K789" s="6"/>
       <c r="L789" s="6"/>
       <c r="M789" s="6"/>
@@ -15009,7 +15021,7 @@
       <c r="G790" s="8"/>
       <c r="H790" s="6"/>
       <c r="I790" s="6"/>
-      <c r="J790" s="66"/>
+      <c r="J790" s="6"/>
       <c r="K790" s="6"/>
       <c r="L790" s="6"/>
       <c r="M790" s="6"/>
@@ -15026,7 +15038,7 @@
       <c r="G791" s="8"/>
       <c r="H791" s="6"/>
       <c r="I791" s="6"/>
-      <c r="J791" s="66"/>
+      <c r="J791" s="6"/>
       <c r="K791" s="6"/>
       <c r="L791" s="6"/>
       <c r="M791" s="6"/>
@@ -15043,7 +15055,7 @@
       <c r="G792" s="8"/>
       <c r="H792" s="6"/>
       <c r="I792" s="6"/>
-      <c r="J792" s="66"/>
+      <c r="J792" s="6"/>
       <c r="K792" s="6"/>
       <c r="L792" s="6"/>
       <c r="M792" s="6"/>
@@ -15060,7 +15072,7 @@
       <c r="G793" s="8"/>
       <c r="H793" s="6"/>
       <c r="I793" s="6"/>
-      <c r="J793" s="66"/>
+      <c r="J793" s="6"/>
       <c r="K793" s="6"/>
       <c r="L793" s="6"/>
       <c r="M793" s="6"/>
@@ -15077,7 +15089,7 @@
       <c r="G794" s="8"/>
       <c r="H794" s="6"/>
       <c r="I794" s="6"/>
-      <c r="J794" s="66"/>
+      <c r="J794" s="6"/>
       <c r="K794" s="6"/>
       <c r="L794" s="6"/>
       <c r="M794" s="6"/>
@@ -15094,7 +15106,7 @@
       <c r="G795" s="8"/>
       <c r="H795" s="6"/>
       <c r="I795" s="6"/>
-      <c r="J795" s="66"/>
+      <c r="J795" s="6"/>
       <c r="K795" s="6"/>
       <c r="L795" s="6"/>
       <c r="M795" s="6"/>
@@ -15111,7 +15123,7 @@
       <c r="G796" s="8"/>
       <c r="H796" s="6"/>
       <c r="I796" s="6"/>
-      <c r="J796" s="66"/>
+      <c r="J796" s="6"/>
       <c r="K796" s="6"/>
       <c r="L796" s="6"/>
       <c r="M796" s="6"/>
@@ -15128,7 +15140,7 @@
       <c r="G797" s="8"/>
       <c r="H797" s="6"/>
       <c r="I797" s="6"/>
-      <c r="J797" s="66"/>
+      <c r="J797" s="6"/>
       <c r="K797" s="6"/>
       <c r="L797" s="6"/>
       <c r="M797" s="6"/>
@@ -15145,7 +15157,7 @@
       <c r="G798" s="8"/>
       <c r="H798" s="6"/>
       <c r="I798" s="6"/>
-      <c r="J798" s="66"/>
+      <c r="J798" s="6"/>
       <c r="K798" s="6"/>
       <c r="L798" s="6"/>
       <c r="M798" s="6"/>
@@ -15162,7 +15174,7 @@
       <c r="G799" s="8"/>
       <c r="H799" s="6"/>
       <c r="I799" s="6"/>
-      <c r="J799" s="66"/>
+      <c r="J799" s="6"/>
       <c r="K799" s="6"/>
       <c r="L799" s="6"/>
       <c r="M799" s="6"/>
@@ -15179,7 +15191,7 @@
       <c r="G800" s="8"/>
       <c r="H800" s="6"/>
       <c r="I800" s="6"/>
-      <c r="J800" s="66"/>
+      <c r="J800" s="6"/>
       <c r="K800" s="6"/>
       <c r="L800" s="6"/>
       <c r="M800" s="6"/>
@@ -15196,7 +15208,7 @@
       <c r="G801" s="8"/>
       <c r="H801" s="6"/>
       <c r="I801" s="6"/>
-      <c r="J801" s="66"/>
+      <c r="J801" s="6"/>
       <c r="K801" s="6"/>
       <c r="L801" s="6"/>
       <c r="M801" s="6"/>
@@ -15213,7 +15225,7 @@
       <c r="G802" s="8"/>
       <c r="H802" s="6"/>
       <c r="I802" s="6"/>
-      <c r="J802" s="66"/>
+      <c r="J802" s="6"/>
       <c r="K802" s="6"/>
       <c r="L802" s="6"/>
       <c r="M802" s="6"/>
@@ -15230,7 +15242,7 @@
       <c r="G803" s="8"/>
       <c r="H803" s="6"/>
       <c r="I803" s="6"/>
-      <c r="J803" s="66"/>
+      <c r="J803" s="6"/>
       <c r="K803" s="6"/>
       <c r="L803" s="6"/>
       <c r="M803" s="6"/>
@@ -15247,7 +15259,7 @@
       <c r="G804" s="8"/>
       <c r="H804" s="6"/>
       <c r="I804" s="6"/>
-      <c r="J804" s="66"/>
+      <c r="J804" s="6"/>
       <c r="K804" s="6"/>
       <c r="L804" s="6"/>
       <c r="M804" s="6"/>
@@ -15264,7 +15276,7 @@
       <c r="G805" s="8"/>
       <c r="H805" s="6"/>
       <c r="I805" s="6"/>
-      <c r="J805" s="66"/>
+      <c r="J805" s="6"/>
       <c r="K805" s="6"/>
       <c r="L805" s="6"/>
       <c r="M805" s="6"/>
@@ -15281,7 +15293,7 @@
       <c r="G806" s="8"/>
       <c r="H806" s="6"/>
       <c r="I806" s="6"/>
-      <c r="J806" s="66"/>
+      <c r="J806" s="6"/>
       <c r="K806" s="6"/>
       <c r="L806" s="6"/>
       <c r="M806" s="6"/>
@@ -15298,7 +15310,7 @@
       <c r="G807" s="8"/>
       <c r="H807" s="6"/>
       <c r="I807" s="6"/>
-      <c r="J807" s="66"/>
+      <c r="J807" s="6"/>
       <c r="K807" s="6"/>
       <c r="L807" s="6"/>
       <c r="M807" s="6"/>
@@ -15315,7 +15327,7 @@
       <c r="G808" s="8"/>
       <c r="H808" s="6"/>
       <c r="I808" s="6"/>
-      <c r="J808" s="66"/>
+      <c r="J808" s="6"/>
       <c r="K808" s="6"/>
       <c r="L808" s="6"/>
       <c r="M808" s="6"/>
@@ -15332,7 +15344,7 @@
       <c r="G809" s="8"/>
       <c r="H809" s="6"/>
       <c r="I809" s="6"/>
-      <c r="J809" s="66"/>
+      <c r="J809" s="6"/>
       <c r="K809" s="6"/>
       <c r="L809" s="6"/>
       <c r="M809" s="6"/>
@@ -15349,7 +15361,7 @@
       <c r="G810" s="8"/>
       <c r="H810" s="6"/>
       <c r="I810" s="6"/>
-      <c r="J810" s="66"/>
+      <c r="J810" s="6"/>
       <c r="K810" s="6"/>
       <c r="L810" s="6"/>
       <c r="M810" s="6"/>
@@ -15366,7 +15378,7 @@
       <c r="G811" s="8"/>
       <c r="H811" s="6"/>
       <c r="I811" s="6"/>
-      <c r="J811" s="66"/>
+      <c r="J811" s="6"/>
       <c r="K811" s="6"/>
       <c r="L811" s="6"/>
       <c r="M811" s="6"/>
@@ -15383,7 +15395,7 @@
       <c r="G812" s="8"/>
       <c r="H812" s="6"/>
       <c r="I812" s="6"/>
-      <c r="J812" s="66"/>
+      <c r="J812" s="6"/>
       <c r="K812" s="6"/>
       <c r="L812" s="6"/>
       <c r="M812" s="6"/>
@@ -15400,7 +15412,7 @@
       <c r="G813" s="8"/>
       <c r="H813" s="6"/>
       <c r="I813" s="6"/>
-      <c r="J813" s="66"/>
+      <c r="J813" s="6"/>
       <c r="K813" s="6"/>
       <c r="L813" s="6"/>
       <c r="M813" s="6"/>
@@ -15417,7 +15429,7 @@
       <c r="G814" s="8"/>
       <c r="H814" s="6"/>
       <c r="I814" s="6"/>
-      <c r="J814" s="66"/>
+      <c r="J814" s="6"/>
       <c r="K814" s="6"/>
       <c r="L814" s="6"/>
       <c r="M814" s="6"/>
@@ -15434,7 +15446,7 @@
       <c r="G815" s="8"/>
       <c r="H815" s="6"/>
       <c r="I815" s="6"/>
-      <c r="J815" s="66"/>
+      <c r="J815" s="6"/>
       <c r="K815" s="6"/>
       <c r="L815" s="6"/>
       <c r="M815" s="6"/>
@@ -15451,7 +15463,7 @@
       <c r="G816" s="8"/>
       <c r="H816" s="6"/>
       <c r="I816" s="6"/>
-      <c r="J816" s="66"/>
+      <c r="J816" s="6"/>
       <c r="K816" s="6"/>
       <c r="L816" s="6"/>
       <c r="M816" s="6"/>
@@ -15468,7 +15480,7 @@
       <c r="G817" s="8"/>
       <c r="H817" s="6"/>
       <c r="I817" s="6"/>
-      <c r="J817" s="66"/>
+      <c r="J817" s="6"/>
       <c r="K817" s="6"/>
       <c r="L817" s="6"/>
       <c r="M817" s="6"/>
@@ -15485,7 +15497,7 @@
       <c r="G818" s="8"/>
       <c r="H818" s="6"/>
       <c r="I818" s="6"/>
-      <c r="J818" s="66"/>
+      <c r="J818" s="6"/>
       <c r="K818" s="6"/>
       <c r="L818" s="6"/>
       <c r="M818" s="6"/>
@@ -15502,7 +15514,7 @@
       <c r="G819" s="8"/>
       <c r="H819" s="6"/>
       <c r="I819" s="6"/>
-      <c r="J819" s="66"/>
+      <c r="J819" s="6"/>
       <c r="K819" s="6"/>
       <c r="L819" s="6"/>
       <c r="M819" s="6"/>
@@ -15519,7 +15531,7 @@
       <c r="G820" s="8"/>
       <c r="H820" s="6"/>
       <c r="I820" s="6"/>
-      <c r="J820" s="66"/>
+      <c r="J820" s="6"/>
       <c r="K820" s="6"/>
       <c r="L820" s="6"/>
       <c r="M820" s="6"/>
@@ -15536,7 +15548,7 @@
       <c r="G821" s="8"/>
       <c r="H821" s="6"/>
       <c r="I821" s="6"/>
-      <c r="J821" s="66"/>
+      <c r="J821" s="6"/>
       <c r="K821" s="6"/>
       <c r="L821" s="6"/>
       <c r="M821" s="6"/>
@@ -15553,7 +15565,7 @@
       <c r="G822" s="8"/>
       <c r="H822" s="6"/>
       <c r="I822" s="6"/>
-      <c r="J822" s="66"/>
+      <c r="J822" s="6"/>
       <c r="K822" s="6"/>
       <c r="L822" s="6"/>
       <c r="M822" s="6"/>
@@ -15570,7 +15582,7 @@
       <c r="G823" s="8"/>
       <c r="H823" s="6"/>
       <c r="I823" s="6"/>
-      <c r="J823" s="66"/>
+      <c r="J823" s="6"/>
       <c r="K823" s="6"/>
       <c r="L823" s="6"/>
       <c r="M823" s="6"/>
@@ -15587,7 +15599,7 @@
       <c r="G824" s="8"/>
       <c r="H824" s="6"/>
       <c r="I824" s="6"/>
-      <c r="J824" s="66"/>
+      <c r="J824" s="6"/>
       <c r="K824" s="6"/>
       <c r="L824" s="6"/>
       <c r="M824" s="6"/>
@@ -15604,7 +15616,7 @@
       <c r="G825" s="8"/>
       <c r="H825" s="6"/>
       <c r="I825" s="6"/>
-      <c r="J825" s="66"/>
+      <c r="J825" s="6"/>
       <c r="K825" s="6"/>
       <c r="L825" s="6"/>
       <c r="M825" s="6"/>
@@ -15621,7 +15633,7 @@
       <c r="G826" s="8"/>
       <c r="H826" s="6"/>
       <c r="I826" s="6"/>
-      <c r="J826" s="66"/>
+      <c r="J826" s="6"/>
       <c r="K826" s="6"/>
       <c r="L826" s="6"/>
       <c r="M826" s="6"/>
@@ -15638,7 +15650,7 @@
       <c r="G827" s="8"/>
       <c r="H827" s="6"/>
       <c r="I827" s="6"/>
-      <c r="J827" s="66"/>
+      <c r="J827" s="6"/>
       <c r="K827" s="6"/>
       <c r="L827" s="6"/>
       <c r="M827" s="6"/>
@@ -15655,7 +15667,7 @@
       <c r="G828" s="8"/>
       <c r="H828" s="6"/>
       <c r="I828" s="6"/>
-      <c r="J828" s="66"/>
+      <c r="J828" s="6"/>
       <c r="K828" s="6"/>
       <c r="L828" s="6"/>
       <c r="M828" s="6"/>
@@ -15672,7 +15684,7 @@
       <c r="G829" s="8"/>
       <c r="H829" s="6"/>
       <c r="I829" s="6"/>
-      <c r="J829" s="66"/>
+      <c r="J829" s="6"/>
       <c r="K829" s="6"/>
       <c r="L829" s="6"/>
       <c r="M829" s="6"/>
@@ -15689,7 +15701,7 @@
       <c r="G830" s="8"/>
       <c r="H830" s="6"/>
       <c r="I830" s="6"/>
-      <c r="J830" s="66"/>
+      <c r="J830" s="6"/>
       <c r="K830" s="6"/>
       <c r="L830" s="6"/>
       <c r="M830" s="6"/>
@@ -15706,7 +15718,7 @@
       <c r="G831" s="8"/>
       <c r="H831" s="6"/>
       <c r="I831" s="6"/>
-      <c r="J831" s="66"/>
+      <c r="J831" s="6"/>
       <c r="K831" s="6"/>
       <c r="L831" s="6"/>
       <c r="M831" s="6"/>
@@ -15723,7 +15735,7 @@
       <c r="G832" s="8"/>
       <c r="H832" s="6"/>
       <c r="I832" s="6"/>
-      <c r="J832" s="66"/>
+      <c r="J832" s="6"/>
       <c r="K832" s="6"/>
       <c r="L832" s="6"/>
       <c r="M832" s="6"/>
@@ -15740,7 +15752,7 @@
       <c r="G833" s="8"/>
       <c r="H833" s="6"/>
       <c r="I833" s="6"/>
-      <c r="J833" s="66"/>
+      <c r="J833" s="6"/>
       <c r="K833" s="6"/>
       <c r="L833" s="6"/>
       <c r="M833" s="6"/>
@@ -15757,7 +15769,7 @@
       <c r="G834" s="8"/>
       <c r="H834" s="6"/>
       <c r="I834" s="6"/>
-      <c r="J834" s="66"/>
+      <c r="J834" s="6"/>
       <c r="K834" s="6"/>
       <c r="L834" s="6"/>
       <c r="M834" s="6"/>
@@ -15774,7 +15786,7 @@
       <c r="G835" s="8"/>
       <c r="H835" s="6"/>
       <c r="I835" s="6"/>
-      <c r="J835" s="66"/>
+      <c r="J835" s="6"/>
       <c r="K835" s="6"/>
       <c r="L835" s="6"/>
       <c r="M835" s="6"/>
@@ -15791,7 +15803,7 @@
       <c r="G836" s="8"/>
       <c r="H836" s="6"/>
       <c r="I836" s="6"/>
-      <c r="J836" s="66"/>
+      <c r="J836" s="6"/>
       <c r="K836" s="6"/>
       <c r="L836" s="6"/>
       <c r="M836" s="6"/>
@@ -15808,7 +15820,7 @@
       <c r="G837" s="8"/>
       <c r="H837" s="6"/>
       <c r="I837" s="6"/>
-      <c r="J837" s="66"/>
+      <c r="J837" s="6"/>
       <c r="K837" s="6"/>
       <c r="L837" s="6"/>
       <c r="M837" s="6"/>
@@ -15825,7 +15837,7 @@
       <c r="G838" s="8"/>
       <c r="H838" s="6"/>
       <c r="I838" s="6"/>
-      <c r="J838" s="66"/>
+      <c r="J838" s="6"/>
       <c r="K838" s="6"/>
       <c r="L838" s="6"/>
       <c r="M838" s="6"/>
@@ -15842,7 +15854,7 @@
       <c r="G839" s="8"/>
       <c r="H839" s="6"/>
       <c r="I839" s="6"/>
-      <c r="J839" s="66"/>
+      <c r="J839" s="6"/>
       <c r="K839" s="6"/>
       <c r="L839" s="6"/>
       <c r="M839" s="6"/>
@@ -15859,7 +15871,7 @@
       <c r="G840" s="8"/>
       <c r="H840" s="6"/>
       <c r="I840" s="6"/>
-      <c r="J840" s="66"/>
+      <c r="J840" s="6"/>
       <c r="K840" s="6"/>
       <c r="L840" s="6"/>
       <c r="M840" s="6"/>
@@ -15876,7 +15888,7 @@
       <c r="G841" s="8"/>
       <c r="H841" s="6"/>
       <c r="I841" s="6"/>
-      <c r="J841" s="66"/>
+      <c r="J841" s="6"/>
       <c r="K841" s="6"/>
       <c r="L841" s="6"/>
       <c r="M841" s="6"/>
@@ -15893,7 +15905,7 @@
       <c r="G842" s="8"/>
       <c r="H842" s="6"/>
       <c r="I842" s="6"/>
-      <c r="J842" s="66"/>
+      <c r="J842" s="6"/>
       <c r="K842" s="6"/>
       <c r="L842" s="6"/>
       <c r="M842" s="6"/>
@@ -15910,7 +15922,7 @@
       <c r="G843" s="8"/>
       <c r="H843" s="6"/>
       <c r="I843" s="6"/>
-      <c r="J843" s="66"/>
+      <c r="J843" s="6"/>
       <c r="K843" s="6"/>
       <c r="L843" s="6"/>
       <c r="M843" s="6"/>
@@ -15927,7 +15939,7 @@
       <c r="G844" s="8"/>
       <c r="H844" s="6"/>
       <c r="I844" s="6"/>
-      <c r="J844" s="66"/>
+      <c r="J844" s="6"/>
       <c r="K844" s="6"/>
       <c r="L844" s="6"/>
       <c r="M844" s="6"/>
@@ -15944,7 +15956,7 @@
       <c r="G845" s="8"/>
       <c r="H845" s="6"/>
       <c r="I845" s="6"/>
-      <c r="J845" s="66"/>
+      <c r="J845" s="6"/>
       <c r="K845" s="6"/>
       <c r="L845" s="6"/>
       <c r="M845" s="6"/>
@@ -15961,7 +15973,7 @@
       <c r="G846" s="8"/>
       <c r="H846" s="6"/>
       <c r="I846" s="6"/>
-      <c r="J846" s="66"/>
+      <c r="J846" s="6"/>
       <c r="K846" s="6"/>
       <c r="L846" s="6"/>
       <c r="M846" s="6"/>
@@ -15978,7 +15990,7 @@
       <c r="G847" s="8"/>
       <c r="H847" s="6"/>
       <c r="I847" s="6"/>
-      <c r="J847" s="66"/>
+      <c r="J847" s="6"/>
       <c r="K847" s="6"/>
       <c r="L847" s="6"/>
       <c r="M847" s="6"/>
@@ -15995,7 +16007,7 @@
       <c r="G848" s="8"/>
       <c r="H848" s="6"/>
       <c r="I848" s="6"/>
-      <c r="J848" s="66"/>
+      <c r="J848" s="6"/>
       <c r="K848" s="6"/>
       <c r="L848" s="6"/>
       <c r="M848" s="6"/>
@@ -16012,7 +16024,7 @@
       <c r="G849" s="8"/>
       <c r="H849" s="6"/>
       <c r="I849" s="6"/>
-      <c r="J849" s="66"/>
+      <c r="J849" s="6"/>
       <c r="K849" s="6"/>
       <c r="L849" s="6"/>
       <c r="M849" s="6"/>
@@ -16029,7 +16041,7 @@
       <c r="G850" s="8"/>
       <c r="H850" s="6"/>
       <c r="I850" s="6"/>
-      <c r="J850" s="66"/>
+      <c r="J850" s="6"/>
       <c r="K850" s="6"/>
       <c r="L850" s="6"/>
       <c r="M850" s="6"/>
@@ -16046,7 +16058,7 @@
       <c r="G851" s="8"/>
       <c r="H851" s="6"/>
       <c r="I851" s="6"/>
-      <c r="J851" s="66"/>
+      <c r="J851" s="6"/>
       <c r="K851" s="6"/>
       <c r="L851" s="6"/>
       <c r="M851" s="6"/>
@@ -16063,7 +16075,7 @@
       <c r="G852" s="8"/>
       <c r="H852" s="6"/>
       <c r="I852" s="6"/>
-      <c r="J852" s="66"/>
+      <c r="J852" s="6"/>
       <c r="K852" s="6"/>
       <c r="L852" s="6"/>
       <c r="M852" s="6"/>
@@ -16080,7 +16092,7 @@
       <c r="G853" s="8"/>
       <c r="H853" s="6"/>
       <c r="I853" s="6"/>
-      <c r="J853" s="66"/>
+      <c r="J853" s="6"/>
       <c r="K853" s="6"/>
       <c r="L853" s="6"/>
       <c r="M853" s="6"/>
@@ -16097,7 +16109,7 @@
       <c r="G854" s="8"/>
       <c r="H854" s="6"/>
       <c r="I854" s="6"/>
-      <c r="J854" s="66"/>
+      <c r="J854" s="6"/>
       <c r="K854" s="6"/>
       <c r="L854" s="6"/>
       <c r="M854" s="6"/>
@@ -16114,7 +16126,7 @@
       <c r="G855" s="8"/>
       <c r="H855" s="6"/>
       <c r="I855" s="6"/>
-      <c r="J855" s="66"/>
+      <c r="J855" s="6"/>
       <c r="K855" s="6"/>
       <c r="L855" s="6"/>
       <c r="M855" s="6"/>
@@ -16131,7 +16143,7 @@
       <c r="G856" s="8"/>
       <c r="H856" s="6"/>
       <c r="I856" s="6"/>
-      <c r="J856" s="66"/>
+      <c r="J856" s="6"/>
       <c r="K856" s="6"/>
       <c r="L856" s="6"/>
       <c r="M856" s="6"/>
@@ -16148,7 +16160,7 @@
       <c r="G857" s="8"/>
       <c r="H857" s="6"/>
       <c r="I857" s="6"/>
-      <c r="J857" s="66"/>
+      <c r="J857" s="6"/>
       <c r="K857" s="6"/>
       <c r="L857" s="6"/>
       <c r="M857" s="6"/>
@@ -16165,7 +16177,7 @@
       <c r="G858" s="8"/>
       <c r="H858" s="6"/>
       <c r="I858" s="6"/>
-      <c r="J858" s="66"/>
+      <c r="J858" s="6"/>
       <c r="K858" s="6"/>
       <c r="L858" s="6"/>
       <c r="M858" s="6"/>
@@ -16182,7 +16194,7 @@
       <c r="G859" s="8"/>
       <c r="H859" s="6"/>
       <c r="I859" s="6"/>
-      <c r="J859" s="66"/>
+      <c r="J859" s="6"/>
       <c r="K859" s="6"/>
       <c r="L859" s="6"/>
       <c r="M859" s="6"/>
@@ -16199,7 +16211,7 @@
       <c r="G860" s="8"/>
       <c r="H860" s="6"/>
       <c r="I860" s="6"/>
-      <c r="J860" s="66"/>
+      <c r="J860" s="6"/>
       <c r="K860" s="6"/>
       <c r="L860" s="6"/>
       <c r="M860" s="6"/>
@@ -16216,7 +16228,7 @@
       <c r="G861" s="8"/>
       <c r="H861" s="6"/>
       <c r="I861" s="6"/>
-      <c r="J861" s="66"/>
+      <c r="J861" s="6"/>
       <c r="K861" s="6"/>
       <c r="L861" s="6"/>
       <c r="M861" s="6"/>
@@ -16233,7 +16245,7 @@
       <c r="G862" s="8"/>
       <c r="H862" s="6"/>
       <c r="I862" s="6"/>
-      <c r="J862" s="66"/>
+      <c r="J862" s="6"/>
       <c r="K862" s="6"/>
       <c r="L862" s="6"/>
       <c r="M862" s="6"/>
@@ -16250,7 +16262,7 @@
       <c r="G863" s="8"/>
       <c r="H863" s="6"/>
       <c r="I863" s="6"/>
-      <c r="J863" s="66"/>
+      <c r="J863" s="6"/>
       <c r="K863" s="6"/>
       <c r="L863" s="6"/>
       <c r="M863" s="6"/>
@@ -16267,7 +16279,7 @@
       <c r="G864" s="8"/>
       <c r="H864" s="6"/>
       <c r="I864" s="6"/>
-      <c r="J864" s="66"/>
+      <c r="J864" s="6"/>
       <c r="K864" s="6"/>
       <c r="L864" s="6"/>
       <c r="M864" s="6"/>
@@ -16284,7 +16296,7 @@
       <c r="G865" s="8"/>
       <c r="H865" s="6"/>
       <c r="I865" s="6"/>
-      <c r="J865" s="66"/>
+      <c r="J865" s="6"/>
       <c r="K865" s="6"/>
       <c r="L865" s="6"/>
       <c r="M865" s="6"/>
@@ -16301,7 +16313,7 @@
       <c r="G866" s="8"/>
       <c r="H866" s="6"/>
       <c r="I866" s="6"/>
-      <c r="J866" s="66"/>
+      <c r="J866" s="6"/>
       <c r="K866" s="6"/>
       <c r="L866" s="6"/>
       <c r="M866" s="6"/>
@@ -16318,7 +16330,7 @@
       <c r="G867" s="8"/>
       <c r="H867" s="6"/>
       <c r="I867" s="6"/>
-      <c r="J867" s="66"/>
+      <c r="J867" s="6"/>
       <c r="K867" s="6"/>
       <c r="L867" s="6"/>
       <c r="M867" s="6"/>
@@ -16335,7 +16347,7 @@
       <c r="G868" s="8"/>
       <c r="H868" s="6"/>
       <c r="I868" s="6"/>
-      <c r="J868" s="66"/>
+      <c r="J868" s="6"/>
       <c r="K868" s="6"/>
       <c r="L868" s="6"/>
       <c r="M868" s="6"/>
@@ -16352,7 +16364,7 @@
       <c r="G869" s="8"/>
       <c r="H869" s="6"/>
       <c r="I869" s="6"/>
-      <c r="J869" s="66"/>
+      <c r="J869" s="6"/>
       <c r="K869" s="6"/>
       <c r="L869" s="6"/>
       <c r="M869" s="6"/>
@@ -16369,7 +16381,7 @@
       <c r="G870" s="8"/>
       <c r="H870" s="6"/>
       <c r="I870" s="6"/>
-      <c r="J870" s="66"/>
+      <c r="J870" s="6"/>
       <c r="K870" s="6"/>
       <c r="L870" s="6"/>
       <c r="M870" s="6"/>
@@ -16386,7 +16398,7 @@
       <c r="G871" s="8"/>
       <c r="H871" s="6"/>
       <c r="I871" s="6"/>
-      <c r="J871" s="66"/>
+      <c r="J871" s="6"/>
       <c r="K871" s="6"/>
       <c r="L871" s="6"/>
       <c r="M871" s="6"/>
@@ -16403,7 +16415,7 @@
       <c r="G872" s="8"/>
       <c r="H872" s="6"/>
       <c r="I872" s="6"/>
-      <c r="J872" s="66"/>
+      <c r="J872" s="6"/>
       <c r="K872" s="6"/>
       <c r="L872" s="6"/>
       <c r="M872" s="6"/>
@@ -16420,7 +16432,7 @@
       <c r="G873" s="8"/>
       <c r="H873" s="6"/>
       <c r="I873" s="6"/>
-      <c r="J873" s="66"/>
+      <c r="J873" s="6"/>
       <c r="K873" s="6"/>
       <c r="L873" s="6"/>
       <c r="M873" s="6"/>
@@ -16437,7 +16449,7 @@
       <c r="G874" s="8"/>
       <c r="H874" s="6"/>
       <c r="I874" s="6"/>
-      <c r="J874" s="66"/>
+      <c r="J874" s="6"/>
       <c r="K874" s="6"/>
       <c r="L874" s="6"/>
       <c r="M874" s="6"/>
@@ -16454,7 +16466,7 @@
       <c r="G875" s="8"/>
       <c r="H875" s="6"/>
       <c r="I875" s="6"/>
-      <c r="J875" s="66"/>
+      <c r="J875" s="6"/>
       <c r="K875" s="6"/>
       <c r="L875" s="6"/>
       <c r="M875" s="6"/>
@@ -16471,7 +16483,7 @@
       <c r="G876" s="8"/>
       <c r="H876" s="6"/>
       <c r="I876" s="6"/>
-      <c r="J876" s="66"/>
+      <c r="J876" s="6"/>
       <c r="K876" s="6"/>
       <c r="L876" s="6"/>
       <c r="M876" s="6"/>
@@ -16488,7 +16500,7 @@
       <c r="G877" s="8"/>
       <c r="H877" s="6"/>
       <c r="I877" s="6"/>
-      <c r="J877" s="66"/>
+      <c r="J877" s="6"/>
       <c r="K877" s="6"/>
       <c r="L877" s="6"/>
       <c r="M877" s="6"/>
@@ -16505,7 +16517,7 @@
       <c r="G878" s="8"/>
       <c r="H878" s="6"/>
       <c r="I878" s="6"/>
-      <c r="J878" s="66"/>
+      <c r="J878" s="6"/>
       <c r="K878" s="6"/>
       <c r="L878" s="6"/>
       <c r="M878" s="6"/>
@@ -16522,7 +16534,7 @@
       <c r="G879" s="8"/>
       <c r="H879" s="6"/>
       <c r="I879" s="6"/>
-      <c r="J879" s="66"/>
+      <c r="J879" s="6"/>
       <c r="K879" s="6"/>
       <c r="L879" s="6"/>
       <c r="M879" s="6"/>
@@ -16539,7 +16551,7 @@
       <c r="G880" s="8"/>
       <c r="H880" s="6"/>
       <c r="I880" s="6"/>
-      <c r="J880" s="66"/>
+      <c r="J880" s="6"/>
       <c r="K880" s="6"/>
       <c r="L880" s="6"/>
       <c r="M880" s="6"/>
@@ -16556,7 +16568,7 @@
       <c r="G881" s="8"/>
       <c r="H881" s="6"/>
       <c r="I881" s="6"/>
-      <c r="J881" s="66"/>
+      <c r="J881" s="6"/>
       <c r="K881" s="6"/>
       <c r="L881" s="6"/>
       <c r="M881" s="6"/>
@@ -16573,7 +16585,7 @@
       <c r="G882" s="8"/>
       <c r="H882" s="6"/>
       <c r="I882" s="6"/>
-      <c r="J882" s="66"/>
+      <c r="J882" s="6"/>
       <c r="K882" s="6"/>
       <c r="L882" s="6"/>
       <c r="M882" s="6"/>
@@ -16590,7 +16602,7 @@
       <c r="G883" s="8"/>
       <c r="H883" s="6"/>
       <c r="I883" s="6"/>
-      <c r="J883" s="66"/>
+      <c r="J883" s="6"/>
       <c r="K883" s="6"/>
       <c r="L883" s="6"/>
       <c r="M883" s="6"/>
@@ -16607,7 +16619,7 @@
       <c r="G884" s="8"/>
       <c r="H884" s="6"/>
       <c r="I884" s="6"/>
-      <c r="J884" s="66"/>
+      <c r="J884" s="6"/>
       <c r="K884" s="6"/>
       <c r="L884" s="6"/>
       <c r="M884" s="6"/>
@@ -16624,7 +16636,7 @@
       <c r="G885" s="8"/>
       <c r="H885" s="6"/>
       <c r="I885" s="6"/>
-      <c r="J885" s="66"/>
+      <c r="J885" s="6"/>
       <c r="K885" s="6"/>
       <c r="L885" s="6"/>
       <c r="M885" s="6"/>
@@ -16641,7 +16653,7 @@
       <c r="G886" s="8"/>
       <c r="H886" s="6"/>
       <c r="I886" s="6"/>
-      <c r="J886" s="66"/>
+      <c r="J886" s="6"/>
       <c r="K886" s="6"/>
       <c r="L886" s="6"/>
       <c r="M886" s="6"/>
@@ -16658,7 +16670,7 @@
       <c r="G887" s="8"/>
       <c r="H887" s="6"/>
       <c r="I887" s="6"/>
-      <c r="J887" s="66"/>
+      <c r="J887" s="6"/>
       <c r="K887" s="6"/>
       <c r="L887" s="6"/>
       <c r="M887" s="6"/>
@@ -16675,7 +16687,7 @@
       <c r="G888" s="8"/>
       <c r="H888" s="6"/>
       <c r="I888" s="6"/>
-      <c r="J888" s="66"/>
+      <c r="J888" s="6"/>
       <c r="K888" s="6"/>
       <c r="L888" s="6"/>
       <c r="M888" s="6"/>
@@ -16692,7 +16704,7 @@
       <c r="G889" s="8"/>
       <c r="H889" s="6"/>
       <c r="I889" s="6"/>
-      <c r="J889" s="66"/>
+      <c r="J889" s="6"/>
       <c r="K889" s="6"/>
       <c r="L889" s="6"/>
       <c r="M889" s="6"/>
@@ -16709,7 +16721,7 @@
       <c r="G890" s="8"/>
       <c r="H890" s="6"/>
       <c r="I890" s="6"/>
-      <c r="J890" s="66"/>
+      <c r="J890" s="6"/>
       <c r="K890" s="6"/>
       <c r="L890" s="6"/>
       <c r="M890" s="6"/>
@@ -16726,7 +16738,7 @@
       <c r="G891" s="8"/>
       <c r="H891" s="6"/>
       <c r="I891" s="6"/>
-      <c r="J891" s="66"/>
+      <c r="J891" s="6"/>
       <c r="K891" s="6"/>
       <c r="L891" s="6"/>
       <c r="M891" s="6"/>
@@ -16743,7 +16755,7 @@
       <c r="G892" s="8"/>
       <c r="H892" s="6"/>
       <c r="I892" s="6"/>
-      <c r="J892" s="66"/>
+      <c r="J892" s="6"/>
       <c r="K892" s="6"/>
       <c r="L892" s="6"/>
       <c r="M892" s="6"/>
@@ -16760,7 +16772,7 @@
       <c r="G893" s="8"/>
       <c r="H893" s="6"/>
       <c r="I893" s="6"/>
-      <c r="J893" s="66"/>
+      <c r="J893" s="6"/>
       <c r="K893" s="6"/>
       <c r="L893" s="6"/>
       <c r="M893" s="6"/>
@@ -16777,7 +16789,7 @@
       <c r="G894" s="8"/>
       <c r="H894" s="6"/>
       <c r="I894" s="6"/>
-      <c r="J894" s="66"/>
+      <c r="J894" s="6"/>
       <c r="K894" s="6"/>
       <c r="L894" s="6"/>
       <c r="M894" s="6"/>
@@ -16794,7 +16806,7 @@
       <c r="G895" s="8"/>
       <c r="H895" s="6"/>
       <c r="I895" s="6"/>
-      <c r="J895" s="66"/>
+      <c r="J895" s="6"/>
       <c r="K895" s="6"/>
       <c r="L895" s="6"/>
       <c r="M895" s="6"/>
@@ -16811,7 +16823,7 @@
       <c r="G896" s="8"/>
       <c r="H896" s="6"/>
       <c r="I896" s="6"/>
-      <c r="J896" s="66"/>
+      <c r="J896" s="6"/>
       <c r="K896" s="6"/>
       <c r="L896" s="6"/>
       <c r="M896" s="6"/>
@@ -16828,7 +16840,7 @@
       <c r="G897" s="8"/>
       <c r="H897" s="6"/>
       <c r="I897" s="6"/>
-      <c r="J897" s="66"/>
+      <c r="J897" s="6"/>
       <c r="K897" s="6"/>
       <c r="L897" s="6"/>
       <c r="M897" s="6"/>
@@ -16845,7 +16857,7 @@
       <c r="G898" s="8"/>
       <c r="H898" s="6"/>
       <c r="I898" s="6"/>
-      <c r="J898" s="66"/>
+      <c r="J898" s="6"/>
       <c r="K898" s="6"/>
       <c r="L898" s="6"/>
       <c r="M898" s="6"/>
@@ -16862,7 +16874,7 @@
       <c r="G899" s="8"/>
       <c r="H899" s="6"/>
       <c r="I899" s="6"/>
-      <c r="J899" s="66"/>
+      <c r="J899" s="6"/>
       <c r="K899" s="6"/>
       <c r="L899" s="6"/>
       <c r="M899" s="6"/>
@@ -16882,12 +16894,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="9">
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
-          <x14:formula1>
-            <xm:f>'Lista desplegable'!$B$2:$B$28</xm:f>
-          </x14:formula1>
-          <xm:sqref>E6:E205</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{552F42E4-D33E-4316-9728-C5CC868C8155}">
           <x14:formula1>
             <xm:f>'Lista desplegable'!$C$2:$C$5</xm:f>
@@ -16936,6 +16942,12 @@
           </x14:formula1>
           <xm:sqref>J6:J205</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{95CA0C82-AAD2-46BE-9368-E5A4E9443D01}">
+          <x14:formula1>
+            <xm:f>'Lista desplegable'!$B$2:$B$31</xm:f>
+          </x14:formula1>
+          <xm:sqref>E6:E205</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -16947,7 +16959,7 @@
   <dimension ref="B1:J999"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E7"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -16975,13 +16987,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="F1" s="25" t="s">
         <v>52</v>
-      </c>
-      <c r="F1" s="25" t="s">
-        <v>53</v>
       </c>
       <c r="G1" s="41" t="s">
         <v>40</v>
@@ -16990,10 +17002,10 @@
         <v>41</v>
       </c>
       <c r="I1" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="26" t="s">
         <v>47</v>
-      </c>
-      <c r="J1" s="26" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17001,28 +17013,28 @@
         <v>6</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E2" s="55" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G2" s="43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H2" s="44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I2" s="28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J2" s="28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17036,7 +17048,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F3" s="28">
         <v>0.1</v>
@@ -17065,7 +17077,7 @@
         <v>8</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F4" s="28">
         <v>0.5</v>
@@ -17094,7 +17106,7 @@
         <v>16</v>
       </c>
       <c r="E5" s="39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F5" s="28">
         <v>1</v>
@@ -17114,7 +17126,7 @@
         <v>10</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F6" s="28">
         <v>1.5</v>
@@ -17131,7 +17143,7 @@
         <v>11</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F7" s="28">
         <v>2</v>
@@ -17159,7 +17171,7 @@
       </c>
     </row>
     <row r="9" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="64" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="28">
@@ -17173,7 +17185,7 @@
       </c>
     </row>
     <row r="10" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="65" t="s">
         <v>13</v>
       </c>
       <c r="F10" s="28">
@@ -17184,8 +17196,8 @@
       </c>
     </row>
     <row r="11" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="9" t="s">
-        <v>14</v>
+      <c r="B11" s="27" t="s">
+        <v>64</v>
       </c>
       <c r="F11" s="28">
         <v>4</v>
@@ -17195,8 +17207,8 @@
       </c>
     </row>
     <row r="12" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="9" t="s">
-        <v>15</v>
+      <c r="B12" s="65" t="s">
+        <v>14</v>
       </c>
       <c r="F12" s="28">
         <v>6</v>
@@ -17204,137 +17216,143 @@
       <c r="G12" s="50"/>
     </row>
     <row r="13" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="9" t="s">
-        <v>16</v>
+      <c r="B13" s="27" t="s">
+        <v>65</v>
       </c>
       <c r="F13" s="28">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="9" t="s">
-        <v>17</v>
+      <c r="B14" s="27" t="s">
+        <v>66</v>
       </c>
       <c r="F14" s="28">
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="9" t="s">
-        <v>18</v>
+      <c r="B15" s="65" t="s">
+        <v>15</v>
       </c>
       <c r="F15" s="28">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="9" t="s">
-        <v>19</v>
+      <c r="B16" s="65" t="s">
+        <v>16</v>
       </c>
       <c r="F16" s="28">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="9" t="s">
-        <v>20</v>
+      <c r="B17" s="65" t="s">
+        <v>17</v>
       </c>
       <c r="F17" s="28">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="9" t="s">
-        <v>21</v>
+      <c r="B18" s="65" t="s">
+        <v>18</v>
       </c>
       <c r="F18" s="28">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="9" t="s">
-        <v>22</v>
+      <c r="B19" s="65" t="s">
+        <v>19</v>
       </c>
       <c r="F19" s="28">
         <v>33</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="9" t="s">
-        <v>23</v>
+      <c r="B20" s="65" t="s">
+        <v>20</v>
       </c>
       <c r="F20" s="28">
         <v>35</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="9" t="s">
-        <v>24</v>
+      <c r="B21" s="65" t="s">
+        <v>21</v>
       </c>
       <c r="G21" s="50"/>
       <c r="H21" s="53"/>
     </row>
     <row r="22" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="9" t="s">
-        <v>25</v>
+      <c r="B22" s="65" t="s">
+        <v>22</v>
       </c>
       <c r="G22" s="50"/>
       <c r="H22" s="53"/>
     </row>
     <row r="23" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G23" s="50"/>
       <c r="H23" s="53"/>
     </row>
     <row r="24" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G24" s="50"/>
       <c r="H24" s="53"/>
     </row>
     <row r="25" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G25" s="50"/>
       <c r="H25" s="53"/>
     </row>
     <row r="26" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G26" s="50"/>
       <c r="H26" s="53"/>
     </row>
     <row r="27" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G27" s="50"/>
       <c r="H27" s="53"/>
     </row>
     <row r="28" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G28" s="50"/>
       <c r="H28" s="53"/>
     </row>
     <row r="29" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="2"/>
+      <c r="B29" s="9" t="s">
+        <v>29</v>
+      </c>
       <c r="G29" s="50"/>
       <c r="H29" s="53"/>
     </row>
     <row r="30" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="2"/>
+      <c r="B30" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="G30" s="50"/>
       <c r="H30" s="53"/>
     </row>
     <row r="31" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="2"/>
+      <c r="B31" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="G31" s="50"/>
       <c r="H31" s="53"/>
     </row>
@@ -20218,33 +20236,15 @@
     <row r="990" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B990" s="2"/>
     </row>
-    <row r="991" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B991" s="2"/>
-    </row>
-    <row r="992" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B992" s="2"/>
-    </row>
-    <row r="993" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B993" s="2"/>
-    </row>
-    <row r="994" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B994" s="2"/>
-    </row>
-    <row r="995" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B995" s="2"/>
-    </row>
-    <row r="996" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B996" s="2"/>
-    </row>
-    <row r="997" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B997" s="2"/>
-    </row>
-    <row r="998" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B998" s="2"/>
-    </row>
-    <row r="999" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B999" s="2"/>
-    </row>
+    <row r="991" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/public/DownloadExcels/Materias_Primas.xlsx
+++ b/public/DownloadExcels/Materias_Primas.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Mario\Desktop\Ecopcion Desarrollo\ecopFront-Desarrollo\public\DownloadExcels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B972856-956A-46CF-A751-832C0835E4C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B217CA6C-3066-4A1A-AA37-BEAAA523EF1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INVENTARIO DE MATERIAS PRIMAS" sheetId="1" r:id="rId1"/>
-    <sheet name="Lista desplegable" sheetId="2" r:id="rId2"/>
+    <sheet name="INSTRUCCIONES" sheetId="3" r:id="rId2"/>
+    <sheet name="Lista desplegable" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="68">
   <si>
     <t>INVENTARIO DE MATERIAS PRIMAS / INSUMOS</t>
   </si>
@@ -357,6 +358,9 @@
   </si>
   <si>
     <t>Frasco</t>
+  </si>
+  <si>
+    <t>Botella</t>
   </si>
 </sst>
 </file>
@@ -805,6 +809,12 @@
     <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -819,12 +829,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1095,7 +1099,7 @@
   <dimension ref="A1:AA899"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1111,61 +1115,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
     </row>
     <row r="2" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
     </row>
     <row r="3" spans="1:27" ht="322.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="63"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
     </row>
     <row r="4" spans="1:27" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17"/>
@@ -16944,7 +16948,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{95CA0C82-AAD2-46BE-9368-E5A4E9443D01}">
           <x14:formula1>
-            <xm:f>'Lista desplegable'!$B$2:$B$31</xm:f>
+            <xm:f>'Lista desplegable'!$B$2:$B$32</xm:f>
           </x14:formula1>
           <xm:sqref>E6:E205</xm:sqref>
         </x14:dataValidation>
@@ -16955,11 +16959,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F778330C-B888-4E1F-9D51-6576E83C0DAD}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:J999"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17171,7 +17187,7 @@
       </c>
     </row>
     <row r="9" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="64" t="s">
+      <c r="B9" s="59" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="28">
@@ -17185,7 +17201,7 @@
       </c>
     </row>
     <row r="10" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="65" t="s">
+      <c r="B10" s="60" t="s">
         <v>13</v>
       </c>
       <c r="F10" s="28">
@@ -17207,8 +17223,8 @@
       </c>
     </row>
     <row r="12" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="65" t="s">
-        <v>14</v>
+      <c r="B12" s="27" t="s">
+        <v>67</v>
       </c>
       <c r="F12" s="28">
         <v>6</v>
@@ -17216,8 +17232,8 @@
       <c r="G12" s="50"/>
     </row>
     <row r="13" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="27" t="s">
-        <v>65</v>
+      <c r="B13" s="60" t="s">
+        <v>14</v>
       </c>
       <c r="F13" s="28">
         <v>7</v>
@@ -17225,139 +17241,141 @@
     </row>
     <row r="14" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F14" s="28">
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="65" t="s">
-        <v>15</v>
+      <c r="B15" s="27" t="s">
+        <v>66</v>
       </c>
       <c r="F15" s="28">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="65" t="s">
-        <v>16</v>
+      <c r="B16" s="60" t="s">
+        <v>15</v>
       </c>
       <c r="F16" s="28">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="65" t="s">
-        <v>17</v>
+      <c r="B17" s="60" t="s">
+        <v>16</v>
       </c>
       <c r="F17" s="28">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="65" t="s">
-        <v>18</v>
+      <c r="B18" s="60" t="s">
+        <v>17</v>
       </c>
       <c r="F18" s="28">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="65" t="s">
-        <v>19</v>
+      <c r="B19" s="60" t="s">
+        <v>18</v>
       </c>
       <c r="F19" s="28">
         <v>33</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="65" t="s">
-        <v>20</v>
+      <c r="B20" s="60" t="s">
+        <v>19</v>
       </c>
       <c r="F20" s="28">
         <v>35</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="65" t="s">
-        <v>21</v>
+      <c r="B21" s="60" t="s">
+        <v>20</v>
       </c>
       <c r="G21" s="50"/>
       <c r="H21" s="53"/>
     </row>
     <row r="22" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="65" t="s">
-        <v>22</v>
+      <c r="B22" s="60" t="s">
+        <v>21</v>
       </c>
       <c r="G22" s="50"/>
       <c r="H22" s="53"/>
     </row>
     <row r="23" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="9" t="s">
-        <v>23</v>
+      <c r="B23" s="60" t="s">
+        <v>22</v>
       </c>
       <c r="G23" s="50"/>
       <c r="H23" s="53"/>
     </row>
     <row r="24" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G24" s="50"/>
       <c r="H24" s="53"/>
     </row>
     <row r="25" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G25" s="50"/>
       <c r="H25" s="53"/>
     </row>
     <row r="26" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G26" s="50"/>
       <c r="H26" s="53"/>
     </row>
     <row r="27" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G27" s="50"/>
       <c r="H27" s="53"/>
     </row>
     <row r="28" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G28" s="50"/>
       <c r="H28" s="53"/>
     </row>
     <row r="29" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G29" s="50"/>
       <c r="H29" s="53"/>
     </row>
     <row r="30" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G30" s="50"/>
       <c r="H30" s="53"/>
     </row>
     <row r="31" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G31" s="50"/>
       <c r="H31" s="53"/>
     </row>
     <row r="32" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="2"/>
+      <c r="B32" s="9" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="33" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>

--- a/public/DownloadExcels/Materias_Primas.xlsx
+++ b/public/DownloadExcels/Materias_Primas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Mario\Desktop\Ecopcion Desarrollo\ecopFront-Desarrollo\public\DownloadExcels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B217CA6C-3066-4A1A-AA37-BEAAA523EF1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2627D131-7353-4C9A-9959-EB2BFAD3B52C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INVENTARIO DE MATERIAS PRIMAS" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="85">
   <si>
     <t>INVENTARIO DE MATERIAS PRIMAS / INSUMOS</t>
   </si>
@@ -238,119 +238,6 @@
     <t>Precio de unitario de compra antes de impuestos</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nunito Sans"/>
-      </rPr>
-      <t xml:space="preserve">1. LAS COLUMNAS EN VERDE SON OBLIGATORIAS. DEBES DILIGENCIAR TODAS LAS COLUMNAS VERDES EN UN 100% PARA QUE PUEDAS HACER LA CARGA MASIVA DEL INVENTARIO EN EL SOFTWARE DE ECOPCIÓN. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nunito Sans"/>
-      </rPr>
-      <t xml:space="preserve">
-2. Escribe el nombre de la materia prima </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nunito Sans"/>
-      </rPr>
-      <t>SIEMPRE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nunito Sans"/>
-      </rPr>
-      <t xml:space="preserve"> empezando con letra mayúscula. Las demás letras deben ir en minúscula. 
-3. Si el nombre de la materia prima tiene dos o más palabras,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nunito Sans"/>
-      </rPr>
-      <t xml:space="preserve"> SOLO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nunito Sans"/>
-      </rPr>
-      <t xml:space="preserve"> debes poner en mayúscula la primera letra de la primera palabra.
-4</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nunito Sans"/>
-      </rPr>
-      <t xml:space="preserve">. OBLIGATORIO: En la columna B, escribe la MATERIA PRIMA incluyendo NOMBRE + REFERENCIA O CARACTERÍSTICA QUE LO IDENTIFIQUE. EJ: Celular Samsung J40; Arroz Integral; Leche en Polvo.  Cada mercancia se registra UNA (1) SOLA VEZ. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nunito Sans"/>
-      </rPr>
-      <t xml:space="preserve">
-5</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nunito Sans"/>
-      </rPr>
-      <t>. OBLIGATORIO: En la columna C, ESCRIBE EL INVENTARIO EN NÚMEROS. 
-6. OBLIGATORIO: En la columna D, ELIJE DE LA LISTA DESPLEGABLE, LA UNIDAD DE MEDIDA EN LA QUE REGISTRAS EL INVENTARIO DE TU MATERIA PRIMA. 
-7. OBLIGATORIO: En la columna E, ESCRIBE EN NÚMEROS EL PRECIO DE COMPRA SIN IVA DE TU MATERIA PRIMA. 
-8. OBLIGATORIO: En la columna F, ELIGE DE LA LISTA DESPLEGABLE, EL PORCENTAJE DEL IVA APLICABLE A TU MATERIA PRIMA. 
-9. OBLIGATORIO: En la columna G, ELIGE DE LA LISTA DESPLEGABLE, EL PORCENTAJE DEL IMPUESTO AL CONSUMO APLICABLE A TU MATERIA PRIMA.
-10.  OBLIGATORIO: En la columna H, ELIGE DE LA LISTA DESPLEGABLE, EL TIPO DE RETENCIÓN EN LA FUENTE APLICABLE A TU MATERIA PRIMA.
-10.  OBLIGATORIO: En la columna I, ELIGE DE LA LISTA DESPLEGABLE, EL TIPO DE RETENCIÓN DE IVA APLICABLE A TU MATERIA PRIMA.
-10.  OBLIGATORIO: En la columna J, ELIGE DE LA LISTA DESPLEGABLE, EL TIPO DE RETENCIÓN DE ICA APLICABLE A TU MATERIA PRIMA. 
-11. OBLIGATORIO: En la columna K, ELIGE DE LA LISTA DESPLEGABLE, OTRO IMPUESTO APLICABLES A TU MATERIA PRIMA.
-12. OBLIGATORIO: En la columna L, ESCRIBE EN NÚMEROS EL PRECIO DE VENTA DE TU MATERIA PRIMA INCLUYENDO TODOS LOS IMPUESTOS APLICABLES.
-13. OBLIGATORIO: En la columna M, ESCRIBE LA FECHA DE VENCIMIENTO DE TU MATERIA PRIMA ASÍ: DIA/MES/AÑO. 
-14. En la columna N, COPIA EL CÓDIGO DE BARRAS A MANO O CON EL LECTOR DE CÓDIGO, NO OMITAS NINGUNA LETRA O NÚMERO.  
-15.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nunito Sans"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nunito Sans"/>
-      </rPr>
-      <t xml:space="preserve">En las columnas D, F, G, H, I,  J, K,, SELECCIONA LA RESPUESTA DE LA LISTA DESPLEGABLE.
-16. En las columnas C, L, M, y N, ESCRIBE SOLO EL NÚMERO. </t>
-    </r>
-  </si>
-  <si>
     <t>Bolsa</t>
   </si>
   <si>
@@ -361,6 +248,60 @@
   </si>
   <si>
     <t>Botella</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. LAS COLUMNAS EN VERDE SON OBLIGATORIAS. DEBES DILIGENCIAR TODAS LAS COLUMNAS VERDES EN UN 100% PARA QUE PUEDAS HACER LA CARGA MASIVA DEL INVENTARIO EN EL SOFTWARE DE ECOPCIÓN. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Escribe el nombre de la materia prima SIEMPRE empezando con letra mayúscula. Las demás letras deben ir en minúscula. </t>
+  </si>
+  <si>
+    <t>3. Si el nombre de la materia prima tiene dos o más palabras, SOLO debes poner en mayúscula la primera letra de la primera palabra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. OBLIGATORIO: En la columna B, escribe la MATERIA PRIMA incluyendo NOMBRE + REFERENCIA O CARACTERÍSTICA QUE LO IDENTIFIQUE. EJ: Celular Samsung J40; Arroz Integral; Leche en Polvo.  Cada mercancia se registra UNA (1) SOLA VEZ. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. OBLIGATORIO: En la columna C, ESCRIBE EL INVENTARIO EN NÚMEROS. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. OBLIGATORIO: En la columna D, ELIJE DE LA LISTA DESPLEGABLE, LA UNIDAD DE MEDIDA EN LA QUE REGISTRAS EL INVENTARIO DE TU MATERIA PRIMA. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7. OBLIGATORIO: En la columna E, ESCRIBE EN NÚMEROS EL PRECIO DE COMPRA SIN IVA DE TU MATERIA PRIMA. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8. OBLIGATORIO: En la columna F, ELIGE DE LA LISTA DESPLEGABLE, EL PORCENTAJE DEL IVA APLICABLE A TU MATERIA PRIMA. </t>
+  </si>
+  <si>
+    <t>9. OBLIGATORIO: En la columna G, ELIGE DE LA LISTA DESPLEGABLE, EL PORCENTAJE DEL IMPUESTO AL CONSUMO APLICABLE A TU MATERIA PRIMA.</t>
+  </si>
+  <si>
+    <t>10.  OBLIGATORIO: En la columna H, ELIGE DE LA LISTA DESPLEGABLE, EL TIPO DE RETENCIÓN EN LA FUENTE APLICABLE A TU MATERIA PRIMA.</t>
+  </si>
+  <si>
+    <t>10.  OBLIGATORIO: En la columna I, ELIGE DE LA LISTA DESPLEGABLE, EL TIPO DE RETENCIÓN DE IVA APLICABLE A TU MATERIA PRIMA.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.  OBLIGATORIO: En la columna J, ELIGE DE LA LISTA DESPLEGABLE, EL TIPO DE RETENCIÓN DE ICA APLICABLE A TU MATERIA PRIMA. </t>
+  </si>
+  <si>
+    <t>11. OBLIGATORIO: En la columna K, ELIGE DE LA LISTA DESPLEGABLE, OTRO IMPUESTO APLICABLES A TU MATERIA PRIMA.</t>
+  </si>
+  <si>
+    <t>12. OBLIGATORIO: En la columna L, ESCRIBE EN NÚMEROS EL PRECIO DE VENTA DE TU MATERIA PRIMA INCLUYENDO TODOS LOS IMPUESTOS APLICABLES.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13. OBLIGATORIO: En la columna M, ESCRIBE LA FECHA DE VENCIMIENTO DE TU MATERIA PRIMA ASÍ: DIA/MES/AÑO. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">14. En la columna N, COPIA EL CÓDIGO DE BARRAS A MANO O CON EL LECTOR DE CÓDIGO, NO OMITAS NINGUNA LETRA O NÚMERO.  </t>
+  </si>
+  <si>
+    <t>15. En las columnas D, F, G, H, I,  J, K,, SELECCIONA LA RESPUESTA DE LA LISTA DESPLEGABLE.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16. En las columnas C, L, M, y N, ESCRIBE SOLO EL NÚMERO. </t>
   </si>
 </sst>
 </file>
@@ -635,7 +576,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -826,9 +767,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1096,10 +1034,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA899"/>
+  <dimension ref="A1:AA897"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1133,170 +1071,170 @@
       <c r="N1" s="62"/>
       <c r="O1" s="62"/>
     </row>
-    <row r="2" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
+    <row r="2" spans="1:27" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17"/>
+      <c r="B2" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="O2" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+    </row>
+    <row r="3" spans="1:27" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="N3" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="O3" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+    </row>
+    <row r="4" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-    </row>
-    <row r="3" spans="1:27" ht="322.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="65" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
-    </row>
-    <row r="4" spans="1:27" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" s="24" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="56"/>
+    </row>
+    <row r="5" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="I4" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="J4" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="K4" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="L4" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="M4" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="N4" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="O4" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-    </row>
-    <row r="5" spans="1:27" ht="123" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="G5" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="H5" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="J5" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="K5" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="L5" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="M5" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="N5" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="O5" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="57"/>
+      <c r="O5" s="56"/>
     </row>
     <row r="6" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="58"/>
-      <c r="G6" s="54"/>
+      <c r="G6" s="23"/>
       <c r="H6" s="56"/>
       <c r="I6" s="56"/>
       <c r="J6" s="56"/>
@@ -1308,14 +1246,14 @@
     </row>
     <row r="7" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="58"/>
-      <c r="G7" s="54"/>
+      <c r="G7" s="23"/>
       <c r="H7" s="56"/>
       <c r="I7" s="56"/>
       <c r="J7" s="56"/>
@@ -1327,7 +1265,7 @@
     </row>
     <row r="8" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1346,7 +1284,7 @@
     </row>
     <row r="9" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -1365,7 +1303,7 @@
     </row>
     <row r="10" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1384,7 +1322,7 @@
     </row>
     <row r="11" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1403,7 +1341,7 @@
     </row>
     <row r="12" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1422,7 +1360,7 @@
     </row>
     <row r="13" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1441,7 +1379,7 @@
     </row>
     <row r="14" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1460,7 +1398,7 @@
     </row>
     <row r="15" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1479,7 +1417,7 @@
     </row>
     <row r="16" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1498,7 +1436,7 @@
     </row>
     <row r="17" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1517,7 +1455,7 @@
     </row>
     <row r="18" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1536,7 +1474,7 @@
     </row>
     <row r="19" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1555,7 +1493,7 @@
     </row>
     <row r="20" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1574,7 +1512,7 @@
     </row>
     <row r="21" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -1593,7 +1531,7 @@
     </row>
     <row r="22" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -1612,7 +1550,7 @@
     </row>
     <row r="23" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -1631,7 +1569,7 @@
     </row>
     <row r="24" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -1650,7 +1588,7 @@
     </row>
     <row r="25" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -1669,7 +1607,7 @@
     </row>
     <row r="26" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1688,7 +1626,7 @@
     </row>
     <row r="27" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1707,7 +1645,7 @@
     </row>
     <row r="28" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -1726,7 +1664,7 @@
     </row>
     <row r="29" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -1745,7 +1683,7 @@
     </row>
     <row r="30" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -1764,7 +1702,7 @@
     </row>
     <row r="31" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -1783,7 +1721,7 @@
     </row>
     <row r="32" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -1802,7 +1740,7 @@
     </row>
     <row r="33" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -1821,7 +1759,7 @@
     </row>
     <row r="34" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -1840,7 +1778,7 @@
     </row>
     <row r="35" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -1859,7 +1797,7 @@
     </row>
     <row r="36" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -1878,7 +1816,7 @@
     </row>
     <row r="37" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -1897,7 +1835,7 @@
     </row>
     <row r="38" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -1916,7 +1854,7 @@
     </row>
     <row r="39" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -1935,7 +1873,7 @@
     </row>
     <row r="40" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -1954,7 +1892,7 @@
     </row>
     <row r="41" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -1973,7 +1911,7 @@
     </row>
     <row r="42" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -1992,7 +1930,7 @@
     </row>
     <row r="43" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -2011,7 +1949,7 @@
     </row>
     <row r="44" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -2030,7 +1968,7 @@
     </row>
     <row r="45" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -2049,7 +1987,7 @@
     </row>
     <row r="46" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -2068,7 +2006,7 @@
     </row>
     <row r="47" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -2087,7 +2025,7 @@
     </row>
     <row r="48" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -2106,7 +2044,7 @@
     </row>
     <row r="49" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -2125,7 +2063,7 @@
     </row>
     <row r="50" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -2144,7 +2082,7 @@
     </row>
     <row r="51" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -2163,7 +2101,7 @@
     </row>
     <row r="52" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -2182,7 +2120,7 @@
     </row>
     <row r="53" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -2201,7 +2139,7 @@
     </row>
     <row r="54" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -2220,7 +2158,7 @@
     </row>
     <row r="55" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -2239,7 +2177,7 @@
     </row>
     <row r="56" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -2258,7 +2196,7 @@
     </row>
     <row r="57" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -2277,7 +2215,7 @@
     </row>
     <row r="58" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -2296,7 +2234,7 @@
     </row>
     <row r="59" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -2315,7 +2253,7 @@
     </row>
     <row r="60" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -2334,7 +2272,7 @@
     </row>
     <row r="61" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -2353,7 +2291,7 @@
     </row>
     <row r="62" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -2372,7 +2310,7 @@
     </row>
     <row r="63" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -2391,7 +2329,7 @@
     </row>
     <row r="64" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -2410,7 +2348,7 @@
     </row>
     <row r="65" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -2429,7 +2367,7 @@
     </row>
     <row r="66" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -2448,7 +2386,7 @@
     </row>
     <row r="67" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -2467,7 +2405,7 @@
     </row>
     <row r="68" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -2486,7 +2424,7 @@
     </row>
     <row r="69" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -2505,7 +2443,7 @@
     </row>
     <row r="70" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -2524,7 +2462,7 @@
     </row>
     <row r="71" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -2543,7 +2481,7 @@
     </row>
     <row r="72" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -2562,7 +2500,7 @@
     </row>
     <row r="73" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -2581,7 +2519,7 @@
     </row>
     <row r="74" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -2600,7 +2538,7 @@
     </row>
     <row r="75" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -2619,7 +2557,7 @@
     </row>
     <row r="76" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -2638,7 +2576,7 @@
     </row>
     <row r="77" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -2657,7 +2595,7 @@
     </row>
     <row r="78" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -2676,7 +2614,7 @@
     </row>
     <row r="79" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -2695,7 +2633,7 @@
     </row>
     <row r="80" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -2714,7 +2652,7 @@
     </row>
     <row r="81" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -2733,7 +2671,7 @@
     </row>
     <row r="82" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -2752,7 +2690,7 @@
     </row>
     <row r="83" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -2771,7 +2709,7 @@
     </row>
     <row r="84" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -2790,7 +2728,7 @@
     </row>
     <row r="85" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -2809,7 +2747,7 @@
     </row>
     <row r="86" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -2828,7 +2766,7 @@
     </row>
     <row r="87" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -2847,7 +2785,7 @@
     </row>
     <row r="88" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -2866,7 +2804,7 @@
     </row>
     <row r="89" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -2885,7 +2823,7 @@
     </row>
     <row r="90" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -2904,7 +2842,7 @@
     </row>
     <row r="91" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -2923,7 +2861,7 @@
     </row>
     <row r="92" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -2942,7 +2880,7 @@
     </row>
     <row r="93" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -2961,7 +2899,7 @@
     </row>
     <row r="94" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -2980,7 +2918,7 @@
     </row>
     <row r="95" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -2999,7 +2937,7 @@
     </row>
     <row r="96" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -3018,7 +2956,7 @@
     </row>
     <row r="97" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -3037,7 +2975,7 @@
     </row>
     <row r="98" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -3056,7 +2994,7 @@
     </row>
     <row r="99" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -3075,7 +3013,7 @@
     </row>
     <row r="100" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -3094,7 +3032,7 @@
     </row>
     <row r="101" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
@@ -3113,7 +3051,7 @@
     </row>
     <row r="102" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
@@ -3132,7 +3070,7 @@
     </row>
     <row r="103" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
@@ -3151,7 +3089,7 @@
     </row>
     <row r="104" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
@@ -3170,7 +3108,7 @@
     </row>
     <row r="105" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
@@ -3189,7 +3127,7 @@
     </row>
     <row r="106" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
@@ -3208,7 +3146,7 @@
     </row>
     <row r="107" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
@@ -3227,7 +3165,7 @@
     </row>
     <row r="108" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -3246,7 +3184,7 @@
     </row>
     <row r="109" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -3265,7 +3203,7 @@
     </row>
     <row r="110" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
@@ -3284,7 +3222,7 @@
     </row>
     <row r="111" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -3303,7 +3241,7 @@
     </row>
     <row r="112" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
@@ -3322,7 +3260,7 @@
     </row>
     <row r="113" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
@@ -3341,7 +3279,7 @@
     </row>
     <row r="114" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
@@ -3360,7 +3298,7 @@
     </row>
     <row r="115" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
@@ -3379,7 +3317,7 @@
     </row>
     <row r="116" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
@@ -3398,7 +3336,7 @@
     </row>
     <row r="117" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -3417,7 +3355,7 @@
     </row>
     <row r="118" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -3436,7 +3374,7 @@
     </row>
     <row r="119" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
@@ -3455,7 +3393,7 @@
     </row>
     <row r="120" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
@@ -3474,7 +3412,7 @@
     </row>
     <row r="121" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -3493,7 +3431,7 @@
     </row>
     <row r="122" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -3512,7 +3450,7 @@
     </row>
     <row r="123" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
@@ -3531,7 +3469,7 @@
     </row>
     <row r="124" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -3550,7 +3488,7 @@
     </row>
     <row r="125" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -3569,7 +3507,7 @@
     </row>
     <row r="126" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
@@ -3588,7 +3526,7 @@
     </row>
     <row r="127" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
@@ -3607,7 +3545,7 @@
     </row>
     <row r="128" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
@@ -3626,7 +3564,7 @@
     </row>
     <row r="129" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
@@ -3645,7 +3583,7 @@
     </row>
     <row r="130" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
@@ -3664,7 +3602,7 @@
     </row>
     <row r="131" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
@@ -3683,7 +3621,7 @@
     </row>
     <row r="132" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
@@ -3702,7 +3640,7 @@
     </row>
     <row r="133" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
@@ -3721,7 +3659,7 @@
     </row>
     <row r="134" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
@@ -3740,7 +3678,7 @@
     </row>
     <row r="135" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
@@ -3759,7 +3697,7 @@
     </row>
     <row r="136" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
@@ -3778,7 +3716,7 @@
     </row>
     <row r="137" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
@@ -3797,7 +3735,7 @@
     </row>
     <row r="138" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
@@ -3816,7 +3754,7 @@
     </row>
     <row r="139" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
@@ -3835,7 +3773,7 @@
     </row>
     <row r="140" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
@@ -3854,7 +3792,7 @@
     </row>
     <row r="141" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
@@ -3873,7 +3811,7 @@
     </row>
     <row r="142" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
@@ -3892,7 +3830,7 @@
     </row>
     <row r="143" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
@@ -3911,7 +3849,7 @@
     </row>
     <row r="144" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
@@ -3930,7 +3868,7 @@
     </row>
     <row r="145" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
@@ -3949,7 +3887,7 @@
     </row>
     <row r="146" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
@@ -3968,7 +3906,7 @@
     </row>
     <row r="147" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
@@ -3987,7 +3925,7 @@
     </row>
     <row r="148" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
@@ -4006,7 +3944,7 @@
     </row>
     <row r="149" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
@@ -4025,7 +3963,7 @@
     </row>
     <row r="150" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
@@ -4044,7 +3982,7 @@
     </row>
     <row r="151" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
@@ -4063,7 +4001,7 @@
     </row>
     <row r="152" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
@@ -4082,7 +4020,7 @@
     </row>
     <row r="153" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
@@ -4101,7 +4039,7 @@
     </row>
     <row r="154" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
@@ -4120,7 +4058,7 @@
     </row>
     <row r="155" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
@@ -4139,7 +4077,7 @@
     </row>
     <row r="156" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
@@ -4158,7 +4096,7 @@
     </row>
     <row r="157" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
@@ -4177,7 +4115,7 @@
     </row>
     <row r="158" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
@@ -4196,7 +4134,7 @@
     </row>
     <row r="159" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
@@ -4215,7 +4153,7 @@
     </row>
     <row r="160" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
@@ -4234,7 +4172,7 @@
     </row>
     <row r="161" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
@@ -4253,7 +4191,7 @@
     </row>
     <row r="162" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
@@ -4272,7 +4210,7 @@
     </row>
     <row r="163" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
@@ -4291,7 +4229,7 @@
     </row>
     <row r="164" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
@@ -4310,7 +4248,7 @@
     </row>
     <row r="165" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
@@ -4329,7 +4267,7 @@
     </row>
     <row r="166" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
@@ -4348,7 +4286,7 @@
     </row>
     <row r="167" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
@@ -4367,7 +4305,7 @@
     </row>
     <row r="168" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
@@ -4386,7 +4324,7 @@
     </row>
     <row r="169" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
@@ -4405,7 +4343,7 @@
     </row>
     <row r="170" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
@@ -4424,7 +4362,7 @@
     </row>
     <row r="171" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
@@ -4443,7 +4381,7 @@
     </row>
     <row r="172" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
@@ -4462,7 +4400,7 @@
     </row>
     <row r="173" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
@@ -4481,7 +4419,7 @@
     </row>
     <row r="174" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
@@ -4500,7 +4438,7 @@
     </row>
     <row r="175" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
@@ -4519,7 +4457,7 @@
     </row>
     <row r="176" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
@@ -4538,7 +4476,7 @@
     </row>
     <row r="177" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
@@ -4557,7 +4495,7 @@
     </row>
     <row r="178" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
@@ -4576,7 +4514,7 @@
     </row>
     <row r="179" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
@@ -4595,7 +4533,7 @@
     </row>
     <row r="180" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
@@ -4614,7 +4552,7 @@
     </row>
     <row r="181" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
@@ -4633,7 +4571,7 @@
     </row>
     <row r="182" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
@@ -4652,7 +4590,7 @@
     </row>
     <row r="183" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
@@ -4671,7 +4609,7 @@
     </row>
     <row r="184" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
@@ -4690,7 +4628,7 @@
     </row>
     <row r="185" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
@@ -4709,7 +4647,7 @@
     </row>
     <row r="186" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
@@ -4728,7 +4666,7 @@
     </row>
     <row r="187" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
@@ -4747,7 +4685,7 @@
     </row>
     <row r="188" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
@@ -4766,7 +4704,7 @@
     </row>
     <row r="189" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
@@ -4785,7 +4723,7 @@
     </row>
     <row r="190" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
@@ -4804,7 +4742,7 @@
     </row>
     <row r="191" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
@@ -4823,7 +4761,7 @@
     </row>
     <row r="192" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
@@ -4842,7 +4780,7 @@
     </row>
     <row r="193" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
@@ -4861,7 +4799,7 @@
     </row>
     <row r="194" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
@@ -4880,7 +4818,7 @@
     </row>
     <row r="195" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
@@ -4899,7 +4837,7 @@
     </row>
     <row r="196" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
@@ -4918,7 +4856,7 @@
     </row>
     <row r="197" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
@@ -4937,7 +4875,7 @@
     </row>
     <row r="198" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
@@ -4956,7 +4894,7 @@
     </row>
     <row r="199" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
@@ -4975,7 +4913,7 @@
     </row>
     <row r="200" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
@@ -4994,7 +4932,7 @@
     </row>
     <row r="201" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
@@ -5013,7 +4951,7 @@
     </row>
     <row r="202" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B202" s="4"/>
       <c r="C202" s="4"/>
@@ -5032,7 +4970,7 @@
     </row>
     <row r="203" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
@@ -5050,42 +4988,38 @@
       <c r="O203" s="56"/>
     </row>
     <row r="204" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="1">
-        <v>199</v>
-      </c>
-      <c r="B204" s="4"/>
-      <c r="C204" s="4"/>
-      <c r="D204" s="5"/>
-      <c r="E204" s="5"/>
-      <c r="F204" s="58"/>
-      <c r="G204" s="23"/>
-      <c r="H204" s="56"/>
-      <c r="I204" s="56"/>
-      <c r="J204" s="56"/>
-      <c r="K204" s="56"/>
-      <c r="L204" s="56"/>
-      <c r="M204" s="56"/>
-      <c r="N204" s="57"/>
-      <c r="O204" s="56"/>
+      <c r="A204" s="2"/>
+      <c r="B204" s="6"/>
+      <c r="C204" s="6"/>
+      <c r="D204" s="7"/>
+      <c r="E204" s="6"/>
+      <c r="F204" s="8"/>
+      <c r="G204" s="8"/>
+      <c r="H204" s="6"/>
+      <c r="I204" s="6"/>
+      <c r="J204" s="6"/>
+      <c r="K204" s="6"/>
+      <c r="L204" s="6"/>
+      <c r="M204" s="6"/>
+      <c r="N204" s="6"/>
+      <c r="O204" s="6"/>
     </row>
     <row r="205" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="1">
-        <v>200</v>
-      </c>
-      <c r="B205" s="4"/>
-      <c r="C205" s="4"/>
-      <c r="D205" s="5"/>
-      <c r="E205" s="5"/>
-      <c r="F205" s="58"/>
-      <c r="G205" s="23"/>
-      <c r="H205" s="56"/>
-      <c r="I205" s="56"/>
-      <c r="J205" s="56"/>
-      <c r="K205" s="56"/>
-      <c r="L205" s="56"/>
-      <c r="M205" s="56"/>
-      <c r="N205" s="57"/>
-      <c r="O205" s="56"/>
+      <c r="A205" s="2"/>
+      <c r="B205" s="6"/>
+      <c r="C205" s="6"/>
+      <c r="D205" s="7"/>
+      <c r="E205" s="6"/>
+      <c r="F205" s="8"/>
+      <c r="G205" s="8"/>
+      <c r="H205" s="6"/>
+      <c r="I205" s="6"/>
+      <c r="J205" s="6"/>
+      <c r="K205" s="6"/>
+      <c r="L205" s="6"/>
+      <c r="M205" s="6"/>
+      <c r="N205" s="6"/>
+      <c r="O205" s="6"/>
     </row>
     <row r="206" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="2"/>
@@ -16851,46 +16785,10 @@
       <c r="N897" s="6"/>
       <c r="O897" s="6"/>
     </row>
-    <row r="898" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A898" s="2"/>
-      <c r="B898" s="6"/>
-      <c r="C898" s="6"/>
-      <c r="D898" s="7"/>
-      <c r="E898" s="6"/>
-      <c r="F898" s="8"/>
-      <c r="G898" s="8"/>
-      <c r="H898" s="6"/>
-      <c r="I898" s="6"/>
-      <c r="J898" s="6"/>
-      <c r="K898" s="6"/>
-      <c r="L898" s="6"/>
-      <c r="M898" s="6"/>
-      <c r="N898" s="6"/>
-      <c r="O898" s="6"/>
-    </row>
-    <row r="899" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A899" s="2"/>
-      <c r="B899" s="6"/>
-      <c r="C899" s="6"/>
-      <c r="D899" s="7"/>
-      <c r="E899" s="6"/>
-      <c r="F899" s="8"/>
-      <c r="G899" s="8"/>
-      <c r="H899" s="6"/>
-      <c r="I899" s="6"/>
-      <c r="J899" s="6"/>
-      <c r="K899" s="6"/>
-      <c r="L899" s="6"/>
-      <c r="M899" s="6"/>
-      <c r="N899" s="6"/>
-      <c r="O899" s="6"/>
-    </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="3">
+  <mergeCells count="1">
     <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="A3:O3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -16902,55 +16800,55 @@
           <x14:formula1>
             <xm:f>'Lista desplegable'!$C$2:$C$5</xm:f>
           </x14:formula1>
-          <xm:sqref>H6:H205</xm:sqref>
+          <xm:sqref>H4:H203</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8817F2C0-78F2-4921-B5AB-847D70608827}">
           <x14:formula1>
             <xm:f>'Lista desplegable'!$D$2:$D$5</xm:f>
           </x14:formula1>
-          <xm:sqref>I6:I205</xm:sqref>
+          <xm:sqref>I4:I203</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F11334D1-B167-484E-A8AA-668FA80205E0}">
           <x14:formula1>
             <xm:f>'Lista desplegable'!$F$2:$F$20</xm:f>
           </x14:formula1>
-          <xm:sqref>K6:K205</xm:sqref>
+          <xm:sqref>K4:K203</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EBBDDCFC-71FD-4E7C-8628-1930DB3FD7C8}">
           <x14:formula1>
             <xm:f>'Lista desplegable'!$G$2:$G$4</xm:f>
           </x14:formula1>
-          <xm:sqref>L6:L205</xm:sqref>
+          <xm:sqref>L4:L203</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F249E9E2-D771-4566-85B2-7FCFEBCE7387}">
           <x14:formula1>
             <xm:f>'Lista desplegable'!$H$2:$H$11</xm:f>
           </x14:formula1>
-          <xm:sqref>M6:M205</xm:sqref>
+          <xm:sqref>M4:M203</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AF507B11-4274-4AA7-BA1B-50B99480DB33}">
           <x14:formula1>
             <xm:f>'Lista desplegable'!$I$2:$I$9</xm:f>
           </x14:formula1>
-          <xm:sqref>N6:N205</xm:sqref>
+          <xm:sqref>N4:N203</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BF81F3B0-15B5-4589-BE48-CC12B772A689}">
           <x14:formula1>
             <xm:f>'Lista desplegable'!$J$2:$J$5</xm:f>
           </x14:formula1>
-          <xm:sqref>O6:O205</xm:sqref>
+          <xm:sqref>O4:O203</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{61C1A2AE-B592-4367-B6E6-43426F19FB49}">
           <x14:formula1>
             <xm:f>'Lista desplegable'!$E$2:$E$7</xm:f>
           </x14:formula1>
-          <xm:sqref>J6:J205</xm:sqref>
+          <xm:sqref>J4:J203</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{95CA0C82-AAD2-46BE-9368-E5A4E9443D01}">
           <x14:formula1>
             <xm:f>'Lista desplegable'!$B$2:$B$32</xm:f>
           </x14:formula1>
-          <xm:sqref>E6:E205</xm:sqref>
+          <xm:sqref>E4:E203</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -16960,12 +16858,127 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F778330C-B888-4E1F-9D51-6576E83C0DAD}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:15" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:O1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -17213,7 +17226,7 @@
     </row>
     <row r="11" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F11" s="28">
         <v>4</v>
@@ -17224,7 +17237,7 @@
     </row>
     <row r="12" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F12" s="28">
         <v>6</v>
@@ -17241,7 +17254,7 @@
     </row>
     <row r="14" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F14" s="28">
         <v>8</v>
@@ -17249,7 +17262,7 @@
     </row>
     <row r="15" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F15" s="28">
         <v>10</v>

--- a/public/DownloadExcels/Materias_Primas.xlsx
+++ b/public/DownloadExcels/Materias_Primas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Mario\Desktop\Ecopcion Desarrollo\ecopFront-Desarrollo\public\DownloadExcels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Reyes\OneDrive - Top Drive Group\Escritorio\CARLOS\Desarrollo\ecopFront-Desarrollo\public\DownloadExcels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2627D131-7353-4C9A-9959-EB2BFAD3B52C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{397204F4-9B79-49B1-B9EE-A41FDD3FB949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="28800" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INVENTARIO DE MATERIAS PRIMAS" sheetId="1" r:id="rId1"/>
@@ -1036,7 +1036,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA897"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -16860,7 +16860,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F778330C-B888-4E1F-9D51-6576E83C0DAD}">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>

--- a/public/DownloadExcels/Materias_Primas.xlsx
+++ b/public/DownloadExcels/Materias_Primas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Reyes\OneDrive - Top Drive Group\Escritorio\CARLOS\Desarrollo\ecopFront-Desarrollo\public\DownloadExcels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{397204F4-9B79-49B1-B9EE-A41FDD3FB949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190E71CD-6214-4370-BDCE-55AA44C4584D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="28800" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INVENTARIO DE MATERIAS PRIMAS" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="89">
   <si>
     <t>INVENTARIO DE MATERIAS PRIMAS / INSUMOS</t>
   </si>
@@ -302,6 +302,18 @@
   </si>
   <si>
     <t xml:space="preserve">16. En las columnas C, L, M, y N, ESCRIBE SOLO EL NÚMERO. </t>
+  </si>
+  <si>
+    <t>FGB54CFG5N4B</t>
+  </si>
+  <si>
+    <t>5HB5F4H5B</t>
+  </si>
+  <si>
+    <t>SAL</t>
+  </si>
+  <si>
+    <t>HARINA</t>
   </si>
 </sst>
 </file>
@@ -1037,7 +1049,7 @@
   <dimension ref="A1:AA897"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1191,39 +1203,95 @@
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="57"/>
-      <c r="O4" s="56"/>
+      <c r="B4" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="5">
+        <v>100</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="58">
+        <v>100</v>
+      </c>
+      <c r="G4" s="54">
+        <v>45657</v>
+      </c>
+      <c r="H4" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="L4" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="M4" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="N4" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="O4" s="56" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="5" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="57"/>
-      <c r="O5" s="56"/>
+      <c r="B5" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="5">
+        <v>200</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="58">
+        <v>200</v>
+      </c>
+      <c r="G5" s="54">
+        <v>45657</v>
+      </c>
+      <c r="H5" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="J5" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="K5" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="L5" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="M5" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="N5" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="O5" s="56" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="6" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -16800,49 +16868,49 @@
           <x14:formula1>
             <xm:f>'Lista desplegable'!$C$2:$C$5</xm:f>
           </x14:formula1>
-          <xm:sqref>H4:H203</xm:sqref>
+          <xm:sqref>H4:H203 I4:O5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8817F2C0-78F2-4921-B5AB-847D70608827}">
           <x14:formula1>
             <xm:f>'Lista desplegable'!$D$2:$D$5</xm:f>
           </x14:formula1>
-          <xm:sqref>I4:I203</xm:sqref>
+          <xm:sqref>I6:I203</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F11334D1-B167-484E-A8AA-668FA80205E0}">
           <x14:formula1>
             <xm:f>'Lista desplegable'!$F$2:$F$20</xm:f>
           </x14:formula1>
-          <xm:sqref>K4:K203</xm:sqref>
+          <xm:sqref>K6:K203</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EBBDDCFC-71FD-4E7C-8628-1930DB3FD7C8}">
           <x14:formula1>
             <xm:f>'Lista desplegable'!$G$2:$G$4</xm:f>
           </x14:formula1>
-          <xm:sqref>L4:L203</xm:sqref>
+          <xm:sqref>L6:L203</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F249E9E2-D771-4566-85B2-7FCFEBCE7387}">
           <x14:formula1>
             <xm:f>'Lista desplegable'!$H$2:$H$11</xm:f>
           </x14:formula1>
-          <xm:sqref>M4:M203</xm:sqref>
+          <xm:sqref>M6:M203</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AF507B11-4274-4AA7-BA1B-50B99480DB33}">
           <x14:formula1>
             <xm:f>'Lista desplegable'!$I$2:$I$9</xm:f>
           </x14:formula1>
-          <xm:sqref>N4:N203</xm:sqref>
+          <xm:sqref>N6:N203</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BF81F3B0-15B5-4589-BE48-CC12B772A689}">
           <x14:formula1>
             <xm:f>'Lista desplegable'!$J$2:$J$5</xm:f>
           </x14:formula1>
-          <xm:sqref>O4:O203</xm:sqref>
+          <xm:sqref>O6:O203</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{61C1A2AE-B592-4367-B6E6-43426F19FB49}">
           <x14:formula1>
             <xm:f>'Lista desplegable'!$E$2:$E$7</xm:f>
           </x14:formula1>
-          <xm:sqref>J4:J203</xm:sqref>
+          <xm:sqref>J6:J203</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{95CA0C82-AAD2-46BE-9368-E5A4E9443D01}">
           <x14:formula1>

--- a/public/DownloadExcels/Materias_Primas.xlsx
+++ b/public/DownloadExcels/Materias_Primas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Reyes\OneDrive - Top Drive Group\Escritorio\CARLOS\Desarrollo\ecopFront-Desarrollo\public\DownloadExcels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190E71CD-6214-4370-BDCE-55AA44C4584D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388512BE-6512-4E91-96F8-403F8C821DD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INVENTARIO DE MATERIAS PRIMAS" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="85">
   <si>
     <t>INVENTARIO DE MATERIAS PRIMAS / INSUMOS</t>
   </si>
@@ -302,18 +302,6 @@
   </si>
   <si>
     <t xml:space="preserve">16. En las columnas C, L, M, y N, ESCRIBE SOLO EL NÚMERO. </t>
-  </si>
-  <si>
-    <t>FGB54CFG5N4B</t>
-  </si>
-  <si>
-    <t>5HB5F4H5B</t>
-  </si>
-  <si>
-    <t>SAL</t>
-  </si>
-  <si>
-    <t>HARINA</t>
   </si>
 </sst>
 </file>
@@ -1203,95 +1191,39 @@
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="5">
-        <v>100</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="58">
-        <v>100</v>
-      </c>
-      <c r="G4" s="54">
-        <v>45657</v>
-      </c>
-      <c r="H4" s="56" t="s">
-        <v>61</v>
-      </c>
-      <c r="I4" s="56" t="s">
-        <v>61</v>
-      </c>
-      <c r="J4" s="56" t="s">
-        <v>61</v>
-      </c>
-      <c r="K4" s="56" t="s">
-        <v>61</v>
-      </c>
-      <c r="L4" s="56" t="s">
-        <v>61</v>
-      </c>
-      <c r="M4" s="56" t="s">
-        <v>61</v>
-      </c>
-      <c r="N4" s="56" t="s">
-        <v>61</v>
-      </c>
-      <c r="O4" s="56" t="s">
-        <v>61</v>
-      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
     </row>
     <row r="5" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D5" s="5">
-        <v>200</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="58">
-        <v>200</v>
-      </c>
-      <c r="G5" s="54">
-        <v>45657</v>
-      </c>
-      <c r="H5" s="56" t="s">
-        <v>61</v>
-      </c>
-      <c r="I5" s="56" t="s">
-        <v>61</v>
-      </c>
-      <c r="J5" s="56" t="s">
-        <v>61</v>
-      </c>
-      <c r="K5" s="56" t="s">
-        <v>61</v>
-      </c>
-      <c r="L5" s="56" t="s">
-        <v>61</v>
-      </c>
-      <c r="M5" s="56" t="s">
-        <v>61</v>
-      </c>
-      <c r="N5" s="56" t="s">
-        <v>61</v>
-      </c>
-      <c r="O5" s="56" t="s">
-        <v>61</v>
-      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="56"/>
     </row>
     <row r="6" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">

--- a/public/DownloadExcels/Materias_Primas.xlsx
+++ b/public/DownloadExcels/Materias_Primas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Reyes\OneDrive - Top Drive Group\Escritorio\CARLOS\Desarrollo\ecopFront-Desarrollo\public\DownloadExcels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Reyes\OneDrive - Top Drive Group\Escritorio\Carlos\Desarrollo\ecopFront-Desarrollo\public\DownloadExcels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388512BE-6512-4E91-96F8-403F8C821DD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A10BE652-D78F-431A-BC64-0286E47ECABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INVENTARIO DE MATERIAS PRIMAS" sheetId="1" r:id="rId1"/>
@@ -576,7 +576,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -742,9 +742,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1037,7 +1034,7 @@
   <dimension ref="A1:AA897"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1053,23 +1050,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
     </row>
     <row r="2" spans="1:27" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17"/>
@@ -1195,16 +1192,16 @@
       <c r="C4" s="4"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
-      <c r="F4" s="58"/>
+      <c r="F4" s="57"/>
       <c r="G4" s="54"/>
       <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
     </row>
     <row r="5" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -1214,16 +1211,16 @@
       <c r="C5" s="4"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="58"/>
+      <c r="F5" s="57"/>
       <c r="G5" s="54"/>
       <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="56"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
     </row>
     <row r="6" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -1233,16 +1230,16 @@
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="58"/>
+      <c r="F6" s="57"/>
       <c r="G6" s="23"/>
       <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="57"/>
-      <c r="O6" s="56"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="54"/>
     </row>
     <row r="7" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -1252,16 +1249,16 @@
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
-      <c r="F7" s="58"/>
+      <c r="F7" s="57"/>
       <c r="G7" s="23"/>
       <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="57"/>
-      <c r="O7" s="56"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
     </row>
     <row r="8" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -1271,16 +1268,16 @@
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="58"/>
+      <c r="F8" s="57"/>
       <c r="G8" s="23"/>
       <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="56"/>
-      <c r="M8" s="56"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="56"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="54"/>
     </row>
     <row r="9" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -1290,16 +1287,16 @@
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
-      <c r="F9" s="58"/>
+      <c r="F9" s="57"/>
       <c r="G9" s="23"/>
       <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="56"/>
-      <c r="N9" s="57"/>
-      <c r="O9" s="56"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="54"/>
     </row>
     <row r="10" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -1309,16 +1306,16 @@
       <c r="C10" s="4"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
-      <c r="F10" s="58"/>
+      <c r="F10" s="57"/>
       <c r="G10" s="23"/>
       <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="56"/>
-      <c r="N10" s="57"/>
-      <c r="O10" s="56"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="54"/>
     </row>
     <row r="11" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -1328,16 +1325,16 @@
       <c r="C11" s="4"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
-      <c r="F11" s="58"/>
+      <c r="F11" s="57"/>
       <c r="G11" s="23"/>
       <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="56"/>
-      <c r="N11" s="57"/>
-      <c r="O11" s="56"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
     </row>
     <row r="12" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -1347,16 +1344,16 @@
       <c r="C12" s="4"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="58"/>
+      <c r="F12" s="57"/>
       <c r="G12" s="23"/>
       <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="56"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="54"/>
     </row>
     <row r="13" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -1366,16 +1363,16 @@
       <c r="C13" s="4"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
-      <c r="F13" s="58"/>
+      <c r="F13" s="57"/>
       <c r="G13" s="23"/>
       <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="56"/>
-      <c r="M13" s="56"/>
-      <c r="N13" s="57"/>
-      <c r="O13" s="56"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
     </row>
     <row r="14" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -1385,16 +1382,16 @@
       <c r="C14" s="4"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
-      <c r="F14" s="58"/>
+      <c r="F14" s="57"/>
       <c r="G14" s="23"/>
       <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="56"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="54"/>
     </row>
     <row r="15" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -1404,16 +1401,16 @@
       <c r="C15" s="4"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
-      <c r="F15" s="58"/>
+      <c r="F15" s="57"/>
       <c r="G15" s="23"/>
       <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="56"/>
-      <c r="N15" s="57"/>
-      <c r="O15" s="56"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
     </row>
     <row r="16" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -1423,16 +1420,16 @@
       <c r="C16" s="4"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="58"/>
+      <c r="F16" s="57"/>
       <c r="G16" s="23"/>
       <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="56"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="54"/>
     </row>
     <row r="17" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -1442,16 +1439,16 @@
       <c r="C17" s="4"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="58"/>
+      <c r="F17" s="57"/>
       <c r="G17" s="23"/>
       <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="56"/>
-      <c r="N17" s="57"/>
-      <c r="O17" s="56"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="54"/>
     </row>
     <row r="18" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -1461,16 +1458,16 @@
       <c r="C18" s="4"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
-      <c r="F18" s="58"/>
+      <c r="F18" s="57"/>
       <c r="G18" s="23"/>
       <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="56"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="54"/>
     </row>
     <row r="19" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
@@ -1480,16 +1477,16 @@
       <c r="C19" s="4"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="58"/>
+      <c r="F19" s="57"/>
       <c r="G19" s="23"/>
       <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="56"/>
-      <c r="N19" s="57"/>
-      <c r="O19" s="56"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="54"/>
     </row>
     <row r="20" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
@@ -1499,16 +1496,16 @@
       <c r="C20" s="4"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
-      <c r="F20" s="58"/>
+      <c r="F20" s="57"/>
       <c r="G20" s="23"/>
       <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="56"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="54"/>
+      <c r="O20" s="54"/>
     </row>
     <row r="21" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
@@ -1518,16 +1515,16 @@
       <c r="C21" s="4"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="58"/>
+      <c r="F21" s="57"/>
       <c r="G21" s="23"/>
       <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="56"/>
-      <c r="L21" s="56"/>
-      <c r="M21" s="56"/>
-      <c r="N21" s="57"/>
-      <c r="O21" s="56"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="54"/>
+      <c r="O21" s="54"/>
     </row>
     <row r="22" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
@@ -1537,16 +1534,16 @@
       <c r="C22" s="4"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
-      <c r="F22" s="58"/>
+      <c r="F22" s="57"/>
       <c r="G22" s="23"/>
       <c r="H22" s="56"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="56"/>
-      <c r="L22" s="56"/>
-      <c r="M22" s="56"/>
-      <c r="N22" s="57"/>
-      <c r="O22" s="56"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="54"/>
+      <c r="N22" s="54"/>
+      <c r="O22" s="54"/>
     </row>
     <row r="23" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
@@ -1556,16 +1553,16 @@
       <c r="C23" s="4"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
-      <c r="F23" s="58"/>
+      <c r="F23" s="57"/>
       <c r="G23" s="23"/>
       <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="56"/>
-      <c r="K23" s="56"/>
-      <c r="L23" s="56"/>
-      <c r="M23" s="56"/>
-      <c r="N23" s="57"/>
-      <c r="O23" s="56"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="54"/>
+      <c r="O23" s="54"/>
     </row>
     <row r="24" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
@@ -1575,16 +1572,16 @@
       <c r="C24" s="4"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
-      <c r="F24" s="58"/>
+      <c r="F24" s="57"/>
       <c r="G24" s="23"/>
       <c r="H24" s="56"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="56"/>
-      <c r="K24" s="56"/>
-      <c r="L24" s="56"/>
-      <c r="M24" s="56"/>
-      <c r="N24" s="57"/>
-      <c r="O24" s="56"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="54"/>
+      <c r="L24" s="54"/>
+      <c r="M24" s="54"/>
+      <c r="N24" s="54"/>
+      <c r="O24" s="54"/>
     </row>
     <row r="25" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
@@ -1594,16 +1591,16 @@
       <c r="C25" s="4"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
-      <c r="F25" s="58"/>
+      <c r="F25" s="57"/>
       <c r="G25" s="23"/>
       <c r="H25" s="56"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="56"/>
-      <c r="K25" s="56"/>
-      <c r="L25" s="56"/>
-      <c r="M25" s="56"/>
-      <c r="N25" s="57"/>
-      <c r="O25" s="56"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="54"/>
+      <c r="O25" s="54"/>
     </row>
     <row r="26" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
@@ -1613,16 +1610,16 @@
       <c r="C26" s="4"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
-      <c r="F26" s="58"/>
+      <c r="F26" s="57"/>
       <c r="G26" s="23"/>
       <c r="H26" s="56"/>
-      <c r="I26" s="56"/>
-      <c r="J26" s="56"/>
-      <c r="K26" s="56"/>
-      <c r="L26" s="56"/>
-      <c r="M26" s="56"/>
-      <c r="N26" s="57"/>
-      <c r="O26" s="56"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="54"/>
+      <c r="K26" s="54"/>
+      <c r="L26" s="54"/>
+      <c r="M26" s="54"/>
+      <c r="N26" s="54"/>
+      <c r="O26" s="54"/>
     </row>
     <row r="27" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
@@ -1632,16 +1629,16 @@
       <c r="C27" s="4"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
-      <c r="F27" s="58"/>
+      <c r="F27" s="57"/>
       <c r="G27" s="23"/>
       <c r="H27" s="56"/>
-      <c r="I27" s="56"/>
-      <c r="J27" s="56"/>
-      <c r="K27" s="56"/>
-      <c r="L27" s="56"/>
-      <c r="M27" s="56"/>
-      <c r="N27" s="57"/>
-      <c r="O27" s="56"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="54"/>
+      <c r="K27" s="54"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="54"/>
+      <c r="N27" s="54"/>
+      <c r="O27" s="54"/>
     </row>
     <row r="28" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
@@ -1651,16 +1648,16 @@
       <c r="C28" s="4"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
-      <c r="F28" s="58"/>
+      <c r="F28" s="57"/>
       <c r="G28" s="23"/>
       <c r="H28" s="56"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="56"/>
-      <c r="K28" s="56"/>
-      <c r="L28" s="56"/>
-      <c r="M28" s="56"/>
-      <c r="N28" s="57"/>
-      <c r="O28" s="56"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
+      <c r="K28" s="54"/>
+      <c r="L28" s="54"/>
+      <c r="M28" s="54"/>
+      <c r="N28" s="54"/>
+      <c r="O28" s="54"/>
     </row>
     <row r="29" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
@@ -1670,16 +1667,16 @@
       <c r="C29" s="4"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
-      <c r="F29" s="58"/>
+      <c r="F29" s="57"/>
       <c r="G29" s="23"/>
       <c r="H29" s="56"/>
-      <c r="I29" s="56"/>
-      <c r="J29" s="56"/>
-      <c r="K29" s="56"/>
-      <c r="L29" s="56"/>
-      <c r="M29" s="56"/>
-      <c r="N29" s="57"/>
-      <c r="O29" s="56"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="54"/>
+      <c r="K29" s="54"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="54"/>
+      <c r="N29" s="54"/>
+      <c r="O29" s="54"/>
     </row>
     <row r="30" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
@@ -1689,16 +1686,16 @@
       <c r="C30" s="4"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
-      <c r="F30" s="58"/>
+      <c r="F30" s="57"/>
       <c r="G30" s="23"/>
       <c r="H30" s="56"/>
-      <c r="I30" s="56"/>
-      <c r="J30" s="56"/>
-      <c r="K30" s="56"/>
-      <c r="L30" s="56"/>
-      <c r="M30" s="56"/>
-      <c r="N30" s="57"/>
-      <c r="O30" s="56"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="54"/>
+      <c r="K30" s="54"/>
+      <c r="L30" s="54"/>
+      <c r="M30" s="54"/>
+      <c r="N30" s="54"/>
+      <c r="O30" s="54"/>
     </row>
     <row r="31" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
@@ -1708,16 +1705,16 @@
       <c r="C31" s="4"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
-      <c r="F31" s="58"/>
+      <c r="F31" s="57"/>
       <c r="G31" s="23"/>
       <c r="H31" s="56"/>
-      <c r="I31" s="56"/>
-      <c r="J31" s="56"/>
-      <c r="K31" s="56"/>
-      <c r="L31" s="56"/>
-      <c r="M31" s="56"/>
-      <c r="N31" s="57"/>
-      <c r="O31" s="56"/>
+      <c r="I31" s="54"/>
+      <c r="J31" s="54"/>
+      <c r="K31" s="54"/>
+      <c r="L31" s="54"/>
+      <c r="M31" s="54"/>
+      <c r="N31" s="54"/>
+      <c r="O31" s="54"/>
     </row>
     <row r="32" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
@@ -1727,16 +1724,16 @@
       <c r="C32" s="4"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
-      <c r="F32" s="58"/>
+      <c r="F32" s="57"/>
       <c r="G32" s="23"/>
       <c r="H32" s="56"/>
-      <c r="I32" s="56"/>
-      <c r="J32" s="56"/>
-      <c r="K32" s="56"/>
-      <c r="L32" s="56"/>
-      <c r="M32" s="56"/>
-      <c r="N32" s="57"/>
-      <c r="O32" s="56"/>
+      <c r="I32" s="54"/>
+      <c r="J32" s="54"/>
+      <c r="K32" s="54"/>
+      <c r="L32" s="54"/>
+      <c r="M32" s="54"/>
+      <c r="N32" s="54"/>
+      <c r="O32" s="54"/>
     </row>
     <row r="33" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
@@ -1746,16 +1743,16 @@
       <c r="C33" s="4"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
-      <c r="F33" s="58"/>
+      <c r="F33" s="57"/>
       <c r="G33" s="23"/>
       <c r="H33" s="56"/>
-      <c r="I33" s="56"/>
-      <c r="J33" s="56"/>
-      <c r="K33" s="56"/>
-      <c r="L33" s="56"/>
-      <c r="M33" s="56"/>
-      <c r="N33" s="57"/>
-      <c r="O33" s="56"/>
+      <c r="I33" s="54"/>
+      <c r="J33" s="54"/>
+      <c r="K33" s="54"/>
+      <c r="L33" s="54"/>
+      <c r="M33" s="54"/>
+      <c r="N33" s="54"/>
+      <c r="O33" s="54"/>
     </row>
     <row r="34" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
@@ -1765,16 +1762,16 @@
       <c r="C34" s="4"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
-      <c r="F34" s="58"/>
+      <c r="F34" s="57"/>
       <c r="G34" s="23"/>
       <c r="H34" s="56"/>
-      <c r="I34" s="56"/>
-      <c r="J34" s="56"/>
-      <c r="K34" s="56"/>
-      <c r="L34" s="56"/>
-      <c r="M34" s="56"/>
-      <c r="N34" s="57"/>
-      <c r="O34" s="56"/>
+      <c r="I34" s="54"/>
+      <c r="J34" s="54"/>
+      <c r="K34" s="54"/>
+      <c r="L34" s="54"/>
+      <c r="M34" s="54"/>
+      <c r="N34" s="54"/>
+      <c r="O34" s="54"/>
     </row>
     <row r="35" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
@@ -1784,16 +1781,16 @@
       <c r="C35" s="4"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
-      <c r="F35" s="58"/>
+      <c r="F35" s="57"/>
       <c r="G35" s="23"/>
       <c r="H35" s="56"/>
-      <c r="I35" s="56"/>
-      <c r="J35" s="56"/>
-      <c r="K35" s="56"/>
-      <c r="L35" s="56"/>
-      <c r="M35" s="56"/>
-      <c r="N35" s="57"/>
-      <c r="O35" s="56"/>
+      <c r="I35" s="54"/>
+      <c r="J35" s="54"/>
+      <c r="K35" s="54"/>
+      <c r="L35" s="54"/>
+      <c r="M35" s="54"/>
+      <c r="N35" s="54"/>
+      <c r="O35" s="54"/>
     </row>
     <row r="36" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
@@ -1803,16 +1800,16 @@
       <c r="C36" s="4"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
-      <c r="F36" s="58"/>
+      <c r="F36" s="57"/>
       <c r="G36" s="23"/>
       <c r="H36" s="56"/>
-      <c r="I36" s="56"/>
-      <c r="J36" s="56"/>
-      <c r="K36" s="56"/>
-      <c r="L36" s="56"/>
-      <c r="M36" s="56"/>
-      <c r="N36" s="57"/>
-      <c r="O36" s="56"/>
+      <c r="I36" s="54"/>
+      <c r="J36" s="54"/>
+      <c r="K36" s="54"/>
+      <c r="L36" s="54"/>
+      <c r="M36" s="54"/>
+      <c r="N36" s="54"/>
+      <c r="O36" s="54"/>
     </row>
     <row r="37" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
@@ -1822,16 +1819,16 @@
       <c r="C37" s="4"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
-      <c r="F37" s="58"/>
+      <c r="F37" s="57"/>
       <c r="G37" s="23"/>
       <c r="H37" s="56"/>
-      <c r="I37" s="56"/>
-      <c r="J37" s="56"/>
-      <c r="K37" s="56"/>
-      <c r="L37" s="56"/>
-      <c r="M37" s="56"/>
-      <c r="N37" s="57"/>
-      <c r="O37" s="56"/>
+      <c r="I37" s="54"/>
+      <c r="J37" s="54"/>
+      <c r="K37" s="54"/>
+      <c r="L37" s="54"/>
+      <c r="M37" s="54"/>
+      <c r="N37" s="54"/>
+      <c r="O37" s="54"/>
     </row>
     <row r="38" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
@@ -1841,16 +1838,16 @@
       <c r="C38" s="4"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
-      <c r="F38" s="58"/>
+      <c r="F38" s="57"/>
       <c r="G38" s="23"/>
       <c r="H38" s="56"/>
-      <c r="I38" s="56"/>
-      <c r="J38" s="56"/>
-      <c r="K38" s="56"/>
-      <c r="L38" s="56"/>
-      <c r="M38" s="56"/>
-      <c r="N38" s="57"/>
-      <c r="O38" s="56"/>
+      <c r="I38" s="54"/>
+      <c r="J38" s="54"/>
+      <c r="K38" s="54"/>
+      <c r="L38" s="54"/>
+      <c r="M38" s="54"/>
+      <c r="N38" s="54"/>
+      <c r="O38" s="54"/>
     </row>
     <row r="39" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
@@ -1860,16 +1857,16 @@
       <c r="C39" s="4"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
-      <c r="F39" s="58"/>
+      <c r="F39" s="57"/>
       <c r="G39" s="23"/>
       <c r="H39" s="56"/>
-      <c r="I39" s="56"/>
-      <c r="J39" s="56"/>
-      <c r="K39" s="56"/>
-      <c r="L39" s="56"/>
-      <c r="M39" s="56"/>
-      <c r="N39" s="57"/>
-      <c r="O39" s="56"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="54"/>
+      <c r="K39" s="54"/>
+      <c r="L39" s="54"/>
+      <c r="M39" s="54"/>
+      <c r="N39" s="54"/>
+      <c r="O39" s="54"/>
     </row>
     <row r="40" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
@@ -1879,16 +1876,16 @@
       <c r="C40" s="4"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
-      <c r="F40" s="58"/>
+      <c r="F40" s="57"/>
       <c r="G40" s="23"/>
       <c r="H40" s="56"/>
-      <c r="I40" s="56"/>
-      <c r="J40" s="56"/>
-      <c r="K40" s="56"/>
-      <c r="L40" s="56"/>
-      <c r="M40" s="56"/>
-      <c r="N40" s="57"/>
-      <c r="O40" s="56"/>
+      <c r="I40" s="54"/>
+      <c r="J40" s="54"/>
+      <c r="K40" s="54"/>
+      <c r="L40" s="54"/>
+      <c r="M40" s="54"/>
+      <c r="N40" s="54"/>
+      <c r="O40" s="54"/>
     </row>
     <row r="41" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
@@ -1898,16 +1895,16 @@
       <c r="C41" s="4"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
-      <c r="F41" s="58"/>
+      <c r="F41" s="57"/>
       <c r="G41" s="23"/>
       <c r="H41" s="56"/>
-      <c r="I41" s="56"/>
-      <c r="J41" s="56"/>
-      <c r="K41" s="56"/>
-      <c r="L41" s="56"/>
-      <c r="M41" s="56"/>
-      <c r="N41" s="57"/>
-      <c r="O41" s="56"/>
+      <c r="I41" s="54"/>
+      <c r="J41" s="54"/>
+      <c r="K41" s="54"/>
+      <c r="L41" s="54"/>
+      <c r="M41" s="54"/>
+      <c r="N41" s="54"/>
+      <c r="O41" s="54"/>
     </row>
     <row r="42" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
@@ -1917,16 +1914,16 @@
       <c r="C42" s="4"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
-      <c r="F42" s="58"/>
+      <c r="F42" s="57"/>
       <c r="G42" s="23"/>
       <c r="H42" s="56"/>
-      <c r="I42" s="56"/>
-      <c r="J42" s="56"/>
-      <c r="K42" s="56"/>
-      <c r="L42" s="56"/>
-      <c r="M42" s="56"/>
-      <c r="N42" s="57"/>
-      <c r="O42" s="56"/>
+      <c r="I42" s="54"/>
+      <c r="J42" s="54"/>
+      <c r="K42" s="54"/>
+      <c r="L42" s="54"/>
+      <c r="M42" s="54"/>
+      <c r="N42" s="54"/>
+      <c r="O42" s="54"/>
     </row>
     <row r="43" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
@@ -1936,16 +1933,16 @@
       <c r="C43" s="4"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
-      <c r="F43" s="58"/>
+      <c r="F43" s="57"/>
       <c r="G43" s="23"/>
       <c r="H43" s="56"/>
-      <c r="I43" s="56"/>
-      <c r="J43" s="56"/>
-      <c r="K43" s="56"/>
-      <c r="L43" s="56"/>
-      <c r="M43" s="56"/>
-      <c r="N43" s="57"/>
-      <c r="O43" s="56"/>
+      <c r="I43" s="54"/>
+      <c r="J43" s="54"/>
+      <c r="K43" s="54"/>
+      <c r="L43" s="54"/>
+      <c r="M43" s="54"/>
+      <c r="N43" s="54"/>
+      <c r="O43" s="54"/>
     </row>
     <row r="44" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
@@ -1955,16 +1952,16 @@
       <c r="C44" s="4"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
-      <c r="F44" s="58"/>
+      <c r="F44" s="57"/>
       <c r="G44" s="23"/>
       <c r="H44" s="56"/>
-      <c r="I44" s="56"/>
-      <c r="J44" s="56"/>
-      <c r="K44" s="56"/>
-      <c r="L44" s="56"/>
-      <c r="M44" s="56"/>
-      <c r="N44" s="57"/>
-      <c r="O44" s="56"/>
+      <c r="I44" s="54"/>
+      <c r="J44" s="54"/>
+      <c r="K44" s="54"/>
+      <c r="L44" s="54"/>
+      <c r="M44" s="54"/>
+      <c r="N44" s="54"/>
+      <c r="O44" s="54"/>
     </row>
     <row r="45" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
@@ -1974,16 +1971,16 @@
       <c r="C45" s="4"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
-      <c r="F45" s="58"/>
+      <c r="F45" s="57"/>
       <c r="G45" s="23"/>
       <c r="H45" s="56"/>
-      <c r="I45" s="56"/>
-      <c r="J45" s="56"/>
-      <c r="K45" s="56"/>
-      <c r="L45" s="56"/>
-      <c r="M45" s="56"/>
-      <c r="N45" s="57"/>
-      <c r="O45" s="56"/>
+      <c r="I45" s="54"/>
+      <c r="J45" s="54"/>
+      <c r="K45" s="54"/>
+      <c r="L45" s="54"/>
+      <c r="M45" s="54"/>
+      <c r="N45" s="54"/>
+      <c r="O45" s="54"/>
     </row>
     <row r="46" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
@@ -1993,16 +1990,16 @@
       <c r="C46" s="4"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
-      <c r="F46" s="58"/>
+      <c r="F46" s="57"/>
       <c r="G46" s="23"/>
       <c r="H46" s="56"/>
-      <c r="I46" s="56"/>
-      <c r="J46" s="56"/>
-      <c r="K46" s="56"/>
-      <c r="L46" s="56"/>
-      <c r="M46" s="56"/>
-      <c r="N46" s="57"/>
-      <c r="O46" s="56"/>
+      <c r="I46" s="54"/>
+      <c r="J46" s="54"/>
+      <c r="K46" s="54"/>
+      <c r="L46" s="54"/>
+      <c r="M46" s="54"/>
+      <c r="N46" s="54"/>
+      <c r="O46" s="54"/>
     </row>
     <row r="47" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
@@ -2012,16 +2009,16 @@
       <c r="C47" s="4"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
-      <c r="F47" s="58"/>
+      <c r="F47" s="57"/>
       <c r="G47" s="23"/>
       <c r="H47" s="56"/>
-      <c r="I47" s="56"/>
-      <c r="J47" s="56"/>
-      <c r="K47" s="56"/>
-      <c r="L47" s="56"/>
-      <c r="M47" s="56"/>
-      <c r="N47" s="57"/>
-      <c r="O47" s="56"/>
+      <c r="I47" s="54"/>
+      <c r="J47" s="54"/>
+      <c r="K47" s="54"/>
+      <c r="L47" s="54"/>
+      <c r="M47" s="54"/>
+      <c r="N47" s="54"/>
+      <c r="O47" s="54"/>
     </row>
     <row r="48" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
@@ -2031,16 +2028,16 @@
       <c r="C48" s="4"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
-      <c r="F48" s="58"/>
+      <c r="F48" s="57"/>
       <c r="G48" s="23"/>
       <c r="H48" s="56"/>
-      <c r="I48" s="56"/>
-      <c r="J48" s="56"/>
-      <c r="K48" s="56"/>
-      <c r="L48" s="56"/>
-      <c r="M48" s="56"/>
-      <c r="N48" s="57"/>
-      <c r="O48" s="56"/>
+      <c r="I48" s="54"/>
+      <c r="J48" s="54"/>
+      <c r="K48" s="54"/>
+      <c r="L48" s="54"/>
+      <c r="M48" s="54"/>
+      <c r="N48" s="54"/>
+      <c r="O48" s="54"/>
     </row>
     <row r="49" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
@@ -2050,16 +2047,16 @@
       <c r="C49" s="4"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
-      <c r="F49" s="58"/>
+      <c r="F49" s="57"/>
       <c r="G49" s="23"/>
       <c r="H49" s="56"/>
-      <c r="I49" s="56"/>
-      <c r="J49" s="56"/>
-      <c r="K49" s="56"/>
-      <c r="L49" s="56"/>
-      <c r="M49" s="56"/>
-      <c r="N49" s="57"/>
-      <c r="O49" s="56"/>
+      <c r="I49" s="54"/>
+      <c r="J49" s="54"/>
+      <c r="K49" s="54"/>
+      <c r="L49" s="54"/>
+      <c r="M49" s="54"/>
+      <c r="N49" s="54"/>
+      <c r="O49" s="54"/>
     </row>
     <row r="50" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
@@ -2069,16 +2066,16 @@
       <c r="C50" s="4"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
-      <c r="F50" s="58"/>
+      <c r="F50" s="57"/>
       <c r="G50" s="23"/>
       <c r="H50" s="56"/>
-      <c r="I50" s="56"/>
-      <c r="J50" s="56"/>
-      <c r="K50" s="56"/>
-      <c r="L50" s="56"/>
-      <c r="M50" s="56"/>
-      <c r="N50" s="57"/>
-      <c r="O50" s="56"/>
+      <c r="I50" s="54"/>
+      <c r="J50" s="54"/>
+      <c r="K50" s="54"/>
+      <c r="L50" s="54"/>
+      <c r="M50" s="54"/>
+      <c r="N50" s="54"/>
+      <c r="O50" s="54"/>
     </row>
     <row r="51" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
@@ -2088,16 +2085,16 @@
       <c r="C51" s="4"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
-      <c r="F51" s="58"/>
+      <c r="F51" s="57"/>
       <c r="G51" s="23"/>
       <c r="H51" s="56"/>
-      <c r="I51" s="56"/>
-      <c r="J51" s="56"/>
-      <c r="K51" s="56"/>
-      <c r="L51" s="56"/>
-      <c r="M51" s="56"/>
-      <c r="N51" s="57"/>
-      <c r="O51" s="56"/>
+      <c r="I51" s="54"/>
+      <c r="J51" s="54"/>
+      <c r="K51" s="54"/>
+      <c r="L51" s="54"/>
+      <c r="M51" s="54"/>
+      <c r="N51" s="54"/>
+      <c r="O51" s="54"/>
     </row>
     <row r="52" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
@@ -2107,16 +2104,16 @@
       <c r="C52" s="4"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
-      <c r="F52" s="58"/>
+      <c r="F52" s="57"/>
       <c r="G52" s="23"/>
       <c r="H52" s="56"/>
-      <c r="I52" s="56"/>
-      <c r="J52" s="56"/>
-      <c r="K52" s="56"/>
-      <c r="L52" s="56"/>
-      <c r="M52" s="56"/>
-      <c r="N52" s="57"/>
-      <c r="O52" s="56"/>
+      <c r="I52" s="54"/>
+      <c r="J52" s="54"/>
+      <c r="K52" s="54"/>
+      <c r="L52" s="54"/>
+      <c r="M52" s="54"/>
+      <c r="N52" s="54"/>
+      <c r="O52" s="54"/>
     </row>
     <row r="53" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
@@ -2126,16 +2123,16 @@
       <c r="C53" s="4"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
-      <c r="F53" s="58"/>
+      <c r="F53" s="57"/>
       <c r="G53" s="23"/>
       <c r="H53" s="56"/>
-      <c r="I53" s="56"/>
-      <c r="J53" s="56"/>
-      <c r="K53" s="56"/>
-      <c r="L53" s="56"/>
-      <c r="M53" s="56"/>
-      <c r="N53" s="57"/>
-      <c r="O53" s="56"/>
+      <c r="I53" s="54"/>
+      <c r="J53" s="54"/>
+      <c r="K53" s="54"/>
+      <c r="L53" s="54"/>
+      <c r="M53" s="54"/>
+      <c r="N53" s="54"/>
+      <c r="O53" s="54"/>
     </row>
     <row r="54" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
@@ -2145,16 +2142,16 @@
       <c r="C54" s="4"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
-      <c r="F54" s="58"/>
+      <c r="F54" s="57"/>
       <c r="G54" s="23"/>
       <c r="H54" s="56"/>
-      <c r="I54" s="56"/>
-      <c r="J54" s="56"/>
-      <c r="K54" s="56"/>
-      <c r="L54" s="56"/>
-      <c r="M54" s="56"/>
-      <c r="N54" s="57"/>
-      <c r="O54" s="56"/>
+      <c r="I54" s="54"/>
+      <c r="J54" s="54"/>
+      <c r="K54" s="54"/>
+      <c r="L54" s="54"/>
+      <c r="M54" s="54"/>
+      <c r="N54" s="54"/>
+      <c r="O54" s="54"/>
     </row>
     <row r="55" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
@@ -2164,16 +2161,16 @@
       <c r="C55" s="4"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
-      <c r="F55" s="58"/>
+      <c r="F55" s="57"/>
       <c r="G55" s="23"/>
       <c r="H55" s="56"/>
-      <c r="I55" s="56"/>
-      <c r="J55" s="56"/>
-      <c r="K55" s="56"/>
-      <c r="L55" s="56"/>
-      <c r="M55" s="56"/>
-      <c r="N55" s="57"/>
-      <c r="O55" s="56"/>
+      <c r="I55" s="54"/>
+      <c r="J55" s="54"/>
+      <c r="K55" s="54"/>
+      <c r="L55" s="54"/>
+      <c r="M55" s="54"/>
+      <c r="N55" s="54"/>
+      <c r="O55" s="54"/>
     </row>
     <row r="56" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
@@ -2183,16 +2180,16 @@
       <c r="C56" s="4"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
-      <c r="F56" s="58"/>
+      <c r="F56" s="57"/>
       <c r="G56" s="23"/>
       <c r="H56" s="56"/>
-      <c r="I56" s="56"/>
-      <c r="J56" s="56"/>
-      <c r="K56" s="56"/>
-      <c r="L56" s="56"/>
-      <c r="M56" s="56"/>
-      <c r="N56" s="57"/>
-      <c r="O56" s="56"/>
+      <c r="I56" s="54"/>
+      <c r="J56" s="54"/>
+      <c r="K56" s="54"/>
+      <c r="L56" s="54"/>
+      <c r="M56" s="54"/>
+      <c r="N56" s="54"/>
+      <c r="O56" s="54"/>
     </row>
     <row r="57" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
@@ -2202,16 +2199,16 @@
       <c r="C57" s="4"/>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
-      <c r="F57" s="58"/>
+      <c r="F57" s="57"/>
       <c r="G57" s="23"/>
       <c r="H57" s="56"/>
-      <c r="I57" s="56"/>
-      <c r="J57" s="56"/>
-      <c r="K57" s="56"/>
-      <c r="L57" s="56"/>
-      <c r="M57" s="56"/>
-      <c r="N57" s="57"/>
-      <c r="O57" s="56"/>
+      <c r="I57" s="54"/>
+      <c r="J57" s="54"/>
+      <c r="K57" s="54"/>
+      <c r="L57" s="54"/>
+      <c r="M57" s="54"/>
+      <c r="N57" s="54"/>
+      <c r="O57" s="54"/>
     </row>
     <row r="58" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
@@ -2221,16 +2218,16 @@
       <c r="C58" s="4"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
-      <c r="F58" s="58"/>
+      <c r="F58" s="57"/>
       <c r="G58" s="23"/>
       <c r="H58" s="56"/>
-      <c r="I58" s="56"/>
-      <c r="J58" s="56"/>
-      <c r="K58" s="56"/>
-      <c r="L58" s="56"/>
-      <c r="M58" s="56"/>
-      <c r="N58" s="57"/>
-      <c r="O58" s="56"/>
+      <c r="I58" s="54"/>
+      <c r="J58" s="54"/>
+      <c r="K58" s="54"/>
+      <c r="L58" s="54"/>
+      <c r="M58" s="54"/>
+      <c r="N58" s="54"/>
+      <c r="O58" s="54"/>
     </row>
     <row r="59" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
@@ -2240,16 +2237,16 @@
       <c r="C59" s="4"/>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
-      <c r="F59" s="58"/>
+      <c r="F59" s="57"/>
       <c r="G59" s="23"/>
       <c r="H59" s="56"/>
-      <c r="I59" s="56"/>
-      <c r="J59" s="56"/>
-      <c r="K59" s="56"/>
-      <c r="L59" s="56"/>
-      <c r="M59" s="56"/>
-      <c r="N59" s="57"/>
-      <c r="O59" s="56"/>
+      <c r="I59" s="54"/>
+      <c r="J59" s="54"/>
+      <c r="K59" s="54"/>
+      <c r="L59" s="54"/>
+      <c r="M59" s="54"/>
+      <c r="N59" s="54"/>
+      <c r="O59" s="54"/>
     </row>
     <row r="60" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
@@ -2259,16 +2256,16 @@
       <c r="C60" s="4"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
-      <c r="F60" s="58"/>
+      <c r="F60" s="57"/>
       <c r="G60" s="23"/>
       <c r="H60" s="56"/>
-      <c r="I60" s="56"/>
-      <c r="J60" s="56"/>
-      <c r="K60" s="56"/>
-      <c r="L60" s="56"/>
-      <c r="M60" s="56"/>
-      <c r="N60" s="57"/>
-      <c r="O60" s="56"/>
+      <c r="I60" s="54"/>
+      <c r="J60" s="54"/>
+      <c r="K60" s="54"/>
+      <c r="L60" s="54"/>
+      <c r="M60" s="54"/>
+      <c r="N60" s="54"/>
+      <c r="O60" s="54"/>
     </row>
     <row r="61" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
@@ -2278,16 +2275,16 @@
       <c r="C61" s="4"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
-      <c r="F61" s="58"/>
+      <c r="F61" s="57"/>
       <c r="G61" s="23"/>
       <c r="H61" s="56"/>
-      <c r="I61" s="56"/>
-      <c r="J61" s="56"/>
-      <c r="K61" s="56"/>
-      <c r="L61" s="56"/>
-      <c r="M61" s="56"/>
-      <c r="N61" s="57"/>
-      <c r="O61" s="56"/>
+      <c r="I61" s="54"/>
+      <c r="J61" s="54"/>
+      <c r="K61" s="54"/>
+      <c r="L61" s="54"/>
+      <c r="M61" s="54"/>
+      <c r="N61" s="54"/>
+      <c r="O61" s="54"/>
     </row>
     <row r="62" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
@@ -2297,16 +2294,16 @@
       <c r="C62" s="4"/>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
-      <c r="F62" s="58"/>
+      <c r="F62" s="57"/>
       <c r="G62" s="23"/>
       <c r="H62" s="56"/>
-      <c r="I62" s="56"/>
-      <c r="J62" s="56"/>
-      <c r="K62" s="56"/>
-      <c r="L62" s="56"/>
-      <c r="M62" s="56"/>
-      <c r="N62" s="57"/>
-      <c r="O62" s="56"/>
+      <c r="I62" s="54"/>
+      <c r="J62" s="54"/>
+      <c r="K62" s="54"/>
+      <c r="L62" s="54"/>
+      <c r="M62" s="54"/>
+      <c r="N62" s="54"/>
+      <c r="O62" s="54"/>
     </row>
     <row r="63" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
@@ -2316,16 +2313,16 @@
       <c r="C63" s="4"/>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
-      <c r="F63" s="58"/>
+      <c r="F63" s="57"/>
       <c r="G63" s="23"/>
       <c r="H63" s="56"/>
-      <c r="I63" s="56"/>
-      <c r="J63" s="56"/>
-      <c r="K63" s="56"/>
-      <c r="L63" s="56"/>
-      <c r="M63" s="56"/>
-      <c r="N63" s="57"/>
-      <c r="O63" s="56"/>
+      <c r="I63" s="54"/>
+      <c r="J63" s="54"/>
+      <c r="K63" s="54"/>
+      <c r="L63" s="54"/>
+      <c r="M63" s="54"/>
+      <c r="N63" s="54"/>
+      <c r="O63" s="54"/>
     </row>
     <row r="64" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
@@ -2335,16 +2332,16 @@
       <c r="C64" s="4"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
-      <c r="F64" s="58"/>
+      <c r="F64" s="57"/>
       <c r="G64" s="23"/>
       <c r="H64" s="56"/>
-      <c r="I64" s="56"/>
-      <c r="J64" s="56"/>
-      <c r="K64" s="56"/>
-      <c r="L64" s="56"/>
-      <c r="M64" s="56"/>
-      <c r="N64" s="57"/>
-      <c r="O64" s="56"/>
+      <c r="I64" s="54"/>
+      <c r="J64" s="54"/>
+      <c r="K64" s="54"/>
+      <c r="L64" s="54"/>
+      <c r="M64" s="54"/>
+      <c r="N64" s="54"/>
+      <c r="O64" s="54"/>
     </row>
     <row r="65" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
@@ -2354,16 +2351,16 @@
       <c r="C65" s="4"/>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
-      <c r="F65" s="58"/>
+      <c r="F65" s="57"/>
       <c r="G65" s="23"/>
       <c r="H65" s="56"/>
-      <c r="I65" s="56"/>
-      <c r="J65" s="56"/>
-      <c r="K65" s="56"/>
-      <c r="L65" s="56"/>
-      <c r="M65" s="56"/>
-      <c r="N65" s="57"/>
-      <c r="O65" s="56"/>
+      <c r="I65" s="54"/>
+      <c r="J65" s="54"/>
+      <c r="K65" s="54"/>
+      <c r="L65" s="54"/>
+      <c r="M65" s="54"/>
+      <c r="N65" s="54"/>
+      <c r="O65" s="54"/>
     </row>
     <row r="66" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
@@ -2373,16 +2370,16 @@
       <c r="C66" s="4"/>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
-      <c r="F66" s="58"/>
+      <c r="F66" s="57"/>
       <c r="G66" s="23"/>
       <c r="H66" s="56"/>
-      <c r="I66" s="56"/>
-      <c r="J66" s="56"/>
-      <c r="K66" s="56"/>
-      <c r="L66" s="56"/>
-      <c r="M66" s="56"/>
-      <c r="N66" s="57"/>
-      <c r="O66" s="56"/>
+      <c r="I66" s="54"/>
+      <c r="J66" s="54"/>
+      <c r="K66" s="54"/>
+      <c r="L66" s="54"/>
+      <c r="M66" s="54"/>
+      <c r="N66" s="54"/>
+      <c r="O66" s="54"/>
     </row>
     <row r="67" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
@@ -2392,16 +2389,16 @@
       <c r="C67" s="4"/>
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
-      <c r="F67" s="58"/>
+      <c r="F67" s="57"/>
       <c r="G67" s="23"/>
       <c r="H67" s="56"/>
-      <c r="I67" s="56"/>
-      <c r="J67" s="56"/>
-      <c r="K67" s="56"/>
-      <c r="L67" s="56"/>
-      <c r="M67" s="56"/>
-      <c r="N67" s="57"/>
-      <c r="O67" s="56"/>
+      <c r="I67" s="54"/>
+      <c r="J67" s="54"/>
+      <c r="K67" s="54"/>
+      <c r="L67" s="54"/>
+      <c r="M67" s="54"/>
+      <c r="N67" s="54"/>
+      <c r="O67" s="54"/>
     </row>
     <row r="68" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
@@ -2411,16 +2408,16 @@
       <c r="C68" s="4"/>
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
-      <c r="F68" s="58"/>
+      <c r="F68" s="57"/>
       <c r="G68" s="23"/>
       <c r="H68" s="56"/>
-      <c r="I68" s="56"/>
-      <c r="J68" s="56"/>
-      <c r="K68" s="56"/>
-      <c r="L68" s="56"/>
-      <c r="M68" s="56"/>
-      <c r="N68" s="57"/>
-      <c r="O68" s="56"/>
+      <c r="I68" s="54"/>
+      <c r="J68" s="54"/>
+      <c r="K68" s="54"/>
+      <c r="L68" s="54"/>
+      <c r="M68" s="54"/>
+      <c r="N68" s="54"/>
+      <c r="O68" s="54"/>
     </row>
     <row r="69" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
@@ -2430,16 +2427,16 @@
       <c r="C69" s="4"/>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
-      <c r="F69" s="58"/>
+      <c r="F69" s="57"/>
       <c r="G69" s="23"/>
       <c r="H69" s="56"/>
-      <c r="I69" s="56"/>
-      <c r="J69" s="56"/>
-      <c r="K69" s="56"/>
-      <c r="L69" s="56"/>
-      <c r="M69" s="56"/>
-      <c r="N69" s="57"/>
-      <c r="O69" s="56"/>
+      <c r="I69" s="54"/>
+      <c r="J69" s="54"/>
+      <c r="K69" s="54"/>
+      <c r="L69" s="54"/>
+      <c r="M69" s="54"/>
+      <c r="N69" s="54"/>
+      <c r="O69" s="54"/>
     </row>
     <row r="70" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
@@ -2449,16 +2446,16 @@
       <c r="C70" s="4"/>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
-      <c r="F70" s="58"/>
+      <c r="F70" s="57"/>
       <c r="G70" s="23"/>
       <c r="H70" s="56"/>
-      <c r="I70" s="56"/>
-      <c r="J70" s="56"/>
-      <c r="K70" s="56"/>
-      <c r="L70" s="56"/>
-      <c r="M70" s="56"/>
-      <c r="N70" s="57"/>
-      <c r="O70" s="56"/>
+      <c r="I70" s="54"/>
+      <c r="J70" s="54"/>
+      <c r="K70" s="54"/>
+      <c r="L70" s="54"/>
+      <c r="M70" s="54"/>
+      <c r="N70" s="54"/>
+      <c r="O70" s="54"/>
     </row>
     <row r="71" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
@@ -2468,16 +2465,16 @@
       <c r="C71" s="4"/>
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
-      <c r="F71" s="58"/>
+      <c r="F71" s="57"/>
       <c r="G71" s="23"/>
       <c r="H71" s="56"/>
-      <c r="I71" s="56"/>
-      <c r="J71" s="56"/>
-      <c r="K71" s="56"/>
-      <c r="L71" s="56"/>
-      <c r="M71" s="56"/>
-      <c r="N71" s="57"/>
-      <c r="O71" s="56"/>
+      <c r="I71" s="54"/>
+      <c r="J71" s="54"/>
+      <c r="K71" s="54"/>
+      <c r="L71" s="54"/>
+      <c r="M71" s="54"/>
+      <c r="N71" s="54"/>
+      <c r="O71" s="54"/>
     </row>
     <row r="72" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
@@ -2487,16 +2484,16 @@
       <c r="C72" s="4"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
-      <c r="F72" s="58"/>
+      <c r="F72" s="57"/>
       <c r="G72" s="23"/>
       <c r="H72" s="56"/>
-      <c r="I72" s="56"/>
-      <c r="J72" s="56"/>
-      <c r="K72" s="56"/>
-      <c r="L72" s="56"/>
-      <c r="M72" s="56"/>
-      <c r="N72" s="57"/>
-      <c r="O72" s="56"/>
+      <c r="I72" s="54"/>
+      <c r="J72" s="54"/>
+      <c r="K72" s="54"/>
+      <c r="L72" s="54"/>
+      <c r="M72" s="54"/>
+      <c r="N72" s="54"/>
+      <c r="O72" s="54"/>
     </row>
     <row r="73" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
@@ -2506,16 +2503,16 @@
       <c r="C73" s="4"/>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
-      <c r="F73" s="58"/>
+      <c r="F73" s="57"/>
       <c r="G73" s="23"/>
       <c r="H73" s="56"/>
-      <c r="I73" s="56"/>
-      <c r="J73" s="56"/>
-      <c r="K73" s="56"/>
-      <c r="L73" s="56"/>
-      <c r="M73" s="56"/>
-      <c r="N73" s="57"/>
-      <c r="O73" s="56"/>
+      <c r="I73" s="54"/>
+      <c r="J73" s="54"/>
+      <c r="K73" s="54"/>
+      <c r="L73" s="54"/>
+      <c r="M73" s="54"/>
+      <c r="N73" s="54"/>
+      <c r="O73" s="54"/>
     </row>
     <row r="74" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
@@ -2525,16 +2522,16 @@
       <c r="C74" s="4"/>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
-      <c r="F74" s="58"/>
+      <c r="F74" s="57"/>
       <c r="G74" s="23"/>
       <c r="H74" s="56"/>
-      <c r="I74" s="56"/>
-      <c r="J74" s="56"/>
-      <c r="K74" s="56"/>
-      <c r="L74" s="56"/>
-      <c r="M74" s="56"/>
-      <c r="N74" s="57"/>
-      <c r="O74" s="56"/>
+      <c r="I74" s="54"/>
+      <c r="J74" s="54"/>
+      <c r="K74" s="54"/>
+      <c r="L74" s="54"/>
+      <c r="M74" s="54"/>
+      <c r="N74" s="54"/>
+      <c r="O74" s="54"/>
     </row>
     <row r="75" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
@@ -2544,16 +2541,16 @@
       <c r="C75" s="4"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
-      <c r="F75" s="58"/>
+      <c r="F75" s="57"/>
       <c r="G75" s="23"/>
       <c r="H75" s="56"/>
-      <c r="I75" s="56"/>
-      <c r="J75" s="56"/>
-      <c r="K75" s="56"/>
-      <c r="L75" s="56"/>
-      <c r="M75" s="56"/>
-      <c r="N75" s="57"/>
-      <c r="O75" s="56"/>
+      <c r="I75" s="54"/>
+      <c r="J75" s="54"/>
+      <c r="K75" s="54"/>
+      <c r="L75" s="54"/>
+      <c r="M75" s="54"/>
+      <c r="N75" s="54"/>
+      <c r="O75" s="54"/>
     </row>
     <row r="76" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
@@ -2563,16 +2560,16 @@
       <c r="C76" s="4"/>
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
-      <c r="F76" s="58"/>
+      <c r="F76" s="57"/>
       <c r="G76" s="23"/>
       <c r="H76" s="56"/>
-      <c r="I76" s="56"/>
-      <c r="J76" s="56"/>
-      <c r="K76" s="56"/>
-      <c r="L76" s="56"/>
-      <c r="M76" s="56"/>
-      <c r="N76" s="57"/>
-      <c r="O76" s="56"/>
+      <c r="I76" s="54"/>
+      <c r="J76" s="54"/>
+      <c r="K76" s="54"/>
+      <c r="L76" s="54"/>
+      <c r="M76" s="54"/>
+      <c r="N76" s="54"/>
+      <c r="O76" s="54"/>
     </row>
     <row r="77" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
@@ -2582,16 +2579,16 @@
       <c r="C77" s="4"/>
       <c r="D77" s="5"/>
       <c r="E77" s="5"/>
-      <c r="F77" s="58"/>
+      <c r="F77" s="57"/>
       <c r="G77" s="23"/>
       <c r="H77" s="56"/>
-      <c r="I77" s="56"/>
-      <c r="J77" s="56"/>
-      <c r="K77" s="56"/>
-      <c r="L77" s="56"/>
-      <c r="M77" s="56"/>
-      <c r="N77" s="57"/>
-      <c r="O77" s="56"/>
+      <c r="I77" s="54"/>
+      <c r="J77" s="54"/>
+      <c r="K77" s="54"/>
+      <c r="L77" s="54"/>
+      <c r="M77" s="54"/>
+      <c r="N77" s="54"/>
+      <c r="O77" s="54"/>
     </row>
     <row r="78" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
@@ -2601,16 +2598,16 @@
       <c r="C78" s="4"/>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
-      <c r="F78" s="58"/>
+      <c r="F78" s="57"/>
       <c r="G78" s="23"/>
       <c r="H78" s="56"/>
-      <c r="I78" s="56"/>
-      <c r="J78" s="56"/>
-      <c r="K78" s="56"/>
-      <c r="L78" s="56"/>
-      <c r="M78" s="56"/>
-      <c r="N78" s="57"/>
-      <c r="O78" s="56"/>
+      <c r="I78" s="54"/>
+      <c r="J78" s="54"/>
+      <c r="K78" s="54"/>
+      <c r="L78" s="54"/>
+      <c r="M78" s="54"/>
+      <c r="N78" s="54"/>
+      <c r="O78" s="54"/>
     </row>
     <row r="79" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
@@ -2620,16 +2617,16 @@
       <c r="C79" s="4"/>
       <c r="D79" s="5"/>
       <c r="E79" s="5"/>
-      <c r="F79" s="58"/>
+      <c r="F79" s="57"/>
       <c r="G79" s="23"/>
       <c r="H79" s="56"/>
-      <c r="I79" s="56"/>
-      <c r="J79" s="56"/>
-      <c r="K79" s="56"/>
-      <c r="L79" s="56"/>
-      <c r="M79" s="56"/>
-      <c r="N79" s="57"/>
-      <c r="O79" s="56"/>
+      <c r="I79" s="54"/>
+      <c r="J79" s="54"/>
+      <c r="K79" s="54"/>
+      <c r="L79" s="54"/>
+      <c r="M79" s="54"/>
+      <c r="N79" s="54"/>
+      <c r="O79" s="54"/>
     </row>
     <row r="80" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
@@ -2639,16 +2636,16 @@
       <c r="C80" s="4"/>
       <c r="D80" s="5"/>
       <c r="E80" s="5"/>
-      <c r="F80" s="58"/>
+      <c r="F80" s="57"/>
       <c r="G80" s="23"/>
       <c r="H80" s="56"/>
-      <c r="I80" s="56"/>
-      <c r="J80" s="56"/>
-      <c r="K80" s="56"/>
-      <c r="L80" s="56"/>
-      <c r="M80" s="56"/>
-      <c r="N80" s="57"/>
-      <c r="O80" s="56"/>
+      <c r="I80" s="54"/>
+      <c r="J80" s="54"/>
+      <c r="K80" s="54"/>
+      <c r="L80" s="54"/>
+      <c r="M80" s="54"/>
+      <c r="N80" s="54"/>
+      <c r="O80" s="54"/>
     </row>
     <row r="81" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
@@ -2658,16 +2655,16 @@
       <c r="C81" s="4"/>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
-      <c r="F81" s="58"/>
+      <c r="F81" s="57"/>
       <c r="G81" s="23"/>
       <c r="H81" s="56"/>
-      <c r="I81" s="56"/>
-      <c r="J81" s="56"/>
-      <c r="K81" s="56"/>
-      <c r="L81" s="56"/>
-      <c r="M81" s="56"/>
-      <c r="N81" s="57"/>
-      <c r="O81" s="56"/>
+      <c r="I81" s="54"/>
+      <c r="J81" s="54"/>
+      <c r="K81" s="54"/>
+      <c r="L81" s="54"/>
+      <c r="M81" s="54"/>
+      <c r="N81" s="54"/>
+      <c r="O81" s="54"/>
     </row>
     <row r="82" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
@@ -2677,16 +2674,16 @@
       <c r="C82" s="4"/>
       <c r="D82" s="5"/>
       <c r="E82" s="5"/>
-      <c r="F82" s="58"/>
+      <c r="F82" s="57"/>
       <c r="G82" s="23"/>
       <c r="H82" s="56"/>
-      <c r="I82" s="56"/>
-      <c r="J82" s="56"/>
-      <c r="K82" s="56"/>
-      <c r="L82" s="56"/>
-      <c r="M82" s="56"/>
-      <c r="N82" s="57"/>
-      <c r="O82" s="56"/>
+      <c r="I82" s="54"/>
+      <c r="J82" s="54"/>
+      <c r="K82" s="54"/>
+      <c r="L82" s="54"/>
+      <c r="M82" s="54"/>
+      <c r="N82" s="54"/>
+      <c r="O82" s="54"/>
     </row>
     <row r="83" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
@@ -2696,16 +2693,16 @@
       <c r="C83" s="4"/>
       <c r="D83" s="5"/>
       <c r="E83" s="5"/>
-      <c r="F83" s="58"/>
+      <c r="F83" s="57"/>
       <c r="G83" s="23"/>
       <c r="H83" s="56"/>
-      <c r="I83" s="56"/>
-      <c r="J83" s="56"/>
-      <c r="K83" s="56"/>
-      <c r="L83" s="56"/>
-      <c r="M83" s="56"/>
-      <c r="N83" s="57"/>
-      <c r="O83" s="56"/>
+      <c r="I83" s="54"/>
+      <c r="J83" s="54"/>
+      <c r="K83" s="54"/>
+      <c r="L83" s="54"/>
+      <c r="M83" s="54"/>
+      <c r="N83" s="54"/>
+      <c r="O83" s="54"/>
     </row>
     <row r="84" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
@@ -2715,16 +2712,16 @@
       <c r="C84" s="4"/>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
-      <c r="F84" s="58"/>
+      <c r="F84" s="57"/>
       <c r="G84" s="23"/>
       <c r="H84" s="56"/>
-      <c r="I84" s="56"/>
-      <c r="J84" s="56"/>
-      <c r="K84" s="56"/>
-      <c r="L84" s="56"/>
-      <c r="M84" s="56"/>
-      <c r="N84" s="57"/>
-      <c r="O84" s="56"/>
+      <c r="I84" s="54"/>
+      <c r="J84" s="54"/>
+      <c r="K84" s="54"/>
+      <c r="L84" s="54"/>
+      <c r="M84" s="54"/>
+      <c r="N84" s="54"/>
+      <c r="O84" s="54"/>
     </row>
     <row r="85" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
@@ -2734,16 +2731,16 @@
       <c r="C85" s="4"/>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
-      <c r="F85" s="58"/>
+      <c r="F85" s="57"/>
       <c r="G85" s="23"/>
       <c r="H85" s="56"/>
-      <c r="I85" s="56"/>
-      <c r="J85" s="56"/>
-      <c r="K85" s="56"/>
-      <c r="L85" s="56"/>
-      <c r="M85" s="56"/>
-      <c r="N85" s="57"/>
-      <c r="O85" s="56"/>
+      <c r="I85" s="54"/>
+      <c r="J85" s="54"/>
+      <c r="K85" s="54"/>
+      <c r="L85" s="54"/>
+      <c r="M85" s="54"/>
+      <c r="N85" s="54"/>
+      <c r="O85" s="54"/>
     </row>
     <row r="86" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
@@ -2753,16 +2750,16 @@
       <c r="C86" s="4"/>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
-      <c r="F86" s="58"/>
+      <c r="F86" s="57"/>
       <c r="G86" s="23"/>
       <c r="H86" s="56"/>
-      <c r="I86" s="56"/>
-      <c r="J86" s="56"/>
-      <c r="K86" s="56"/>
-      <c r="L86" s="56"/>
-      <c r="M86" s="56"/>
-      <c r="N86" s="57"/>
-      <c r="O86" s="56"/>
+      <c r="I86" s="54"/>
+      <c r="J86" s="54"/>
+      <c r="K86" s="54"/>
+      <c r="L86" s="54"/>
+      <c r="M86" s="54"/>
+      <c r="N86" s="54"/>
+      <c r="O86" s="54"/>
     </row>
     <row r="87" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
@@ -2772,16 +2769,16 @@
       <c r="C87" s="4"/>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
-      <c r="F87" s="58"/>
+      <c r="F87" s="57"/>
       <c r="G87" s="23"/>
       <c r="H87" s="56"/>
-      <c r="I87" s="56"/>
-      <c r="J87" s="56"/>
-      <c r="K87" s="56"/>
-      <c r="L87" s="56"/>
-      <c r="M87" s="56"/>
-      <c r="N87" s="57"/>
-      <c r="O87" s="56"/>
+      <c r="I87" s="54"/>
+      <c r="J87" s="54"/>
+      <c r="K87" s="54"/>
+      <c r="L87" s="54"/>
+      <c r="M87" s="54"/>
+      <c r="N87" s="54"/>
+      <c r="O87" s="54"/>
     </row>
     <row r="88" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
@@ -2791,16 +2788,16 @@
       <c r="C88" s="4"/>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
-      <c r="F88" s="58"/>
+      <c r="F88" s="57"/>
       <c r="G88" s="23"/>
       <c r="H88" s="56"/>
-      <c r="I88" s="56"/>
-      <c r="J88" s="56"/>
-      <c r="K88" s="56"/>
-      <c r="L88" s="56"/>
-      <c r="M88" s="56"/>
-      <c r="N88" s="57"/>
-      <c r="O88" s="56"/>
+      <c r="I88" s="54"/>
+      <c r="J88" s="54"/>
+      <c r="K88" s="54"/>
+      <c r="L88" s="54"/>
+      <c r="M88" s="54"/>
+      <c r="N88" s="54"/>
+      <c r="O88" s="54"/>
     </row>
     <row r="89" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
@@ -2810,16 +2807,16 @@
       <c r="C89" s="4"/>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
-      <c r="F89" s="58"/>
+      <c r="F89" s="57"/>
       <c r="G89" s="23"/>
       <c r="H89" s="56"/>
-      <c r="I89" s="56"/>
-      <c r="J89" s="56"/>
-      <c r="K89" s="56"/>
-      <c r="L89" s="56"/>
-      <c r="M89" s="56"/>
-      <c r="N89" s="57"/>
-      <c r="O89" s="56"/>
+      <c r="I89" s="54"/>
+      <c r="J89" s="54"/>
+      <c r="K89" s="54"/>
+      <c r="L89" s="54"/>
+      <c r="M89" s="54"/>
+      <c r="N89" s="54"/>
+      <c r="O89" s="54"/>
     </row>
     <row r="90" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
@@ -2829,16 +2826,16 @@
       <c r="C90" s="4"/>
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
-      <c r="F90" s="58"/>
+      <c r="F90" s="57"/>
       <c r="G90" s="23"/>
       <c r="H90" s="56"/>
-      <c r="I90" s="56"/>
-      <c r="J90" s="56"/>
-      <c r="K90" s="56"/>
-      <c r="L90" s="56"/>
-      <c r="M90" s="56"/>
-      <c r="N90" s="57"/>
-      <c r="O90" s="56"/>
+      <c r="I90" s="54"/>
+      <c r="J90" s="54"/>
+      <c r="K90" s="54"/>
+      <c r="L90" s="54"/>
+      <c r="M90" s="54"/>
+      <c r="N90" s="54"/>
+      <c r="O90" s="54"/>
     </row>
     <row r="91" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
@@ -2848,16 +2845,16 @@
       <c r="C91" s="4"/>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
-      <c r="F91" s="58"/>
+      <c r="F91" s="57"/>
       <c r="G91" s="23"/>
       <c r="H91" s="56"/>
-      <c r="I91" s="56"/>
-      <c r="J91" s="56"/>
-      <c r="K91" s="56"/>
-      <c r="L91" s="56"/>
-      <c r="M91" s="56"/>
-      <c r="N91" s="57"/>
-      <c r="O91" s="56"/>
+      <c r="I91" s="54"/>
+      <c r="J91" s="54"/>
+      <c r="K91" s="54"/>
+      <c r="L91" s="54"/>
+      <c r="M91" s="54"/>
+      <c r="N91" s="54"/>
+      <c r="O91" s="54"/>
     </row>
     <row r="92" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
@@ -2867,16 +2864,16 @@
       <c r="C92" s="4"/>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
-      <c r="F92" s="58"/>
+      <c r="F92" s="57"/>
       <c r="G92" s="23"/>
       <c r="H92" s="56"/>
-      <c r="I92" s="56"/>
-      <c r="J92" s="56"/>
-      <c r="K92" s="56"/>
-      <c r="L92" s="56"/>
-      <c r="M92" s="56"/>
-      <c r="N92" s="57"/>
-      <c r="O92" s="56"/>
+      <c r="I92" s="54"/>
+      <c r="J92" s="54"/>
+      <c r="K92" s="54"/>
+      <c r="L92" s="54"/>
+      <c r="M92" s="54"/>
+      <c r="N92" s="54"/>
+      <c r="O92" s="54"/>
     </row>
     <row r="93" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
@@ -2886,16 +2883,16 @@
       <c r="C93" s="4"/>
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
-      <c r="F93" s="58"/>
+      <c r="F93" s="57"/>
       <c r="G93" s="23"/>
       <c r="H93" s="56"/>
-      <c r="I93" s="56"/>
-      <c r="J93" s="56"/>
-      <c r="K93" s="56"/>
-      <c r="L93" s="56"/>
-      <c r="M93" s="56"/>
-      <c r="N93" s="57"/>
-      <c r="O93" s="56"/>
+      <c r="I93" s="54"/>
+      <c r="J93" s="54"/>
+      <c r="K93" s="54"/>
+      <c r="L93" s="54"/>
+      <c r="M93" s="54"/>
+      <c r="N93" s="54"/>
+      <c r="O93" s="54"/>
     </row>
     <row r="94" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
@@ -2905,16 +2902,16 @@
       <c r="C94" s="4"/>
       <c r="D94" s="5"/>
       <c r="E94" s="5"/>
-      <c r="F94" s="58"/>
+      <c r="F94" s="57"/>
       <c r="G94" s="23"/>
       <c r="H94" s="56"/>
-      <c r="I94" s="56"/>
-      <c r="J94" s="56"/>
-      <c r="K94" s="56"/>
-      <c r="L94" s="56"/>
-      <c r="M94" s="56"/>
-      <c r="N94" s="57"/>
-      <c r="O94" s="56"/>
+      <c r="I94" s="54"/>
+      <c r="J94" s="54"/>
+      <c r="K94" s="54"/>
+      <c r="L94" s="54"/>
+      <c r="M94" s="54"/>
+      <c r="N94" s="54"/>
+      <c r="O94" s="54"/>
     </row>
     <row r="95" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
@@ -2924,16 +2921,16 @@
       <c r="C95" s="4"/>
       <c r="D95" s="5"/>
       <c r="E95" s="5"/>
-      <c r="F95" s="58"/>
+      <c r="F95" s="57"/>
       <c r="G95" s="23"/>
       <c r="H95" s="56"/>
-      <c r="I95" s="56"/>
-      <c r="J95" s="56"/>
-      <c r="K95" s="56"/>
-      <c r="L95" s="56"/>
-      <c r="M95" s="56"/>
-      <c r="N95" s="57"/>
-      <c r="O95" s="56"/>
+      <c r="I95" s="54"/>
+      <c r="J95" s="54"/>
+      <c r="K95" s="54"/>
+      <c r="L95" s="54"/>
+      <c r="M95" s="54"/>
+      <c r="N95" s="54"/>
+      <c r="O95" s="54"/>
     </row>
     <row r="96" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
@@ -2943,16 +2940,16 @@
       <c r="C96" s="4"/>
       <c r="D96" s="5"/>
       <c r="E96" s="5"/>
-      <c r="F96" s="58"/>
+      <c r="F96" s="57"/>
       <c r="G96" s="23"/>
       <c r="H96" s="56"/>
-      <c r="I96" s="56"/>
-      <c r="J96" s="56"/>
-      <c r="K96" s="56"/>
-      <c r="L96" s="56"/>
-      <c r="M96" s="56"/>
-      <c r="N96" s="57"/>
-      <c r="O96" s="56"/>
+      <c r="I96" s="54"/>
+      <c r="J96" s="54"/>
+      <c r="K96" s="54"/>
+      <c r="L96" s="54"/>
+      <c r="M96" s="54"/>
+      <c r="N96" s="54"/>
+      <c r="O96" s="54"/>
     </row>
     <row r="97" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
@@ -2962,16 +2959,16 @@
       <c r="C97" s="4"/>
       <c r="D97" s="5"/>
       <c r="E97" s="5"/>
-      <c r="F97" s="58"/>
+      <c r="F97" s="57"/>
       <c r="G97" s="23"/>
       <c r="H97" s="56"/>
-      <c r="I97" s="56"/>
-      <c r="J97" s="56"/>
-      <c r="K97" s="56"/>
-      <c r="L97" s="56"/>
-      <c r="M97" s="56"/>
-      <c r="N97" s="57"/>
-      <c r="O97" s="56"/>
+      <c r="I97" s="54"/>
+      <c r="J97" s="54"/>
+      <c r="K97" s="54"/>
+      <c r="L97" s="54"/>
+      <c r="M97" s="54"/>
+      <c r="N97" s="54"/>
+      <c r="O97" s="54"/>
     </row>
     <row r="98" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
@@ -2981,16 +2978,16 @@
       <c r="C98" s="4"/>
       <c r="D98" s="5"/>
       <c r="E98" s="5"/>
-      <c r="F98" s="58"/>
+      <c r="F98" s="57"/>
       <c r="G98" s="23"/>
       <c r="H98" s="56"/>
-      <c r="I98" s="56"/>
-      <c r="J98" s="56"/>
-      <c r="K98" s="56"/>
-      <c r="L98" s="56"/>
-      <c r="M98" s="56"/>
-      <c r="N98" s="57"/>
-      <c r="O98" s="56"/>
+      <c r="I98" s="54"/>
+      <c r="J98" s="54"/>
+      <c r="K98" s="54"/>
+      <c r="L98" s="54"/>
+      <c r="M98" s="54"/>
+      <c r="N98" s="54"/>
+      <c r="O98" s="54"/>
     </row>
     <row r="99" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
@@ -3000,16 +2997,16 @@
       <c r="C99" s="4"/>
       <c r="D99" s="5"/>
       <c r="E99" s="5"/>
-      <c r="F99" s="58"/>
+      <c r="F99" s="57"/>
       <c r="G99" s="23"/>
       <c r="H99" s="56"/>
-      <c r="I99" s="56"/>
-      <c r="J99" s="56"/>
-      <c r="K99" s="56"/>
-      <c r="L99" s="56"/>
-      <c r="M99" s="56"/>
-      <c r="N99" s="57"/>
-      <c r="O99" s="56"/>
+      <c r="I99" s="54"/>
+      <c r="J99" s="54"/>
+      <c r="K99" s="54"/>
+      <c r="L99" s="54"/>
+      <c r="M99" s="54"/>
+      <c r="N99" s="54"/>
+      <c r="O99" s="54"/>
     </row>
     <row r="100" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
@@ -3019,16 +3016,16 @@
       <c r="C100" s="4"/>
       <c r="D100" s="5"/>
       <c r="E100" s="5"/>
-      <c r="F100" s="58"/>
+      <c r="F100" s="57"/>
       <c r="G100" s="23"/>
       <c r="H100" s="56"/>
-      <c r="I100" s="56"/>
-      <c r="J100" s="56"/>
-      <c r="K100" s="56"/>
-      <c r="L100" s="56"/>
-      <c r="M100" s="56"/>
-      <c r="N100" s="57"/>
-      <c r="O100" s="56"/>
+      <c r="I100" s="54"/>
+      <c r="J100" s="54"/>
+      <c r="K100" s="54"/>
+      <c r="L100" s="54"/>
+      <c r="M100" s="54"/>
+      <c r="N100" s="54"/>
+      <c r="O100" s="54"/>
     </row>
     <row r="101" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
@@ -3038,16 +3035,16 @@
       <c r="C101" s="4"/>
       <c r="D101" s="5"/>
       <c r="E101" s="5"/>
-      <c r="F101" s="58"/>
+      <c r="F101" s="57"/>
       <c r="G101" s="23"/>
       <c r="H101" s="56"/>
-      <c r="I101" s="56"/>
-      <c r="J101" s="56"/>
-      <c r="K101" s="56"/>
-      <c r="L101" s="56"/>
-      <c r="M101" s="56"/>
-      <c r="N101" s="57"/>
-      <c r="O101" s="56"/>
+      <c r="I101" s="54"/>
+      <c r="J101" s="54"/>
+      <c r="K101" s="54"/>
+      <c r="L101" s="54"/>
+      <c r="M101" s="54"/>
+      <c r="N101" s="54"/>
+      <c r="O101" s="54"/>
     </row>
     <row r="102" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
@@ -3057,16 +3054,16 @@
       <c r="C102" s="4"/>
       <c r="D102" s="5"/>
       <c r="E102" s="5"/>
-      <c r="F102" s="58"/>
+      <c r="F102" s="57"/>
       <c r="G102" s="23"/>
       <c r="H102" s="56"/>
-      <c r="I102" s="56"/>
-      <c r="J102" s="56"/>
-      <c r="K102" s="56"/>
-      <c r="L102" s="56"/>
-      <c r="M102" s="56"/>
-      <c r="N102" s="57"/>
-      <c r="O102" s="56"/>
+      <c r="I102" s="54"/>
+      <c r="J102" s="54"/>
+      <c r="K102" s="54"/>
+      <c r="L102" s="54"/>
+      <c r="M102" s="54"/>
+      <c r="N102" s="54"/>
+      <c r="O102" s="54"/>
     </row>
     <row r="103" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
@@ -3076,16 +3073,16 @@
       <c r="C103" s="4"/>
       <c r="D103" s="5"/>
       <c r="E103" s="5"/>
-      <c r="F103" s="58"/>
+      <c r="F103" s="57"/>
       <c r="G103" s="23"/>
       <c r="H103" s="56"/>
-      <c r="I103" s="56"/>
-      <c r="J103" s="56"/>
-      <c r="K103" s="56"/>
-      <c r="L103" s="56"/>
-      <c r="M103" s="56"/>
-      <c r="N103" s="57"/>
-      <c r="O103" s="56"/>
+      <c r="I103" s="54"/>
+      <c r="J103" s="54"/>
+      <c r="K103" s="54"/>
+      <c r="L103" s="54"/>
+      <c r="M103" s="54"/>
+      <c r="N103" s="54"/>
+      <c r="O103" s="54"/>
     </row>
     <row r="104" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
@@ -3095,16 +3092,16 @@
       <c r="C104" s="4"/>
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
-      <c r="F104" s="58"/>
+      <c r="F104" s="57"/>
       <c r="G104" s="23"/>
       <c r="H104" s="56"/>
-      <c r="I104" s="56"/>
-      <c r="J104" s="56"/>
-      <c r="K104" s="56"/>
-      <c r="L104" s="56"/>
-      <c r="M104" s="56"/>
-      <c r="N104" s="57"/>
-      <c r="O104" s="56"/>
+      <c r="I104" s="54"/>
+      <c r="J104" s="54"/>
+      <c r="K104" s="54"/>
+      <c r="L104" s="54"/>
+      <c r="M104" s="54"/>
+      <c r="N104" s="54"/>
+      <c r="O104" s="54"/>
     </row>
     <row r="105" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
@@ -3114,16 +3111,16 @@
       <c r="C105" s="4"/>
       <c r="D105" s="5"/>
       <c r="E105" s="5"/>
-      <c r="F105" s="58"/>
+      <c r="F105" s="57"/>
       <c r="G105" s="23"/>
       <c r="H105" s="56"/>
-      <c r="I105" s="56"/>
-      <c r="J105" s="56"/>
-      <c r="K105" s="56"/>
-      <c r="L105" s="56"/>
-      <c r="M105" s="56"/>
-      <c r="N105" s="57"/>
-      <c r="O105" s="56"/>
+      <c r="I105" s="54"/>
+      <c r="J105" s="54"/>
+      <c r="K105" s="54"/>
+      <c r="L105" s="54"/>
+      <c r="M105" s="54"/>
+      <c r="N105" s="54"/>
+      <c r="O105" s="54"/>
     </row>
     <row r="106" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
@@ -3133,16 +3130,16 @@
       <c r="C106" s="4"/>
       <c r="D106" s="5"/>
       <c r="E106" s="5"/>
-      <c r="F106" s="58"/>
+      <c r="F106" s="57"/>
       <c r="G106" s="23"/>
       <c r="H106" s="56"/>
-      <c r="I106" s="56"/>
-      <c r="J106" s="56"/>
-      <c r="K106" s="56"/>
-      <c r="L106" s="56"/>
-      <c r="M106" s="56"/>
-      <c r="N106" s="57"/>
-      <c r="O106" s="56"/>
+      <c r="I106" s="54"/>
+      <c r="J106" s="54"/>
+      <c r="K106" s="54"/>
+      <c r="L106" s="54"/>
+      <c r="M106" s="54"/>
+      <c r="N106" s="54"/>
+      <c r="O106" s="54"/>
     </row>
     <row r="107" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
@@ -3152,16 +3149,16 @@
       <c r="C107" s="4"/>
       <c r="D107" s="5"/>
       <c r="E107" s="5"/>
-      <c r="F107" s="58"/>
+      <c r="F107" s="57"/>
       <c r="G107" s="23"/>
       <c r="H107" s="56"/>
-      <c r="I107" s="56"/>
-      <c r="J107" s="56"/>
-      <c r="K107" s="56"/>
-      <c r="L107" s="56"/>
-      <c r="M107" s="56"/>
-      <c r="N107" s="57"/>
-      <c r="O107" s="56"/>
+      <c r="I107" s="54"/>
+      <c r="J107" s="54"/>
+      <c r="K107" s="54"/>
+      <c r="L107" s="54"/>
+      <c r="M107" s="54"/>
+      <c r="N107" s="54"/>
+      <c r="O107" s="54"/>
     </row>
     <row r="108" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
@@ -3171,16 +3168,16 @@
       <c r="C108" s="4"/>
       <c r="D108" s="5"/>
       <c r="E108" s="5"/>
-      <c r="F108" s="58"/>
+      <c r="F108" s="57"/>
       <c r="G108" s="23"/>
       <c r="H108" s="56"/>
-      <c r="I108" s="56"/>
-      <c r="J108" s="56"/>
-      <c r="K108" s="56"/>
-      <c r="L108" s="56"/>
-      <c r="M108" s="56"/>
-      <c r="N108" s="57"/>
-      <c r="O108" s="56"/>
+      <c r="I108" s="54"/>
+      <c r="J108" s="54"/>
+      <c r="K108" s="54"/>
+      <c r="L108" s="54"/>
+      <c r="M108" s="54"/>
+      <c r="N108" s="54"/>
+      <c r="O108" s="54"/>
     </row>
     <row r="109" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
@@ -3190,16 +3187,16 @@
       <c r="C109" s="4"/>
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
-      <c r="F109" s="58"/>
+      <c r="F109" s="57"/>
       <c r="G109" s="23"/>
       <c r="H109" s="56"/>
-      <c r="I109" s="56"/>
-      <c r="J109" s="56"/>
-      <c r="K109" s="56"/>
-      <c r="L109" s="56"/>
-      <c r="M109" s="56"/>
-      <c r="N109" s="57"/>
-      <c r="O109" s="56"/>
+      <c r="I109" s="54"/>
+      <c r="J109" s="54"/>
+      <c r="K109" s="54"/>
+      <c r="L109" s="54"/>
+      <c r="M109" s="54"/>
+      <c r="N109" s="54"/>
+      <c r="O109" s="54"/>
     </row>
     <row r="110" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
@@ -3209,16 +3206,16 @@
       <c r="C110" s="4"/>
       <c r="D110" s="5"/>
       <c r="E110" s="5"/>
-      <c r="F110" s="58"/>
+      <c r="F110" s="57"/>
       <c r="G110" s="23"/>
       <c r="H110" s="56"/>
-      <c r="I110" s="56"/>
-      <c r="J110" s="56"/>
-      <c r="K110" s="56"/>
-      <c r="L110" s="56"/>
-      <c r="M110" s="56"/>
-      <c r="N110" s="57"/>
-      <c r="O110" s="56"/>
+      <c r="I110" s="54"/>
+      <c r="J110" s="54"/>
+      <c r="K110" s="54"/>
+      <c r="L110" s="54"/>
+      <c r="M110" s="54"/>
+      <c r="N110" s="54"/>
+      <c r="O110" s="54"/>
     </row>
     <row r="111" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
@@ -3228,16 +3225,16 @@
       <c r="C111" s="4"/>
       <c r="D111" s="5"/>
       <c r="E111" s="5"/>
-      <c r="F111" s="58"/>
+      <c r="F111" s="57"/>
       <c r="G111" s="23"/>
       <c r="H111" s="56"/>
-      <c r="I111" s="56"/>
-      <c r="J111" s="56"/>
-      <c r="K111" s="56"/>
-      <c r="L111" s="56"/>
-      <c r="M111" s="56"/>
-      <c r="N111" s="57"/>
-      <c r="O111" s="56"/>
+      <c r="I111" s="54"/>
+      <c r="J111" s="54"/>
+      <c r="K111" s="54"/>
+      <c r="L111" s="54"/>
+      <c r="M111" s="54"/>
+      <c r="N111" s="54"/>
+      <c r="O111" s="54"/>
     </row>
     <row r="112" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
@@ -3247,16 +3244,16 @@
       <c r="C112" s="4"/>
       <c r="D112" s="5"/>
       <c r="E112" s="5"/>
-      <c r="F112" s="58"/>
+      <c r="F112" s="57"/>
       <c r="G112" s="23"/>
       <c r="H112" s="56"/>
-      <c r="I112" s="56"/>
-      <c r="J112" s="56"/>
-      <c r="K112" s="56"/>
-      <c r="L112" s="56"/>
-      <c r="M112" s="56"/>
-      <c r="N112" s="57"/>
-      <c r="O112" s="56"/>
+      <c r="I112" s="54"/>
+      <c r="J112" s="54"/>
+      <c r="K112" s="54"/>
+      <c r="L112" s="54"/>
+      <c r="M112" s="54"/>
+      <c r="N112" s="54"/>
+      <c r="O112" s="54"/>
     </row>
     <row r="113" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
@@ -3266,16 +3263,16 @@
       <c r="C113" s="4"/>
       <c r="D113" s="5"/>
       <c r="E113" s="5"/>
-      <c r="F113" s="58"/>
+      <c r="F113" s="57"/>
       <c r="G113" s="23"/>
       <c r="H113" s="56"/>
-      <c r="I113" s="56"/>
-      <c r="J113" s="56"/>
-      <c r="K113" s="56"/>
-      <c r="L113" s="56"/>
-      <c r="M113" s="56"/>
-      <c r="N113" s="57"/>
-      <c r="O113" s="56"/>
+      <c r="I113" s="54"/>
+      <c r="J113" s="54"/>
+      <c r="K113" s="54"/>
+      <c r="L113" s="54"/>
+      <c r="M113" s="54"/>
+      <c r="N113" s="54"/>
+      <c r="O113" s="54"/>
     </row>
     <row r="114" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
@@ -3285,16 +3282,16 @@
       <c r="C114" s="4"/>
       <c r="D114" s="5"/>
       <c r="E114" s="5"/>
-      <c r="F114" s="58"/>
+      <c r="F114" s="57"/>
       <c r="G114" s="23"/>
       <c r="H114" s="56"/>
-      <c r="I114" s="56"/>
-      <c r="J114" s="56"/>
-      <c r="K114" s="56"/>
-      <c r="L114" s="56"/>
-      <c r="M114" s="56"/>
-      <c r="N114" s="57"/>
-      <c r="O114" s="56"/>
+      <c r="I114" s="54"/>
+      <c r="J114" s="54"/>
+      <c r="K114" s="54"/>
+      <c r="L114" s="54"/>
+      <c r="M114" s="54"/>
+      <c r="N114" s="54"/>
+      <c r="O114" s="54"/>
     </row>
     <row r="115" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
@@ -3304,16 +3301,16 @@
       <c r="C115" s="4"/>
       <c r="D115" s="5"/>
       <c r="E115" s="5"/>
-      <c r="F115" s="58"/>
+      <c r="F115" s="57"/>
       <c r="G115" s="23"/>
       <c r="H115" s="56"/>
-      <c r="I115" s="56"/>
-      <c r="J115" s="56"/>
-      <c r="K115" s="56"/>
-      <c r="L115" s="56"/>
-      <c r="M115" s="56"/>
-      <c r="N115" s="57"/>
-      <c r="O115" s="56"/>
+      <c r="I115" s="54"/>
+      <c r="J115" s="54"/>
+      <c r="K115" s="54"/>
+      <c r="L115" s="54"/>
+      <c r="M115" s="54"/>
+      <c r="N115" s="54"/>
+      <c r="O115" s="54"/>
     </row>
     <row r="116" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
@@ -3323,16 +3320,16 @@
       <c r="C116" s="4"/>
       <c r="D116" s="5"/>
       <c r="E116" s="5"/>
-      <c r="F116" s="58"/>
+      <c r="F116" s="57"/>
       <c r="G116" s="23"/>
       <c r="H116" s="56"/>
-      <c r="I116" s="56"/>
-      <c r="J116" s="56"/>
-      <c r="K116" s="56"/>
-      <c r="L116" s="56"/>
-      <c r="M116" s="56"/>
-      <c r="N116" s="57"/>
-      <c r="O116" s="56"/>
+      <c r="I116" s="54"/>
+      <c r="J116" s="54"/>
+      <c r="K116" s="54"/>
+      <c r="L116" s="54"/>
+      <c r="M116" s="54"/>
+      <c r="N116" s="54"/>
+      <c r="O116" s="54"/>
     </row>
     <row r="117" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
@@ -3342,16 +3339,16 @@
       <c r="C117" s="4"/>
       <c r="D117" s="5"/>
       <c r="E117" s="5"/>
-      <c r="F117" s="58"/>
+      <c r="F117" s="57"/>
       <c r="G117" s="23"/>
       <c r="H117" s="56"/>
-      <c r="I117" s="56"/>
-      <c r="J117" s="56"/>
-      <c r="K117" s="56"/>
-      <c r="L117" s="56"/>
-      <c r="M117" s="56"/>
-      <c r="N117" s="57"/>
-      <c r="O117" s="56"/>
+      <c r="I117" s="54"/>
+      <c r="J117" s="54"/>
+      <c r="K117" s="54"/>
+      <c r="L117" s="54"/>
+      <c r="M117" s="54"/>
+      <c r="N117" s="54"/>
+      <c r="O117" s="54"/>
     </row>
     <row r="118" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
@@ -3361,16 +3358,16 @@
       <c r="C118" s="4"/>
       <c r="D118" s="5"/>
       <c r="E118" s="5"/>
-      <c r="F118" s="58"/>
+      <c r="F118" s="57"/>
       <c r="G118" s="23"/>
       <c r="H118" s="56"/>
-      <c r="I118" s="56"/>
-      <c r="J118" s="56"/>
-      <c r="K118" s="56"/>
-      <c r="L118" s="56"/>
-      <c r="M118" s="56"/>
-      <c r="N118" s="57"/>
-      <c r="O118" s="56"/>
+      <c r="I118" s="54"/>
+      <c r="J118" s="54"/>
+      <c r="K118" s="54"/>
+      <c r="L118" s="54"/>
+      <c r="M118" s="54"/>
+      <c r="N118" s="54"/>
+      <c r="O118" s="54"/>
     </row>
     <row r="119" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
@@ -3380,16 +3377,16 @@
       <c r="C119" s="4"/>
       <c r="D119" s="5"/>
       <c r="E119" s="5"/>
-      <c r="F119" s="58"/>
+      <c r="F119" s="57"/>
       <c r="G119" s="23"/>
       <c r="H119" s="56"/>
-      <c r="I119" s="56"/>
-      <c r="J119" s="56"/>
-      <c r="K119" s="56"/>
-      <c r="L119" s="56"/>
-      <c r="M119" s="56"/>
-      <c r="N119" s="57"/>
-      <c r="O119" s="56"/>
+      <c r="I119" s="54"/>
+      <c r="J119" s="54"/>
+      <c r="K119" s="54"/>
+      <c r="L119" s="54"/>
+      <c r="M119" s="54"/>
+      <c r="N119" s="54"/>
+      <c r="O119" s="54"/>
     </row>
     <row r="120" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
@@ -3399,16 +3396,16 @@
       <c r="C120" s="4"/>
       <c r="D120" s="5"/>
       <c r="E120" s="5"/>
-      <c r="F120" s="58"/>
+      <c r="F120" s="57"/>
       <c r="G120" s="23"/>
       <c r="H120" s="56"/>
-      <c r="I120" s="56"/>
-      <c r="J120" s="56"/>
-      <c r="K120" s="56"/>
-      <c r="L120" s="56"/>
-      <c r="M120" s="56"/>
-      <c r="N120" s="57"/>
-      <c r="O120" s="56"/>
+      <c r="I120" s="54"/>
+      <c r="J120" s="54"/>
+      <c r="K120" s="54"/>
+      <c r="L120" s="54"/>
+      <c r="M120" s="54"/>
+      <c r="N120" s="54"/>
+      <c r="O120" s="54"/>
     </row>
     <row r="121" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
@@ -3418,16 +3415,16 @@
       <c r="C121" s="4"/>
       <c r="D121" s="5"/>
       <c r="E121" s="5"/>
-      <c r="F121" s="58"/>
+      <c r="F121" s="57"/>
       <c r="G121" s="23"/>
       <c r="H121" s="56"/>
-      <c r="I121" s="56"/>
-      <c r="J121" s="56"/>
-      <c r="K121" s="56"/>
-      <c r="L121" s="56"/>
-      <c r="M121" s="56"/>
-      <c r="N121" s="57"/>
-      <c r="O121" s="56"/>
+      <c r="I121" s="54"/>
+      <c r="J121" s="54"/>
+      <c r="K121" s="54"/>
+      <c r="L121" s="54"/>
+      <c r="M121" s="54"/>
+      <c r="N121" s="54"/>
+      <c r="O121" s="54"/>
     </row>
     <row r="122" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
@@ -3437,16 +3434,16 @@
       <c r="C122" s="4"/>
       <c r="D122" s="5"/>
       <c r="E122" s="5"/>
-      <c r="F122" s="58"/>
+      <c r="F122" s="57"/>
       <c r="G122" s="23"/>
       <c r="H122" s="56"/>
-      <c r="I122" s="56"/>
-      <c r="J122" s="56"/>
-      <c r="K122" s="56"/>
-      <c r="L122" s="56"/>
-      <c r="M122" s="56"/>
-      <c r="N122" s="57"/>
-      <c r="O122" s="56"/>
+      <c r="I122" s="54"/>
+      <c r="J122" s="54"/>
+      <c r="K122" s="54"/>
+      <c r="L122" s="54"/>
+      <c r="M122" s="54"/>
+      <c r="N122" s="54"/>
+      <c r="O122" s="54"/>
     </row>
     <row r="123" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
@@ -3456,16 +3453,16 @@
       <c r="C123" s="4"/>
       <c r="D123" s="5"/>
       <c r="E123" s="5"/>
-      <c r="F123" s="58"/>
+      <c r="F123" s="57"/>
       <c r="G123" s="23"/>
       <c r="H123" s="56"/>
-      <c r="I123" s="56"/>
-      <c r="J123" s="56"/>
-      <c r="K123" s="56"/>
-      <c r="L123" s="56"/>
-      <c r="M123" s="56"/>
-      <c r="N123" s="57"/>
-      <c r="O123" s="56"/>
+      <c r="I123" s="54"/>
+      <c r="J123" s="54"/>
+      <c r="K123" s="54"/>
+      <c r="L123" s="54"/>
+      <c r="M123" s="54"/>
+      <c r="N123" s="54"/>
+      <c r="O123" s="54"/>
     </row>
     <row r="124" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
@@ -3475,16 +3472,16 @@
       <c r="C124" s="4"/>
       <c r="D124" s="5"/>
       <c r="E124" s="5"/>
-      <c r="F124" s="58"/>
+      <c r="F124" s="57"/>
       <c r="G124" s="23"/>
       <c r="H124" s="56"/>
-      <c r="I124" s="56"/>
-      <c r="J124" s="56"/>
-      <c r="K124" s="56"/>
-      <c r="L124" s="56"/>
-      <c r="M124" s="56"/>
-      <c r="N124" s="57"/>
-      <c r="O124" s="56"/>
+      <c r="I124" s="54"/>
+      <c r="J124" s="54"/>
+      <c r="K124" s="54"/>
+      <c r="L124" s="54"/>
+      <c r="M124" s="54"/>
+      <c r="N124" s="54"/>
+      <c r="O124" s="54"/>
     </row>
     <row r="125" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
@@ -3494,16 +3491,16 @@
       <c r="C125" s="4"/>
       <c r="D125" s="5"/>
       <c r="E125" s="5"/>
-      <c r="F125" s="58"/>
+      <c r="F125" s="57"/>
       <c r="G125" s="23"/>
       <c r="H125" s="56"/>
-      <c r="I125" s="56"/>
-      <c r="J125" s="56"/>
-      <c r="K125" s="56"/>
-      <c r="L125" s="56"/>
-      <c r="M125" s="56"/>
-      <c r="N125" s="57"/>
-      <c r="O125" s="56"/>
+      <c r="I125" s="54"/>
+      <c r="J125" s="54"/>
+      <c r="K125" s="54"/>
+      <c r="L125" s="54"/>
+      <c r="M125" s="54"/>
+      <c r="N125" s="54"/>
+      <c r="O125" s="54"/>
     </row>
     <row r="126" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
@@ -3513,16 +3510,16 @@
       <c r="C126" s="4"/>
       <c r="D126" s="5"/>
       <c r="E126" s="5"/>
-      <c r="F126" s="58"/>
+      <c r="F126" s="57"/>
       <c r="G126" s="23"/>
       <c r="H126" s="56"/>
-      <c r="I126" s="56"/>
-      <c r="J126" s="56"/>
-      <c r="K126" s="56"/>
-      <c r="L126" s="56"/>
-      <c r="M126" s="56"/>
-      <c r="N126" s="57"/>
-      <c r="O126" s="56"/>
+      <c r="I126" s="54"/>
+      <c r="J126" s="54"/>
+      <c r="K126" s="54"/>
+      <c r="L126" s="54"/>
+      <c r="M126" s="54"/>
+      <c r="N126" s="54"/>
+      <c r="O126" s="54"/>
     </row>
     <row r="127" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
@@ -3532,16 +3529,16 @@
       <c r="C127" s="4"/>
       <c r="D127" s="5"/>
       <c r="E127" s="5"/>
-      <c r="F127" s="58"/>
+      <c r="F127" s="57"/>
       <c r="G127" s="23"/>
       <c r="H127" s="56"/>
-      <c r="I127" s="56"/>
-      <c r="J127" s="56"/>
-      <c r="K127" s="56"/>
-      <c r="L127" s="56"/>
-      <c r="M127" s="56"/>
-      <c r="N127" s="57"/>
-      <c r="O127" s="56"/>
+      <c r="I127" s="54"/>
+      <c r="J127" s="54"/>
+      <c r="K127" s="54"/>
+      <c r="L127" s="54"/>
+      <c r="M127" s="54"/>
+      <c r="N127" s="54"/>
+      <c r="O127" s="54"/>
     </row>
     <row r="128" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
@@ -3551,16 +3548,16 @@
       <c r="C128" s="4"/>
       <c r="D128" s="5"/>
       <c r="E128" s="5"/>
-      <c r="F128" s="58"/>
+      <c r="F128" s="57"/>
       <c r="G128" s="23"/>
       <c r="H128" s="56"/>
-      <c r="I128" s="56"/>
-      <c r="J128" s="56"/>
-      <c r="K128" s="56"/>
-      <c r="L128" s="56"/>
-      <c r="M128" s="56"/>
-      <c r="N128" s="57"/>
-      <c r="O128" s="56"/>
+      <c r="I128" s="54"/>
+      <c r="J128" s="54"/>
+      <c r="K128" s="54"/>
+      <c r="L128" s="54"/>
+      <c r="M128" s="54"/>
+      <c r="N128" s="54"/>
+      <c r="O128" s="54"/>
     </row>
     <row r="129" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
@@ -3570,16 +3567,16 @@
       <c r="C129" s="4"/>
       <c r="D129" s="5"/>
       <c r="E129" s="5"/>
-      <c r="F129" s="58"/>
+      <c r="F129" s="57"/>
       <c r="G129" s="23"/>
       <c r="H129" s="56"/>
-      <c r="I129" s="56"/>
-      <c r="J129" s="56"/>
-      <c r="K129" s="56"/>
-      <c r="L129" s="56"/>
-      <c r="M129" s="56"/>
-      <c r="N129" s="57"/>
-      <c r="O129" s="56"/>
+      <c r="I129" s="54"/>
+      <c r="J129" s="54"/>
+      <c r="K129" s="54"/>
+      <c r="L129" s="54"/>
+      <c r="M129" s="54"/>
+      <c r="N129" s="54"/>
+      <c r="O129" s="54"/>
     </row>
     <row r="130" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
@@ -3589,16 +3586,16 @@
       <c r="C130" s="4"/>
       <c r="D130" s="5"/>
       <c r="E130" s="5"/>
-      <c r="F130" s="58"/>
+      <c r="F130" s="57"/>
       <c r="G130" s="23"/>
       <c r="H130" s="56"/>
-      <c r="I130" s="56"/>
-      <c r="J130" s="56"/>
-      <c r="K130" s="56"/>
-      <c r="L130" s="56"/>
-      <c r="M130" s="56"/>
-      <c r="N130" s="57"/>
-      <c r="O130" s="56"/>
+      <c r="I130" s="54"/>
+      <c r="J130" s="54"/>
+      <c r="K130" s="54"/>
+      <c r="L130" s="54"/>
+      <c r="M130" s="54"/>
+      <c r="N130" s="54"/>
+      <c r="O130" s="54"/>
     </row>
     <row r="131" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
@@ -3608,16 +3605,16 @@
       <c r="C131" s="4"/>
       <c r="D131" s="5"/>
       <c r="E131" s="5"/>
-      <c r="F131" s="58"/>
+      <c r="F131" s="57"/>
       <c r="G131" s="23"/>
       <c r="H131" s="56"/>
-      <c r="I131" s="56"/>
-      <c r="J131" s="56"/>
-      <c r="K131" s="56"/>
-      <c r="L131" s="56"/>
-      <c r="M131" s="56"/>
-      <c r="N131" s="57"/>
-      <c r="O131" s="56"/>
+      <c r="I131" s="54"/>
+      <c r="J131" s="54"/>
+      <c r="K131" s="54"/>
+      <c r="L131" s="54"/>
+      <c r="M131" s="54"/>
+      <c r="N131" s="54"/>
+      <c r="O131" s="54"/>
     </row>
     <row r="132" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
@@ -3627,16 +3624,16 @@
       <c r="C132" s="4"/>
       <c r="D132" s="5"/>
       <c r="E132" s="5"/>
-      <c r="F132" s="58"/>
+      <c r="F132" s="57"/>
       <c r="G132" s="23"/>
       <c r="H132" s="56"/>
-      <c r="I132" s="56"/>
-      <c r="J132" s="56"/>
-      <c r="K132" s="56"/>
-      <c r="L132" s="56"/>
-      <c r="M132" s="56"/>
-      <c r="N132" s="57"/>
-      <c r="O132" s="56"/>
+      <c r="I132" s="54"/>
+      <c r="J132" s="54"/>
+      <c r="K132" s="54"/>
+      <c r="L132" s="54"/>
+      <c r="M132" s="54"/>
+      <c r="N132" s="54"/>
+      <c r="O132" s="54"/>
     </row>
     <row r="133" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
@@ -3646,16 +3643,16 @@
       <c r="C133" s="4"/>
       <c r="D133" s="5"/>
       <c r="E133" s="5"/>
-      <c r="F133" s="58"/>
+      <c r="F133" s="57"/>
       <c r="G133" s="23"/>
       <c r="H133" s="56"/>
-      <c r="I133" s="56"/>
-      <c r="J133" s="56"/>
-      <c r="K133" s="56"/>
-      <c r="L133" s="56"/>
-      <c r="M133" s="56"/>
-      <c r="N133" s="57"/>
-      <c r="O133" s="56"/>
+      <c r="I133" s="54"/>
+      <c r="J133" s="54"/>
+      <c r="K133" s="54"/>
+      <c r="L133" s="54"/>
+      <c r="M133" s="54"/>
+      <c r="N133" s="54"/>
+      <c r="O133" s="54"/>
     </row>
     <row r="134" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
@@ -3665,16 +3662,16 @@
       <c r="C134" s="4"/>
       <c r="D134" s="5"/>
       <c r="E134" s="5"/>
-      <c r="F134" s="58"/>
+      <c r="F134" s="57"/>
       <c r="G134" s="23"/>
       <c r="H134" s="56"/>
-      <c r="I134" s="56"/>
-      <c r="J134" s="56"/>
-      <c r="K134" s="56"/>
-      <c r="L134" s="56"/>
-      <c r="M134" s="56"/>
-      <c r="N134" s="57"/>
-      <c r="O134" s="56"/>
+      <c r="I134" s="54"/>
+      <c r="J134" s="54"/>
+      <c r="K134" s="54"/>
+      <c r="L134" s="54"/>
+      <c r="M134" s="54"/>
+      <c r="N134" s="54"/>
+      <c r="O134" s="54"/>
     </row>
     <row r="135" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
@@ -3684,16 +3681,16 @@
       <c r="C135" s="4"/>
       <c r="D135" s="5"/>
       <c r="E135" s="5"/>
-      <c r="F135" s="58"/>
+      <c r="F135" s="57"/>
       <c r="G135" s="23"/>
       <c r="H135" s="56"/>
-      <c r="I135" s="56"/>
-      <c r="J135" s="56"/>
-      <c r="K135" s="56"/>
-      <c r="L135" s="56"/>
-      <c r="M135" s="56"/>
-      <c r="N135" s="57"/>
-      <c r="O135" s="56"/>
+      <c r="I135" s="54"/>
+      <c r="J135" s="54"/>
+      <c r="K135" s="54"/>
+      <c r="L135" s="54"/>
+      <c r="M135" s="54"/>
+      <c r="N135" s="54"/>
+      <c r="O135" s="54"/>
     </row>
     <row r="136" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
@@ -3703,16 +3700,16 @@
       <c r="C136" s="4"/>
       <c r="D136" s="5"/>
       <c r="E136" s="5"/>
-      <c r="F136" s="58"/>
+      <c r="F136" s="57"/>
       <c r="G136" s="23"/>
       <c r="H136" s="56"/>
-      <c r="I136" s="56"/>
-      <c r="J136" s="56"/>
-      <c r="K136" s="56"/>
-      <c r="L136" s="56"/>
-      <c r="M136" s="56"/>
-      <c r="N136" s="57"/>
-      <c r="O136" s="56"/>
+      <c r="I136" s="54"/>
+      <c r="J136" s="54"/>
+      <c r="K136" s="54"/>
+      <c r="L136" s="54"/>
+      <c r="M136" s="54"/>
+      <c r="N136" s="54"/>
+      <c r="O136" s="54"/>
     </row>
     <row r="137" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
@@ -3722,16 +3719,16 @@
       <c r="C137" s="4"/>
       <c r="D137" s="5"/>
       <c r="E137" s="5"/>
-      <c r="F137" s="58"/>
+      <c r="F137" s="57"/>
       <c r="G137" s="23"/>
       <c r="H137" s="56"/>
-      <c r="I137" s="56"/>
-      <c r="J137" s="56"/>
-      <c r="K137" s="56"/>
-      <c r="L137" s="56"/>
-      <c r="M137" s="56"/>
-      <c r="N137" s="57"/>
-      <c r="O137" s="56"/>
+      <c r="I137" s="54"/>
+      <c r="J137" s="54"/>
+      <c r="K137" s="54"/>
+      <c r="L137" s="54"/>
+      <c r="M137" s="54"/>
+      <c r="N137" s="54"/>
+      <c r="O137" s="54"/>
     </row>
     <row r="138" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
@@ -3741,16 +3738,16 @@
       <c r="C138" s="4"/>
       <c r="D138" s="5"/>
       <c r="E138" s="5"/>
-      <c r="F138" s="58"/>
+      <c r="F138" s="57"/>
       <c r="G138" s="23"/>
       <c r="H138" s="56"/>
-      <c r="I138" s="56"/>
-      <c r="J138" s="56"/>
-      <c r="K138" s="56"/>
-      <c r="L138" s="56"/>
-      <c r="M138" s="56"/>
-      <c r="N138" s="57"/>
-      <c r="O138" s="56"/>
+      <c r="I138" s="54"/>
+      <c r="J138" s="54"/>
+      <c r="K138" s="54"/>
+      <c r="L138" s="54"/>
+      <c r="M138" s="54"/>
+      <c r="N138" s="54"/>
+      <c r="O138" s="54"/>
     </row>
     <row r="139" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
@@ -3760,16 +3757,16 @@
       <c r="C139" s="4"/>
       <c r="D139" s="5"/>
       <c r="E139" s="5"/>
-      <c r="F139" s="58"/>
+      <c r="F139" s="57"/>
       <c r="G139" s="23"/>
       <c r="H139" s="56"/>
-      <c r="I139" s="56"/>
-      <c r="J139" s="56"/>
-      <c r="K139" s="56"/>
-      <c r="L139" s="56"/>
-      <c r="M139" s="56"/>
-      <c r="N139" s="57"/>
-      <c r="O139" s="56"/>
+      <c r="I139" s="54"/>
+      <c r="J139" s="54"/>
+      <c r="K139" s="54"/>
+      <c r="L139" s="54"/>
+      <c r="M139" s="54"/>
+      <c r="N139" s="54"/>
+      <c r="O139" s="54"/>
     </row>
     <row r="140" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
@@ -3779,16 +3776,16 @@
       <c r="C140" s="4"/>
       <c r="D140" s="5"/>
       <c r="E140" s="5"/>
-      <c r="F140" s="58"/>
+      <c r="F140" s="57"/>
       <c r="G140" s="23"/>
       <c r="H140" s="56"/>
-      <c r="I140" s="56"/>
-      <c r="J140" s="56"/>
-      <c r="K140" s="56"/>
-      <c r="L140" s="56"/>
-      <c r="M140" s="56"/>
-      <c r="N140" s="57"/>
-      <c r="O140" s="56"/>
+      <c r="I140" s="54"/>
+      <c r="J140" s="54"/>
+      <c r="K140" s="54"/>
+      <c r="L140" s="54"/>
+      <c r="M140" s="54"/>
+      <c r="N140" s="54"/>
+      <c r="O140" s="54"/>
     </row>
     <row r="141" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
@@ -3798,16 +3795,16 @@
       <c r="C141" s="4"/>
       <c r="D141" s="5"/>
       <c r="E141" s="5"/>
-      <c r="F141" s="58"/>
+      <c r="F141" s="57"/>
       <c r="G141" s="23"/>
       <c r="H141" s="56"/>
-      <c r="I141" s="56"/>
-      <c r="J141" s="56"/>
-      <c r="K141" s="56"/>
-      <c r="L141" s="56"/>
-      <c r="M141" s="56"/>
-      <c r="N141" s="57"/>
-      <c r="O141" s="56"/>
+      <c r="I141" s="54"/>
+      <c r="J141" s="54"/>
+      <c r="K141" s="54"/>
+      <c r="L141" s="54"/>
+      <c r="M141" s="54"/>
+      <c r="N141" s="54"/>
+      <c r="O141" s="54"/>
     </row>
     <row r="142" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
@@ -3817,16 +3814,16 @@
       <c r="C142" s="4"/>
       <c r="D142" s="5"/>
       <c r="E142" s="5"/>
-      <c r="F142" s="58"/>
+      <c r="F142" s="57"/>
       <c r="G142" s="23"/>
       <c r="H142" s="56"/>
-      <c r="I142" s="56"/>
-      <c r="J142" s="56"/>
-      <c r="K142" s="56"/>
-      <c r="L142" s="56"/>
-      <c r="M142" s="56"/>
-      <c r="N142" s="57"/>
-      <c r="O142" s="56"/>
+      <c r="I142" s="54"/>
+      <c r="J142" s="54"/>
+      <c r="K142" s="54"/>
+      <c r="L142" s="54"/>
+      <c r="M142" s="54"/>
+      <c r="N142" s="54"/>
+      <c r="O142" s="54"/>
     </row>
     <row r="143" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
@@ -3836,16 +3833,16 @@
       <c r="C143" s="4"/>
       <c r="D143" s="5"/>
       <c r="E143" s="5"/>
-      <c r="F143" s="58"/>
+      <c r="F143" s="57"/>
       <c r="G143" s="23"/>
       <c r="H143" s="56"/>
-      <c r="I143" s="56"/>
-      <c r="J143" s="56"/>
-      <c r="K143" s="56"/>
-      <c r="L143" s="56"/>
-      <c r="M143" s="56"/>
-      <c r="N143" s="57"/>
-      <c r="O143" s="56"/>
+      <c r="I143" s="54"/>
+      <c r="J143" s="54"/>
+      <c r="K143" s="54"/>
+      <c r="L143" s="54"/>
+      <c r="M143" s="54"/>
+      <c r="N143" s="54"/>
+      <c r="O143" s="54"/>
     </row>
     <row r="144" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
@@ -3855,16 +3852,16 @@
       <c r="C144" s="4"/>
       <c r="D144" s="5"/>
       <c r="E144" s="5"/>
-      <c r="F144" s="58"/>
+      <c r="F144" s="57"/>
       <c r="G144" s="23"/>
       <c r="H144" s="56"/>
-      <c r="I144" s="56"/>
-      <c r="J144" s="56"/>
-      <c r="K144" s="56"/>
-      <c r="L144" s="56"/>
-      <c r="M144" s="56"/>
-      <c r="N144" s="57"/>
-      <c r="O144" s="56"/>
+      <c r="I144" s="54"/>
+      <c r="J144" s="54"/>
+      <c r="K144" s="54"/>
+      <c r="L144" s="54"/>
+      <c r="M144" s="54"/>
+      <c r="N144" s="54"/>
+      <c r="O144" s="54"/>
     </row>
     <row r="145" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
@@ -3874,16 +3871,16 @@
       <c r="C145" s="4"/>
       <c r="D145" s="5"/>
       <c r="E145" s="5"/>
-      <c r="F145" s="58"/>
+      <c r="F145" s="57"/>
       <c r="G145" s="23"/>
       <c r="H145" s="56"/>
-      <c r="I145" s="56"/>
-      <c r="J145" s="56"/>
-      <c r="K145" s="56"/>
-      <c r="L145" s="56"/>
-      <c r="M145" s="56"/>
-      <c r="N145" s="57"/>
-      <c r="O145" s="56"/>
+      <c r="I145" s="54"/>
+      <c r="J145" s="54"/>
+      <c r="K145" s="54"/>
+      <c r="L145" s="54"/>
+      <c r="M145" s="54"/>
+      <c r="N145" s="54"/>
+      <c r="O145" s="54"/>
     </row>
     <row r="146" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
@@ -3893,16 +3890,16 @@
       <c r="C146" s="4"/>
       <c r="D146" s="5"/>
       <c r="E146" s="5"/>
-      <c r="F146" s="58"/>
+      <c r="F146" s="57"/>
       <c r="G146" s="23"/>
       <c r="H146" s="56"/>
-      <c r="I146" s="56"/>
-      <c r="J146" s="56"/>
-      <c r="K146" s="56"/>
-      <c r="L146" s="56"/>
-      <c r="M146" s="56"/>
-      <c r="N146" s="57"/>
-      <c r="O146" s="56"/>
+      <c r="I146" s="54"/>
+      <c r="J146" s="54"/>
+      <c r="K146" s="54"/>
+      <c r="L146" s="54"/>
+      <c r="M146" s="54"/>
+      <c r="N146" s="54"/>
+      <c r="O146" s="54"/>
     </row>
     <row r="147" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
@@ -3912,16 +3909,16 @@
       <c r="C147" s="4"/>
       <c r="D147" s="5"/>
       <c r="E147" s="5"/>
-      <c r="F147" s="58"/>
+      <c r="F147" s="57"/>
       <c r="G147" s="23"/>
       <c r="H147" s="56"/>
-      <c r="I147" s="56"/>
-      <c r="J147" s="56"/>
-      <c r="K147" s="56"/>
-      <c r="L147" s="56"/>
-      <c r="M147" s="56"/>
-      <c r="N147" s="57"/>
-      <c r="O147" s="56"/>
+      <c r="I147" s="54"/>
+      <c r="J147" s="54"/>
+      <c r="K147" s="54"/>
+      <c r="L147" s="54"/>
+      <c r="M147" s="54"/>
+      <c r="N147" s="54"/>
+      <c r="O147" s="54"/>
     </row>
     <row r="148" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
@@ -3931,16 +3928,16 @@
       <c r="C148" s="4"/>
       <c r="D148" s="5"/>
       <c r="E148" s="5"/>
-      <c r="F148" s="58"/>
+      <c r="F148" s="57"/>
       <c r="G148" s="23"/>
       <c r="H148" s="56"/>
-      <c r="I148" s="56"/>
-      <c r="J148" s="56"/>
-      <c r="K148" s="56"/>
-      <c r="L148" s="56"/>
-      <c r="M148" s="56"/>
-      <c r="N148" s="57"/>
-      <c r="O148" s="56"/>
+      <c r="I148" s="54"/>
+      <c r="J148" s="54"/>
+      <c r="K148" s="54"/>
+      <c r="L148" s="54"/>
+      <c r="M148" s="54"/>
+      <c r="N148" s="54"/>
+      <c r="O148" s="54"/>
     </row>
     <row r="149" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
@@ -3950,16 +3947,16 @@
       <c r="C149" s="4"/>
       <c r="D149" s="5"/>
       <c r="E149" s="5"/>
-      <c r="F149" s="58"/>
+      <c r="F149" s="57"/>
       <c r="G149" s="23"/>
       <c r="H149" s="56"/>
-      <c r="I149" s="56"/>
-      <c r="J149" s="56"/>
-      <c r="K149" s="56"/>
-      <c r="L149" s="56"/>
-      <c r="M149" s="56"/>
-      <c r="N149" s="57"/>
-      <c r="O149" s="56"/>
+      <c r="I149" s="54"/>
+      <c r="J149" s="54"/>
+      <c r="K149" s="54"/>
+      <c r="L149" s="54"/>
+      <c r="M149" s="54"/>
+      <c r="N149" s="54"/>
+      <c r="O149" s="54"/>
     </row>
     <row r="150" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
@@ -3969,16 +3966,16 @@
       <c r="C150" s="4"/>
       <c r="D150" s="5"/>
       <c r="E150" s="5"/>
-      <c r="F150" s="58"/>
+      <c r="F150" s="57"/>
       <c r="G150" s="23"/>
       <c r="H150" s="56"/>
-      <c r="I150" s="56"/>
-      <c r="J150" s="56"/>
-      <c r="K150" s="56"/>
-      <c r="L150" s="56"/>
-      <c r="M150" s="56"/>
-      <c r="N150" s="57"/>
-      <c r="O150" s="56"/>
+      <c r="I150" s="54"/>
+      <c r="J150" s="54"/>
+      <c r="K150" s="54"/>
+      <c r="L150" s="54"/>
+      <c r="M150" s="54"/>
+      <c r="N150" s="54"/>
+      <c r="O150" s="54"/>
     </row>
     <row r="151" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
@@ -3988,16 +3985,16 @@
       <c r="C151" s="4"/>
       <c r="D151" s="5"/>
       <c r="E151" s="5"/>
-      <c r="F151" s="58"/>
+      <c r="F151" s="57"/>
       <c r="G151" s="23"/>
       <c r="H151" s="56"/>
-      <c r="I151" s="56"/>
-      <c r="J151" s="56"/>
-      <c r="K151" s="56"/>
-      <c r="L151" s="56"/>
-      <c r="M151" s="56"/>
-      <c r="N151" s="57"/>
-      <c r="O151" s="56"/>
+      <c r="I151" s="54"/>
+      <c r="J151" s="54"/>
+      <c r="K151" s="54"/>
+      <c r="L151" s="54"/>
+      <c r="M151" s="54"/>
+      <c r="N151" s="54"/>
+      <c r="O151" s="54"/>
     </row>
     <row r="152" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
@@ -4007,16 +4004,16 @@
       <c r="C152" s="4"/>
       <c r="D152" s="5"/>
       <c r="E152" s="5"/>
-      <c r="F152" s="58"/>
+      <c r="F152" s="57"/>
       <c r="G152" s="23"/>
       <c r="H152" s="56"/>
-      <c r="I152" s="56"/>
-      <c r="J152" s="56"/>
-      <c r="K152" s="56"/>
-      <c r="L152" s="56"/>
-      <c r="M152" s="56"/>
-      <c r="N152" s="57"/>
-      <c r="O152" s="56"/>
+      <c r="I152" s="54"/>
+      <c r="J152" s="54"/>
+      <c r="K152" s="54"/>
+      <c r="L152" s="54"/>
+      <c r="M152" s="54"/>
+      <c r="N152" s="54"/>
+      <c r="O152" s="54"/>
     </row>
     <row r="153" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
@@ -4026,16 +4023,16 @@
       <c r="C153" s="4"/>
       <c r="D153" s="5"/>
       <c r="E153" s="5"/>
-      <c r="F153" s="58"/>
+      <c r="F153" s="57"/>
       <c r="G153" s="23"/>
       <c r="H153" s="56"/>
-      <c r="I153" s="56"/>
-      <c r="J153" s="56"/>
-      <c r="K153" s="56"/>
-      <c r="L153" s="56"/>
-      <c r="M153" s="56"/>
-      <c r="N153" s="57"/>
-      <c r="O153" s="56"/>
+      <c r="I153" s="54"/>
+      <c r="J153" s="54"/>
+      <c r="K153" s="54"/>
+      <c r="L153" s="54"/>
+      <c r="M153" s="54"/>
+      <c r="N153" s="54"/>
+      <c r="O153" s="54"/>
     </row>
     <row r="154" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
@@ -4045,16 +4042,16 @@
       <c r="C154" s="4"/>
       <c r="D154" s="5"/>
       <c r="E154" s="5"/>
-      <c r="F154" s="58"/>
+      <c r="F154" s="57"/>
       <c r="G154" s="23"/>
       <c r="H154" s="56"/>
-      <c r="I154" s="56"/>
-      <c r="J154" s="56"/>
-      <c r="K154" s="56"/>
-      <c r="L154" s="56"/>
-      <c r="M154" s="56"/>
-      <c r="N154" s="57"/>
-      <c r="O154" s="56"/>
+      <c r="I154" s="54"/>
+      <c r="J154" s="54"/>
+      <c r="K154" s="54"/>
+      <c r="L154" s="54"/>
+      <c r="M154" s="54"/>
+      <c r="N154" s="54"/>
+      <c r="O154" s="54"/>
     </row>
     <row r="155" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
@@ -4064,16 +4061,16 @@
       <c r="C155" s="4"/>
       <c r="D155" s="5"/>
       <c r="E155" s="5"/>
-      <c r="F155" s="58"/>
+      <c r="F155" s="57"/>
       <c r="G155" s="23"/>
       <c r="H155" s="56"/>
-      <c r="I155" s="56"/>
-      <c r="J155" s="56"/>
-      <c r="K155" s="56"/>
-      <c r="L155" s="56"/>
-      <c r="M155" s="56"/>
-      <c r="N155" s="57"/>
-      <c r="O155" s="56"/>
+      <c r="I155" s="54"/>
+      <c r="J155" s="54"/>
+      <c r="K155" s="54"/>
+      <c r="L155" s="54"/>
+      <c r="M155" s="54"/>
+      <c r="N155" s="54"/>
+      <c r="O155" s="54"/>
     </row>
     <row r="156" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
@@ -4083,16 +4080,16 @@
       <c r="C156" s="4"/>
       <c r="D156" s="5"/>
       <c r="E156" s="5"/>
-      <c r="F156" s="58"/>
+      <c r="F156" s="57"/>
       <c r="G156" s="23"/>
       <c r="H156" s="56"/>
-      <c r="I156" s="56"/>
-      <c r="J156" s="56"/>
-      <c r="K156" s="56"/>
-      <c r="L156" s="56"/>
-      <c r="M156" s="56"/>
-      <c r="N156" s="57"/>
-      <c r="O156" s="56"/>
+      <c r="I156" s="54"/>
+      <c r="J156" s="54"/>
+      <c r="K156" s="54"/>
+      <c r="L156" s="54"/>
+      <c r="M156" s="54"/>
+      <c r="N156" s="54"/>
+      <c r="O156" s="54"/>
     </row>
     <row r="157" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
@@ -4102,16 +4099,16 @@
       <c r="C157" s="4"/>
       <c r="D157" s="5"/>
       <c r="E157" s="5"/>
-      <c r="F157" s="58"/>
+      <c r="F157" s="57"/>
       <c r="G157" s="23"/>
       <c r="H157" s="56"/>
-      <c r="I157" s="56"/>
-      <c r="J157" s="56"/>
-      <c r="K157" s="56"/>
-      <c r="L157" s="56"/>
-      <c r="M157" s="56"/>
-      <c r="N157" s="57"/>
-      <c r="O157" s="56"/>
+      <c r="I157" s="54"/>
+      <c r="J157" s="54"/>
+      <c r="K157" s="54"/>
+      <c r="L157" s="54"/>
+      <c r="M157" s="54"/>
+      <c r="N157" s="54"/>
+      <c r="O157" s="54"/>
     </row>
     <row r="158" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
@@ -4121,16 +4118,16 @@
       <c r="C158" s="4"/>
       <c r="D158" s="5"/>
       <c r="E158" s="5"/>
-      <c r="F158" s="58"/>
+      <c r="F158" s="57"/>
       <c r="G158" s="23"/>
       <c r="H158" s="56"/>
-      <c r="I158" s="56"/>
-      <c r="J158" s="56"/>
-      <c r="K158" s="56"/>
-      <c r="L158" s="56"/>
-      <c r="M158" s="56"/>
-      <c r="N158" s="57"/>
-      <c r="O158" s="56"/>
+      <c r="I158" s="54"/>
+      <c r="J158" s="54"/>
+      <c r="K158" s="54"/>
+      <c r="L158" s="54"/>
+      <c r="M158" s="54"/>
+      <c r="N158" s="54"/>
+      <c r="O158" s="54"/>
     </row>
     <row r="159" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
@@ -4140,16 +4137,16 @@
       <c r="C159" s="4"/>
       <c r="D159" s="5"/>
       <c r="E159" s="5"/>
-      <c r="F159" s="58"/>
+      <c r="F159" s="57"/>
       <c r="G159" s="23"/>
       <c r="H159" s="56"/>
-      <c r="I159" s="56"/>
-      <c r="J159" s="56"/>
-      <c r="K159" s="56"/>
-      <c r="L159" s="56"/>
-      <c r="M159" s="56"/>
-      <c r="N159" s="57"/>
-      <c r="O159" s="56"/>
+      <c r="I159" s="54"/>
+      <c r="J159" s="54"/>
+      <c r="K159" s="54"/>
+      <c r="L159" s="54"/>
+      <c r="M159" s="54"/>
+      <c r="N159" s="54"/>
+      <c r="O159" s="54"/>
     </row>
     <row r="160" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
@@ -4159,16 +4156,16 @@
       <c r="C160" s="4"/>
       <c r="D160" s="5"/>
       <c r="E160" s="5"/>
-      <c r="F160" s="58"/>
+      <c r="F160" s="57"/>
       <c r="G160" s="23"/>
       <c r="H160" s="56"/>
-      <c r="I160" s="56"/>
-      <c r="J160" s="56"/>
-      <c r="K160" s="56"/>
-      <c r="L160" s="56"/>
-      <c r="M160" s="56"/>
-      <c r="N160" s="57"/>
-      <c r="O160" s="56"/>
+      <c r="I160" s="54"/>
+      <c r="J160" s="54"/>
+      <c r="K160" s="54"/>
+      <c r="L160" s="54"/>
+      <c r="M160" s="54"/>
+      <c r="N160" s="54"/>
+      <c r="O160" s="54"/>
     </row>
     <row r="161" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
@@ -4178,16 +4175,16 @@
       <c r="C161" s="4"/>
       <c r="D161" s="5"/>
       <c r="E161" s="5"/>
-      <c r="F161" s="58"/>
+      <c r="F161" s="57"/>
       <c r="G161" s="23"/>
       <c r="H161" s="56"/>
-      <c r="I161" s="56"/>
-      <c r="J161" s="56"/>
-      <c r="K161" s="56"/>
-      <c r="L161" s="56"/>
-      <c r="M161" s="56"/>
-      <c r="N161" s="57"/>
-      <c r="O161" s="56"/>
+      <c r="I161" s="54"/>
+      <c r="J161" s="54"/>
+      <c r="K161" s="54"/>
+      <c r="L161" s="54"/>
+      <c r="M161" s="54"/>
+      <c r="N161" s="54"/>
+      <c r="O161" s="54"/>
     </row>
     <row r="162" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
@@ -4197,16 +4194,16 @@
       <c r="C162" s="4"/>
       <c r="D162" s="5"/>
       <c r="E162" s="5"/>
-      <c r="F162" s="58"/>
+      <c r="F162" s="57"/>
       <c r="G162" s="23"/>
       <c r="H162" s="56"/>
-      <c r="I162" s="56"/>
-      <c r="J162" s="56"/>
-      <c r="K162" s="56"/>
-      <c r="L162" s="56"/>
-      <c r="M162" s="56"/>
-      <c r="N162" s="57"/>
-      <c r="O162" s="56"/>
+      <c r="I162" s="54"/>
+      <c r="J162" s="54"/>
+      <c r="K162" s="54"/>
+      <c r="L162" s="54"/>
+      <c r="M162" s="54"/>
+      <c r="N162" s="54"/>
+      <c r="O162" s="54"/>
     </row>
     <row r="163" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
@@ -4216,16 +4213,16 @@
       <c r="C163" s="4"/>
       <c r="D163" s="5"/>
       <c r="E163" s="5"/>
-      <c r="F163" s="58"/>
+      <c r="F163" s="57"/>
       <c r="G163" s="23"/>
       <c r="H163" s="56"/>
-      <c r="I163" s="56"/>
-      <c r="J163" s="56"/>
-      <c r="K163" s="56"/>
-      <c r="L163" s="56"/>
-      <c r="M163" s="56"/>
-      <c r="N163" s="57"/>
-      <c r="O163" s="56"/>
+      <c r="I163" s="54"/>
+      <c r="J163" s="54"/>
+      <c r="K163" s="54"/>
+      <c r="L163" s="54"/>
+      <c r="M163" s="54"/>
+      <c r="N163" s="54"/>
+      <c r="O163" s="54"/>
     </row>
     <row r="164" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
@@ -4235,16 +4232,16 @@
       <c r="C164" s="4"/>
       <c r="D164" s="5"/>
       <c r="E164" s="5"/>
-      <c r="F164" s="58"/>
+      <c r="F164" s="57"/>
       <c r="G164" s="23"/>
       <c r="H164" s="56"/>
-      <c r="I164" s="56"/>
-      <c r="J164" s="56"/>
-      <c r="K164" s="56"/>
-      <c r="L164" s="56"/>
-      <c r="M164" s="56"/>
-      <c r="N164" s="57"/>
-      <c r="O164" s="56"/>
+      <c r="I164" s="54"/>
+      <c r="J164" s="54"/>
+      <c r="K164" s="54"/>
+      <c r="L164" s="54"/>
+      <c r="M164" s="54"/>
+      <c r="N164" s="54"/>
+      <c r="O164" s="54"/>
     </row>
     <row r="165" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
@@ -4254,16 +4251,16 @@
       <c r="C165" s="4"/>
       <c r="D165" s="5"/>
       <c r="E165" s="5"/>
-      <c r="F165" s="58"/>
+      <c r="F165" s="57"/>
       <c r="G165" s="23"/>
       <c r="H165" s="56"/>
-      <c r="I165" s="56"/>
-      <c r="J165" s="56"/>
-      <c r="K165" s="56"/>
-      <c r="L165" s="56"/>
-      <c r="M165" s="56"/>
-      <c r="N165" s="57"/>
-      <c r="O165" s="56"/>
+      <c r="I165" s="54"/>
+      <c r="J165" s="54"/>
+      <c r="K165" s="54"/>
+      <c r="L165" s="54"/>
+      <c r="M165" s="54"/>
+      <c r="N165" s="54"/>
+      <c r="O165" s="54"/>
     </row>
     <row r="166" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
@@ -4273,16 +4270,16 @@
       <c r="C166" s="4"/>
       <c r="D166" s="5"/>
       <c r="E166" s="5"/>
-      <c r="F166" s="58"/>
+      <c r="F166" s="57"/>
       <c r="G166" s="23"/>
       <c r="H166" s="56"/>
-      <c r="I166" s="56"/>
-      <c r="J166" s="56"/>
-      <c r="K166" s="56"/>
-      <c r="L166" s="56"/>
-      <c r="M166" s="56"/>
-      <c r="N166" s="57"/>
-      <c r="O166" s="56"/>
+      <c r="I166" s="54"/>
+      <c r="J166" s="54"/>
+      <c r="K166" s="54"/>
+      <c r="L166" s="54"/>
+      <c r="M166" s="54"/>
+      <c r="N166" s="54"/>
+      <c r="O166" s="54"/>
     </row>
     <row r="167" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
@@ -4292,16 +4289,16 @@
       <c r="C167" s="4"/>
       <c r="D167" s="5"/>
       <c r="E167" s="5"/>
-      <c r="F167" s="58"/>
+      <c r="F167" s="57"/>
       <c r="G167" s="23"/>
       <c r="H167" s="56"/>
-      <c r="I167" s="56"/>
-      <c r="J167" s="56"/>
-      <c r="K167" s="56"/>
-      <c r="L167" s="56"/>
-      <c r="M167" s="56"/>
-      <c r="N167" s="57"/>
-      <c r="O167" s="56"/>
+      <c r="I167" s="54"/>
+      <c r="J167" s="54"/>
+      <c r="K167" s="54"/>
+      <c r="L167" s="54"/>
+      <c r="M167" s="54"/>
+      <c r="N167" s="54"/>
+      <c r="O167" s="54"/>
     </row>
     <row r="168" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
@@ -4311,16 +4308,16 @@
       <c r="C168" s="4"/>
       <c r="D168" s="5"/>
       <c r="E168" s="5"/>
-      <c r="F168" s="58"/>
+      <c r="F168" s="57"/>
       <c r="G168" s="23"/>
       <c r="H168" s="56"/>
-      <c r="I168" s="56"/>
-      <c r="J168" s="56"/>
-      <c r="K168" s="56"/>
-      <c r="L168" s="56"/>
-      <c r="M168" s="56"/>
-      <c r="N168" s="57"/>
-      <c r="O168" s="56"/>
+      <c r="I168" s="54"/>
+      <c r="J168" s="54"/>
+      <c r="K168" s="54"/>
+      <c r="L168" s="54"/>
+      <c r="M168" s="54"/>
+      <c r="N168" s="54"/>
+      <c r="O168" s="54"/>
     </row>
     <row r="169" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
@@ -4330,16 +4327,16 @@
       <c r="C169" s="4"/>
       <c r="D169" s="5"/>
       <c r="E169" s="5"/>
-      <c r="F169" s="58"/>
+      <c r="F169" s="57"/>
       <c r="G169" s="23"/>
       <c r="H169" s="56"/>
-      <c r="I169" s="56"/>
-      <c r="J169" s="56"/>
-      <c r="K169" s="56"/>
-      <c r="L169" s="56"/>
-      <c r="M169" s="56"/>
-      <c r="N169" s="57"/>
-      <c r="O169" s="56"/>
+      <c r="I169" s="54"/>
+      <c r="J169" s="54"/>
+      <c r="K169" s="54"/>
+      <c r="L169" s="54"/>
+      <c r="M169" s="54"/>
+      <c r="N169" s="54"/>
+      <c r="O169" s="54"/>
     </row>
     <row r="170" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
@@ -4349,16 +4346,16 @@
       <c r="C170" s="4"/>
       <c r="D170" s="5"/>
       <c r="E170" s="5"/>
-      <c r="F170" s="58"/>
+      <c r="F170" s="57"/>
       <c r="G170" s="23"/>
       <c r="H170" s="56"/>
-      <c r="I170" s="56"/>
-      <c r="J170" s="56"/>
-      <c r="K170" s="56"/>
-      <c r="L170" s="56"/>
-      <c r="M170" s="56"/>
-      <c r="N170" s="57"/>
-      <c r="O170" s="56"/>
+      <c r="I170" s="54"/>
+      <c r="J170" s="54"/>
+      <c r="K170" s="54"/>
+      <c r="L170" s="54"/>
+      <c r="M170" s="54"/>
+      <c r="N170" s="54"/>
+      <c r="O170" s="54"/>
     </row>
     <row r="171" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
@@ -4368,16 +4365,16 @@
       <c r="C171" s="4"/>
       <c r="D171" s="5"/>
       <c r="E171" s="5"/>
-      <c r="F171" s="58"/>
+      <c r="F171" s="57"/>
       <c r="G171" s="23"/>
       <c r="H171" s="56"/>
-      <c r="I171" s="56"/>
-      <c r="J171" s="56"/>
-      <c r="K171" s="56"/>
-      <c r="L171" s="56"/>
-      <c r="M171" s="56"/>
-      <c r="N171" s="57"/>
-      <c r="O171" s="56"/>
+      <c r="I171" s="54"/>
+      <c r="J171" s="54"/>
+      <c r="K171" s="54"/>
+      <c r="L171" s="54"/>
+      <c r="M171" s="54"/>
+      <c r="N171" s="54"/>
+      <c r="O171" s="54"/>
     </row>
     <row r="172" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
@@ -4387,16 +4384,16 @@
       <c r="C172" s="4"/>
       <c r="D172" s="5"/>
       <c r="E172" s="5"/>
-      <c r="F172" s="58"/>
+      <c r="F172" s="57"/>
       <c r="G172" s="23"/>
       <c r="H172" s="56"/>
-      <c r="I172" s="56"/>
-      <c r="J172" s="56"/>
-      <c r="K172" s="56"/>
-      <c r="L172" s="56"/>
-      <c r="M172" s="56"/>
-      <c r="N172" s="57"/>
-      <c r="O172" s="56"/>
+      <c r="I172" s="54"/>
+      <c r="J172" s="54"/>
+      <c r="K172" s="54"/>
+      <c r="L172" s="54"/>
+      <c r="M172" s="54"/>
+      <c r="N172" s="54"/>
+      <c r="O172" s="54"/>
     </row>
     <row r="173" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
@@ -4406,16 +4403,16 @@
       <c r="C173" s="4"/>
       <c r="D173" s="5"/>
       <c r="E173" s="5"/>
-      <c r="F173" s="58"/>
+      <c r="F173" s="57"/>
       <c r="G173" s="23"/>
       <c r="H173" s="56"/>
-      <c r="I173" s="56"/>
-      <c r="J173" s="56"/>
-      <c r="K173" s="56"/>
-      <c r="L173" s="56"/>
-      <c r="M173" s="56"/>
-      <c r="N173" s="57"/>
-      <c r="O173" s="56"/>
+      <c r="I173" s="54"/>
+      <c r="J173" s="54"/>
+      <c r="K173" s="54"/>
+      <c r="L173" s="54"/>
+      <c r="M173" s="54"/>
+      <c r="N173" s="54"/>
+      <c r="O173" s="54"/>
     </row>
     <row r="174" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
@@ -4425,16 +4422,16 @@
       <c r="C174" s="4"/>
       <c r="D174" s="5"/>
       <c r="E174" s="5"/>
-      <c r="F174" s="58"/>
+      <c r="F174" s="57"/>
       <c r="G174" s="23"/>
       <c r="H174" s="56"/>
-      <c r="I174" s="56"/>
-      <c r="J174" s="56"/>
-      <c r="K174" s="56"/>
-      <c r="L174" s="56"/>
-      <c r="M174" s="56"/>
-      <c r="N174" s="57"/>
-      <c r="O174" s="56"/>
+      <c r="I174" s="54"/>
+      <c r="J174" s="54"/>
+      <c r="K174" s="54"/>
+      <c r="L174" s="54"/>
+      <c r="M174" s="54"/>
+      <c r="N174" s="54"/>
+      <c r="O174" s="54"/>
     </row>
     <row r="175" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
@@ -4444,16 +4441,16 @@
       <c r="C175" s="4"/>
       <c r="D175" s="5"/>
       <c r="E175" s="5"/>
-      <c r="F175" s="58"/>
+      <c r="F175" s="57"/>
       <c r="G175" s="23"/>
       <c r="H175" s="56"/>
-      <c r="I175" s="56"/>
-      <c r="J175" s="56"/>
-      <c r="K175" s="56"/>
-      <c r="L175" s="56"/>
-      <c r="M175" s="56"/>
-      <c r="N175" s="57"/>
-      <c r="O175" s="56"/>
+      <c r="I175" s="54"/>
+      <c r="J175" s="54"/>
+      <c r="K175" s="54"/>
+      <c r="L175" s="54"/>
+      <c r="M175" s="54"/>
+      <c r="N175" s="54"/>
+      <c r="O175" s="54"/>
     </row>
     <row r="176" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
@@ -4463,16 +4460,16 @@
       <c r="C176" s="4"/>
       <c r="D176" s="5"/>
       <c r="E176" s="5"/>
-      <c r="F176" s="58"/>
+      <c r="F176" s="57"/>
       <c r="G176" s="23"/>
       <c r="H176" s="56"/>
-      <c r="I176" s="56"/>
-      <c r="J176" s="56"/>
-      <c r="K176" s="56"/>
-      <c r="L176" s="56"/>
-      <c r="M176" s="56"/>
-      <c r="N176" s="57"/>
-      <c r="O176" s="56"/>
+      <c r="I176" s="54"/>
+      <c r="J176" s="54"/>
+      <c r="K176" s="54"/>
+      <c r="L176" s="54"/>
+      <c r="M176" s="54"/>
+      <c r="N176" s="54"/>
+      <c r="O176" s="54"/>
     </row>
     <row r="177" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
@@ -4482,16 +4479,16 @@
       <c r="C177" s="4"/>
       <c r="D177" s="5"/>
       <c r="E177" s="5"/>
-      <c r="F177" s="58"/>
+      <c r="F177" s="57"/>
       <c r="G177" s="23"/>
       <c r="H177" s="56"/>
-      <c r="I177" s="56"/>
-      <c r="J177" s="56"/>
-      <c r="K177" s="56"/>
-      <c r="L177" s="56"/>
-      <c r="M177" s="56"/>
-      <c r="N177" s="57"/>
-      <c r="O177" s="56"/>
+      <c r="I177" s="54"/>
+      <c r="J177" s="54"/>
+      <c r="K177" s="54"/>
+      <c r="L177" s="54"/>
+      <c r="M177" s="54"/>
+      <c r="N177" s="54"/>
+      <c r="O177" s="54"/>
     </row>
     <row r="178" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
@@ -4501,16 +4498,16 @@
       <c r="C178" s="4"/>
       <c r="D178" s="5"/>
       <c r="E178" s="5"/>
-      <c r="F178" s="58"/>
+      <c r="F178" s="57"/>
       <c r="G178" s="23"/>
       <c r="H178" s="56"/>
-      <c r="I178" s="56"/>
-      <c r="J178" s="56"/>
-      <c r="K178" s="56"/>
-      <c r="L178" s="56"/>
-      <c r="M178" s="56"/>
-      <c r="N178" s="57"/>
-      <c r="O178" s="56"/>
+      <c r="I178" s="54"/>
+      <c r="J178" s="54"/>
+      <c r="K178" s="54"/>
+      <c r="L178" s="54"/>
+      <c r="M178" s="54"/>
+      <c r="N178" s="54"/>
+      <c r="O178" s="54"/>
     </row>
     <row r="179" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
@@ -4520,16 +4517,16 @@
       <c r="C179" s="4"/>
       <c r="D179" s="5"/>
       <c r="E179" s="5"/>
-      <c r="F179" s="58"/>
+      <c r="F179" s="57"/>
       <c r="G179" s="23"/>
       <c r="H179" s="56"/>
-      <c r="I179" s="56"/>
-      <c r="J179" s="56"/>
-      <c r="K179" s="56"/>
-      <c r="L179" s="56"/>
-      <c r="M179" s="56"/>
-      <c r="N179" s="57"/>
-      <c r="O179" s="56"/>
+      <c r="I179" s="54"/>
+      <c r="J179" s="54"/>
+      <c r="K179" s="54"/>
+      <c r="L179" s="54"/>
+      <c r="M179" s="54"/>
+      <c r="N179" s="54"/>
+      <c r="O179" s="54"/>
     </row>
     <row r="180" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
@@ -4539,16 +4536,16 @@
       <c r="C180" s="4"/>
       <c r="D180" s="5"/>
       <c r="E180" s="5"/>
-      <c r="F180" s="58"/>
+      <c r="F180" s="57"/>
       <c r="G180" s="23"/>
       <c r="H180" s="56"/>
-      <c r="I180" s="56"/>
-      <c r="J180" s="56"/>
-      <c r="K180" s="56"/>
-      <c r="L180" s="56"/>
-      <c r="M180" s="56"/>
-      <c r="N180" s="57"/>
-      <c r="O180" s="56"/>
+      <c r="I180" s="54"/>
+      <c r="J180" s="54"/>
+      <c r="K180" s="54"/>
+      <c r="L180" s="54"/>
+      <c r="M180" s="54"/>
+      <c r="N180" s="54"/>
+      <c r="O180" s="54"/>
     </row>
     <row r="181" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
@@ -4558,16 +4555,16 @@
       <c r="C181" s="4"/>
       <c r="D181" s="5"/>
       <c r="E181" s="5"/>
-      <c r="F181" s="58"/>
+      <c r="F181" s="57"/>
       <c r="G181" s="23"/>
       <c r="H181" s="56"/>
-      <c r="I181" s="56"/>
-      <c r="J181" s="56"/>
-      <c r="K181" s="56"/>
-      <c r="L181" s="56"/>
-      <c r="M181" s="56"/>
-      <c r="N181" s="57"/>
-      <c r="O181" s="56"/>
+      <c r="I181" s="54"/>
+      <c r="J181" s="54"/>
+      <c r="K181" s="54"/>
+      <c r="L181" s="54"/>
+      <c r="M181" s="54"/>
+      <c r="N181" s="54"/>
+      <c r="O181" s="54"/>
     </row>
     <row r="182" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
@@ -4577,16 +4574,16 @@
       <c r="C182" s="4"/>
       <c r="D182" s="5"/>
       <c r="E182" s="5"/>
-      <c r="F182" s="58"/>
+      <c r="F182" s="57"/>
       <c r="G182" s="23"/>
       <c r="H182" s="56"/>
-      <c r="I182" s="56"/>
-      <c r="J182" s="56"/>
-      <c r="K182" s="56"/>
-      <c r="L182" s="56"/>
-      <c r="M182" s="56"/>
-      <c r="N182" s="57"/>
-      <c r="O182" s="56"/>
+      <c r="I182" s="54"/>
+      <c r="J182" s="54"/>
+      <c r="K182" s="54"/>
+      <c r="L182" s="54"/>
+      <c r="M182" s="54"/>
+      <c r="N182" s="54"/>
+      <c r="O182" s="54"/>
     </row>
     <row r="183" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
@@ -4596,16 +4593,16 @@
       <c r="C183" s="4"/>
       <c r="D183" s="5"/>
       <c r="E183" s="5"/>
-      <c r="F183" s="58"/>
+      <c r="F183" s="57"/>
       <c r="G183" s="23"/>
       <c r="H183" s="56"/>
-      <c r="I183" s="56"/>
-      <c r="J183" s="56"/>
-      <c r="K183" s="56"/>
-      <c r="L183" s="56"/>
-      <c r="M183" s="56"/>
-      <c r="N183" s="57"/>
-      <c r="O183" s="56"/>
+      <c r="I183" s="54"/>
+      <c r="J183" s="54"/>
+      <c r="K183" s="54"/>
+      <c r="L183" s="54"/>
+      <c r="M183" s="54"/>
+      <c r="N183" s="54"/>
+      <c r="O183" s="54"/>
     </row>
     <row r="184" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
@@ -4615,16 +4612,16 @@
       <c r="C184" s="4"/>
       <c r="D184" s="5"/>
       <c r="E184" s="5"/>
-      <c r="F184" s="58"/>
+      <c r="F184" s="57"/>
       <c r="G184" s="23"/>
       <c r="H184" s="56"/>
-      <c r="I184" s="56"/>
-      <c r="J184" s="56"/>
-      <c r="K184" s="56"/>
-      <c r="L184" s="56"/>
-      <c r="M184" s="56"/>
-      <c r="N184" s="57"/>
-      <c r="O184" s="56"/>
+      <c r="I184" s="54"/>
+      <c r="J184" s="54"/>
+      <c r="K184" s="54"/>
+      <c r="L184" s="54"/>
+      <c r="M184" s="54"/>
+      <c r="N184" s="54"/>
+      <c r="O184" s="54"/>
     </row>
     <row r="185" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
@@ -4634,16 +4631,16 @@
       <c r="C185" s="4"/>
       <c r="D185" s="5"/>
       <c r="E185" s="5"/>
-      <c r="F185" s="58"/>
+      <c r="F185" s="57"/>
       <c r="G185" s="23"/>
       <c r="H185" s="56"/>
-      <c r="I185" s="56"/>
-      <c r="J185" s="56"/>
-      <c r="K185" s="56"/>
-      <c r="L185" s="56"/>
-      <c r="M185" s="56"/>
-      <c r="N185" s="57"/>
-      <c r="O185" s="56"/>
+      <c r="I185" s="54"/>
+      <c r="J185" s="54"/>
+      <c r="K185" s="54"/>
+      <c r="L185" s="54"/>
+      <c r="M185" s="54"/>
+      <c r="N185" s="54"/>
+      <c r="O185" s="54"/>
     </row>
     <row r="186" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
@@ -4653,16 +4650,16 @@
       <c r="C186" s="4"/>
       <c r="D186" s="5"/>
       <c r="E186" s="5"/>
-      <c r="F186" s="58"/>
+      <c r="F186" s="57"/>
       <c r="G186" s="23"/>
       <c r="H186" s="56"/>
-      <c r="I186" s="56"/>
-      <c r="J186" s="56"/>
-      <c r="K186" s="56"/>
-      <c r="L186" s="56"/>
-      <c r="M186" s="56"/>
-      <c r="N186" s="57"/>
-      <c r="O186" s="56"/>
+      <c r="I186" s="54"/>
+      <c r="J186" s="54"/>
+      <c r="K186" s="54"/>
+      <c r="L186" s="54"/>
+      <c r="M186" s="54"/>
+      <c r="N186" s="54"/>
+      <c r="O186" s="54"/>
     </row>
     <row r="187" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
@@ -4672,16 +4669,16 @@
       <c r="C187" s="4"/>
       <c r="D187" s="5"/>
       <c r="E187" s="5"/>
-      <c r="F187" s="58"/>
+      <c r="F187" s="57"/>
       <c r="G187" s="23"/>
       <c r="H187" s="56"/>
-      <c r="I187" s="56"/>
-      <c r="J187" s="56"/>
-      <c r="K187" s="56"/>
-      <c r="L187" s="56"/>
-      <c r="M187" s="56"/>
-      <c r="N187" s="57"/>
-      <c r="O187" s="56"/>
+      <c r="I187" s="54"/>
+      <c r="J187" s="54"/>
+      <c r="K187" s="54"/>
+      <c r="L187" s="54"/>
+      <c r="M187" s="54"/>
+      <c r="N187" s="54"/>
+      <c r="O187" s="54"/>
     </row>
     <row r="188" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
@@ -4691,16 +4688,16 @@
       <c r="C188" s="4"/>
       <c r="D188" s="5"/>
       <c r="E188" s="5"/>
-      <c r="F188" s="58"/>
+      <c r="F188" s="57"/>
       <c r="G188" s="23"/>
       <c r="H188" s="56"/>
-      <c r="I188" s="56"/>
-      <c r="J188" s="56"/>
-      <c r="K188" s="56"/>
-      <c r="L188" s="56"/>
-      <c r="M188" s="56"/>
-      <c r="N188" s="57"/>
-      <c r="O188" s="56"/>
+      <c r="I188" s="54"/>
+      <c r="J188" s="54"/>
+      <c r="K188" s="54"/>
+      <c r="L188" s="54"/>
+      <c r="M188" s="54"/>
+      <c r="N188" s="54"/>
+      <c r="O188" s="54"/>
     </row>
     <row r="189" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
@@ -4710,16 +4707,16 @@
       <c r="C189" s="4"/>
       <c r="D189" s="5"/>
       <c r="E189" s="5"/>
-      <c r="F189" s="58"/>
+      <c r="F189" s="57"/>
       <c r="G189" s="23"/>
       <c r="H189" s="56"/>
-      <c r="I189" s="56"/>
-      <c r="J189" s="56"/>
-      <c r="K189" s="56"/>
-      <c r="L189" s="56"/>
-      <c r="M189" s="56"/>
-      <c r="N189" s="57"/>
-      <c r="O189" s="56"/>
+      <c r="I189" s="54"/>
+      <c r="J189" s="54"/>
+      <c r="K189" s="54"/>
+      <c r="L189" s="54"/>
+      <c r="M189" s="54"/>
+      <c r="N189" s="54"/>
+      <c r="O189" s="54"/>
     </row>
     <row r="190" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
@@ -4729,16 +4726,16 @@
       <c r="C190" s="4"/>
       <c r="D190" s="5"/>
       <c r="E190" s="5"/>
-      <c r="F190" s="58"/>
+      <c r="F190" s="57"/>
       <c r="G190" s="23"/>
       <c r="H190" s="56"/>
-      <c r="I190" s="56"/>
-      <c r="J190" s="56"/>
-      <c r="K190" s="56"/>
-      <c r="L190" s="56"/>
-      <c r="M190" s="56"/>
-      <c r="N190" s="57"/>
-      <c r="O190" s="56"/>
+      <c r="I190" s="54"/>
+      <c r="J190" s="54"/>
+      <c r="K190" s="54"/>
+      <c r="L190" s="54"/>
+      <c r="M190" s="54"/>
+      <c r="N190" s="54"/>
+      <c r="O190" s="54"/>
     </row>
     <row r="191" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
@@ -4748,16 +4745,16 @@
       <c r="C191" s="4"/>
       <c r="D191" s="5"/>
       <c r="E191" s="5"/>
-      <c r="F191" s="58"/>
+      <c r="F191" s="57"/>
       <c r="G191" s="23"/>
       <c r="H191" s="56"/>
-      <c r="I191" s="56"/>
-      <c r="J191" s="56"/>
-      <c r="K191" s="56"/>
-      <c r="L191" s="56"/>
-      <c r="M191" s="56"/>
-      <c r="N191" s="57"/>
-      <c r="O191" s="56"/>
+      <c r="I191" s="54"/>
+      <c r="J191" s="54"/>
+      <c r="K191" s="54"/>
+      <c r="L191" s="54"/>
+      <c r="M191" s="54"/>
+      <c r="N191" s="54"/>
+      <c r="O191" s="54"/>
     </row>
     <row r="192" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
@@ -4767,16 +4764,16 @@
       <c r="C192" s="4"/>
       <c r="D192" s="5"/>
       <c r="E192" s="5"/>
-      <c r="F192" s="58"/>
+      <c r="F192" s="57"/>
       <c r="G192" s="23"/>
       <c r="H192" s="56"/>
-      <c r="I192" s="56"/>
-      <c r="J192" s="56"/>
-      <c r="K192" s="56"/>
-      <c r="L192" s="56"/>
-      <c r="M192" s="56"/>
-      <c r="N192" s="57"/>
-      <c r="O192" s="56"/>
+      <c r="I192" s="54"/>
+      <c r="J192" s="54"/>
+      <c r="K192" s="54"/>
+      <c r="L192" s="54"/>
+      <c r="M192" s="54"/>
+      <c r="N192" s="54"/>
+      <c r="O192" s="54"/>
     </row>
     <row r="193" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
@@ -4786,16 +4783,16 @@
       <c r="C193" s="4"/>
       <c r="D193" s="5"/>
       <c r="E193" s="5"/>
-      <c r="F193" s="58"/>
+      <c r="F193" s="57"/>
       <c r="G193" s="23"/>
       <c r="H193" s="56"/>
-      <c r="I193" s="56"/>
-      <c r="J193" s="56"/>
-      <c r="K193" s="56"/>
-      <c r="L193" s="56"/>
-      <c r="M193" s="56"/>
-      <c r="N193" s="57"/>
-      <c r="O193" s="56"/>
+      <c r="I193" s="54"/>
+      <c r="J193" s="54"/>
+      <c r="K193" s="54"/>
+      <c r="L193" s="54"/>
+      <c r="M193" s="54"/>
+      <c r="N193" s="54"/>
+      <c r="O193" s="54"/>
     </row>
     <row r="194" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
@@ -4805,16 +4802,16 @@
       <c r="C194" s="4"/>
       <c r="D194" s="5"/>
       <c r="E194" s="5"/>
-      <c r="F194" s="58"/>
+      <c r="F194" s="57"/>
       <c r="G194" s="23"/>
       <c r="H194" s="56"/>
-      <c r="I194" s="56"/>
-      <c r="J194" s="56"/>
-      <c r="K194" s="56"/>
-      <c r="L194" s="56"/>
-      <c r="M194" s="56"/>
-      <c r="N194" s="57"/>
-      <c r="O194" s="56"/>
+      <c r="I194" s="54"/>
+      <c r="J194" s="54"/>
+      <c r="K194" s="54"/>
+      <c r="L194" s="54"/>
+      <c r="M194" s="54"/>
+      <c r="N194" s="54"/>
+      <c r="O194" s="54"/>
     </row>
     <row r="195" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
@@ -4824,16 +4821,16 @@
       <c r="C195" s="4"/>
       <c r="D195" s="5"/>
       <c r="E195" s="5"/>
-      <c r="F195" s="58"/>
+      <c r="F195" s="57"/>
       <c r="G195" s="23"/>
       <c r="H195" s="56"/>
-      <c r="I195" s="56"/>
-      <c r="J195" s="56"/>
-      <c r="K195" s="56"/>
-      <c r="L195" s="56"/>
-      <c r="M195" s="56"/>
-      <c r="N195" s="57"/>
-      <c r="O195" s="56"/>
+      <c r="I195" s="54"/>
+      <c r="J195" s="54"/>
+      <c r="K195" s="54"/>
+      <c r="L195" s="54"/>
+      <c r="M195" s="54"/>
+      <c r="N195" s="54"/>
+      <c r="O195" s="54"/>
     </row>
     <row r="196" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
@@ -4843,16 +4840,16 @@
       <c r="C196" s="4"/>
       <c r="D196" s="5"/>
       <c r="E196" s="5"/>
-      <c r="F196" s="58"/>
+      <c r="F196" s="57"/>
       <c r="G196" s="23"/>
       <c r="H196" s="56"/>
-      <c r="I196" s="56"/>
-      <c r="J196" s="56"/>
-      <c r="K196" s="56"/>
-      <c r="L196" s="56"/>
-      <c r="M196" s="56"/>
-      <c r="N196" s="57"/>
-      <c r="O196" s="56"/>
+      <c r="I196" s="54"/>
+      <c r="J196" s="54"/>
+      <c r="K196" s="54"/>
+      <c r="L196" s="54"/>
+      <c r="M196" s="54"/>
+      <c r="N196" s="54"/>
+      <c r="O196" s="54"/>
     </row>
     <row r="197" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
@@ -4862,16 +4859,16 @@
       <c r="C197" s="4"/>
       <c r="D197" s="5"/>
       <c r="E197" s="5"/>
-      <c r="F197" s="58"/>
+      <c r="F197" s="57"/>
       <c r="G197" s="23"/>
       <c r="H197" s="56"/>
-      <c r="I197" s="56"/>
-      <c r="J197" s="56"/>
-      <c r="K197" s="56"/>
-      <c r="L197" s="56"/>
-      <c r="M197" s="56"/>
-      <c r="N197" s="57"/>
-      <c r="O197" s="56"/>
+      <c r="I197" s="54"/>
+      <c r="J197" s="54"/>
+      <c r="K197" s="54"/>
+      <c r="L197" s="54"/>
+      <c r="M197" s="54"/>
+      <c r="N197" s="54"/>
+      <c r="O197" s="54"/>
     </row>
     <row r="198" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
@@ -4881,16 +4878,16 @@
       <c r="C198" s="4"/>
       <c r="D198" s="5"/>
       <c r="E198" s="5"/>
-      <c r="F198" s="58"/>
+      <c r="F198" s="57"/>
       <c r="G198" s="23"/>
       <c r="H198" s="56"/>
-      <c r="I198" s="56"/>
-      <c r="J198" s="56"/>
-      <c r="K198" s="56"/>
-      <c r="L198" s="56"/>
-      <c r="M198" s="56"/>
-      <c r="N198" s="57"/>
-      <c r="O198" s="56"/>
+      <c r="I198" s="54"/>
+      <c r="J198" s="54"/>
+      <c r="K198" s="54"/>
+      <c r="L198" s="54"/>
+      <c r="M198" s="54"/>
+      <c r="N198" s="54"/>
+      <c r="O198" s="54"/>
     </row>
     <row r="199" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
@@ -4900,16 +4897,16 @@
       <c r="C199" s="4"/>
       <c r="D199" s="5"/>
       <c r="E199" s="5"/>
-      <c r="F199" s="58"/>
+      <c r="F199" s="57"/>
       <c r="G199" s="23"/>
       <c r="H199" s="56"/>
-      <c r="I199" s="56"/>
-      <c r="J199" s="56"/>
-      <c r="K199" s="56"/>
-      <c r="L199" s="56"/>
-      <c r="M199" s="56"/>
-      <c r="N199" s="57"/>
-      <c r="O199" s="56"/>
+      <c r="I199" s="54"/>
+      <c r="J199" s="54"/>
+      <c r="K199" s="54"/>
+      <c r="L199" s="54"/>
+      <c r="M199" s="54"/>
+      <c r="N199" s="54"/>
+      <c r="O199" s="54"/>
     </row>
     <row r="200" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
@@ -4919,16 +4916,16 @@
       <c r="C200" s="4"/>
       <c r="D200" s="5"/>
       <c r="E200" s="5"/>
-      <c r="F200" s="58"/>
+      <c r="F200" s="57"/>
       <c r="G200" s="23"/>
       <c r="H200" s="56"/>
-      <c r="I200" s="56"/>
-      <c r="J200" s="56"/>
-      <c r="K200" s="56"/>
-      <c r="L200" s="56"/>
-      <c r="M200" s="56"/>
-      <c r="N200" s="57"/>
-      <c r="O200" s="56"/>
+      <c r="I200" s="54"/>
+      <c r="J200" s="54"/>
+      <c r="K200" s="54"/>
+      <c r="L200" s="54"/>
+      <c r="M200" s="54"/>
+      <c r="N200" s="54"/>
+      <c r="O200" s="54"/>
     </row>
     <row r="201" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
@@ -4938,16 +4935,16 @@
       <c r="C201" s="4"/>
       <c r="D201" s="5"/>
       <c r="E201" s="5"/>
-      <c r="F201" s="58"/>
+      <c r="F201" s="57"/>
       <c r="G201" s="23"/>
       <c r="H201" s="56"/>
-      <c r="I201" s="56"/>
-      <c r="J201" s="56"/>
-      <c r="K201" s="56"/>
-      <c r="L201" s="56"/>
-      <c r="M201" s="56"/>
-      <c r="N201" s="57"/>
-      <c r="O201" s="56"/>
+      <c r="I201" s="54"/>
+      <c r="J201" s="54"/>
+      <c r="K201" s="54"/>
+      <c r="L201" s="54"/>
+      <c r="M201" s="54"/>
+      <c r="N201" s="54"/>
+      <c r="O201" s="54"/>
     </row>
     <row r="202" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
@@ -4957,16 +4954,16 @@
       <c r="C202" s="4"/>
       <c r="D202" s="5"/>
       <c r="E202" s="5"/>
-      <c r="F202" s="58"/>
+      <c r="F202" s="57"/>
       <c r="G202" s="23"/>
       <c r="H202" s="56"/>
-      <c r="I202" s="56"/>
-      <c r="J202" s="56"/>
-      <c r="K202" s="56"/>
-      <c r="L202" s="56"/>
-      <c r="M202" s="56"/>
-      <c r="N202" s="57"/>
-      <c r="O202" s="56"/>
+      <c r="I202" s="54"/>
+      <c r="J202" s="54"/>
+      <c r="K202" s="54"/>
+      <c r="L202" s="54"/>
+      <c r="M202" s="54"/>
+      <c r="N202" s="54"/>
+      <c r="O202" s="54"/>
     </row>
     <row r="203" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
@@ -4976,16 +4973,16 @@
       <c r="C203" s="4"/>
       <c r="D203" s="5"/>
       <c r="E203" s="5"/>
-      <c r="F203" s="58"/>
+      <c r="F203" s="57"/>
       <c r="G203" s="23"/>
       <c r="H203" s="56"/>
-      <c r="I203" s="56"/>
-      <c r="J203" s="56"/>
-      <c r="K203" s="56"/>
-      <c r="L203" s="56"/>
-      <c r="M203" s="56"/>
-      <c r="N203" s="57"/>
-      <c r="O203" s="56"/>
+      <c r="I203" s="54"/>
+      <c r="J203" s="54"/>
+      <c r="K203" s="54"/>
+      <c r="L203" s="54"/>
+      <c r="M203" s="54"/>
+      <c r="N203" s="54"/>
+      <c r="O203" s="54"/>
     </row>
     <row r="204" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="2"/>
@@ -16800,49 +16797,49 @@
           <x14:formula1>
             <xm:f>'Lista desplegable'!$C$2:$C$5</xm:f>
           </x14:formula1>
-          <xm:sqref>H4:H203 I4:O5</xm:sqref>
+          <xm:sqref>H4:H203</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8817F2C0-78F2-4921-B5AB-847D70608827}">
           <x14:formula1>
             <xm:f>'Lista desplegable'!$D$2:$D$5</xm:f>
           </x14:formula1>
-          <xm:sqref>I6:I203</xm:sqref>
+          <xm:sqref>I4:I203</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F11334D1-B167-484E-A8AA-668FA80205E0}">
           <x14:formula1>
             <xm:f>'Lista desplegable'!$F$2:$F$20</xm:f>
           </x14:formula1>
-          <xm:sqref>K6:K203</xm:sqref>
+          <xm:sqref>K4:K203</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EBBDDCFC-71FD-4E7C-8628-1930DB3FD7C8}">
           <x14:formula1>
             <xm:f>'Lista desplegable'!$G$2:$G$4</xm:f>
           </x14:formula1>
-          <xm:sqref>L6:L203</xm:sqref>
+          <xm:sqref>L4:L203</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F249E9E2-D771-4566-85B2-7FCFEBCE7387}">
           <x14:formula1>
             <xm:f>'Lista desplegable'!$H$2:$H$11</xm:f>
           </x14:formula1>
-          <xm:sqref>M6:M203</xm:sqref>
+          <xm:sqref>M4:M203</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AF507B11-4274-4AA7-BA1B-50B99480DB33}">
           <x14:formula1>
             <xm:f>'Lista desplegable'!$I$2:$I$9</xm:f>
           </x14:formula1>
-          <xm:sqref>N6:N203</xm:sqref>
+          <xm:sqref>N4:N203</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BF81F3B0-15B5-4589-BE48-CC12B772A689}">
           <x14:formula1>
             <xm:f>'Lista desplegable'!$J$2:$J$5</xm:f>
           </x14:formula1>
-          <xm:sqref>O6:O203</xm:sqref>
+          <xm:sqref>O4:O203</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{61C1A2AE-B592-4367-B6E6-43426F19FB49}">
           <x14:formula1>
             <xm:f>'Lista desplegable'!$E$2:$E$7</xm:f>
           </x14:formula1>
-          <xm:sqref>J6:J203</xm:sqref>
+          <xm:sqref>J4:J203</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{95CA0C82-AAD2-46BE-9368-E5A4E9443D01}">
           <x14:formula1>
@@ -16867,23 +16864,23 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:15" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -16987,7 +16984,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:J999"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -17200,7 +17197,7 @@
       </c>
     </row>
     <row r="9" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="58" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="28">
@@ -17214,7 +17211,7 @@
       </c>
     </row>
     <row r="10" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="60" t="s">
+      <c r="B10" s="59" t="s">
         <v>13</v>
       </c>
       <c r="F10" s="28">
@@ -17245,7 +17242,7 @@
       <c r="G12" s="50"/>
     </row>
     <row r="13" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="60" t="s">
+      <c r="B13" s="59" t="s">
         <v>14</v>
       </c>
       <c r="F13" s="28">
@@ -17269,7 +17266,7 @@
       </c>
     </row>
     <row r="16" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="60" t="s">
+      <c r="B16" s="59" t="s">
         <v>15</v>
       </c>
       <c r="F16" s="28">
@@ -17277,7 +17274,7 @@
       </c>
     </row>
     <row r="17" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="60" t="s">
+      <c r="B17" s="59" t="s">
         <v>16</v>
       </c>
       <c r="F17" s="28">
@@ -17285,7 +17282,7 @@
       </c>
     </row>
     <row r="18" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="60" t="s">
+      <c r="B18" s="59" t="s">
         <v>17</v>
       </c>
       <c r="F18" s="28">
@@ -17293,7 +17290,7 @@
       </c>
     </row>
     <row r="19" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="60" t="s">
+      <c r="B19" s="59" t="s">
         <v>18</v>
       </c>
       <c r="F19" s="28">
@@ -17301,7 +17298,7 @@
       </c>
     </row>
     <row r="20" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="60" t="s">
+      <c r="B20" s="59" t="s">
         <v>19</v>
       </c>
       <c r="F20" s="28">
@@ -17309,21 +17306,21 @@
       </c>
     </row>
     <row r="21" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="60" t="s">
+      <c r="B21" s="59" t="s">
         <v>20</v>
       </c>
       <c r="G21" s="50"/>
       <c r="H21" s="53"/>
     </row>
     <row r="22" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="60" t="s">
+      <c r="B22" s="59" t="s">
         <v>21</v>
       </c>
       <c r="G22" s="50"/>
       <c r="H22" s="53"/>
     </row>
     <row r="23" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="60" t="s">
+      <c r="B23" s="59" t="s">
         <v>22</v>
       </c>
       <c r="G23" s="50"/>

--- a/public/DownloadExcels/Materias_Primas.xlsx
+++ b/public/DownloadExcels/Materias_Primas.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Reyes\OneDrive - Top Drive Group\Escritorio\Carlos\Desarrollo\ecopFront-Desarrollo\public\DownloadExcels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Mario\Desktop\Ecopcion Desarrollo\ecopFront-Desarrollo\public\DownloadExcels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A10BE652-D78F-431A-BC64-0286E47ECABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A3D1A78-7EA3-45EB-BAC4-7955CECB070D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="INVENTARIO DE MATERIAS PRIMAS" sheetId="1" r:id="rId1"/>
-    <sheet name="INSTRUCCIONES" sheetId="3" r:id="rId2"/>
+    <sheet name="INSTRUCCIONES" sheetId="3" r:id="rId1"/>
+    <sheet name="INVENTARIO DE MATERIAS PRIMAS" sheetId="1" r:id="rId2"/>
     <sheet name="Lista desplegable" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
@@ -576,7 +576,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -759,10 +759,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1030,11 +1033,138 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F778330C-B888-4E1F-9D51-6576E83C0DAD}">
+  <dimension ref="A1:O19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="212.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="63" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA897"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="F1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1195,13 +1325,13 @@
       <c r="F4" s="57"/>
       <c r="G4" s="54"/>
       <c r="H4" s="56"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
     </row>
     <row r="5" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -1214,13 +1344,13 @@
       <c r="F5" s="57"/>
       <c r="G5" s="54"/>
       <c r="H5" s="56"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="54"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="56"/>
     </row>
     <row r="6" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -1233,13 +1363,13 @@
       <c r="F6" s="57"/>
       <c r="G6" s="23"/>
       <c r="H6" s="56"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="54"/>
-      <c r="M6" s="54"/>
-      <c r="N6" s="54"/>
-      <c r="O6" s="54"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="56"/>
     </row>
     <row r="7" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -1252,13 +1382,13 @@
       <c r="F7" s="57"/>
       <c r="G7" s="23"/>
       <c r="H7" s="56"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="54"/>
-      <c r="O7" s="54"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="56"/>
     </row>
     <row r="8" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -1271,13 +1401,13 @@
       <c r="F8" s="57"/>
       <c r="G8" s="23"/>
       <c r="H8" s="56"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="54"/>
-      <c r="O8" s="54"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="56"/>
     </row>
     <row r="9" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -1290,13 +1420,13 @@
       <c r="F9" s="57"/>
       <c r="G9" s="23"/>
       <c r="H9" s="56"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="54"/>
-      <c r="O9" s="54"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="56"/>
     </row>
     <row r="10" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -1309,13 +1439,13 @@
       <c r="F10" s="57"/>
       <c r="G10" s="23"/>
       <c r="H10" s="56"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="54"/>
-      <c r="O10" s="54"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="56"/>
     </row>
     <row r="11" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -1328,13 +1458,13 @@
       <c r="F11" s="57"/>
       <c r="G11" s="23"/>
       <c r="H11" s="56"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="54"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="56"/>
     </row>
     <row r="12" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -1347,13 +1477,13 @@
       <c r="F12" s="57"/>
       <c r="G12" s="23"/>
       <c r="H12" s="56"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="54"/>
-      <c r="O12" s="54"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="56"/>
     </row>
     <row r="13" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -1366,13 +1496,13 @@
       <c r="F13" s="57"/>
       <c r="G13" s="23"/>
       <c r="H13" s="56"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="54"/>
-      <c r="N13" s="54"/>
-      <c r="O13" s="54"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="56"/>
     </row>
     <row r="14" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -1385,13 +1515,13 @@
       <c r="F14" s="57"/>
       <c r="G14" s="23"/>
       <c r="H14" s="56"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="54"/>
-      <c r="N14" s="54"/>
-      <c r="O14" s="54"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="56"/>
     </row>
     <row r="15" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -1404,13 +1534,13 @@
       <c r="F15" s="57"/>
       <c r="G15" s="23"/>
       <c r="H15" s="56"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="54"/>
-      <c r="N15" s="54"/>
-      <c r="O15" s="54"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="56"/>
+      <c r="O15" s="56"/>
     </row>
     <row r="16" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -1423,13 +1553,13 @@
       <c r="F16" s="57"/>
       <c r="G16" s="23"/>
       <c r="H16" s="56"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="54"/>
-      <c r="N16" s="54"/>
-      <c r="O16" s="54"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="56"/>
     </row>
     <row r="17" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -1442,13 +1572,13 @@
       <c r="F17" s="57"/>
       <c r="G17" s="23"/>
       <c r="H17" s="56"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="54"/>
-      <c r="N17" s="54"/>
-      <c r="O17" s="54"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="56"/>
     </row>
     <row r="18" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -1461,13 +1591,13 @@
       <c r="F18" s="57"/>
       <c r="G18" s="23"/>
       <c r="H18" s="56"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="54"/>
-      <c r="K18" s="54"/>
-      <c r="L18" s="54"/>
-      <c r="M18" s="54"/>
-      <c r="N18" s="54"/>
-      <c r="O18" s="54"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="56"/>
     </row>
     <row r="19" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
@@ -1480,13 +1610,13 @@
       <c r="F19" s="57"/>
       <c r="G19" s="23"/>
       <c r="H19" s="56"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="54"/>
-      <c r="M19" s="54"/>
-      <c r="N19" s="54"/>
-      <c r="O19" s="54"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="56"/>
+      <c r="O19" s="56"/>
     </row>
     <row r="20" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
@@ -1499,13 +1629,13 @@
       <c r="F20" s="57"/>
       <c r="G20" s="23"/>
       <c r="H20" s="56"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="54"/>
-      <c r="N20" s="54"/>
-      <c r="O20" s="54"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="56"/>
     </row>
     <row r="21" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
@@ -1518,13 +1648,13 @@
       <c r="F21" s="57"/>
       <c r="G21" s="23"/>
       <c r="H21" s="56"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="54"/>
-      <c r="M21" s="54"/>
-      <c r="N21" s="54"/>
-      <c r="O21" s="54"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="56"/>
+      <c r="M21" s="56"/>
+      <c r="N21" s="56"/>
+      <c r="O21" s="56"/>
     </row>
     <row r="22" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
@@ -1537,13 +1667,13 @@
       <c r="F22" s="57"/>
       <c r="G22" s="23"/>
       <c r="H22" s="56"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="54"/>
-      <c r="K22" s="54"/>
-      <c r="L22" s="54"/>
-      <c r="M22" s="54"/>
-      <c r="N22" s="54"/>
-      <c r="O22" s="54"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="56"/>
+      <c r="O22" s="56"/>
     </row>
     <row r="23" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
@@ -1556,13 +1686,13 @@
       <c r="F23" s="57"/>
       <c r="G23" s="23"/>
       <c r="H23" s="56"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="54"/>
-      <c r="M23" s="54"/>
-      <c r="N23" s="54"/>
-      <c r="O23" s="54"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="56"/>
+      <c r="O23" s="56"/>
     </row>
     <row r="24" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
@@ -1575,13 +1705,13 @@
       <c r="F24" s="57"/>
       <c r="G24" s="23"/>
       <c r="H24" s="56"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="54"/>
-      <c r="K24" s="54"/>
-      <c r="L24" s="54"/>
-      <c r="M24" s="54"/>
-      <c r="N24" s="54"/>
-      <c r="O24" s="54"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="56"/>
+      <c r="N24" s="56"/>
+      <c r="O24" s="56"/>
     </row>
     <row r="25" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
@@ -1594,13 +1724,13 @@
       <c r="F25" s="57"/>
       <c r="G25" s="23"/>
       <c r="H25" s="56"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="54"/>
-      <c r="L25" s="54"/>
-      <c r="M25" s="54"/>
-      <c r="N25" s="54"/>
-      <c r="O25" s="54"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="56"/>
+      <c r="L25" s="56"/>
+      <c r="M25" s="56"/>
+      <c r="N25" s="56"/>
+      <c r="O25" s="56"/>
     </row>
     <row r="26" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
@@ -1613,13 +1743,13 @@
       <c r="F26" s="57"/>
       <c r="G26" s="23"/>
       <c r="H26" s="56"/>
-      <c r="I26" s="54"/>
-      <c r="J26" s="54"/>
-      <c r="K26" s="54"/>
-      <c r="L26" s="54"/>
-      <c r="M26" s="54"/>
-      <c r="N26" s="54"/>
-      <c r="O26" s="54"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="56"/>
+      <c r="M26" s="56"/>
+      <c r="N26" s="56"/>
+      <c r="O26" s="56"/>
     </row>
     <row r="27" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
@@ -1632,13 +1762,13 @@
       <c r="F27" s="57"/>
       <c r="G27" s="23"/>
       <c r="H27" s="56"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="54"/>
-      <c r="K27" s="54"/>
-      <c r="L27" s="54"/>
-      <c r="M27" s="54"/>
-      <c r="N27" s="54"/>
-      <c r="O27" s="54"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="56"/>
+      <c r="M27" s="56"/>
+      <c r="N27" s="56"/>
+      <c r="O27" s="56"/>
     </row>
     <row r="28" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
@@ -1651,13 +1781,13 @@
       <c r="F28" s="57"/>
       <c r="G28" s="23"/>
       <c r="H28" s="56"/>
-      <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
-      <c r="K28" s="54"/>
-      <c r="L28" s="54"/>
-      <c r="M28" s="54"/>
-      <c r="N28" s="54"/>
-      <c r="O28" s="54"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="56"/>
+      <c r="L28" s="56"/>
+      <c r="M28" s="56"/>
+      <c r="N28" s="56"/>
+      <c r="O28" s="56"/>
     </row>
     <row r="29" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
@@ -1670,13 +1800,13 @@
       <c r="F29" s="57"/>
       <c r="G29" s="23"/>
       <c r="H29" s="56"/>
-      <c r="I29" s="54"/>
-      <c r="J29" s="54"/>
-      <c r="K29" s="54"/>
-      <c r="L29" s="54"/>
-      <c r="M29" s="54"/>
-      <c r="N29" s="54"/>
-      <c r="O29" s="54"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="56"/>
+      <c r="L29" s="56"/>
+      <c r="M29" s="56"/>
+      <c r="N29" s="56"/>
+      <c r="O29" s="56"/>
     </row>
     <row r="30" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
@@ -1689,13 +1819,13 @@
       <c r="F30" s="57"/>
       <c r="G30" s="23"/>
       <c r="H30" s="56"/>
-      <c r="I30" s="54"/>
-      <c r="J30" s="54"/>
-      <c r="K30" s="54"/>
-      <c r="L30" s="54"/>
-      <c r="M30" s="54"/>
-      <c r="N30" s="54"/>
-      <c r="O30" s="54"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="56"/>
+      <c r="L30" s="56"/>
+      <c r="M30" s="56"/>
+      <c r="N30" s="56"/>
+      <c r="O30" s="56"/>
     </row>
     <row r="31" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
@@ -1708,13 +1838,13 @@
       <c r="F31" s="57"/>
       <c r="G31" s="23"/>
       <c r="H31" s="56"/>
-      <c r="I31" s="54"/>
-      <c r="J31" s="54"/>
-      <c r="K31" s="54"/>
-      <c r="L31" s="54"/>
-      <c r="M31" s="54"/>
-      <c r="N31" s="54"/>
-      <c r="O31" s="54"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="56"/>
+      <c r="L31" s="56"/>
+      <c r="M31" s="56"/>
+      <c r="N31" s="56"/>
+      <c r="O31" s="56"/>
     </row>
     <row r="32" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
@@ -1727,13 +1857,13 @@
       <c r="F32" s="57"/>
       <c r="G32" s="23"/>
       <c r="H32" s="56"/>
-      <c r="I32" s="54"/>
-      <c r="J32" s="54"/>
-      <c r="K32" s="54"/>
-      <c r="L32" s="54"/>
-      <c r="M32" s="54"/>
-      <c r="N32" s="54"/>
-      <c r="O32" s="54"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="56"/>
+      <c r="L32" s="56"/>
+      <c r="M32" s="56"/>
+      <c r="N32" s="56"/>
+      <c r="O32" s="56"/>
     </row>
     <row r="33" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
@@ -1746,13 +1876,13 @@
       <c r="F33" s="57"/>
       <c r="G33" s="23"/>
       <c r="H33" s="56"/>
-      <c r="I33" s="54"/>
-      <c r="J33" s="54"/>
-      <c r="K33" s="54"/>
-      <c r="L33" s="54"/>
-      <c r="M33" s="54"/>
-      <c r="N33" s="54"/>
-      <c r="O33" s="54"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="56"/>
+      <c r="L33" s="56"/>
+      <c r="M33" s="56"/>
+      <c r="N33" s="56"/>
+      <c r="O33" s="56"/>
     </row>
     <row r="34" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
@@ -1765,13 +1895,13 @@
       <c r="F34" s="57"/>
       <c r="G34" s="23"/>
       <c r="H34" s="56"/>
-      <c r="I34" s="54"/>
-      <c r="J34" s="54"/>
-      <c r="K34" s="54"/>
-      <c r="L34" s="54"/>
-      <c r="M34" s="54"/>
-      <c r="N34" s="54"/>
-      <c r="O34" s="54"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="56"/>
+      <c r="L34" s="56"/>
+      <c r="M34" s="56"/>
+      <c r="N34" s="56"/>
+      <c r="O34" s="56"/>
     </row>
     <row r="35" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
@@ -1784,13 +1914,13 @@
       <c r="F35" s="57"/>
       <c r="G35" s="23"/>
       <c r="H35" s="56"/>
-      <c r="I35" s="54"/>
-      <c r="J35" s="54"/>
-      <c r="K35" s="54"/>
-      <c r="L35" s="54"/>
-      <c r="M35" s="54"/>
-      <c r="N35" s="54"/>
-      <c r="O35" s="54"/>
+      <c r="I35" s="56"/>
+      <c r="J35" s="56"/>
+      <c r="K35" s="56"/>
+      <c r="L35" s="56"/>
+      <c r="M35" s="56"/>
+      <c r="N35" s="56"/>
+      <c r="O35" s="56"/>
     </row>
     <row r="36" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
@@ -1803,13 +1933,13 @@
       <c r="F36" s="57"/>
       <c r="G36" s="23"/>
       <c r="H36" s="56"/>
-      <c r="I36" s="54"/>
-      <c r="J36" s="54"/>
-      <c r="K36" s="54"/>
-      <c r="L36" s="54"/>
-      <c r="M36" s="54"/>
-      <c r="N36" s="54"/>
-      <c r="O36" s="54"/>
+      <c r="I36" s="56"/>
+      <c r="J36" s="56"/>
+      <c r="K36" s="56"/>
+      <c r="L36" s="56"/>
+      <c r="M36" s="56"/>
+      <c r="N36" s="56"/>
+      <c r="O36" s="56"/>
     </row>
     <row r="37" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
@@ -1822,13 +1952,13 @@
       <c r="F37" s="57"/>
       <c r="G37" s="23"/>
       <c r="H37" s="56"/>
-      <c r="I37" s="54"/>
-      <c r="J37" s="54"/>
-      <c r="K37" s="54"/>
-      <c r="L37" s="54"/>
-      <c r="M37" s="54"/>
-      <c r="N37" s="54"/>
-      <c r="O37" s="54"/>
+      <c r="I37" s="56"/>
+      <c r="J37" s="56"/>
+      <c r="K37" s="56"/>
+      <c r="L37" s="56"/>
+      <c r="M37" s="56"/>
+      <c r="N37" s="56"/>
+      <c r="O37" s="56"/>
     </row>
     <row r="38" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
@@ -1841,13 +1971,13 @@
       <c r="F38" s="57"/>
       <c r="G38" s="23"/>
       <c r="H38" s="56"/>
-      <c r="I38" s="54"/>
-      <c r="J38" s="54"/>
-      <c r="K38" s="54"/>
-      <c r="L38" s="54"/>
-      <c r="M38" s="54"/>
-      <c r="N38" s="54"/>
-      <c r="O38" s="54"/>
+      <c r="I38" s="56"/>
+      <c r="J38" s="56"/>
+      <c r="K38" s="56"/>
+      <c r="L38" s="56"/>
+      <c r="M38" s="56"/>
+      <c r="N38" s="56"/>
+      <c r="O38" s="56"/>
     </row>
     <row r="39" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
@@ -1860,13 +1990,13 @@
       <c r="F39" s="57"/>
       <c r="G39" s="23"/>
       <c r="H39" s="56"/>
-      <c r="I39" s="54"/>
-      <c r="J39" s="54"/>
-      <c r="K39" s="54"/>
-      <c r="L39" s="54"/>
-      <c r="M39" s="54"/>
-      <c r="N39" s="54"/>
-      <c r="O39" s="54"/>
+      <c r="I39" s="56"/>
+      <c r="J39" s="56"/>
+      <c r="K39" s="56"/>
+      <c r="L39" s="56"/>
+      <c r="M39" s="56"/>
+      <c r="N39" s="56"/>
+      <c r="O39" s="56"/>
     </row>
     <row r="40" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
@@ -1879,13 +2009,13 @@
       <c r="F40" s="57"/>
       <c r="G40" s="23"/>
       <c r="H40" s="56"/>
-      <c r="I40" s="54"/>
-      <c r="J40" s="54"/>
-      <c r="K40" s="54"/>
-      <c r="L40" s="54"/>
-      <c r="M40" s="54"/>
-      <c r="N40" s="54"/>
-      <c r="O40" s="54"/>
+      <c r="I40" s="56"/>
+      <c r="J40" s="56"/>
+      <c r="K40" s="56"/>
+      <c r="L40" s="56"/>
+      <c r="M40" s="56"/>
+      <c r="N40" s="56"/>
+      <c r="O40" s="56"/>
     </row>
     <row r="41" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
@@ -1898,13 +2028,13 @@
       <c r="F41" s="57"/>
       <c r="G41" s="23"/>
       <c r="H41" s="56"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="54"/>
-      <c r="K41" s="54"/>
-      <c r="L41" s="54"/>
-      <c r="M41" s="54"/>
-      <c r="N41" s="54"/>
-      <c r="O41" s="54"/>
+      <c r="I41" s="56"/>
+      <c r="J41" s="56"/>
+      <c r="K41" s="56"/>
+      <c r="L41" s="56"/>
+      <c r="M41" s="56"/>
+      <c r="N41" s="56"/>
+      <c r="O41" s="56"/>
     </row>
     <row r="42" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
@@ -1917,13 +2047,13 @@
       <c r="F42" s="57"/>
       <c r="G42" s="23"/>
       <c r="H42" s="56"/>
-      <c r="I42" s="54"/>
-      <c r="J42" s="54"/>
-      <c r="K42" s="54"/>
-      <c r="L42" s="54"/>
-      <c r="M42" s="54"/>
-      <c r="N42" s="54"/>
-      <c r="O42" s="54"/>
+      <c r="I42" s="56"/>
+      <c r="J42" s="56"/>
+      <c r="K42" s="56"/>
+      <c r="L42" s="56"/>
+      <c r="M42" s="56"/>
+      <c r="N42" s="56"/>
+      <c r="O42" s="56"/>
     </row>
     <row r="43" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
@@ -1936,13 +2066,13 @@
       <c r="F43" s="57"/>
       <c r="G43" s="23"/>
       <c r="H43" s="56"/>
-      <c r="I43" s="54"/>
-      <c r="J43" s="54"/>
-      <c r="K43" s="54"/>
-      <c r="L43" s="54"/>
-      <c r="M43" s="54"/>
-      <c r="N43" s="54"/>
-      <c r="O43" s="54"/>
+      <c r="I43" s="56"/>
+      <c r="J43" s="56"/>
+      <c r="K43" s="56"/>
+      <c r="L43" s="56"/>
+      <c r="M43" s="56"/>
+      <c r="N43" s="56"/>
+      <c r="O43" s="56"/>
     </row>
     <row r="44" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
@@ -1955,13 +2085,13 @@
       <c r="F44" s="57"/>
       <c r="G44" s="23"/>
       <c r="H44" s="56"/>
-      <c r="I44" s="54"/>
-      <c r="J44" s="54"/>
-      <c r="K44" s="54"/>
-      <c r="L44" s="54"/>
-      <c r="M44" s="54"/>
-      <c r="N44" s="54"/>
-      <c r="O44" s="54"/>
+      <c r="I44" s="56"/>
+      <c r="J44" s="56"/>
+      <c r="K44" s="56"/>
+      <c r="L44" s="56"/>
+      <c r="M44" s="56"/>
+      <c r="N44" s="56"/>
+      <c r="O44" s="56"/>
     </row>
     <row r="45" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
@@ -1974,13 +2104,13 @@
       <c r="F45" s="57"/>
       <c r="G45" s="23"/>
       <c r="H45" s="56"/>
-      <c r="I45" s="54"/>
-      <c r="J45" s="54"/>
-      <c r="K45" s="54"/>
-      <c r="L45" s="54"/>
-      <c r="M45" s="54"/>
-      <c r="N45" s="54"/>
-      <c r="O45" s="54"/>
+      <c r="I45" s="56"/>
+      <c r="J45" s="56"/>
+      <c r="K45" s="56"/>
+      <c r="L45" s="56"/>
+      <c r="M45" s="56"/>
+      <c r="N45" s="56"/>
+      <c r="O45" s="56"/>
     </row>
     <row r="46" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
@@ -1993,13 +2123,13 @@
       <c r="F46" s="57"/>
       <c r="G46" s="23"/>
       <c r="H46" s="56"/>
-      <c r="I46" s="54"/>
-      <c r="J46" s="54"/>
-      <c r="K46" s="54"/>
-      <c r="L46" s="54"/>
-      <c r="M46" s="54"/>
-      <c r="N46" s="54"/>
-      <c r="O46" s="54"/>
+      <c r="I46" s="56"/>
+      <c r="J46" s="56"/>
+      <c r="K46" s="56"/>
+      <c r="L46" s="56"/>
+      <c r="M46" s="56"/>
+      <c r="N46" s="56"/>
+      <c r="O46" s="56"/>
     </row>
     <row r="47" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
@@ -2012,13 +2142,13 @@
       <c r="F47" s="57"/>
       <c r="G47" s="23"/>
       <c r="H47" s="56"/>
-      <c r="I47" s="54"/>
-      <c r="J47" s="54"/>
-      <c r="K47" s="54"/>
-      <c r="L47" s="54"/>
-      <c r="M47" s="54"/>
-      <c r="N47" s="54"/>
-      <c r="O47" s="54"/>
+      <c r="I47" s="56"/>
+      <c r="J47" s="56"/>
+      <c r="K47" s="56"/>
+      <c r="L47" s="56"/>
+      <c r="M47" s="56"/>
+      <c r="N47" s="56"/>
+      <c r="O47" s="56"/>
     </row>
     <row r="48" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
@@ -2031,13 +2161,13 @@
       <c r="F48" s="57"/>
       <c r="G48" s="23"/>
       <c r="H48" s="56"/>
-      <c r="I48" s="54"/>
-      <c r="J48" s="54"/>
-      <c r="K48" s="54"/>
-      <c r="L48" s="54"/>
-      <c r="M48" s="54"/>
-      <c r="N48" s="54"/>
-      <c r="O48" s="54"/>
+      <c r="I48" s="56"/>
+      <c r="J48" s="56"/>
+      <c r="K48" s="56"/>
+      <c r="L48" s="56"/>
+      <c r="M48" s="56"/>
+      <c r="N48" s="56"/>
+      <c r="O48" s="56"/>
     </row>
     <row r="49" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
@@ -2050,13 +2180,13 @@
       <c r="F49" s="57"/>
       <c r="G49" s="23"/>
       <c r="H49" s="56"/>
-      <c r="I49" s="54"/>
-      <c r="J49" s="54"/>
-      <c r="K49" s="54"/>
-      <c r="L49" s="54"/>
-      <c r="M49" s="54"/>
-      <c r="N49" s="54"/>
-      <c r="O49" s="54"/>
+      <c r="I49" s="56"/>
+      <c r="J49" s="56"/>
+      <c r="K49" s="56"/>
+      <c r="L49" s="56"/>
+      <c r="M49" s="56"/>
+      <c r="N49" s="56"/>
+      <c r="O49" s="56"/>
     </row>
     <row r="50" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
@@ -2069,13 +2199,13 @@
       <c r="F50" s="57"/>
       <c r="G50" s="23"/>
       <c r="H50" s="56"/>
-      <c r="I50" s="54"/>
-      <c r="J50" s="54"/>
-      <c r="K50" s="54"/>
-      <c r="L50" s="54"/>
-      <c r="M50" s="54"/>
-      <c r="N50" s="54"/>
-      <c r="O50" s="54"/>
+      <c r="I50" s="56"/>
+      <c r="J50" s="56"/>
+      <c r="K50" s="56"/>
+      <c r="L50" s="56"/>
+      <c r="M50" s="56"/>
+      <c r="N50" s="56"/>
+      <c r="O50" s="56"/>
     </row>
     <row r="51" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
@@ -2088,13 +2218,13 @@
       <c r="F51" s="57"/>
       <c r="G51" s="23"/>
       <c r="H51" s="56"/>
-      <c r="I51" s="54"/>
-      <c r="J51" s="54"/>
-      <c r="K51" s="54"/>
-      <c r="L51" s="54"/>
-      <c r="M51" s="54"/>
-      <c r="N51" s="54"/>
-      <c r="O51" s="54"/>
+      <c r="I51" s="56"/>
+      <c r="J51" s="56"/>
+      <c r="K51" s="56"/>
+      <c r="L51" s="56"/>
+      <c r="M51" s="56"/>
+      <c r="N51" s="56"/>
+      <c r="O51" s="56"/>
     </row>
     <row r="52" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
@@ -2107,13 +2237,13 @@
       <c r="F52" s="57"/>
       <c r="G52" s="23"/>
       <c r="H52" s="56"/>
-      <c r="I52" s="54"/>
-      <c r="J52" s="54"/>
-      <c r="K52" s="54"/>
-      <c r="L52" s="54"/>
-      <c r="M52" s="54"/>
-      <c r="N52" s="54"/>
-      <c r="O52" s="54"/>
+      <c r="I52" s="56"/>
+      <c r="J52" s="56"/>
+      <c r="K52" s="56"/>
+      <c r="L52" s="56"/>
+      <c r="M52" s="56"/>
+      <c r="N52" s="56"/>
+      <c r="O52" s="56"/>
     </row>
     <row r="53" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
@@ -2126,13 +2256,13 @@
       <c r="F53" s="57"/>
       <c r="G53" s="23"/>
       <c r="H53" s="56"/>
-      <c r="I53" s="54"/>
-      <c r="J53" s="54"/>
-      <c r="K53" s="54"/>
-      <c r="L53" s="54"/>
-      <c r="M53" s="54"/>
-      <c r="N53" s="54"/>
-      <c r="O53" s="54"/>
+      <c r="I53" s="56"/>
+      <c r="J53" s="56"/>
+      <c r="K53" s="56"/>
+      <c r="L53" s="56"/>
+      <c r="M53" s="56"/>
+      <c r="N53" s="56"/>
+      <c r="O53" s="56"/>
     </row>
     <row r="54" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
@@ -2145,13 +2275,13 @@
       <c r="F54" s="57"/>
       <c r="G54" s="23"/>
       <c r="H54" s="56"/>
-      <c r="I54" s="54"/>
-      <c r="J54" s="54"/>
-      <c r="K54" s="54"/>
-      <c r="L54" s="54"/>
-      <c r="M54" s="54"/>
-      <c r="N54" s="54"/>
-      <c r="O54" s="54"/>
+      <c r="I54" s="56"/>
+      <c r="J54" s="56"/>
+      <c r="K54" s="56"/>
+      <c r="L54" s="56"/>
+      <c r="M54" s="56"/>
+      <c r="N54" s="56"/>
+      <c r="O54" s="56"/>
     </row>
     <row r="55" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
@@ -2164,13 +2294,13 @@
       <c r="F55" s="57"/>
       <c r="G55" s="23"/>
       <c r="H55" s="56"/>
-      <c r="I55" s="54"/>
-      <c r="J55" s="54"/>
-      <c r="K55" s="54"/>
-      <c r="L55" s="54"/>
-      <c r="M55" s="54"/>
-      <c r="N55" s="54"/>
-      <c r="O55" s="54"/>
+      <c r="I55" s="56"/>
+      <c r="J55" s="56"/>
+      <c r="K55" s="56"/>
+      <c r="L55" s="56"/>
+      <c r="M55" s="56"/>
+      <c r="N55" s="56"/>
+      <c r="O55" s="56"/>
     </row>
     <row r="56" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
@@ -2183,13 +2313,13 @@
       <c r="F56" s="57"/>
       <c r="G56" s="23"/>
       <c r="H56" s="56"/>
-      <c r="I56" s="54"/>
-      <c r="J56" s="54"/>
-      <c r="K56" s="54"/>
-      <c r="L56" s="54"/>
-      <c r="M56" s="54"/>
-      <c r="N56" s="54"/>
-      <c r="O56" s="54"/>
+      <c r="I56" s="56"/>
+      <c r="J56" s="56"/>
+      <c r="K56" s="56"/>
+      <c r="L56" s="56"/>
+      <c r="M56" s="56"/>
+      <c r="N56" s="56"/>
+      <c r="O56" s="56"/>
     </row>
     <row r="57" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
@@ -2202,13 +2332,13 @@
       <c r="F57" s="57"/>
       <c r="G57" s="23"/>
       <c r="H57" s="56"/>
-      <c r="I57" s="54"/>
-      <c r="J57" s="54"/>
-      <c r="K57" s="54"/>
-      <c r="L57" s="54"/>
-      <c r="M57" s="54"/>
-      <c r="N57" s="54"/>
-      <c r="O57" s="54"/>
+      <c r="I57" s="56"/>
+      <c r="J57" s="56"/>
+      <c r="K57" s="56"/>
+      <c r="L57" s="56"/>
+      <c r="M57" s="56"/>
+      <c r="N57" s="56"/>
+      <c r="O57" s="56"/>
     </row>
     <row r="58" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
@@ -2221,13 +2351,13 @@
       <c r="F58" s="57"/>
       <c r="G58" s="23"/>
       <c r="H58" s="56"/>
-      <c r="I58" s="54"/>
-      <c r="J58" s="54"/>
-      <c r="K58" s="54"/>
-      <c r="L58" s="54"/>
-      <c r="M58" s="54"/>
-      <c r="N58" s="54"/>
-      <c r="O58" s="54"/>
+      <c r="I58" s="56"/>
+      <c r="J58" s="56"/>
+      <c r="K58" s="56"/>
+      <c r="L58" s="56"/>
+      <c r="M58" s="56"/>
+      <c r="N58" s="56"/>
+      <c r="O58" s="56"/>
     </row>
     <row r="59" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
@@ -2240,13 +2370,13 @@
       <c r="F59" s="57"/>
       <c r="G59" s="23"/>
       <c r="H59" s="56"/>
-      <c r="I59" s="54"/>
-      <c r="J59" s="54"/>
-      <c r="K59" s="54"/>
-      <c r="L59" s="54"/>
-      <c r="M59" s="54"/>
-      <c r="N59" s="54"/>
-      <c r="O59" s="54"/>
+      <c r="I59" s="56"/>
+      <c r="J59" s="56"/>
+      <c r="K59" s="56"/>
+      <c r="L59" s="56"/>
+      <c r="M59" s="56"/>
+      <c r="N59" s="56"/>
+      <c r="O59" s="56"/>
     </row>
     <row r="60" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
@@ -2259,13 +2389,13 @@
       <c r="F60" s="57"/>
       <c r="G60" s="23"/>
       <c r="H60" s="56"/>
-      <c r="I60" s="54"/>
-      <c r="J60" s="54"/>
-      <c r="K60" s="54"/>
-      <c r="L60" s="54"/>
-      <c r="M60" s="54"/>
-      <c r="N60" s="54"/>
-      <c r="O60" s="54"/>
+      <c r="I60" s="56"/>
+      <c r="J60" s="56"/>
+      <c r="K60" s="56"/>
+      <c r="L60" s="56"/>
+      <c r="M60" s="56"/>
+      <c r="N60" s="56"/>
+      <c r="O60" s="56"/>
     </row>
     <row r="61" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
@@ -2278,13 +2408,13 @@
       <c r="F61" s="57"/>
       <c r="G61" s="23"/>
       <c r="H61" s="56"/>
-      <c r="I61" s="54"/>
-      <c r="J61" s="54"/>
-      <c r="K61" s="54"/>
-      <c r="L61" s="54"/>
-      <c r="M61" s="54"/>
-      <c r="N61" s="54"/>
-      <c r="O61" s="54"/>
+      <c r="I61" s="56"/>
+      <c r="J61" s="56"/>
+      <c r="K61" s="56"/>
+      <c r="L61" s="56"/>
+      <c r="M61" s="56"/>
+      <c r="N61" s="56"/>
+      <c r="O61" s="56"/>
     </row>
     <row r="62" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
@@ -2297,13 +2427,13 @@
       <c r="F62" s="57"/>
       <c r="G62" s="23"/>
       <c r="H62" s="56"/>
-      <c r="I62" s="54"/>
-      <c r="J62" s="54"/>
-      <c r="K62" s="54"/>
-      <c r="L62" s="54"/>
-      <c r="M62" s="54"/>
-      <c r="N62" s="54"/>
-      <c r="O62" s="54"/>
+      <c r="I62" s="56"/>
+      <c r="J62" s="56"/>
+      <c r="K62" s="56"/>
+      <c r="L62" s="56"/>
+      <c r="M62" s="56"/>
+      <c r="N62" s="56"/>
+      <c r="O62" s="56"/>
     </row>
     <row r="63" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
@@ -2316,13 +2446,13 @@
       <c r="F63" s="57"/>
       <c r="G63" s="23"/>
       <c r="H63" s="56"/>
-      <c r="I63" s="54"/>
-      <c r="J63" s="54"/>
-      <c r="K63" s="54"/>
-      <c r="L63" s="54"/>
-      <c r="M63" s="54"/>
-      <c r="N63" s="54"/>
-      <c r="O63" s="54"/>
+      <c r="I63" s="56"/>
+      <c r="J63" s="56"/>
+      <c r="K63" s="56"/>
+      <c r="L63" s="56"/>
+      <c r="M63" s="56"/>
+      <c r="N63" s="56"/>
+      <c r="O63" s="56"/>
     </row>
     <row r="64" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
@@ -2335,13 +2465,13 @@
       <c r="F64" s="57"/>
       <c r="G64" s="23"/>
       <c r="H64" s="56"/>
-      <c r="I64" s="54"/>
-      <c r="J64" s="54"/>
-      <c r="K64" s="54"/>
-      <c r="L64" s="54"/>
-      <c r="M64" s="54"/>
-      <c r="N64" s="54"/>
-      <c r="O64" s="54"/>
+      <c r="I64" s="56"/>
+      <c r="J64" s="56"/>
+      <c r="K64" s="56"/>
+      <c r="L64" s="56"/>
+      <c r="M64" s="56"/>
+      <c r="N64" s="56"/>
+      <c r="O64" s="56"/>
     </row>
     <row r="65" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
@@ -2354,13 +2484,13 @@
       <c r="F65" s="57"/>
       <c r="G65" s="23"/>
       <c r="H65" s="56"/>
-      <c r="I65" s="54"/>
-      <c r="J65" s="54"/>
-      <c r="K65" s="54"/>
-      <c r="L65" s="54"/>
-      <c r="M65" s="54"/>
-      <c r="N65" s="54"/>
-      <c r="O65" s="54"/>
+      <c r="I65" s="56"/>
+      <c r="J65" s="56"/>
+      <c r="K65" s="56"/>
+      <c r="L65" s="56"/>
+      <c r="M65" s="56"/>
+      <c r="N65" s="56"/>
+      <c r="O65" s="56"/>
     </row>
     <row r="66" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
@@ -2373,13 +2503,13 @@
       <c r="F66" s="57"/>
       <c r="G66" s="23"/>
       <c r="H66" s="56"/>
-      <c r="I66" s="54"/>
-      <c r="J66" s="54"/>
-      <c r="K66" s="54"/>
-      <c r="L66" s="54"/>
-      <c r="M66" s="54"/>
-      <c r="N66" s="54"/>
-      <c r="O66" s="54"/>
+      <c r="I66" s="56"/>
+      <c r="J66" s="56"/>
+      <c r="K66" s="56"/>
+      <c r="L66" s="56"/>
+      <c r="M66" s="56"/>
+      <c r="N66" s="56"/>
+      <c r="O66" s="56"/>
     </row>
     <row r="67" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
@@ -2392,13 +2522,13 @@
       <c r="F67" s="57"/>
       <c r="G67" s="23"/>
       <c r="H67" s="56"/>
-      <c r="I67" s="54"/>
-      <c r="J67" s="54"/>
-      <c r="K67" s="54"/>
-      <c r="L67" s="54"/>
-      <c r="M67" s="54"/>
-      <c r="N67" s="54"/>
-      <c r="O67" s="54"/>
+      <c r="I67" s="56"/>
+      <c r="J67" s="56"/>
+      <c r="K67" s="56"/>
+      <c r="L67" s="56"/>
+      <c r="M67" s="56"/>
+      <c r="N67" s="56"/>
+      <c r="O67" s="56"/>
     </row>
     <row r="68" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
@@ -2411,13 +2541,13 @@
       <c r="F68" s="57"/>
       <c r="G68" s="23"/>
       <c r="H68" s="56"/>
-      <c r="I68" s="54"/>
-      <c r="J68" s="54"/>
-      <c r="K68" s="54"/>
-      <c r="L68" s="54"/>
-      <c r="M68" s="54"/>
-      <c r="N68" s="54"/>
-      <c r="O68" s="54"/>
+      <c r="I68" s="56"/>
+      <c r="J68" s="56"/>
+      <c r="K68" s="56"/>
+      <c r="L68" s="56"/>
+      <c r="M68" s="56"/>
+      <c r="N68" s="56"/>
+      <c r="O68" s="56"/>
     </row>
     <row r="69" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
@@ -2430,13 +2560,13 @@
       <c r="F69" s="57"/>
       <c r="G69" s="23"/>
       <c r="H69" s="56"/>
-      <c r="I69" s="54"/>
-      <c r="J69" s="54"/>
-      <c r="K69" s="54"/>
-      <c r="L69" s="54"/>
-      <c r="M69" s="54"/>
-      <c r="N69" s="54"/>
-      <c r="O69" s="54"/>
+      <c r="I69" s="56"/>
+      <c r="J69" s="56"/>
+      <c r="K69" s="56"/>
+      <c r="L69" s="56"/>
+      <c r="M69" s="56"/>
+      <c r="N69" s="56"/>
+      <c r="O69" s="56"/>
     </row>
     <row r="70" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
@@ -2449,13 +2579,13 @@
       <c r="F70" s="57"/>
       <c r="G70" s="23"/>
       <c r="H70" s="56"/>
-      <c r="I70" s="54"/>
-      <c r="J70" s="54"/>
-      <c r="K70" s="54"/>
-      <c r="L70" s="54"/>
-      <c r="M70" s="54"/>
-      <c r="N70" s="54"/>
-      <c r="O70" s="54"/>
+      <c r="I70" s="56"/>
+      <c r="J70" s="56"/>
+      <c r="K70" s="56"/>
+      <c r="L70" s="56"/>
+      <c r="M70" s="56"/>
+      <c r="N70" s="56"/>
+      <c r="O70" s="56"/>
     </row>
     <row r="71" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
@@ -2468,13 +2598,13 @@
       <c r="F71" s="57"/>
       <c r="G71" s="23"/>
       <c r="H71" s="56"/>
-      <c r="I71" s="54"/>
-      <c r="J71" s="54"/>
-      <c r="K71" s="54"/>
-      <c r="L71" s="54"/>
-      <c r="M71" s="54"/>
-      <c r="N71" s="54"/>
-      <c r="O71" s="54"/>
+      <c r="I71" s="56"/>
+      <c r="J71" s="56"/>
+      <c r="K71" s="56"/>
+      <c r="L71" s="56"/>
+      <c r="M71" s="56"/>
+      <c r="N71" s="56"/>
+      <c r="O71" s="56"/>
     </row>
     <row r="72" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
@@ -2487,13 +2617,13 @@
       <c r="F72" s="57"/>
       <c r="G72" s="23"/>
       <c r="H72" s="56"/>
-      <c r="I72" s="54"/>
-      <c r="J72" s="54"/>
-      <c r="K72" s="54"/>
-      <c r="L72" s="54"/>
-      <c r="M72" s="54"/>
-      <c r="N72" s="54"/>
-      <c r="O72" s="54"/>
+      <c r="I72" s="56"/>
+      <c r="J72" s="56"/>
+      <c r="K72" s="56"/>
+      <c r="L72" s="56"/>
+      <c r="M72" s="56"/>
+      <c r="N72" s="56"/>
+      <c r="O72" s="56"/>
     </row>
     <row r="73" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
@@ -2506,13 +2636,13 @@
       <c r="F73" s="57"/>
       <c r="G73" s="23"/>
       <c r="H73" s="56"/>
-      <c r="I73" s="54"/>
-      <c r="J73" s="54"/>
-      <c r="K73" s="54"/>
-      <c r="L73" s="54"/>
-      <c r="M73" s="54"/>
-      <c r="N73" s="54"/>
-      <c r="O73" s="54"/>
+      <c r="I73" s="56"/>
+      <c r="J73" s="56"/>
+      <c r="K73" s="56"/>
+      <c r="L73" s="56"/>
+      <c r="M73" s="56"/>
+      <c r="N73" s="56"/>
+      <c r="O73" s="56"/>
     </row>
     <row r="74" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
@@ -2525,13 +2655,13 @@
       <c r="F74" s="57"/>
       <c r="G74" s="23"/>
       <c r="H74" s="56"/>
-      <c r="I74" s="54"/>
-      <c r="J74" s="54"/>
-      <c r="K74" s="54"/>
-      <c r="L74" s="54"/>
-      <c r="M74" s="54"/>
-      <c r="N74" s="54"/>
-      <c r="O74" s="54"/>
+      <c r="I74" s="56"/>
+      <c r="J74" s="56"/>
+      <c r="K74" s="56"/>
+      <c r="L74" s="56"/>
+      <c r="M74" s="56"/>
+      <c r="N74" s="56"/>
+      <c r="O74" s="56"/>
     </row>
     <row r="75" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
@@ -2544,13 +2674,13 @@
       <c r="F75" s="57"/>
       <c r="G75" s="23"/>
       <c r="H75" s="56"/>
-      <c r="I75" s="54"/>
-      <c r="J75" s="54"/>
-      <c r="K75" s="54"/>
-      <c r="L75" s="54"/>
-      <c r="M75" s="54"/>
-      <c r="N75" s="54"/>
-      <c r="O75" s="54"/>
+      <c r="I75" s="56"/>
+      <c r="J75" s="56"/>
+      <c r="K75" s="56"/>
+      <c r="L75" s="56"/>
+      <c r="M75" s="56"/>
+      <c r="N75" s="56"/>
+      <c r="O75" s="56"/>
     </row>
     <row r="76" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
@@ -2563,13 +2693,13 @@
       <c r="F76" s="57"/>
       <c r="G76" s="23"/>
       <c r="H76" s="56"/>
-      <c r="I76" s="54"/>
-      <c r="J76" s="54"/>
-      <c r="K76" s="54"/>
-      <c r="L76" s="54"/>
-      <c r="M76" s="54"/>
-      <c r="N76" s="54"/>
-      <c r="O76" s="54"/>
+      <c r="I76" s="56"/>
+      <c r="J76" s="56"/>
+      <c r="K76" s="56"/>
+      <c r="L76" s="56"/>
+      <c r="M76" s="56"/>
+      <c r="N76" s="56"/>
+      <c r="O76" s="56"/>
     </row>
     <row r="77" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
@@ -2582,13 +2712,13 @@
       <c r="F77" s="57"/>
       <c r="G77" s="23"/>
       <c r="H77" s="56"/>
-      <c r="I77" s="54"/>
-      <c r="J77" s="54"/>
-      <c r="K77" s="54"/>
-      <c r="L77" s="54"/>
-      <c r="M77" s="54"/>
-      <c r="N77" s="54"/>
-      <c r="O77" s="54"/>
+      <c r="I77" s="56"/>
+      <c r="J77" s="56"/>
+      <c r="K77" s="56"/>
+      <c r="L77" s="56"/>
+      <c r="M77" s="56"/>
+      <c r="N77" s="56"/>
+      <c r="O77" s="56"/>
     </row>
     <row r="78" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
@@ -2601,13 +2731,13 @@
       <c r="F78" s="57"/>
       <c r="G78" s="23"/>
       <c r="H78" s="56"/>
-      <c r="I78" s="54"/>
-      <c r="J78" s="54"/>
-      <c r="K78" s="54"/>
-      <c r="L78" s="54"/>
-      <c r="M78" s="54"/>
-      <c r="N78" s="54"/>
-      <c r="O78" s="54"/>
+      <c r="I78" s="56"/>
+      <c r="J78" s="56"/>
+      <c r="K78" s="56"/>
+      <c r="L78" s="56"/>
+      <c r="M78" s="56"/>
+      <c r="N78" s="56"/>
+      <c r="O78" s="56"/>
     </row>
     <row r="79" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
@@ -2620,13 +2750,13 @@
       <c r="F79" s="57"/>
       <c r="G79" s="23"/>
       <c r="H79" s="56"/>
-      <c r="I79" s="54"/>
-      <c r="J79" s="54"/>
-      <c r="K79" s="54"/>
-      <c r="L79" s="54"/>
-      <c r="M79" s="54"/>
-      <c r="N79" s="54"/>
-      <c r="O79" s="54"/>
+      <c r="I79" s="56"/>
+      <c r="J79" s="56"/>
+      <c r="K79" s="56"/>
+      <c r="L79" s="56"/>
+      <c r="M79" s="56"/>
+      <c r="N79" s="56"/>
+      <c r="O79" s="56"/>
     </row>
     <row r="80" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
@@ -2639,13 +2769,13 @@
       <c r="F80" s="57"/>
       <c r="G80" s="23"/>
       <c r="H80" s="56"/>
-      <c r="I80" s="54"/>
-      <c r="J80" s="54"/>
-      <c r="K80" s="54"/>
-      <c r="L80" s="54"/>
-      <c r="M80" s="54"/>
-      <c r="N80" s="54"/>
-      <c r="O80" s="54"/>
+      <c r="I80" s="56"/>
+      <c r="J80" s="56"/>
+      <c r="K80" s="56"/>
+      <c r="L80" s="56"/>
+      <c r="M80" s="56"/>
+      <c r="N80" s="56"/>
+      <c r="O80" s="56"/>
     </row>
     <row r="81" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
@@ -2658,13 +2788,13 @@
       <c r="F81" s="57"/>
       <c r="G81" s="23"/>
       <c r="H81" s="56"/>
-      <c r="I81" s="54"/>
-      <c r="J81" s="54"/>
-      <c r="K81" s="54"/>
-      <c r="L81" s="54"/>
-      <c r="M81" s="54"/>
-      <c r="N81" s="54"/>
-      <c r="O81" s="54"/>
+      <c r="I81" s="56"/>
+      <c r="J81" s="56"/>
+      <c r="K81" s="56"/>
+      <c r="L81" s="56"/>
+      <c r="M81" s="56"/>
+      <c r="N81" s="56"/>
+      <c r="O81" s="56"/>
     </row>
     <row r="82" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
@@ -2677,13 +2807,13 @@
       <c r="F82" s="57"/>
       <c r="G82" s="23"/>
       <c r="H82" s="56"/>
-      <c r="I82" s="54"/>
-      <c r="J82" s="54"/>
-      <c r="K82" s="54"/>
-      <c r="L82" s="54"/>
-      <c r="M82" s="54"/>
-      <c r="N82" s="54"/>
-      <c r="O82" s="54"/>
+      <c r="I82" s="56"/>
+      <c r="J82" s="56"/>
+      <c r="K82" s="56"/>
+      <c r="L82" s="56"/>
+      <c r="M82" s="56"/>
+      <c r="N82" s="56"/>
+      <c r="O82" s="56"/>
     </row>
     <row r="83" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
@@ -2696,13 +2826,13 @@
       <c r="F83" s="57"/>
       <c r="G83" s="23"/>
       <c r="H83" s="56"/>
-      <c r="I83" s="54"/>
-      <c r="J83" s="54"/>
-      <c r="K83" s="54"/>
-      <c r="L83" s="54"/>
-      <c r="M83" s="54"/>
-      <c r="N83" s="54"/>
-      <c r="O83" s="54"/>
+      <c r="I83" s="56"/>
+      <c r="J83" s="56"/>
+      <c r="K83" s="56"/>
+      <c r="L83" s="56"/>
+      <c r="M83" s="56"/>
+      <c r="N83" s="56"/>
+      <c r="O83" s="56"/>
     </row>
     <row r="84" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
@@ -2715,13 +2845,13 @@
       <c r="F84" s="57"/>
       <c r="G84" s="23"/>
       <c r="H84" s="56"/>
-      <c r="I84" s="54"/>
-      <c r="J84" s="54"/>
-      <c r="K84" s="54"/>
-      <c r="L84" s="54"/>
-      <c r="M84" s="54"/>
-      <c r="N84" s="54"/>
-      <c r="O84" s="54"/>
+      <c r="I84" s="56"/>
+      <c r="J84" s="56"/>
+      <c r="K84" s="56"/>
+      <c r="L84" s="56"/>
+      <c r="M84" s="56"/>
+      <c r="N84" s="56"/>
+      <c r="O84" s="56"/>
     </row>
     <row r="85" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
@@ -2734,13 +2864,13 @@
       <c r="F85" s="57"/>
       <c r="G85" s="23"/>
       <c r="H85" s="56"/>
-      <c r="I85" s="54"/>
-      <c r="J85" s="54"/>
-      <c r="K85" s="54"/>
-      <c r="L85" s="54"/>
-      <c r="M85" s="54"/>
-      <c r="N85" s="54"/>
-      <c r="O85" s="54"/>
+      <c r="I85" s="56"/>
+      <c r="J85" s="56"/>
+      <c r="K85" s="56"/>
+      <c r="L85" s="56"/>
+      <c r="M85" s="56"/>
+      <c r="N85" s="56"/>
+      <c r="O85" s="56"/>
     </row>
     <row r="86" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
@@ -2753,13 +2883,13 @@
       <c r="F86" s="57"/>
       <c r="G86" s="23"/>
       <c r="H86" s="56"/>
-      <c r="I86" s="54"/>
-      <c r="J86" s="54"/>
-      <c r="K86" s="54"/>
-      <c r="L86" s="54"/>
-      <c r="M86" s="54"/>
-      <c r="N86" s="54"/>
-      <c r="O86" s="54"/>
+      <c r="I86" s="56"/>
+      <c r="J86" s="56"/>
+      <c r="K86" s="56"/>
+      <c r="L86" s="56"/>
+      <c r="M86" s="56"/>
+      <c r="N86" s="56"/>
+      <c r="O86" s="56"/>
     </row>
     <row r="87" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
@@ -2772,13 +2902,13 @@
       <c r="F87" s="57"/>
       <c r="G87" s="23"/>
       <c r="H87" s="56"/>
-      <c r="I87" s="54"/>
-      <c r="J87" s="54"/>
-      <c r="K87" s="54"/>
-      <c r="L87" s="54"/>
-      <c r="M87" s="54"/>
-      <c r="N87" s="54"/>
-      <c r="O87" s="54"/>
+      <c r="I87" s="56"/>
+      <c r="J87" s="56"/>
+      <c r="K87" s="56"/>
+      <c r="L87" s="56"/>
+      <c r="M87" s="56"/>
+      <c r="N87" s="56"/>
+      <c r="O87" s="56"/>
     </row>
     <row r="88" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
@@ -2791,13 +2921,13 @@
       <c r="F88" s="57"/>
       <c r="G88" s="23"/>
       <c r="H88" s="56"/>
-      <c r="I88" s="54"/>
-      <c r="J88" s="54"/>
-      <c r="K88" s="54"/>
-      <c r="L88" s="54"/>
-      <c r="M88" s="54"/>
-      <c r="N88" s="54"/>
-      <c r="O88" s="54"/>
+      <c r="I88" s="56"/>
+      <c r="J88" s="56"/>
+      <c r="K88" s="56"/>
+      <c r="L88" s="56"/>
+      <c r="M88" s="56"/>
+      <c r="N88" s="56"/>
+      <c r="O88" s="56"/>
     </row>
     <row r="89" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
@@ -2810,13 +2940,13 @@
       <c r="F89" s="57"/>
       <c r="G89" s="23"/>
       <c r="H89" s="56"/>
-      <c r="I89" s="54"/>
-      <c r="J89" s="54"/>
-      <c r="K89" s="54"/>
-      <c r="L89" s="54"/>
-      <c r="M89" s="54"/>
-      <c r="N89" s="54"/>
-      <c r="O89" s="54"/>
+      <c r="I89" s="56"/>
+      <c r="J89" s="56"/>
+      <c r="K89" s="56"/>
+      <c r="L89" s="56"/>
+      <c r="M89" s="56"/>
+      <c r="N89" s="56"/>
+      <c r="O89" s="56"/>
     </row>
     <row r="90" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
@@ -2829,13 +2959,13 @@
       <c r="F90" s="57"/>
       <c r="G90" s="23"/>
       <c r="H90" s="56"/>
-      <c r="I90" s="54"/>
-      <c r="J90" s="54"/>
-      <c r="K90" s="54"/>
-      <c r="L90" s="54"/>
-      <c r="M90" s="54"/>
-      <c r="N90" s="54"/>
-      <c r="O90" s="54"/>
+      <c r="I90" s="56"/>
+      <c r="J90" s="56"/>
+      <c r="K90" s="56"/>
+      <c r="L90" s="56"/>
+      <c r="M90" s="56"/>
+      <c r="N90" s="56"/>
+      <c r="O90" s="56"/>
     </row>
     <row r="91" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
@@ -2848,13 +2978,13 @@
       <c r="F91" s="57"/>
       <c r="G91" s="23"/>
       <c r="H91" s="56"/>
-      <c r="I91" s="54"/>
-      <c r="J91" s="54"/>
-      <c r="K91" s="54"/>
-      <c r="L91" s="54"/>
-      <c r="M91" s="54"/>
-      <c r="N91" s="54"/>
-      <c r="O91" s="54"/>
+      <c r="I91" s="56"/>
+      <c r="J91" s="56"/>
+      <c r="K91" s="56"/>
+      <c r="L91" s="56"/>
+      <c r="M91" s="56"/>
+      <c r="N91" s="56"/>
+      <c r="O91" s="56"/>
     </row>
     <row r="92" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
@@ -2867,13 +2997,13 @@
       <c r="F92" s="57"/>
       <c r="G92" s="23"/>
       <c r="H92" s="56"/>
-      <c r="I92" s="54"/>
-      <c r="J92" s="54"/>
-      <c r="K92" s="54"/>
-      <c r="L92" s="54"/>
-      <c r="M92" s="54"/>
-      <c r="N92" s="54"/>
-      <c r="O92" s="54"/>
+      <c r="I92" s="56"/>
+      <c r="J92" s="56"/>
+      <c r="K92" s="56"/>
+      <c r="L92" s="56"/>
+      <c r="M92" s="56"/>
+      <c r="N92" s="56"/>
+      <c r="O92" s="56"/>
     </row>
     <row r="93" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
@@ -2886,13 +3016,13 @@
       <c r="F93" s="57"/>
       <c r="G93" s="23"/>
       <c r="H93" s="56"/>
-      <c r="I93" s="54"/>
-      <c r="J93" s="54"/>
-      <c r="K93" s="54"/>
-      <c r="L93" s="54"/>
-      <c r="M93" s="54"/>
-      <c r="N93" s="54"/>
-      <c r="O93" s="54"/>
+      <c r="I93" s="56"/>
+      <c r="J93" s="56"/>
+      <c r="K93" s="56"/>
+      <c r="L93" s="56"/>
+      <c r="M93" s="56"/>
+      <c r="N93" s="56"/>
+      <c r="O93" s="56"/>
     </row>
     <row r="94" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
@@ -2905,13 +3035,13 @@
       <c r="F94" s="57"/>
       <c r="G94" s="23"/>
       <c r="H94" s="56"/>
-      <c r="I94" s="54"/>
-      <c r="J94" s="54"/>
-      <c r="K94" s="54"/>
-      <c r="L94" s="54"/>
-      <c r="M94" s="54"/>
-      <c r="N94" s="54"/>
-      <c r="O94" s="54"/>
+      <c r="I94" s="56"/>
+      <c r="J94" s="56"/>
+      <c r="K94" s="56"/>
+      <c r="L94" s="56"/>
+      <c r="M94" s="56"/>
+      <c r="N94" s="56"/>
+      <c r="O94" s="56"/>
     </row>
     <row r="95" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
@@ -2924,13 +3054,13 @@
       <c r="F95" s="57"/>
       <c r="G95" s="23"/>
       <c r="H95" s="56"/>
-      <c r="I95" s="54"/>
-      <c r="J95" s="54"/>
-      <c r="K95" s="54"/>
-      <c r="L95" s="54"/>
-      <c r="M95" s="54"/>
-      <c r="N95" s="54"/>
-      <c r="O95" s="54"/>
+      <c r="I95" s="56"/>
+      <c r="J95" s="56"/>
+      <c r="K95" s="56"/>
+      <c r="L95" s="56"/>
+      <c r="M95" s="56"/>
+      <c r="N95" s="56"/>
+      <c r="O95" s="56"/>
     </row>
     <row r="96" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
@@ -2943,13 +3073,13 @@
       <c r="F96" s="57"/>
       <c r="G96" s="23"/>
       <c r="H96" s="56"/>
-      <c r="I96" s="54"/>
-      <c r="J96" s="54"/>
-      <c r="K96" s="54"/>
-      <c r="L96" s="54"/>
-      <c r="M96" s="54"/>
-      <c r="N96" s="54"/>
-      <c r="O96" s="54"/>
+      <c r="I96" s="56"/>
+      <c r="J96" s="56"/>
+      <c r="K96" s="56"/>
+      <c r="L96" s="56"/>
+      <c r="M96" s="56"/>
+      <c r="N96" s="56"/>
+      <c r="O96" s="56"/>
     </row>
     <row r="97" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
@@ -2962,13 +3092,13 @@
       <c r="F97" s="57"/>
       <c r="G97" s="23"/>
       <c r="H97" s="56"/>
-      <c r="I97" s="54"/>
-      <c r="J97" s="54"/>
-      <c r="K97" s="54"/>
-      <c r="L97" s="54"/>
-      <c r="M97" s="54"/>
-      <c r="N97" s="54"/>
-      <c r="O97" s="54"/>
+      <c r="I97" s="56"/>
+      <c r="J97" s="56"/>
+      <c r="K97" s="56"/>
+      <c r="L97" s="56"/>
+      <c r="M97" s="56"/>
+      <c r="N97" s="56"/>
+      <c r="O97" s="56"/>
     </row>
     <row r="98" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
@@ -2981,13 +3111,13 @@
       <c r="F98" s="57"/>
       <c r="G98" s="23"/>
       <c r="H98" s="56"/>
-      <c r="I98" s="54"/>
-      <c r="J98" s="54"/>
-      <c r="K98" s="54"/>
-      <c r="L98" s="54"/>
-      <c r="M98" s="54"/>
-      <c r="N98" s="54"/>
-      <c r="O98" s="54"/>
+      <c r="I98" s="56"/>
+      <c r="J98" s="56"/>
+      <c r="K98" s="56"/>
+      <c r="L98" s="56"/>
+      <c r="M98" s="56"/>
+      <c r="N98" s="56"/>
+      <c r="O98" s="56"/>
     </row>
     <row r="99" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
@@ -3000,13 +3130,13 @@
       <c r="F99" s="57"/>
       <c r="G99" s="23"/>
       <c r="H99" s="56"/>
-      <c r="I99" s="54"/>
-      <c r="J99" s="54"/>
-      <c r="K99" s="54"/>
-      <c r="L99" s="54"/>
-      <c r="M99" s="54"/>
-      <c r="N99" s="54"/>
-      <c r="O99" s="54"/>
+      <c r="I99" s="56"/>
+      <c r="J99" s="56"/>
+      <c r="K99" s="56"/>
+      <c r="L99" s="56"/>
+      <c r="M99" s="56"/>
+      <c r="N99" s="56"/>
+      <c r="O99" s="56"/>
     </row>
     <row r="100" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
@@ -3019,13 +3149,13 @@
       <c r="F100" s="57"/>
       <c r="G100" s="23"/>
       <c r="H100" s="56"/>
-      <c r="I100" s="54"/>
-      <c r="J100" s="54"/>
-      <c r="K100" s="54"/>
-      <c r="L100" s="54"/>
-      <c r="M100" s="54"/>
-      <c r="N100" s="54"/>
-      <c r="O100" s="54"/>
+      <c r="I100" s="56"/>
+      <c r="J100" s="56"/>
+      <c r="K100" s="56"/>
+      <c r="L100" s="56"/>
+      <c r="M100" s="56"/>
+      <c r="N100" s="56"/>
+      <c r="O100" s="56"/>
     </row>
     <row r="101" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
@@ -3038,13 +3168,13 @@
       <c r="F101" s="57"/>
       <c r="G101" s="23"/>
       <c r="H101" s="56"/>
-      <c r="I101" s="54"/>
-      <c r="J101" s="54"/>
-      <c r="K101" s="54"/>
-      <c r="L101" s="54"/>
-      <c r="M101" s="54"/>
-      <c r="N101" s="54"/>
-      <c r="O101" s="54"/>
+      <c r="I101" s="56"/>
+      <c r="J101" s="56"/>
+      <c r="K101" s="56"/>
+      <c r="L101" s="56"/>
+      <c r="M101" s="56"/>
+      <c r="N101" s="56"/>
+      <c r="O101" s="56"/>
     </row>
     <row r="102" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
@@ -3057,13 +3187,13 @@
       <c r="F102" s="57"/>
       <c r="G102" s="23"/>
       <c r="H102" s="56"/>
-      <c r="I102" s="54"/>
-      <c r="J102" s="54"/>
-      <c r="K102" s="54"/>
-      <c r="L102" s="54"/>
-      <c r="M102" s="54"/>
-      <c r="N102" s="54"/>
-      <c r="O102" s="54"/>
+      <c r="I102" s="56"/>
+      <c r="J102" s="56"/>
+      <c r="K102" s="56"/>
+      <c r="L102" s="56"/>
+      <c r="M102" s="56"/>
+      <c r="N102" s="56"/>
+      <c r="O102" s="56"/>
     </row>
     <row r="103" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
@@ -3076,13 +3206,13 @@
       <c r="F103" s="57"/>
       <c r="G103" s="23"/>
       <c r="H103" s="56"/>
-      <c r="I103" s="54"/>
-      <c r="J103" s="54"/>
-      <c r="K103" s="54"/>
-      <c r="L103" s="54"/>
-      <c r="M103" s="54"/>
-      <c r="N103" s="54"/>
-      <c r="O103" s="54"/>
+      <c r="I103" s="56"/>
+      <c r="J103" s="56"/>
+      <c r="K103" s="56"/>
+      <c r="L103" s="56"/>
+      <c r="M103" s="56"/>
+      <c r="N103" s="56"/>
+      <c r="O103" s="56"/>
     </row>
     <row r="104" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
@@ -3095,13 +3225,13 @@
       <c r="F104" s="57"/>
       <c r="G104" s="23"/>
       <c r="H104" s="56"/>
-      <c r="I104" s="54"/>
-      <c r="J104" s="54"/>
-      <c r="K104" s="54"/>
-      <c r="L104" s="54"/>
-      <c r="M104" s="54"/>
-      <c r="N104" s="54"/>
-      <c r="O104" s="54"/>
+      <c r="I104" s="56"/>
+      <c r="J104" s="56"/>
+      <c r="K104" s="56"/>
+      <c r="L104" s="56"/>
+      <c r="M104" s="56"/>
+      <c r="N104" s="56"/>
+      <c r="O104" s="56"/>
     </row>
     <row r="105" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
@@ -3114,13 +3244,13 @@
       <c r="F105" s="57"/>
       <c r="G105" s="23"/>
       <c r="H105" s="56"/>
-      <c r="I105" s="54"/>
-      <c r="J105" s="54"/>
-      <c r="K105" s="54"/>
-      <c r="L105" s="54"/>
-      <c r="M105" s="54"/>
-      <c r="N105" s="54"/>
-      <c r="O105" s="54"/>
+      <c r="I105" s="56"/>
+      <c r="J105" s="56"/>
+      <c r="K105" s="56"/>
+      <c r="L105" s="56"/>
+      <c r="M105" s="56"/>
+      <c r="N105" s="56"/>
+      <c r="O105" s="56"/>
     </row>
     <row r="106" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
@@ -3133,13 +3263,13 @@
       <c r="F106" s="57"/>
       <c r="G106" s="23"/>
       <c r="H106" s="56"/>
-      <c r="I106" s="54"/>
-      <c r="J106" s="54"/>
-      <c r="K106" s="54"/>
-      <c r="L106" s="54"/>
-      <c r="M106" s="54"/>
-      <c r="N106" s="54"/>
-      <c r="O106" s="54"/>
+      <c r="I106" s="56"/>
+      <c r="J106" s="56"/>
+      <c r="K106" s="56"/>
+      <c r="L106" s="56"/>
+      <c r="M106" s="56"/>
+      <c r="N106" s="56"/>
+      <c r="O106" s="56"/>
     </row>
     <row r="107" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
@@ -3152,13 +3282,13 @@
       <c r="F107" s="57"/>
       <c r="G107" s="23"/>
       <c r="H107" s="56"/>
-      <c r="I107" s="54"/>
-      <c r="J107" s="54"/>
-      <c r="K107" s="54"/>
-      <c r="L107" s="54"/>
-      <c r="M107" s="54"/>
-      <c r="N107" s="54"/>
-      <c r="O107" s="54"/>
+      <c r="I107" s="56"/>
+      <c r="J107" s="56"/>
+      <c r="K107" s="56"/>
+      <c r="L107" s="56"/>
+      <c r="M107" s="56"/>
+      <c r="N107" s="56"/>
+      <c r="O107" s="56"/>
     </row>
     <row r="108" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
@@ -3171,13 +3301,13 @@
       <c r="F108" s="57"/>
       <c r="G108" s="23"/>
       <c r="H108" s="56"/>
-      <c r="I108" s="54"/>
-      <c r="J108" s="54"/>
-      <c r="K108" s="54"/>
-      <c r="L108" s="54"/>
-      <c r="M108" s="54"/>
-      <c r="N108" s="54"/>
-      <c r="O108" s="54"/>
+      <c r="I108" s="56"/>
+      <c r="J108" s="56"/>
+      <c r="K108" s="56"/>
+      <c r="L108" s="56"/>
+      <c r="M108" s="56"/>
+      <c r="N108" s="56"/>
+      <c r="O108" s="56"/>
     </row>
     <row r="109" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
@@ -3190,13 +3320,13 @@
       <c r="F109" s="57"/>
       <c r="G109" s="23"/>
       <c r="H109" s="56"/>
-      <c r="I109" s="54"/>
-      <c r="J109" s="54"/>
-      <c r="K109" s="54"/>
-      <c r="L109" s="54"/>
-      <c r="M109" s="54"/>
-      <c r="N109" s="54"/>
-      <c r="O109" s="54"/>
+      <c r="I109" s="56"/>
+      <c r="J109" s="56"/>
+      <c r="K109" s="56"/>
+      <c r="L109" s="56"/>
+      <c r="M109" s="56"/>
+      <c r="N109" s="56"/>
+      <c r="O109" s="56"/>
     </row>
     <row r="110" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
@@ -3209,13 +3339,13 @@
       <c r="F110" s="57"/>
       <c r="G110" s="23"/>
       <c r="H110" s="56"/>
-      <c r="I110" s="54"/>
-      <c r="J110" s="54"/>
-      <c r="K110" s="54"/>
-      <c r="L110" s="54"/>
-      <c r="M110" s="54"/>
-      <c r="N110" s="54"/>
-      <c r="O110" s="54"/>
+      <c r="I110" s="56"/>
+      <c r="J110" s="56"/>
+      <c r="K110" s="56"/>
+      <c r="L110" s="56"/>
+      <c r="M110" s="56"/>
+      <c r="N110" s="56"/>
+      <c r="O110" s="56"/>
     </row>
     <row r="111" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
@@ -3228,13 +3358,13 @@
       <c r="F111" s="57"/>
       <c r="G111" s="23"/>
       <c r="H111" s="56"/>
-      <c r="I111" s="54"/>
-      <c r="J111" s="54"/>
-      <c r="K111" s="54"/>
-      <c r="L111" s="54"/>
-      <c r="M111" s="54"/>
-      <c r="N111" s="54"/>
-      <c r="O111" s="54"/>
+      <c r="I111" s="56"/>
+      <c r="J111" s="56"/>
+      <c r="K111" s="56"/>
+      <c r="L111" s="56"/>
+      <c r="M111" s="56"/>
+      <c r="N111" s="56"/>
+      <c r="O111" s="56"/>
     </row>
     <row r="112" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
@@ -3247,13 +3377,13 @@
       <c r="F112" s="57"/>
       <c r="G112" s="23"/>
       <c r="H112" s="56"/>
-      <c r="I112" s="54"/>
-      <c r="J112" s="54"/>
-      <c r="K112" s="54"/>
-      <c r="L112" s="54"/>
-      <c r="M112" s="54"/>
-      <c r="N112" s="54"/>
-      <c r="O112" s="54"/>
+      <c r="I112" s="56"/>
+      <c r="J112" s="56"/>
+      <c r="K112" s="56"/>
+      <c r="L112" s="56"/>
+      <c r="M112" s="56"/>
+      <c r="N112" s="56"/>
+      <c r="O112" s="56"/>
     </row>
     <row r="113" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
@@ -3266,13 +3396,13 @@
       <c r="F113" s="57"/>
       <c r="G113" s="23"/>
       <c r="H113" s="56"/>
-      <c r="I113" s="54"/>
-      <c r="J113" s="54"/>
-      <c r="K113" s="54"/>
-      <c r="L113" s="54"/>
-      <c r="M113" s="54"/>
-      <c r="N113" s="54"/>
-      <c r="O113" s="54"/>
+      <c r="I113" s="56"/>
+      <c r="J113" s="56"/>
+      <c r="K113" s="56"/>
+      <c r="L113" s="56"/>
+      <c r="M113" s="56"/>
+      <c r="N113" s="56"/>
+      <c r="O113" s="56"/>
     </row>
     <row r="114" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
@@ -3285,13 +3415,13 @@
       <c r="F114" s="57"/>
       <c r="G114" s="23"/>
       <c r="H114" s="56"/>
-      <c r="I114" s="54"/>
-      <c r="J114" s="54"/>
-      <c r="K114" s="54"/>
-      <c r="L114" s="54"/>
-      <c r="M114" s="54"/>
-      <c r="N114" s="54"/>
-      <c r="O114" s="54"/>
+      <c r="I114" s="56"/>
+      <c r="J114" s="56"/>
+      <c r="K114" s="56"/>
+      <c r="L114" s="56"/>
+      <c r="M114" s="56"/>
+      <c r="N114" s="56"/>
+      <c r="O114" s="56"/>
     </row>
     <row r="115" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
@@ -3304,13 +3434,13 @@
       <c r="F115" s="57"/>
       <c r="G115" s="23"/>
       <c r="H115" s="56"/>
-      <c r="I115" s="54"/>
-      <c r="J115" s="54"/>
-      <c r="K115" s="54"/>
-      <c r="L115" s="54"/>
-      <c r="M115" s="54"/>
-      <c r="N115" s="54"/>
-      <c r="O115" s="54"/>
+      <c r="I115" s="56"/>
+      <c r="J115" s="56"/>
+      <c r="K115" s="56"/>
+      <c r="L115" s="56"/>
+      <c r="M115" s="56"/>
+      <c r="N115" s="56"/>
+      <c r="O115" s="56"/>
     </row>
     <row r="116" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
@@ -3323,13 +3453,13 @@
       <c r="F116" s="57"/>
       <c r="G116" s="23"/>
       <c r="H116" s="56"/>
-      <c r="I116" s="54"/>
-      <c r="J116" s="54"/>
-      <c r="K116" s="54"/>
-      <c r="L116" s="54"/>
-      <c r="M116" s="54"/>
-      <c r="N116" s="54"/>
-      <c r="O116" s="54"/>
+      <c r="I116" s="56"/>
+      <c r="J116" s="56"/>
+      <c r="K116" s="56"/>
+      <c r="L116" s="56"/>
+      <c r="M116" s="56"/>
+      <c r="N116" s="56"/>
+      <c r="O116" s="56"/>
     </row>
     <row r="117" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
@@ -3342,13 +3472,13 @@
       <c r="F117" s="57"/>
       <c r="G117" s="23"/>
       <c r="H117" s="56"/>
-      <c r="I117" s="54"/>
-      <c r="J117" s="54"/>
-      <c r="K117" s="54"/>
-      <c r="L117" s="54"/>
-      <c r="M117" s="54"/>
-      <c r="N117" s="54"/>
-      <c r="O117" s="54"/>
+      <c r="I117" s="56"/>
+      <c r="J117" s="56"/>
+      <c r="K117" s="56"/>
+      <c r="L117" s="56"/>
+      <c r="M117" s="56"/>
+      <c r="N117" s="56"/>
+      <c r="O117" s="56"/>
     </row>
     <row r="118" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
@@ -3361,13 +3491,13 @@
       <c r="F118" s="57"/>
       <c r="G118" s="23"/>
       <c r="H118" s="56"/>
-      <c r="I118" s="54"/>
-      <c r="J118" s="54"/>
-      <c r="K118" s="54"/>
-      <c r="L118" s="54"/>
-      <c r="M118" s="54"/>
-      <c r="N118" s="54"/>
-      <c r="O118" s="54"/>
+      <c r="I118" s="56"/>
+      <c r="J118" s="56"/>
+      <c r="K118" s="56"/>
+      <c r="L118" s="56"/>
+      <c r="M118" s="56"/>
+      <c r="N118" s="56"/>
+      <c r="O118" s="56"/>
     </row>
     <row r="119" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
@@ -3380,13 +3510,13 @@
       <c r="F119" s="57"/>
       <c r="G119" s="23"/>
       <c r="H119" s="56"/>
-      <c r="I119" s="54"/>
-      <c r="J119" s="54"/>
-      <c r="K119" s="54"/>
-      <c r="L119" s="54"/>
-      <c r="M119" s="54"/>
-      <c r="N119" s="54"/>
-      <c r="O119" s="54"/>
+      <c r="I119" s="56"/>
+      <c r="J119" s="56"/>
+      <c r="K119" s="56"/>
+      <c r="L119" s="56"/>
+      <c r="M119" s="56"/>
+      <c r="N119" s="56"/>
+      <c r="O119" s="56"/>
     </row>
     <row r="120" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
@@ -3399,13 +3529,13 @@
       <c r="F120" s="57"/>
       <c r="G120" s="23"/>
       <c r="H120" s="56"/>
-      <c r="I120" s="54"/>
-      <c r="J120" s="54"/>
-      <c r="K120" s="54"/>
-      <c r="L120" s="54"/>
-      <c r="M120" s="54"/>
-      <c r="N120" s="54"/>
-      <c r="O120" s="54"/>
+      <c r="I120" s="56"/>
+      <c r="J120" s="56"/>
+      <c r="K120" s="56"/>
+      <c r="L120" s="56"/>
+      <c r="M120" s="56"/>
+      <c r="N120" s="56"/>
+      <c r="O120" s="56"/>
     </row>
     <row r="121" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
@@ -3418,13 +3548,13 @@
       <c r="F121" s="57"/>
       <c r="G121" s="23"/>
       <c r="H121" s="56"/>
-      <c r="I121" s="54"/>
-      <c r="J121" s="54"/>
-      <c r="K121" s="54"/>
-      <c r="L121" s="54"/>
-      <c r="M121" s="54"/>
-      <c r="N121" s="54"/>
-      <c r="O121" s="54"/>
+      <c r="I121" s="56"/>
+      <c r="J121" s="56"/>
+      <c r="K121" s="56"/>
+      <c r="L121" s="56"/>
+      <c r="M121" s="56"/>
+      <c r="N121" s="56"/>
+      <c r="O121" s="56"/>
     </row>
     <row r="122" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
@@ -3437,13 +3567,13 @@
       <c r="F122" s="57"/>
       <c r="G122" s="23"/>
       <c r="H122" s="56"/>
-      <c r="I122" s="54"/>
-      <c r="J122" s="54"/>
-      <c r="K122" s="54"/>
-      <c r="L122" s="54"/>
-      <c r="M122" s="54"/>
-      <c r="N122" s="54"/>
-      <c r="O122" s="54"/>
+      <c r="I122" s="56"/>
+      <c r="J122" s="56"/>
+      <c r="K122" s="56"/>
+      <c r="L122" s="56"/>
+      <c r="M122" s="56"/>
+      <c r="N122" s="56"/>
+      <c r="O122" s="56"/>
     </row>
     <row r="123" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
@@ -3456,13 +3586,13 @@
       <c r="F123" s="57"/>
       <c r="G123" s="23"/>
       <c r="H123" s="56"/>
-      <c r="I123" s="54"/>
-      <c r="J123" s="54"/>
-      <c r="K123" s="54"/>
-      <c r="L123" s="54"/>
-      <c r="M123" s="54"/>
-      <c r="N123" s="54"/>
-      <c r="O123" s="54"/>
+      <c r="I123" s="56"/>
+      <c r="J123" s="56"/>
+      <c r="K123" s="56"/>
+      <c r="L123" s="56"/>
+      <c r="M123" s="56"/>
+      <c r="N123" s="56"/>
+      <c r="O123" s="56"/>
     </row>
     <row r="124" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
@@ -3475,13 +3605,13 @@
       <c r="F124" s="57"/>
       <c r="G124" s="23"/>
       <c r="H124" s="56"/>
-      <c r="I124" s="54"/>
-      <c r="J124" s="54"/>
-      <c r="K124" s="54"/>
-      <c r="L124" s="54"/>
-      <c r="M124" s="54"/>
-      <c r="N124" s="54"/>
-      <c r="O124" s="54"/>
+      <c r="I124" s="56"/>
+      <c r="J124" s="56"/>
+      <c r="K124" s="56"/>
+      <c r="L124" s="56"/>
+      <c r="M124" s="56"/>
+      <c r="N124" s="56"/>
+      <c r="O124" s="56"/>
     </row>
     <row r="125" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
@@ -3494,13 +3624,13 @@
       <c r="F125" s="57"/>
       <c r="G125" s="23"/>
       <c r="H125" s="56"/>
-      <c r="I125" s="54"/>
-      <c r="J125" s="54"/>
-      <c r="K125" s="54"/>
-      <c r="L125" s="54"/>
-      <c r="M125" s="54"/>
-      <c r="N125" s="54"/>
-      <c r="O125" s="54"/>
+      <c r="I125" s="56"/>
+      <c r="J125" s="56"/>
+      <c r="K125" s="56"/>
+      <c r="L125" s="56"/>
+      <c r="M125" s="56"/>
+      <c r="N125" s="56"/>
+      <c r="O125" s="56"/>
     </row>
     <row r="126" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
@@ -3513,13 +3643,13 @@
       <c r="F126" s="57"/>
       <c r="G126" s="23"/>
       <c r="H126" s="56"/>
-      <c r="I126" s="54"/>
-      <c r="J126" s="54"/>
-      <c r="K126" s="54"/>
-      <c r="L126" s="54"/>
-      <c r="M126" s="54"/>
-      <c r="N126" s="54"/>
-      <c r="O126" s="54"/>
+      <c r="I126" s="56"/>
+      <c r="J126" s="56"/>
+      <c r="K126" s="56"/>
+      <c r="L126" s="56"/>
+      <c r="M126" s="56"/>
+      <c r="N126" s="56"/>
+      <c r="O126" s="56"/>
     </row>
     <row r="127" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
@@ -3532,13 +3662,13 @@
       <c r="F127" s="57"/>
       <c r="G127" s="23"/>
       <c r="H127" s="56"/>
-      <c r="I127" s="54"/>
-      <c r="J127" s="54"/>
-      <c r="K127" s="54"/>
-      <c r="L127" s="54"/>
-      <c r="M127" s="54"/>
-      <c r="N127" s="54"/>
-      <c r="O127" s="54"/>
+      <c r="I127" s="56"/>
+      <c r="J127" s="56"/>
+      <c r="K127" s="56"/>
+      <c r="L127" s="56"/>
+      <c r="M127" s="56"/>
+      <c r="N127" s="56"/>
+      <c r="O127" s="56"/>
     </row>
     <row r="128" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
@@ -3551,13 +3681,13 @@
       <c r="F128" s="57"/>
       <c r="G128" s="23"/>
       <c r="H128" s="56"/>
-      <c r="I128" s="54"/>
-      <c r="J128" s="54"/>
-      <c r="K128" s="54"/>
-      <c r="L128" s="54"/>
-      <c r="M128" s="54"/>
-      <c r="N128" s="54"/>
-      <c r="O128" s="54"/>
+      <c r="I128" s="56"/>
+      <c r="J128" s="56"/>
+      <c r="K128" s="56"/>
+      <c r="L128" s="56"/>
+      <c r="M128" s="56"/>
+      <c r="N128" s="56"/>
+      <c r="O128" s="56"/>
     </row>
     <row r="129" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
@@ -3570,13 +3700,13 @@
       <c r="F129" s="57"/>
       <c r="G129" s="23"/>
       <c r="H129" s="56"/>
-      <c r="I129" s="54"/>
-      <c r="J129" s="54"/>
-      <c r="K129" s="54"/>
-      <c r="L129" s="54"/>
-      <c r="M129" s="54"/>
-      <c r="N129" s="54"/>
-      <c r="O129" s="54"/>
+      <c r="I129" s="56"/>
+      <c r="J129" s="56"/>
+      <c r="K129" s="56"/>
+      <c r="L129" s="56"/>
+      <c r="M129" s="56"/>
+      <c r="N129" s="56"/>
+      <c r="O129" s="56"/>
     </row>
     <row r="130" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
@@ -3589,13 +3719,13 @@
       <c r="F130" s="57"/>
       <c r="G130" s="23"/>
       <c r="H130" s="56"/>
-      <c r="I130" s="54"/>
-      <c r="J130" s="54"/>
-      <c r="K130" s="54"/>
-      <c r="L130" s="54"/>
-      <c r="M130" s="54"/>
-      <c r="N130" s="54"/>
-      <c r="O130" s="54"/>
+      <c r="I130" s="56"/>
+      <c r="J130" s="56"/>
+      <c r="K130" s="56"/>
+      <c r="L130" s="56"/>
+      <c r="M130" s="56"/>
+      <c r="N130" s="56"/>
+      <c r="O130" s="56"/>
     </row>
     <row r="131" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
@@ -3608,13 +3738,13 @@
       <c r="F131" s="57"/>
       <c r="G131" s="23"/>
       <c r="H131" s="56"/>
-      <c r="I131" s="54"/>
-      <c r="J131" s="54"/>
-      <c r="K131" s="54"/>
-      <c r="L131" s="54"/>
-      <c r="M131" s="54"/>
-      <c r="N131" s="54"/>
-      <c r="O131" s="54"/>
+      <c r="I131" s="56"/>
+      <c r="J131" s="56"/>
+      <c r="K131" s="56"/>
+      <c r="L131" s="56"/>
+      <c r="M131" s="56"/>
+      <c r="N131" s="56"/>
+      <c r="O131" s="56"/>
     </row>
     <row r="132" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
@@ -3627,13 +3757,13 @@
       <c r="F132" s="57"/>
       <c r="G132" s="23"/>
       <c r="H132" s="56"/>
-      <c r="I132" s="54"/>
-      <c r="J132" s="54"/>
-      <c r="K132" s="54"/>
-      <c r="L132" s="54"/>
-      <c r="M132" s="54"/>
-      <c r="N132" s="54"/>
-      <c r="O132" s="54"/>
+      <c r="I132" s="56"/>
+      <c r="J132" s="56"/>
+      <c r="K132" s="56"/>
+      <c r="L132" s="56"/>
+      <c r="M132" s="56"/>
+      <c r="N132" s="56"/>
+      <c r="O132" s="56"/>
     </row>
     <row r="133" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
@@ -3646,13 +3776,13 @@
       <c r="F133" s="57"/>
       <c r="G133" s="23"/>
       <c r="H133" s="56"/>
-      <c r="I133" s="54"/>
-      <c r="J133" s="54"/>
-      <c r="K133" s="54"/>
-      <c r="L133" s="54"/>
-      <c r="M133" s="54"/>
-      <c r="N133" s="54"/>
-      <c r="O133" s="54"/>
+      <c r="I133" s="56"/>
+      <c r="J133" s="56"/>
+      <c r="K133" s="56"/>
+      <c r="L133" s="56"/>
+      <c r="M133" s="56"/>
+      <c r="N133" s="56"/>
+      <c r="O133" s="56"/>
     </row>
     <row r="134" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
@@ -3665,13 +3795,13 @@
       <c r="F134" s="57"/>
       <c r="G134" s="23"/>
       <c r="H134" s="56"/>
-      <c r="I134" s="54"/>
-      <c r="J134" s="54"/>
-      <c r="K134" s="54"/>
-      <c r="L134" s="54"/>
-      <c r="M134" s="54"/>
-      <c r="N134" s="54"/>
-      <c r="O134" s="54"/>
+      <c r="I134" s="56"/>
+      <c r="J134" s="56"/>
+      <c r="K134" s="56"/>
+      <c r="L134" s="56"/>
+      <c r="M134" s="56"/>
+      <c r="N134" s="56"/>
+      <c r="O134" s="56"/>
     </row>
     <row r="135" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
@@ -3684,13 +3814,13 @@
       <c r="F135" s="57"/>
       <c r="G135" s="23"/>
       <c r="H135" s="56"/>
-      <c r="I135" s="54"/>
-      <c r="J135" s="54"/>
-      <c r="K135" s="54"/>
-      <c r="L135" s="54"/>
-      <c r="M135" s="54"/>
-      <c r="N135" s="54"/>
-      <c r="O135" s="54"/>
+      <c r="I135" s="56"/>
+      <c r="J135" s="56"/>
+      <c r="K135" s="56"/>
+      <c r="L135" s="56"/>
+      <c r="M135" s="56"/>
+      <c r="N135" s="56"/>
+      <c r="O135" s="56"/>
     </row>
     <row r="136" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
@@ -3703,13 +3833,13 @@
       <c r="F136" s="57"/>
       <c r="G136" s="23"/>
       <c r="H136" s="56"/>
-      <c r="I136" s="54"/>
-      <c r="J136" s="54"/>
-      <c r="K136" s="54"/>
-      <c r="L136" s="54"/>
-      <c r="M136" s="54"/>
-      <c r="N136" s="54"/>
-      <c r="O136" s="54"/>
+      <c r="I136" s="56"/>
+      <c r="J136" s="56"/>
+      <c r="K136" s="56"/>
+      <c r="L136" s="56"/>
+      <c r="M136" s="56"/>
+      <c r="N136" s="56"/>
+      <c r="O136" s="56"/>
     </row>
     <row r="137" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
@@ -3722,13 +3852,13 @@
       <c r="F137" s="57"/>
       <c r="G137" s="23"/>
       <c r="H137" s="56"/>
-      <c r="I137" s="54"/>
-      <c r="J137" s="54"/>
-      <c r="K137" s="54"/>
-      <c r="L137" s="54"/>
-      <c r="M137" s="54"/>
-      <c r="N137" s="54"/>
-      <c r="O137" s="54"/>
+      <c r="I137" s="56"/>
+      <c r="J137" s="56"/>
+      <c r="K137" s="56"/>
+      <c r="L137" s="56"/>
+      <c r="M137" s="56"/>
+      <c r="N137" s="56"/>
+      <c r="O137" s="56"/>
     </row>
     <row r="138" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
@@ -3741,13 +3871,13 @@
       <c r="F138" s="57"/>
       <c r="G138" s="23"/>
       <c r="H138" s="56"/>
-      <c r="I138" s="54"/>
-      <c r="J138" s="54"/>
-      <c r="K138" s="54"/>
-      <c r="L138" s="54"/>
-      <c r="M138" s="54"/>
-      <c r="N138" s="54"/>
-      <c r="O138" s="54"/>
+      <c r="I138" s="56"/>
+      <c r="J138" s="56"/>
+      <c r="K138" s="56"/>
+      <c r="L138" s="56"/>
+      <c r="M138" s="56"/>
+      <c r="N138" s="56"/>
+      <c r="O138" s="56"/>
     </row>
     <row r="139" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
@@ -3760,13 +3890,13 @@
       <c r="F139" s="57"/>
       <c r="G139" s="23"/>
       <c r="H139" s="56"/>
-      <c r="I139" s="54"/>
-      <c r="J139" s="54"/>
-      <c r="K139" s="54"/>
-      <c r="L139" s="54"/>
-      <c r="M139" s="54"/>
-      <c r="N139" s="54"/>
-      <c r="O139" s="54"/>
+      <c r="I139" s="56"/>
+      <c r="J139" s="56"/>
+      <c r="K139" s="56"/>
+      <c r="L139" s="56"/>
+      <c r="M139" s="56"/>
+      <c r="N139" s="56"/>
+      <c r="O139" s="56"/>
     </row>
     <row r="140" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
@@ -3779,13 +3909,13 @@
       <c r="F140" s="57"/>
       <c r="G140" s="23"/>
       <c r="H140" s="56"/>
-      <c r="I140" s="54"/>
-      <c r="J140" s="54"/>
-      <c r="K140" s="54"/>
-      <c r="L140" s="54"/>
-      <c r="M140" s="54"/>
-      <c r="N140" s="54"/>
-      <c r="O140" s="54"/>
+      <c r="I140" s="56"/>
+      <c r="J140" s="56"/>
+      <c r="K140" s="56"/>
+      <c r="L140" s="56"/>
+      <c r="M140" s="56"/>
+      <c r="N140" s="56"/>
+      <c r="O140" s="56"/>
     </row>
     <row r="141" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
@@ -3798,13 +3928,13 @@
       <c r="F141" s="57"/>
       <c r="G141" s="23"/>
       <c r="H141" s="56"/>
-      <c r="I141" s="54"/>
-      <c r="J141" s="54"/>
-      <c r="K141" s="54"/>
-      <c r="L141" s="54"/>
-      <c r="M141" s="54"/>
-      <c r="N141" s="54"/>
-      <c r="O141" s="54"/>
+      <c r="I141" s="56"/>
+      <c r="J141" s="56"/>
+      <c r="K141" s="56"/>
+      <c r="L141" s="56"/>
+      <c r="M141" s="56"/>
+      <c r="N141" s="56"/>
+      <c r="O141" s="56"/>
     </row>
     <row r="142" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
@@ -3817,13 +3947,13 @@
       <c r="F142" s="57"/>
       <c r="G142" s="23"/>
       <c r="H142" s="56"/>
-      <c r="I142" s="54"/>
-      <c r="J142" s="54"/>
-      <c r="K142" s="54"/>
-      <c r="L142" s="54"/>
-      <c r="M142" s="54"/>
-      <c r="N142" s="54"/>
-      <c r="O142" s="54"/>
+      <c r="I142" s="56"/>
+      <c r="J142" s="56"/>
+      <c r="K142" s="56"/>
+      <c r="L142" s="56"/>
+      <c r="M142" s="56"/>
+      <c r="N142" s="56"/>
+      <c r="O142" s="56"/>
     </row>
     <row r="143" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
@@ -3836,13 +3966,13 @@
       <c r="F143" s="57"/>
       <c r="G143" s="23"/>
       <c r="H143" s="56"/>
-      <c r="I143" s="54"/>
-      <c r="J143" s="54"/>
-      <c r="K143" s="54"/>
-      <c r="L143" s="54"/>
-      <c r="M143" s="54"/>
-      <c r="N143" s="54"/>
-      <c r="O143" s="54"/>
+      <c r="I143" s="56"/>
+      <c r="J143" s="56"/>
+      <c r="K143" s="56"/>
+      <c r="L143" s="56"/>
+      <c r="M143" s="56"/>
+      <c r="N143" s="56"/>
+      <c r="O143" s="56"/>
     </row>
     <row r="144" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
@@ -3855,13 +3985,13 @@
       <c r="F144" s="57"/>
       <c r="G144" s="23"/>
       <c r="H144" s="56"/>
-      <c r="I144" s="54"/>
-      <c r="J144" s="54"/>
-      <c r="K144" s="54"/>
-      <c r="L144" s="54"/>
-      <c r="M144" s="54"/>
-      <c r="N144" s="54"/>
-      <c r="O144" s="54"/>
+      <c r="I144" s="56"/>
+      <c r="J144" s="56"/>
+      <c r="K144" s="56"/>
+      <c r="L144" s="56"/>
+      <c r="M144" s="56"/>
+      <c r="N144" s="56"/>
+      <c r="O144" s="56"/>
     </row>
     <row r="145" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
@@ -3874,13 +4004,13 @@
       <c r="F145" s="57"/>
       <c r="G145" s="23"/>
       <c r="H145" s="56"/>
-      <c r="I145" s="54"/>
-      <c r="J145" s="54"/>
-      <c r="K145" s="54"/>
-      <c r="L145" s="54"/>
-      <c r="M145" s="54"/>
-      <c r="N145" s="54"/>
-      <c r="O145" s="54"/>
+      <c r="I145" s="56"/>
+      <c r="J145" s="56"/>
+      <c r="K145" s="56"/>
+      <c r="L145" s="56"/>
+      <c r="M145" s="56"/>
+      <c r="N145" s="56"/>
+      <c r="O145" s="56"/>
     </row>
     <row r="146" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
@@ -3893,13 +4023,13 @@
       <c r="F146" s="57"/>
       <c r="G146" s="23"/>
       <c r="H146" s="56"/>
-      <c r="I146" s="54"/>
-      <c r="J146" s="54"/>
-      <c r="K146" s="54"/>
-      <c r="L146" s="54"/>
-      <c r="M146" s="54"/>
-      <c r="N146" s="54"/>
-      <c r="O146" s="54"/>
+      <c r="I146" s="56"/>
+      <c r="J146" s="56"/>
+      <c r="K146" s="56"/>
+      <c r="L146" s="56"/>
+      <c r="M146" s="56"/>
+      <c r="N146" s="56"/>
+      <c r="O146" s="56"/>
     </row>
     <row r="147" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
@@ -3912,13 +4042,13 @@
       <c r="F147" s="57"/>
       <c r="G147" s="23"/>
       <c r="H147" s="56"/>
-      <c r="I147" s="54"/>
-      <c r="J147" s="54"/>
-      <c r="K147" s="54"/>
-      <c r="L147" s="54"/>
-      <c r="M147" s="54"/>
-      <c r="N147" s="54"/>
-      <c r="O147" s="54"/>
+      <c r="I147" s="56"/>
+      <c r="J147" s="56"/>
+      <c r="K147" s="56"/>
+      <c r="L147" s="56"/>
+      <c r="M147" s="56"/>
+      <c r="N147" s="56"/>
+      <c r="O147" s="56"/>
     </row>
     <row r="148" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
@@ -3931,13 +4061,13 @@
       <c r="F148" s="57"/>
       <c r="G148" s="23"/>
       <c r="H148" s="56"/>
-      <c r="I148" s="54"/>
-      <c r="J148" s="54"/>
-      <c r="K148" s="54"/>
-      <c r="L148" s="54"/>
-      <c r="M148" s="54"/>
-      <c r="N148" s="54"/>
-      <c r="O148" s="54"/>
+      <c r="I148" s="56"/>
+      <c r="J148" s="56"/>
+      <c r="K148" s="56"/>
+      <c r="L148" s="56"/>
+      <c r="M148" s="56"/>
+      <c r="N148" s="56"/>
+      <c r="O148" s="56"/>
     </row>
     <row r="149" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
@@ -3950,13 +4080,13 @@
       <c r="F149" s="57"/>
       <c r="G149" s="23"/>
       <c r="H149" s="56"/>
-      <c r="I149" s="54"/>
-      <c r="J149" s="54"/>
-      <c r="K149" s="54"/>
-      <c r="L149" s="54"/>
-      <c r="M149" s="54"/>
-      <c r="N149" s="54"/>
-      <c r="O149" s="54"/>
+      <c r="I149" s="56"/>
+      <c r="J149" s="56"/>
+      <c r="K149" s="56"/>
+      <c r="L149" s="56"/>
+      <c r="M149" s="56"/>
+      <c r="N149" s="56"/>
+      <c r="O149" s="56"/>
     </row>
     <row r="150" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
@@ -3969,13 +4099,13 @@
       <c r="F150" s="57"/>
       <c r="G150" s="23"/>
       <c r="H150" s="56"/>
-      <c r="I150" s="54"/>
-      <c r="J150" s="54"/>
-      <c r="K150" s="54"/>
-      <c r="L150" s="54"/>
-      <c r="M150" s="54"/>
-      <c r="N150" s="54"/>
-      <c r="O150" s="54"/>
+      <c r="I150" s="56"/>
+      <c r="J150" s="56"/>
+      <c r="K150" s="56"/>
+      <c r="L150" s="56"/>
+      <c r="M150" s="56"/>
+      <c r="N150" s="56"/>
+      <c r="O150" s="56"/>
     </row>
     <row r="151" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
@@ -3988,13 +4118,13 @@
       <c r="F151" s="57"/>
       <c r="G151" s="23"/>
       <c r="H151" s="56"/>
-      <c r="I151" s="54"/>
-      <c r="J151" s="54"/>
-      <c r="K151" s="54"/>
-      <c r="L151" s="54"/>
-      <c r="M151" s="54"/>
-      <c r="N151" s="54"/>
-      <c r="O151" s="54"/>
+      <c r="I151" s="56"/>
+      <c r="J151" s="56"/>
+      <c r="K151" s="56"/>
+      <c r="L151" s="56"/>
+      <c r="M151" s="56"/>
+      <c r="N151" s="56"/>
+      <c r="O151" s="56"/>
     </row>
     <row r="152" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
@@ -4007,13 +4137,13 @@
       <c r="F152" s="57"/>
       <c r="G152" s="23"/>
       <c r="H152" s="56"/>
-      <c r="I152" s="54"/>
-      <c r="J152" s="54"/>
-      <c r="K152" s="54"/>
-      <c r="L152" s="54"/>
-      <c r="M152" s="54"/>
-      <c r="N152" s="54"/>
-      <c r="O152" s="54"/>
+      <c r="I152" s="56"/>
+      <c r="J152" s="56"/>
+      <c r="K152" s="56"/>
+      <c r="L152" s="56"/>
+      <c r="M152" s="56"/>
+      <c r="N152" s="56"/>
+      <c r="O152" s="56"/>
     </row>
     <row r="153" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
@@ -4026,13 +4156,13 @@
       <c r="F153" s="57"/>
       <c r="G153" s="23"/>
       <c r="H153" s="56"/>
-      <c r="I153" s="54"/>
-      <c r="J153" s="54"/>
-      <c r="K153" s="54"/>
-      <c r="L153" s="54"/>
-      <c r="M153" s="54"/>
-      <c r="N153" s="54"/>
-      <c r="O153" s="54"/>
+      <c r="I153" s="56"/>
+      <c r="J153" s="56"/>
+      <c r="K153" s="56"/>
+      <c r="L153" s="56"/>
+      <c r="M153" s="56"/>
+      <c r="N153" s="56"/>
+      <c r="O153" s="56"/>
     </row>
     <row r="154" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
@@ -4045,13 +4175,13 @@
       <c r="F154" s="57"/>
       <c r="G154" s="23"/>
       <c r="H154" s="56"/>
-      <c r="I154" s="54"/>
-      <c r="J154" s="54"/>
-      <c r="K154" s="54"/>
-      <c r="L154" s="54"/>
-      <c r="M154" s="54"/>
-      <c r="N154" s="54"/>
-      <c r="O154" s="54"/>
+      <c r="I154" s="56"/>
+      <c r="J154" s="56"/>
+      <c r="K154" s="56"/>
+      <c r="L154" s="56"/>
+      <c r="M154" s="56"/>
+      <c r="N154" s="56"/>
+      <c r="O154" s="56"/>
     </row>
     <row r="155" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
@@ -4064,13 +4194,13 @@
       <c r="F155" s="57"/>
       <c r="G155" s="23"/>
       <c r="H155" s="56"/>
-      <c r="I155" s="54"/>
-      <c r="J155" s="54"/>
-      <c r="K155" s="54"/>
-      <c r="L155" s="54"/>
-      <c r="M155" s="54"/>
-      <c r="N155" s="54"/>
-      <c r="O155" s="54"/>
+      <c r="I155" s="56"/>
+      <c r="J155" s="56"/>
+      <c r="K155" s="56"/>
+      <c r="L155" s="56"/>
+      <c r="M155" s="56"/>
+      <c r="N155" s="56"/>
+      <c r="O155" s="56"/>
     </row>
     <row r="156" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
@@ -4083,13 +4213,13 @@
       <c r="F156" s="57"/>
       <c r="G156" s="23"/>
       <c r="H156" s="56"/>
-      <c r="I156" s="54"/>
-      <c r="J156" s="54"/>
-      <c r="K156" s="54"/>
-      <c r="L156" s="54"/>
-      <c r="M156" s="54"/>
-      <c r="N156" s="54"/>
-      <c r="O156" s="54"/>
+      <c r="I156" s="56"/>
+      <c r="J156" s="56"/>
+      <c r="K156" s="56"/>
+      <c r="L156" s="56"/>
+      <c r="M156" s="56"/>
+      <c r="N156" s="56"/>
+      <c r="O156" s="56"/>
     </row>
     <row r="157" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
@@ -4102,13 +4232,13 @@
       <c r="F157" s="57"/>
       <c r="G157" s="23"/>
       <c r="H157" s="56"/>
-      <c r="I157" s="54"/>
-      <c r="J157" s="54"/>
-      <c r="K157" s="54"/>
-      <c r="L157" s="54"/>
-      <c r="M157" s="54"/>
-      <c r="N157" s="54"/>
-      <c r="O157" s="54"/>
+      <c r="I157" s="56"/>
+      <c r="J157" s="56"/>
+      <c r="K157" s="56"/>
+      <c r="L157" s="56"/>
+      <c r="M157" s="56"/>
+      <c r="N157" s="56"/>
+      <c r="O157" s="56"/>
     </row>
     <row r="158" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
@@ -4121,13 +4251,13 @@
       <c r="F158" s="57"/>
       <c r="G158" s="23"/>
       <c r="H158" s="56"/>
-      <c r="I158" s="54"/>
-      <c r="J158" s="54"/>
-      <c r="K158" s="54"/>
-      <c r="L158" s="54"/>
-      <c r="M158" s="54"/>
-      <c r="N158" s="54"/>
-      <c r="O158" s="54"/>
+      <c r="I158" s="56"/>
+      <c r="J158" s="56"/>
+      <c r="K158" s="56"/>
+      <c r="L158" s="56"/>
+      <c r="M158" s="56"/>
+      <c r="N158" s="56"/>
+      <c r="O158" s="56"/>
     </row>
     <row r="159" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
@@ -4140,13 +4270,13 @@
       <c r="F159" s="57"/>
       <c r="G159" s="23"/>
       <c r="H159" s="56"/>
-      <c r="I159" s="54"/>
-      <c r="J159" s="54"/>
-      <c r="K159" s="54"/>
-      <c r="L159" s="54"/>
-      <c r="M159" s="54"/>
-      <c r="N159" s="54"/>
-      <c r="O159" s="54"/>
+      <c r="I159" s="56"/>
+      <c r="J159" s="56"/>
+      <c r="K159" s="56"/>
+      <c r="L159" s="56"/>
+      <c r="M159" s="56"/>
+      <c r="N159" s="56"/>
+      <c r="O159" s="56"/>
     </row>
     <row r="160" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
@@ -4159,13 +4289,13 @@
       <c r="F160" s="57"/>
       <c r="G160" s="23"/>
       <c r="H160" s="56"/>
-      <c r="I160" s="54"/>
-      <c r="J160" s="54"/>
-      <c r="K160" s="54"/>
-      <c r="L160" s="54"/>
-      <c r="M160" s="54"/>
-      <c r="N160" s="54"/>
-      <c r="O160" s="54"/>
+      <c r="I160" s="56"/>
+      <c r="J160" s="56"/>
+      <c r="K160" s="56"/>
+      <c r="L160" s="56"/>
+      <c r="M160" s="56"/>
+      <c r="N160" s="56"/>
+      <c r="O160" s="56"/>
     </row>
     <row r="161" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
@@ -4178,13 +4308,13 @@
       <c r="F161" s="57"/>
       <c r="G161" s="23"/>
       <c r="H161" s="56"/>
-      <c r="I161" s="54"/>
-      <c r="J161" s="54"/>
-      <c r="K161" s="54"/>
-      <c r="L161" s="54"/>
-      <c r="M161" s="54"/>
-      <c r="N161" s="54"/>
-      <c r="O161" s="54"/>
+      <c r="I161" s="56"/>
+      <c r="J161" s="56"/>
+      <c r="K161" s="56"/>
+      <c r="L161" s="56"/>
+      <c r="M161" s="56"/>
+      <c r="N161" s="56"/>
+      <c r="O161" s="56"/>
     </row>
     <row r="162" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
@@ -4197,13 +4327,13 @@
       <c r="F162" s="57"/>
       <c r="G162" s="23"/>
       <c r="H162" s="56"/>
-      <c r="I162" s="54"/>
-      <c r="J162" s="54"/>
-      <c r="K162" s="54"/>
-      <c r="L162" s="54"/>
-      <c r="M162" s="54"/>
-      <c r="N162" s="54"/>
-      <c r="O162" s="54"/>
+      <c r="I162" s="56"/>
+      <c r="J162" s="56"/>
+      <c r="K162" s="56"/>
+      <c r="L162" s="56"/>
+      <c r="M162" s="56"/>
+      <c r="N162" s="56"/>
+      <c r="O162" s="56"/>
     </row>
     <row r="163" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
@@ -4216,13 +4346,13 @@
       <c r="F163" s="57"/>
       <c r="G163" s="23"/>
       <c r="H163" s="56"/>
-      <c r="I163" s="54"/>
-      <c r="J163" s="54"/>
-      <c r="K163" s="54"/>
-      <c r="L163" s="54"/>
-      <c r="M163" s="54"/>
-      <c r="N163" s="54"/>
-      <c r="O163" s="54"/>
+      <c r="I163" s="56"/>
+      <c r="J163" s="56"/>
+      <c r="K163" s="56"/>
+      <c r="L163" s="56"/>
+      <c r="M163" s="56"/>
+      <c r="N163" s="56"/>
+      <c r="O163" s="56"/>
     </row>
     <row r="164" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
@@ -4235,13 +4365,13 @@
       <c r="F164" s="57"/>
       <c r="G164" s="23"/>
       <c r="H164" s="56"/>
-      <c r="I164" s="54"/>
-      <c r="J164" s="54"/>
-      <c r="K164" s="54"/>
-      <c r="L164" s="54"/>
-      <c r="M164" s="54"/>
-      <c r="N164" s="54"/>
-      <c r="O164" s="54"/>
+      <c r="I164" s="56"/>
+      <c r="J164" s="56"/>
+      <c r="K164" s="56"/>
+      <c r="L164" s="56"/>
+      <c r="M164" s="56"/>
+      <c r="N164" s="56"/>
+      <c r="O164" s="56"/>
     </row>
     <row r="165" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
@@ -4254,13 +4384,13 @@
       <c r="F165" s="57"/>
       <c r="G165" s="23"/>
       <c r="H165" s="56"/>
-      <c r="I165" s="54"/>
-      <c r="J165" s="54"/>
-      <c r="K165" s="54"/>
-      <c r="L165" s="54"/>
-      <c r="M165" s="54"/>
-      <c r="N165" s="54"/>
-      <c r="O165" s="54"/>
+      <c r="I165" s="56"/>
+      <c r="J165" s="56"/>
+      <c r="K165" s="56"/>
+      <c r="L165" s="56"/>
+      <c r="M165" s="56"/>
+      <c r="N165" s="56"/>
+      <c r="O165" s="56"/>
     </row>
     <row r="166" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
@@ -4273,13 +4403,13 @@
       <c r="F166" s="57"/>
       <c r="G166" s="23"/>
       <c r="H166" s="56"/>
-      <c r="I166" s="54"/>
-      <c r="J166" s="54"/>
-      <c r="K166" s="54"/>
-      <c r="L166" s="54"/>
-      <c r="M166" s="54"/>
-      <c r="N166" s="54"/>
-      <c r="O166" s="54"/>
+      <c r="I166" s="56"/>
+      <c r="J166" s="56"/>
+      <c r="K166" s="56"/>
+      <c r="L166" s="56"/>
+      <c r="M166" s="56"/>
+      <c r="N166" s="56"/>
+      <c r="O166" s="56"/>
     </row>
     <row r="167" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
@@ -4292,13 +4422,13 @@
       <c r="F167" s="57"/>
       <c r="G167" s="23"/>
       <c r="H167" s="56"/>
-      <c r="I167" s="54"/>
-      <c r="J167" s="54"/>
-      <c r="K167" s="54"/>
-      <c r="L167" s="54"/>
-      <c r="M167" s="54"/>
-      <c r="N167" s="54"/>
-      <c r="O167" s="54"/>
+      <c r="I167" s="56"/>
+      <c r="J167" s="56"/>
+      <c r="K167" s="56"/>
+      <c r="L167" s="56"/>
+      <c r="M167" s="56"/>
+      <c r="N167" s="56"/>
+      <c r="O167" s="56"/>
     </row>
     <row r="168" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
@@ -4311,13 +4441,13 @@
       <c r="F168" s="57"/>
       <c r="G168" s="23"/>
       <c r="H168" s="56"/>
-      <c r="I168" s="54"/>
-      <c r="J168" s="54"/>
-      <c r="K168" s="54"/>
-      <c r="L168" s="54"/>
-      <c r="M168" s="54"/>
-      <c r="N168" s="54"/>
-      <c r="O168" s="54"/>
+      <c r="I168" s="56"/>
+      <c r="J168" s="56"/>
+      <c r="K168" s="56"/>
+      <c r="L168" s="56"/>
+      <c r="M168" s="56"/>
+      <c r="N168" s="56"/>
+      <c r="O168" s="56"/>
     </row>
     <row r="169" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
@@ -4330,13 +4460,13 @@
       <c r="F169" s="57"/>
       <c r="G169" s="23"/>
       <c r="H169" s="56"/>
-      <c r="I169" s="54"/>
-      <c r="J169" s="54"/>
-      <c r="K169" s="54"/>
-      <c r="L169" s="54"/>
-      <c r="M169" s="54"/>
-      <c r="N169" s="54"/>
-      <c r="O169" s="54"/>
+      <c r="I169" s="56"/>
+      <c r="J169" s="56"/>
+      <c r="K169" s="56"/>
+      <c r="L169" s="56"/>
+      <c r="M169" s="56"/>
+      <c r="N169" s="56"/>
+      <c r="O169" s="56"/>
     </row>
     <row r="170" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
@@ -4349,13 +4479,13 @@
       <c r="F170" s="57"/>
       <c r="G170" s="23"/>
       <c r="H170" s="56"/>
-      <c r="I170" s="54"/>
-      <c r="J170" s="54"/>
-      <c r="K170" s="54"/>
-      <c r="L170" s="54"/>
-      <c r="M170" s="54"/>
-      <c r="N170" s="54"/>
-      <c r="O170" s="54"/>
+      <c r="I170" s="56"/>
+      <c r="J170" s="56"/>
+      <c r="K170" s="56"/>
+      <c r="L170" s="56"/>
+      <c r="M170" s="56"/>
+      <c r="N170" s="56"/>
+      <c r="O170" s="56"/>
     </row>
     <row r="171" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
@@ -4368,13 +4498,13 @@
       <c r="F171" s="57"/>
       <c r="G171" s="23"/>
       <c r="H171" s="56"/>
-      <c r="I171" s="54"/>
-      <c r="J171" s="54"/>
-      <c r="K171" s="54"/>
-      <c r="L171" s="54"/>
-      <c r="M171" s="54"/>
-      <c r="N171" s="54"/>
-      <c r="O171" s="54"/>
+      <c r="I171" s="56"/>
+      <c r="J171" s="56"/>
+      <c r="K171" s="56"/>
+      <c r="L171" s="56"/>
+      <c r="M171" s="56"/>
+      <c r="N171" s="56"/>
+      <c r="O171" s="56"/>
     </row>
     <row r="172" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
@@ -4387,13 +4517,13 @@
       <c r="F172" s="57"/>
       <c r="G172" s="23"/>
       <c r="H172" s="56"/>
-      <c r="I172" s="54"/>
-      <c r="J172" s="54"/>
-      <c r="K172" s="54"/>
-      <c r="L172" s="54"/>
-      <c r="M172" s="54"/>
-      <c r="N172" s="54"/>
-      <c r="O172" s="54"/>
+      <c r="I172" s="56"/>
+      <c r="J172" s="56"/>
+      <c r="K172" s="56"/>
+      <c r="L172" s="56"/>
+      <c r="M172" s="56"/>
+      <c r="N172" s="56"/>
+      <c r="O172" s="56"/>
     </row>
     <row r="173" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
@@ -4406,13 +4536,13 @@
       <c r="F173" s="57"/>
       <c r="G173" s="23"/>
       <c r="H173" s="56"/>
-      <c r="I173" s="54"/>
-      <c r="J173" s="54"/>
-      <c r="K173" s="54"/>
-      <c r="L173" s="54"/>
-      <c r="M173" s="54"/>
-      <c r="N173" s="54"/>
-      <c r="O173" s="54"/>
+      <c r="I173" s="56"/>
+      <c r="J173" s="56"/>
+      <c r="K173" s="56"/>
+      <c r="L173" s="56"/>
+      <c r="M173" s="56"/>
+      <c r="N173" s="56"/>
+      <c r="O173" s="56"/>
     </row>
     <row r="174" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
@@ -4425,13 +4555,13 @@
       <c r="F174" s="57"/>
       <c r="G174" s="23"/>
       <c r="H174" s="56"/>
-      <c r="I174" s="54"/>
-      <c r="J174" s="54"/>
-      <c r="K174" s="54"/>
-      <c r="L174" s="54"/>
-      <c r="M174" s="54"/>
-      <c r="N174" s="54"/>
-      <c r="O174" s="54"/>
+      <c r="I174" s="56"/>
+      <c r="J174" s="56"/>
+      <c r="K174" s="56"/>
+      <c r="L174" s="56"/>
+      <c r="M174" s="56"/>
+      <c r="N174" s="56"/>
+      <c r="O174" s="56"/>
     </row>
     <row r="175" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
@@ -4444,13 +4574,13 @@
       <c r="F175" s="57"/>
       <c r="G175" s="23"/>
       <c r="H175" s="56"/>
-      <c r="I175" s="54"/>
-      <c r="J175" s="54"/>
-      <c r="K175" s="54"/>
-      <c r="L175" s="54"/>
-      <c r="M175" s="54"/>
-      <c r="N175" s="54"/>
-      <c r="O175" s="54"/>
+      <c r="I175" s="56"/>
+      <c r="J175" s="56"/>
+      <c r="K175" s="56"/>
+      <c r="L175" s="56"/>
+      <c r="M175" s="56"/>
+      <c r="N175" s="56"/>
+      <c r="O175" s="56"/>
     </row>
     <row r="176" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
@@ -4463,13 +4593,13 @@
       <c r="F176" s="57"/>
       <c r="G176" s="23"/>
       <c r="H176" s="56"/>
-      <c r="I176" s="54"/>
-      <c r="J176" s="54"/>
-      <c r="K176" s="54"/>
-      <c r="L176" s="54"/>
-      <c r="M176" s="54"/>
-      <c r="N176" s="54"/>
-      <c r="O176" s="54"/>
+      <c r="I176" s="56"/>
+      <c r="J176" s="56"/>
+      <c r="K176" s="56"/>
+      <c r="L176" s="56"/>
+      <c r="M176" s="56"/>
+      <c r="N176" s="56"/>
+      <c r="O176" s="56"/>
     </row>
     <row r="177" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
@@ -4482,13 +4612,13 @@
       <c r="F177" s="57"/>
       <c r="G177" s="23"/>
       <c r="H177" s="56"/>
-      <c r="I177" s="54"/>
-      <c r="J177" s="54"/>
-      <c r="K177" s="54"/>
-      <c r="L177" s="54"/>
-      <c r="M177" s="54"/>
-      <c r="N177" s="54"/>
-      <c r="O177" s="54"/>
+      <c r="I177" s="56"/>
+      <c r="J177" s="56"/>
+      <c r="K177" s="56"/>
+      <c r="L177" s="56"/>
+      <c r="M177" s="56"/>
+      <c r="N177" s="56"/>
+      <c r="O177" s="56"/>
     </row>
     <row r="178" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
@@ -4501,13 +4631,13 @@
       <c r="F178" s="57"/>
       <c r="G178" s="23"/>
       <c r="H178" s="56"/>
-      <c r="I178" s="54"/>
-      <c r="J178" s="54"/>
-      <c r="K178" s="54"/>
-      <c r="L178" s="54"/>
-      <c r="M178" s="54"/>
-      <c r="N178" s="54"/>
-      <c r="O178" s="54"/>
+      <c r="I178" s="56"/>
+      <c r="J178" s="56"/>
+      <c r="K178" s="56"/>
+      <c r="L178" s="56"/>
+      <c r="M178" s="56"/>
+      <c r="N178" s="56"/>
+      <c r="O178" s="56"/>
     </row>
     <row r="179" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
@@ -4520,13 +4650,13 @@
       <c r="F179" s="57"/>
       <c r="G179" s="23"/>
       <c r="H179" s="56"/>
-      <c r="I179" s="54"/>
-      <c r="J179" s="54"/>
-      <c r="K179" s="54"/>
-      <c r="L179" s="54"/>
-      <c r="M179" s="54"/>
-      <c r="N179" s="54"/>
-      <c r="O179" s="54"/>
+      <c r="I179" s="56"/>
+      <c r="J179" s="56"/>
+      <c r="K179" s="56"/>
+      <c r="L179" s="56"/>
+      <c r="M179" s="56"/>
+      <c r="N179" s="56"/>
+      <c r="O179" s="56"/>
     </row>
     <row r="180" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
@@ -4539,13 +4669,13 @@
       <c r="F180" s="57"/>
       <c r="G180" s="23"/>
       <c r="H180" s="56"/>
-      <c r="I180" s="54"/>
-      <c r="J180" s="54"/>
-      <c r="K180" s="54"/>
-      <c r="L180" s="54"/>
-      <c r="M180" s="54"/>
-      <c r="N180" s="54"/>
-      <c r="O180" s="54"/>
+      <c r="I180" s="56"/>
+      <c r="J180" s="56"/>
+      <c r="K180" s="56"/>
+      <c r="L180" s="56"/>
+      <c r="M180" s="56"/>
+      <c r="N180" s="56"/>
+      <c r="O180" s="56"/>
     </row>
     <row r="181" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
@@ -4558,13 +4688,13 @@
       <c r="F181" s="57"/>
       <c r="G181" s="23"/>
       <c r="H181" s="56"/>
-      <c r="I181" s="54"/>
-      <c r="J181" s="54"/>
-      <c r="K181" s="54"/>
-      <c r="L181" s="54"/>
-      <c r="M181" s="54"/>
-      <c r="N181" s="54"/>
-      <c r="O181" s="54"/>
+      <c r="I181" s="56"/>
+      <c r="J181" s="56"/>
+      <c r="K181" s="56"/>
+      <c r="L181" s="56"/>
+      <c r="M181" s="56"/>
+      <c r="N181" s="56"/>
+      <c r="O181" s="56"/>
     </row>
     <row r="182" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
@@ -4577,13 +4707,13 @@
       <c r="F182" s="57"/>
       <c r="G182" s="23"/>
       <c r="H182" s="56"/>
-      <c r="I182" s="54"/>
-      <c r="J182" s="54"/>
-      <c r="K182" s="54"/>
-      <c r="L182" s="54"/>
-      <c r="M182" s="54"/>
-      <c r="N182" s="54"/>
-      <c r="O182" s="54"/>
+      <c r="I182" s="56"/>
+      <c r="J182" s="56"/>
+      <c r="K182" s="56"/>
+      <c r="L182" s="56"/>
+      <c r="M182" s="56"/>
+      <c r="N182" s="56"/>
+      <c r="O182" s="56"/>
     </row>
     <row r="183" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
@@ -4596,13 +4726,13 @@
       <c r="F183" s="57"/>
       <c r="G183" s="23"/>
       <c r="H183" s="56"/>
-      <c r="I183" s="54"/>
-      <c r="J183" s="54"/>
-      <c r="K183" s="54"/>
-      <c r="L183" s="54"/>
-      <c r="M183" s="54"/>
-      <c r="N183" s="54"/>
-      <c r="O183" s="54"/>
+      <c r="I183" s="56"/>
+      <c r="J183" s="56"/>
+      <c r="K183" s="56"/>
+      <c r="L183" s="56"/>
+      <c r="M183" s="56"/>
+      <c r="N183" s="56"/>
+      <c r="O183" s="56"/>
     </row>
     <row r="184" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
@@ -4615,13 +4745,13 @@
       <c r="F184" s="57"/>
       <c r="G184" s="23"/>
       <c r="H184" s="56"/>
-      <c r="I184" s="54"/>
-      <c r="J184" s="54"/>
-      <c r="K184" s="54"/>
-      <c r="L184" s="54"/>
-      <c r="M184" s="54"/>
-      <c r="N184" s="54"/>
-      <c r="O184" s="54"/>
+      <c r="I184" s="56"/>
+      <c r="J184" s="56"/>
+      <c r="K184" s="56"/>
+      <c r="L184" s="56"/>
+      <c r="M184" s="56"/>
+      <c r="N184" s="56"/>
+      <c r="O184" s="56"/>
     </row>
     <row r="185" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
@@ -4634,13 +4764,13 @@
       <c r="F185" s="57"/>
       <c r="G185" s="23"/>
       <c r="H185" s="56"/>
-      <c r="I185" s="54"/>
-      <c r="J185" s="54"/>
-      <c r="K185" s="54"/>
-      <c r="L185" s="54"/>
-      <c r="M185" s="54"/>
-      <c r="N185" s="54"/>
-      <c r="O185" s="54"/>
+      <c r="I185" s="56"/>
+      <c r="J185" s="56"/>
+      <c r="K185" s="56"/>
+      <c r="L185" s="56"/>
+      <c r="M185" s="56"/>
+      <c r="N185" s="56"/>
+      <c r="O185" s="56"/>
     </row>
     <row r="186" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
@@ -4653,13 +4783,13 @@
       <c r="F186" s="57"/>
       <c r="G186" s="23"/>
       <c r="H186" s="56"/>
-      <c r="I186" s="54"/>
-      <c r="J186" s="54"/>
-      <c r="K186" s="54"/>
-      <c r="L186" s="54"/>
-      <c r="M186" s="54"/>
-      <c r="N186" s="54"/>
-      <c r="O186" s="54"/>
+      <c r="I186" s="56"/>
+      <c r="J186" s="56"/>
+      <c r="K186" s="56"/>
+      <c r="L186" s="56"/>
+      <c r="M186" s="56"/>
+      <c r="N186" s="56"/>
+      <c r="O186" s="56"/>
     </row>
     <row r="187" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
@@ -4672,13 +4802,13 @@
       <c r="F187" s="57"/>
       <c r="G187" s="23"/>
       <c r="H187" s="56"/>
-      <c r="I187" s="54"/>
-      <c r="J187" s="54"/>
-      <c r="K187" s="54"/>
-      <c r="L187" s="54"/>
-      <c r="M187" s="54"/>
-      <c r="N187" s="54"/>
-      <c r="O187" s="54"/>
+      <c r="I187" s="56"/>
+      <c r="J187" s="56"/>
+      <c r="K187" s="56"/>
+      <c r="L187" s="56"/>
+      <c r="M187" s="56"/>
+      <c r="N187" s="56"/>
+      <c r="O187" s="56"/>
     </row>
     <row r="188" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
@@ -4691,13 +4821,13 @@
       <c r="F188" s="57"/>
       <c r="G188" s="23"/>
       <c r="H188" s="56"/>
-      <c r="I188" s="54"/>
-      <c r="J188" s="54"/>
-      <c r="K188" s="54"/>
-      <c r="L188" s="54"/>
-      <c r="M188" s="54"/>
-      <c r="N188" s="54"/>
-      <c r="O188" s="54"/>
+      <c r="I188" s="56"/>
+      <c r="J188" s="56"/>
+      <c r="K188" s="56"/>
+      <c r="L188" s="56"/>
+      <c r="M188" s="56"/>
+      <c r="N188" s="56"/>
+      <c r="O188" s="56"/>
     </row>
     <row r="189" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
@@ -4710,13 +4840,13 @@
       <c r="F189" s="57"/>
       <c r="G189" s="23"/>
       <c r="H189" s="56"/>
-      <c r="I189" s="54"/>
-      <c r="J189" s="54"/>
-      <c r="K189" s="54"/>
-      <c r="L189" s="54"/>
-      <c r="M189" s="54"/>
-      <c r="N189" s="54"/>
-      <c r="O189" s="54"/>
+      <c r="I189" s="56"/>
+      <c r="J189" s="56"/>
+      <c r="K189" s="56"/>
+      <c r="L189" s="56"/>
+      <c r="M189" s="56"/>
+      <c r="N189" s="56"/>
+      <c r="O189" s="56"/>
     </row>
     <row r="190" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
@@ -4729,13 +4859,13 @@
       <c r="F190" s="57"/>
       <c r="G190" s="23"/>
       <c r="H190" s="56"/>
-      <c r="I190" s="54"/>
-      <c r="J190" s="54"/>
-      <c r="K190" s="54"/>
-      <c r="L190" s="54"/>
-      <c r="M190" s="54"/>
-      <c r="N190" s="54"/>
-      <c r="O190" s="54"/>
+      <c r="I190" s="56"/>
+      <c r="J190" s="56"/>
+      <c r="K190" s="56"/>
+      <c r="L190" s="56"/>
+      <c r="M190" s="56"/>
+      <c r="N190" s="56"/>
+      <c r="O190" s="56"/>
     </row>
     <row r="191" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
@@ -4748,13 +4878,13 @@
       <c r="F191" s="57"/>
       <c r="G191" s="23"/>
       <c r="H191" s="56"/>
-      <c r="I191" s="54"/>
-      <c r="J191" s="54"/>
-      <c r="K191" s="54"/>
-      <c r="L191" s="54"/>
-      <c r="M191" s="54"/>
-      <c r="N191" s="54"/>
-      <c r="O191" s="54"/>
+      <c r="I191" s="56"/>
+      <c r="J191" s="56"/>
+      <c r="K191" s="56"/>
+      <c r="L191" s="56"/>
+      <c r="M191" s="56"/>
+      <c r="N191" s="56"/>
+      <c r="O191" s="56"/>
     </row>
     <row r="192" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
@@ -4767,13 +4897,13 @@
       <c r="F192" s="57"/>
       <c r="G192" s="23"/>
       <c r="H192" s="56"/>
-      <c r="I192" s="54"/>
-      <c r="J192" s="54"/>
-      <c r="K192" s="54"/>
-      <c r="L192" s="54"/>
-      <c r="M192" s="54"/>
-      <c r="N192" s="54"/>
-      <c r="O192" s="54"/>
+      <c r="I192" s="56"/>
+      <c r="J192" s="56"/>
+      <c r="K192" s="56"/>
+      <c r="L192" s="56"/>
+      <c r="M192" s="56"/>
+      <c r="N192" s="56"/>
+      <c r="O192" s="56"/>
     </row>
     <row r="193" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
@@ -4786,13 +4916,13 @@
       <c r="F193" s="57"/>
       <c r="G193" s="23"/>
       <c r="H193" s="56"/>
-      <c r="I193" s="54"/>
-      <c r="J193" s="54"/>
-      <c r="K193" s="54"/>
-      <c r="L193" s="54"/>
-      <c r="M193" s="54"/>
-      <c r="N193" s="54"/>
-      <c r="O193" s="54"/>
+      <c r="I193" s="56"/>
+      <c r="J193" s="56"/>
+      <c r="K193" s="56"/>
+      <c r="L193" s="56"/>
+      <c r="M193" s="56"/>
+      <c r="N193" s="56"/>
+      <c r="O193" s="56"/>
     </row>
     <row r="194" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
@@ -4805,13 +4935,13 @@
       <c r="F194" s="57"/>
       <c r="G194" s="23"/>
       <c r="H194" s="56"/>
-      <c r="I194" s="54"/>
-      <c r="J194" s="54"/>
-      <c r="K194" s="54"/>
-      <c r="L194" s="54"/>
-      <c r="M194" s="54"/>
-      <c r="N194" s="54"/>
-      <c r="O194" s="54"/>
+      <c r="I194" s="56"/>
+      <c r="J194" s="56"/>
+      <c r="K194" s="56"/>
+      <c r="L194" s="56"/>
+      <c r="M194" s="56"/>
+      <c r="N194" s="56"/>
+      <c r="O194" s="56"/>
     </row>
     <row r="195" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
@@ -4824,13 +4954,13 @@
       <c r="F195" s="57"/>
       <c r="G195" s="23"/>
       <c r="H195" s="56"/>
-      <c r="I195" s="54"/>
-      <c r="J195" s="54"/>
-      <c r="K195" s="54"/>
-      <c r="L195" s="54"/>
-      <c r="M195" s="54"/>
-      <c r="N195" s="54"/>
-      <c r="O195" s="54"/>
+      <c r="I195" s="56"/>
+      <c r="J195" s="56"/>
+      <c r="K195" s="56"/>
+      <c r="L195" s="56"/>
+      <c r="M195" s="56"/>
+      <c r="N195" s="56"/>
+      <c r="O195" s="56"/>
     </row>
     <row r="196" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
@@ -4843,13 +4973,13 @@
       <c r="F196" s="57"/>
       <c r="G196" s="23"/>
       <c r="H196" s="56"/>
-      <c r="I196" s="54"/>
-      <c r="J196" s="54"/>
-      <c r="K196" s="54"/>
-      <c r="L196" s="54"/>
-      <c r="M196" s="54"/>
-      <c r="N196" s="54"/>
-      <c r="O196" s="54"/>
+      <c r="I196" s="56"/>
+      <c r="J196" s="56"/>
+      <c r="K196" s="56"/>
+      <c r="L196" s="56"/>
+      <c r="M196" s="56"/>
+      <c r="N196" s="56"/>
+      <c r="O196" s="56"/>
     </row>
     <row r="197" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
@@ -4862,13 +4992,13 @@
       <c r="F197" s="57"/>
       <c r="G197" s="23"/>
       <c r="H197" s="56"/>
-      <c r="I197" s="54"/>
-      <c r="J197" s="54"/>
-      <c r="K197" s="54"/>
-      <c r="L197" s="54"/>
-      <c r="M197" s="54"/>
-      <c r="N197" s="54"/>
-      <c r="O197" s="54"/>
+      <c r="I197" s="56"/>
+      <c r="J197" s="56"/>
+      <c r="K197" s="56"/>
+      <c r="L197" s="56"/>
+      <c r="M197" s="56"/>
+      <c r="N197" s="56"/>
+      <c r="O197" s="56"/>
     </row>
     <row r="198" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
@@ -4881,13 +5011,13 @@
       <c r="F198" s="57"/>
       <c r="G198" s="23"/>
       <c r="H198" s="56"/>
-      <c r="I198" s="54"/>
-      <c r="J198" s="54"/>
-      <c r="K198" s="54"/>
-      <c r="L198" s="54"/>
-      <c r="M198" s="54"/>
-      <c r="N198" s="54"/>
-      <c r="O198" s="54"/>
+      <c r="I198" s="56"/>
+      <c r="J198" s="56"/>
+      <c r="K198" s="56"/>
+      <c r="L198" s="56"/>
+      <c r="M198" s="56"/>
+      <c r="N198" s="56"/>
+      <c r="O198" s="56"/>
     </row>
     <row r="199" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
@@ -4900,13 +5030,13 @@
       <c r="F199" s="57"/>
       <c r="G199" s="23"/>
       <c r="H199" s="56"/>
-      <c r="I199" s="54"/>
-      <c r="J199" s="54"/>
-      <c r="K199" s="54"/>
-      <c r="L199" s="54"/>
-      <c r="M199" s="54"/>
-      <c r="N199" s="54"/>
-      <c r="O199" s="54"/>
+      <c r="I199" s="56"/>
+      <c r="J199" s="56"/>
+      <c r="K199" s="56"/>
+      <c r="L199" s="56"/>
+      <c r="M199" s="56"/>
+      <c r="N199" s="56"/>
+      <c r="O199" s="56"/>
     </row>
     <row r="200" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
@@ -4919,13 +5049,13 @@
       <c r="F200" s="57"/>
       <c r="G200" s="23"/>
       <c r="H200" s="56"/>
-      <c r="I200" s="54"/>
-      <c r="J200" s="54"/>
-      <c r="K200" s="54"/>
-      <c r="L200" s="54"/>
-      <c r="M200" s="54"/>
-      <c r="N200" s="54"/>
-      <c r="O200" s="54"/>
+      <c r="I200" s="56"/>
+      <c r="J200" s="56"/>
+      <c r="K200" s="56"/>
+      <c r="L200" s="56"/>
+      <c r="M200" s="56"/>
+      <c r="N200" s="56"/>
+      <c r="O200" s="56"/>
     </row>
     <row r="201" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
@@ -4938,13 +5068,13 @@
       <c r="F201" s="57"/>
       <c r="G201" s="23"/>
       <c r="H201" s="56"/>
-      <c r="I201" s="54"/>
-      <c r="J201" s="54"/>
-      <c r="K201" s="54"/>
-      <c r="L201" s="54"/>
-      <c r="M201" s="54"/>
-      <c r="N201" s="54"/>
-      <c r="O201" s="54"/>
+      <c r="I201" s="56"/>
+      <c r="J201" s="56"/>
+      <c r="K201" s="56"/>
+      <c r="L201" s="56"/>
+      <c r="M201" s="56"/>
+      <c r="N201" s="56"/>
+      <c r="O201" s="56"/>
     </row>
     <row r="202" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
@@ -4957,13 +5087,13 @@
       <c r="F202" s="57"/>
       <c r="G202" s="23"/>
       <c r="H202" s="56"/>
-      <c r="I202" s="54"/>
-      <c r="J202" s="54"/>
-      <c r="K202" s="54"/>
-      <c r="L202" s="54"/>
-      <c r="M202" s="54"/>
-      <c r="N202" s="54"/>
-      <c r="O202" s="54"/>
+      <c r="I202" s="56"/>
+      <c r="J202" s="56"/>
+      <c r="K202" s="56"/>
+      <c r="L202" s="56"/>
+      <c r="M202" s="56"/>
+      <c r="N202" s="56"/>
+      <c r="O202" s="56"/>
     </row>
     <row r="203" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
@@ -4976,13 +5106,13 @@
       <c r="F203" s="57"/>
       <c r="G203" s="23"/>
       <c r="H203" s="56"/>
-      <c r="I203" s="54"/>
-      <c r="J203" s="54"/>
-      <c r="K203" s="54"/>
-      <c r="L203" s="54"/>
-      <c r="M203" s="54"/>
-      <c r="N203" s="54"/>
-      <c r="O203" s="54"/>
+      <c r="I203" s="56"/>
+      <c r="J203" s="56"/>
+      <c r="K203" s="56"/>
+      <c r="L203" s="56"/>
+      <c r="M203" s="56"/>
+      <c r="N203" s="56"/>
+      <c r="O203" s="56"/>
     </row>
     <row r="204" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="2"/>
@@ -16853,133 +16983,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F778330C-B888-4E1F-9D51-6576E83C0DAD}">
-  <dimension ref="A1:O19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:15" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>84</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:O1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:J999"/>
